--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="742">
   <si>
     <t>สาขาสี่พระยา</t>
   </si>
@@ -134,12 +134,6 @@
     <t>lat</t>
   </si>
   <si>
-    <t>city1</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -155,79 +149,2108 @@
     <t>1</t>
   </si>
   <si>
-    <t>24 ชั่วโมง</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>25 ชั่วโมง</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>26 ชั่วโมง</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>27 ชั่วโมง</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>28 ชั่วโมง</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>29 ชั่วโมง</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>30 ชั่วโมง</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>31 ชั่วโมง</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>32 ชั่วโมง</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>33 ชั่วโมง</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>34 ชั่วโมง</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>35 ชั่วโมง</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>36 ชั่วโมง</t>
+    <t>บางรัก</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>02 235 2886</t>
+  </si>
+  <si>
+    <t>8:30-15:30 น.</t>
+  </si>
+  <si>
+    <t>พระนคร</t>
+  </si>
+  <si>
+    <t>02 222 0176</t>
+  </si>
+  <si>
+    <t>8:30-17:00 น.</t>
+  </si>
+  <si>
+    <t>สัมพันธวงศ์</t>
+  </si>
+  <si>
+    <t>02 225 6254</t>
+  </si>
+  <si>
+    <t>ปทุมวัน</t>
+  </si>
+  <si>
+    <t>02 252 6292</t>
+  </si>
+  <si>
+    <t>11:00-18:00 น.</t>
+  </si>
+  <si>
+    <t>02 214 1292</t>
+  </si>
+  <si>
+    <t>เมือง</t>
+  </si>
+  <si>
+    <t>038 273601</t>
+  </si>
+  <si>
+    <t>044 268873</t>
+  </si>
+  <si>
+    <t>075 356860</t>
+  </si>
+  <si>
+    <t>หาดใหญ่</t>
+  </si>
+  <si>
+    <t>074 235605</t>
+  </si>
+  <si>
+    <t>073 212218</t>
+  </si>
+  <si>
+    <t>9:00-15:00 น.</t>
+  </si>
+  <si>
+    <t>บ้านบึง</t>
+  </si>
+  <si>
+    <t>038 750979</t>
+  </si>
+  <si>
+    <t>บางละมุง</t>
+  </si>
+  <si>
+    <t>038 427748</t>
+  </si>
+  <si>
+    <t>10:30-17:30 น.</t>
+  </si>
+  <si>
+    <t>053 270029</t>
+  </si>
+  <si>
+    <t>9:00-16:00 น.</t>
+  </si>
+  <si>
+    <t>สาขาฉะเชิงเทรา</t>
+  </si>
+  <si>
+    <t>ฉะเชิงเทรา</t>
+  </si>
+  <si>
+    <t>94/3 ถนนชุมพล</t>
+  </si>
+  <si>
+    <t>038 511621</t>
+  </si>
+  <si>
+    <t>สาขาภูเก็ต</t>
+  </si>
+  <si>
+    <t>ภูเก็ต</t>
+  </si>
+  <si>
+    <t>206 ถนนภูเก็ต</t>
+  </si>
+  <si>
+    <t>076 211566</t>
+  </si>
+  <si>
+    <t>สาขาอุบลราชธานี</t>
+  </si>
+  <si>
+    <t>อุบลราชธานี</t>
+  </si>
+  <si>
+    <t>177 ถนนอุปราช ในเมือง</t>
+  </si>
+  <si>
+    <t>045 243830</t>
+  </si>
+  <si>
+    <t>สาขาขอนแก่น</t>
+  </si>
+  <si>
+    <t>ขอนแก่น</t>
+  </si>
+  <si>
+    <t>34 34/1-2 ถนนหน้าเมือง</t>
+  </si>
+  <si>
+    <t>043 237620</t>
+  </si>
+  <si>
+    <t>สาขาโบ๊เบ๊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1086/18 ชั้น 1 และ 1086/19 ชั้น 4 ถนนกรุงเกษม คลองมหานาค </t>
+  </si>
+  <si>
+    <t>ป้อมปราบศัตรูพ่าย</t>
+  </si>
+  <si>
+    <t>02 282 3694</t>
+  </si>
+  <si>
+    <t>8:30-17:30 น.</t>
+  </si>
+  <si>
+    <t>สาขานนทบุรี</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>32/16-19 ถนนประชาราษฏร์ ตลาดขวัญ</t>
+  </si>
+  <si>
+    <t>02 525 1771</t>
+  </si>
+  <si>
+    <t>สาขาบางรัก</t>
+  </si>
+  <si>
+    <t>1249/19 1249/50 1249/59 อาคารเจมส์ทาวเวอร์ ถนนเจริญกรุง</t>
+  </si>
+  <si>
+    <t>02 237 5050</t>
+  </si>
+  <si>
+    <t>สาขาสำโรง</t>
+  </si>
+  <si>
+    <t>สมุทรปราการ</t>
+  </si>
+  <si>
+    <t>999/99 หมู่ 1 ถนนสุขุมวิท</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02 384 7656 </t>
+  </si>
+  <si>
+    <t>สาขาพิษณุโลก</t>
+  </si>
+  <si>
+    <t>พิษณุโลก</t>
+  </si>
+  <si>
+    <t>691/3-6 ถนนมิตรภาพ</t>
+  </si>
+  <si>
+    <t>055 225153</t>
+  </si>
+  <si>
+    <t>สาขาอนุสาวรีย์ชัยสมรภูมิ</t>
+  </si>
+  <si>
+    <t>911/1-3 ถนนพหลโยธิน</t>
+  </si>
+  <si>
+    <t>พญาไท</t>
+  </si>
+  <si>
+    <t>02 271 0089</t>
+  </si>
+  <si>
+    <t>สาขาสระบุรี</t>
+  </si>
+  <si>
+    <t>สระบุรี</t>
+  </si>
+  <si>
+    <t>427 ถนนพหลโยธิน</t>
+  </si>
+  <si>
+    <t>036 212137</t>
+  </si>
+  <si>
+    <t>สาขาสุขสวัสดิ์</t>
+  </si>
+  <si>
+    <t>393 395 397 ถนนสุขสวัสดิ์ บางปะกอก</t>
+  </si>
+  <si>
+    <t>ราษฎร์บูรณะ</t>
+  </si>
+  <si>
+    <t>02 477 2409</t>
+  </si>
+  <si>
+    <t>สาขาลาดพร้าว</t>
+  </si>
+  <si>
+    <t>1558 ถนนลาดพร้าว</t>
+  </si>
+  <si>
+    <t>วังทองหลาง</t>
+  </si>
+  <si>
+    <t>02 514 2709</t>
+  </si>
+  <si>
+    <t>สาขาสุรินทร์</t>
+  </si>
+  <si>
+    <t>สุรินทร์</t>
+  </si>
+  <si>
+    <t>79 81 83 ถนนจิตรบำรุง</t>
+  </si>
+  <si>
+    <t>044 538384</t>
+  </si>
+  <si>
+    <t>สาขาลำปาง</t>
+  </si>
+  <si>
+    <t>ลำปาง</t>
+  </si>
+  <si>
+    <t>255 ถนนบุญวาทย์</t>
+  </si>
+  <si>
+    <t>054 218383</t>
+  </si>
+  <si>
+    <t>สาขานครสวรรค์</t>
+  </si>
+  <si>
+    <t>นครสวรรค์</t>
+  </si>
+  <si>
+    <t>532-534 ถนนโกสีย์</t>
+  </si>
+  <si>
+    <t>056 214109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00-16:00 น. </t>
+  </si>
+  <si>
+    <t>สาขาสุขุมวิท 25</t>
+  </si>
+  <si>
+    <t>1 อาคารกลาสเฮ้าส์ ซอยสุขุมวิท 25 ถนนสุขุมวิท คลองเตยเหนือ</t>
+  </si>
+  <si>
+    <t>วัฒนา</t>
+  </si>
+  <si>
+    <t>02 258 9330</t>
+  </si>
+  <si>
+    <t>สาขาอุดรธานี</t>
+  </si>
+  <si>
+    <t>อุดรธานี</t>
+  </si>
+  <si>
+    <t>359 ถนนโพธิ์ศรี</t>
+  </si>
+  <si>
+    <t>042 221333</t>
+  </si>
+  <si>
+    <t>สาขาจันทบุรี</t>
+  </si>
+  <si>
+    <t>จันทบุรี</t>
+  </si>
+  <si>
+    <t>82/9 ถนนท่าแฉลบ</t>
+  </si>
+  <si>
+    <t>039 312822</t>
+  </si>
+  <si>
+    <t>สาขาสามแยก</t>
+  </si>
+  <si>
+    <t>601 ถนนเจริญกรุง</t>
+  </si>
+  <si>
+    <t>02 222 5111</t>
+  </si>
+  <si>
+    <t>สำนักสาทร</t>
+  </si>
+  <si>
+    <t>191 ถนนสาทรใต้</t>
+  </si>
+  <si>
+    <t>สาทร</t>
+  </si>
+  <si>
+    <t>02 343 3000</t>
+  </si>
+  <si>
+    <t>สาขาพระปิ่นเกล้า</t>
+  </si>
+  <si>
+    <t>30 ถนนจรัญสนิทวงศ์</t>
+  </si>
+  <si>
+    <t>บางพลัด</t>
+  </si>
+  <si>
+    <t>02 434 7110</t>
+  </si>
+  <si>
+    <t>สาขาระยอง</t>
+  </si>
+  <si>
+    <t>ระยอง</t>
+  </si>
+  <si>
+    <t>144/39-41 ถนนสุขุมวิท</t>
+  </si>
+  <si>
+    <t>038 614730</t>
+  </si>
+  <si>
+    <t>สาขาคลองเตย</t>
+  </si>
+  <si>
+    <t>1472 1474ศูนย์การค้าพระราม 4ถนนพระราม 4</t>
+  </si>
+  <si>
+    <t>คลองเตย</t>
+  </si>
+  <si>
+    <t>02 249 0886</t>
+  </si>
+  <si>
+    <t>สาขาหัวหมาก</t>
+  </si>
+  <si>
+    <t>5 7 9 ซอยรามคำแหง 19/1 ถนนรามคำแหง หัวหมาก</t>
+  </si>
+  <si>
+    <t>บางกะปิ</t>
+  </si>
+  <si>
+    <t>02 318 8561</t>
+  </si>
+  <si>
+    <t>สาขาถนนเยาวราช</t>
+  </si>
+  <si>
+    <t>422 424 ถนนเยาวราช</t>
+  </si>
+  <si>
+    <t>02 226 2930</t>
+  </si>
+  <si>
+    <t>สาขาวงเวียนโอเดียน</t>
+  </si>
+  <si>
+    <t>772 774 ถนนเจริญกรุง</t>
+  </si>
+  <si>
+    <t>02 238 2540</t>
+  </si>
+  <si>
+    <t>สาขาแจ้งวัฒนะ</t>
+  </si>
+  <si>
+    <t>99/349 หมู่ 2 อาคาร ณ นคร ถนนแจ้งวัฒนะ</t>
+  </si>
+  <si>
+    <t>ดอนเมือง</t>
+  </si>
+  <si>
+    <t>02 576 1057</t>
+  </si>
+  <si>
+    <t>สาขาสุราษฎร์ธานี</t>
+  </si>
+  <si>
+    <t>สุราษฎร์ธานี</t>
+  </si>
+  <si>
+    <t>208/2-3 ถนนชนเกษม ตลาด</t>
+  </si>
+  <si>
+    <t>077 286292</t>
+  </si>
+  <si>
+    <t>สาขาซีคอน บางแค</t>
+  </si>
+  <si>
+    <t xml:space="preserve">607 ศูนย์การค้าซีคอน บางแค  ถนนเพชรเกษม </t>
+  </si>
+  <si>
+    <t>บางหว้า ภาษีเจริญ</t>
+  </si>
+  <si>
+    <t>02 454 8792</t>
+  </si>
+  <si>
+    <t>10:30-19:30 น.</t>
+  </si>
+  <si>
+    <t>สาขาเชียงราย</t>
+  </si>
+  <si>
+    <t>เชียงราย</t>
+  </si>
+  <si>
+    <t>643/5 หมู่ 3 ถนนอุตรกิจ</t>
+  </si>
+  <si>
+    <t>053 716786</t>
+  </si>
+  <si>
+    <t>สาขาอ่อนนุช</t>
+  </si>
+  <si>
+    <t>1468 1470 หมู่ 6 ถนนอ่อนนุช</t>
+  </si>
+  <si>
+    <t>สวนหลวง</t>
+  </si>
+  <si>
+    <t>02 332 3134</t>
+  </si>
+  <si>
+    <t>สาขาตลาดสี่มุมเมือง</t>
+  </si>
+  <si>
+    <t>ปทุมธานี</t>
+  </si>
+  <si>
+    <t>355/33-35 หมู่ 8 ถนนพหลโยธิน</t>
+  </si>
+  <si>
+    <t>ลำลูกกา</t>
+  </si>
+  <si>
+    <t>02 536 7854</t>
+  </si>
+  <si>
+    <t>สาขาเดอะมอลล์ บางกะปิ</t>
+  </si>
+  <si>
+    <t>3522 เดอะมอลล์ บางกะปิ ชั้น 3 ถนนลาดพร้าว คลองจั่น</t>
+  </si>
+  <si>
+    <t>02 363 3570</t>
+  </si>
+  <si>
+    <t>สาขาบางนา ก.ม.2</t>
+  </si>
+  <si>
+    <t>21/235-236 หมู่ 12 ถนนบางนา-ตราด</t>
+  </si>
+  <si>
+    <t>บางนา</t>
+  </si>
+  <si>
+    <t>02 396 1931</t>
+  </si>
+  <si>
+    <t>สาขาซอยอยู่ดี</t>
+  </si>
+  <si>
+    <t>597/113-114 ซอยอยู่ดี ถนนจันทน์</t>
+  </si>
+  <si>
+    <t>บางคอแหลม</t>
+  </si>
+  <si>
+    <t>02 292 1627</t>
+  </si>
+  <si>
+    <t>สาขาซิตี้คอมเพล็กซ์</t>
+  </si>
+  <si>
+    <t>831 อาคารซิตี้คอมเพล็กซ์ ถนนเพชรบุรี</t>
+  </si>
+  <si>
+    <t>ราชเทวี</t>
+  </si>
+  <si>
+    <t>02 255 0746</t>
+  </si>
+  <si>
+    <t>สาขาสยามสแควร์</t>
+  </si>
+  <si>
+    <t>410-410/1 สยามสแควร์ซอย 6 ถนนพระราม 1</t>
+  </si>
+  <si>
+    <t>02 251 3343</t>
+  </si>
+  <si>
+    <t>10:00-19:00 น.</t>
+  </si>
+  <si>
+    <t>สาขาถนนวรจักร</t>
+  </si>
+  <si>
+    <t>94-96 ถนนวรจักร</t>
+  </si>
+  <si>
+    <t>02 225 9085</t>
+  </si>
+  <si>
+    <t>สาขาสีลมคอมเพล็กซ์</t>
+  </si>
+  <si>
+    <t>191 อาคารสีลมคอมเพล็กซ์ ชั้น 4 ถนนสีลม</t>
+  </si>
+  <si>
+    <t>02 231 3139</t>
+  </si>
+  <si>
+    <t>สาขานครปฐม</t>
+  </si>
+  <si>
+    <t>นครปฐม</t>
+  </si>
+  <si>
+    <t>63-65 ถนนราชวิถี</t>
+  </si>
+  <si>
+    <t>034 251184</t>
+  </si>
+  <si>
+    <t>สาขาพหลโยธิน กม. 26</t>
+  </si>
+  <si>
+    <t>1/737 หมู่ 17 ซอยอัมพร ถนนพหลโยธิน กม.26</t>
+  </si>
+  <si>
+    <t>02 532 3645</t>
+  </si>
+  <si>
+    <t>สาขาหาดป่าตอง</t>
+  </si>
+  <si>
+    <t>9/33 ถนนผังเมือง สาย ก ตำบลป่าตอง</t>
+  </si>
+  <si>
+    <t>กะทู้</t>
+  </si>
+  <si>
+    <t>076 510735</t>
+  </si>
+  <si>
+    <t>9:30-16:30 น.</t>
+  </si>
+  <si>
+    <t>สาขาพัทยา</t>
+  </si>
+  <si>
+    <t>325/115-116 หมู่ 10 ถนนพัทยาสาย 2</t>
+  </si>
+  <si>
+    <t>038 429464</t>
+  </si>
+  <si>
+    <t>10:00-18:00 น.</t>
+  </si>
+  <si>
+    <t>สาขาเดอะมอลล์ งามวงศ์วาน</t>
+  </si>
+  <si>
+    <t>ศูนย์การค้าเดอะมอลล์ งามวงศ์วาน เลขที่ห้อง 521 ชั้น 5 ถนนงามวงศ์วาน บางเขน</t>
+  </si>
+  <si>
+    <t>02 550 1134</t>
+  </si>
+  <si>
+    <t>สาขาบ้านฉาง</t>
+  </si>
+  <si>
+    <t>51/12 หมู่ 5 ถนนสุขุมวิท</t>
+  </si>
+  <si>
+    <t>บ้านฉาง</t>
+  </si>
+  <si>
+    <t>038 603121</t>
+  </si>
+  <si>
+    <t>สาขาถนนพหลโยธิน 8</t>
+  </si>
+  <si>
+    <t>414 ชั้น G อาคารชินวัตรทาวเวอร์ 1 ถนนพหลโยธิน</t>
+  </si>
+  <si>
+    <t>02 616 9760</t>
+  </si>
+  <si>
+    <t>สาขาสมุทรสาคร</t>
+  </si>
+  <si>
+    <t>สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>927/403 ถนนเศรษฐกิจ 1</t>
+  </si>
+  <si>
+    <t>034 810514</t>
+  </si>
+  <si>
+    <t>สาขาหนองแขม</t>
+  </si>
+  <si>
+    <t>77/207 หมู่ 2 ถนนเพชรเกษม หนองค้างพลู</t>
+  </si>
+  <si>
+    <t>หนองแขม</t>
+  </si>
+  <si>
+    <t>02 420 7941</t>
+  </si>
+  <si>
+    <t>สาขาศรีราชา</t>
+  </si>
+  <si>
+    <t>135/18-19 ถนนสุขุมวิท ศรีราชา</t>
+  </si>
+  <si>
+    <t>ศรีราชา</t>
+  </si>
+  <si>
+    <t>038 324500</t>
+  </si>
+  <si>
+    <t>สาขารัชดา-สาธุประดิษฐ์</t>
+  </si>
+  <si>
+    <t>127/1 อาคารปัญจธานี ทาวเวอร์ ถนนนนทรี</t>
+  </si>
+  <si>
+    <t>ยานนาวา</t>
+  </si>
+  <si>
+    <t>02 681 1111</t>
+  </si>
+  <si>
+    <t>สาขาถนนวิทยุ</t>
+  </si>
+  <si>
+    <t>87/2 ห้องที่ 121 ชั้น G อาคารซีอาร์ซี ทาวเวอร์ ถนนวิทยุ ลุมพินี</t>
+  </si>
+  <si>
+    <t>02 255 5392</t>
+  </si>
+  <si>
+    <t>9:00-17:30 น.</t>
+  </si>
+  <si>
+    <t>สาขาพระนครศรีอยุธยา</t>
+  </si>
+  <si>
+    <t>อยุธยา</t>
+  </si>
+  <si>
+    <t>255 หมู่ 5 ถนนโรจนะ</t>
+  </si>
+  <si>
+    <t>พระนครศรีอยุธยา</t>
+  </si>
+  <si>
+    <t>035 246116</t>
+  </si>
+  <si>
+    <t>สาขาบางบอน</t>
+  </si>
+  <si>
+    <t>289 291 293 และ 295 ถนนเอกชัย-บางบอน</t>
+  </si>
+  <si>
+    <t>บางบอน</t>
+  </si>
+  <si>
+    <t>02 898 0423</t>
+  </si>
+  <si>
+    <t>สาขาอาคารไทยวา</t>
+  </si>
+  <si>
+    <t>21/63-66 อาคารไทยวาทาวเวอร์ 1 ถนนสาทรใต้</t>
+  </si>
+  <si>
+    <t>02 285 0092</t>
+  </si>
+  <si>
+    <t>สาขาสุขุมวิท 4</t>
+  </si>
+  <si>
+    <t>142 อาคารทูแปซิฟิกเพลส ถนนสุขุมวิท</t>
+  </si>
+  <si>
+    <t>02 653 2178</t>
+  </si>
+  <si>
+    <t>สาขารัชดา-ห้วยขวาง</t>
+  </si>
+  <si>
+    <t>167/8 ถนนรัชดาภิเษก</t>
+  </si>
+  <si>
+    <t>ดินแดง</t>
+  </si>
+  <si>
+    <t>02 276 9408</t>
+  </si>
+  <si>
+    <t>สาขาถนนศรีวรา</t>
+  </si>
+  <si>
+    <t>314 ซอยลาดพร้าว 94 (ปัญจมิตร) ถนนศรีวรา</t>
+  </si>
+  <si>
+    <t>02 559 3600</t>
+  </si>
+  <si>
+    <t>สาขาพหลโยธิน ซอย 19</t>
+  </si>
+  <si>
+    <t>555 อาคารรสาทาวเวอร์ ถนนพหลโยธิน</t>
+  </si>
+  <si>
+    <t>จตุจักร</t>
+  </si>
+  <si>
+    <t>02 937 0300</t>
+  </si>
+  <si>
+    <t>สาขาซอยเซ็นต์หลุยส์ 3</t>
+  </si>
+  <si>
+    <t>31 ซอยจันทน์ 18/7 (เซ็นต์หลุยส์ 3) ทุ่งวัดดอน</t>
+  </si>
+  <si>
+    <t>02 212 7024</t>
+  </si>
+  <si>
+    <t>สาขาแฟชั่นไอส์แลนด์</t>
+  </si>
+  <si>
+    <t>587 589 ห้างสรรพสินค้าแฟชั่นไอส์แลนด์ ถนนรามอินทรา</t>
+  </si>
+  <si>
+    <t>คันนายาว</t>
+  </si>
+  <si>
+    <t>02 947 5307</t>
+  </si>
+  <si>
+    <t>สาขาทองหล่อ</t>
+  </si>
+  <si>
+    <t>283/15-17 283/65 ซอยทองหล่อ 13 ถนนสุขุมวิท 55 คลองตันเหนือ</t>
+  </si>
+  <si>
+    <t>02 712 7150</t>
+  </si>
+  <si>
+    <t>สาขารังสิต</t>
+  </si>
+  <si>
+    <t>94 หมู่ 2 อาคารฟิวเจอร์พาร์ครังสิต</t>
+  </si>
+  <si>
+    <t>ธัญบุรี</t>
+  </si>
+  <si>
+    <t>02 958 0562</t>
+  </si>
+  <si>
+    <t>สาขาซันทาวเวอร์ส</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123 อาคารซันทาวเวอร์ส อาคารA ห้องเลขที่ A102  ชั้น 1 ถนนวิภาวดีรังสิต จอมพล </t>
+  </si>
+  <si>
+    <t>02 273 8120</t>
+  </si>
+  <si>
+    <t>สาขาถนนพระราม 9</t>
+  </si>
+  <si>
+    <t>100/1 ชั้น G อาคารวรสมบัติ ถนนพระราม 9</t>
+  </si>
+  <si>
+    <t>ห้วยขวาง</t>
+  </si>
+  <si>
+    <t>02 645 0683</t>
+  </si>
+  <si>
+    <t>สาขาถนนไฮเวย์-เชียงใหม่</t>
+  </si>
+  <si>
+    <t>1/99 ถนนเชียงใหม่-ลำปาง หนองป่าครั่ง</t>
+  </si>
+  <si>
+    <t>053 304701</t>
+  </si>
+  <si>
+    <t>สาขาเดอะฟิล สุขุมวิท 54</t>
+  </si>
+  <si>
+    <t>1770 ชั้น G ห้องเลขที่ G05 ถนนสุขุมวิท บางจาก</t>
+  </si>
+  <si>
+    <t>พระโขนง</t>
+  </si>
+  <si>
+    <t>0 2331 3582</t>
+  </si>
+  <si>
+    <t>สาขาถนนประชาอุทิศ</t>
+  </si>
+  <si>
+    <t>147/1-4 หมู่ 8 ถนนประชาอุทิศ</t>
+  </si>
+  <si>
+    <t>02 873 1457</t>
+  </si>
+  <si>
+    <t>สาขาพาราไดซ์ พาร์ค</t>
+  </si>
+  <si>
+    <t>2C004 ชั้น 2 อาคารพาราไดซ์ พาร์ค ถนนศรีนครินทร์</t>
+  </si>
+  <si>
+    <t>ประเวศ</t>
+  </si>
+  <si>
+    <t>02 746 0816</t>
+  </si>
+  <si>
+    <t>สาขาวัน โอ วัน เดอะเทิร์ดเพลส</t>
+  </si>
+  <si>
+    <t>101  ชั้น 3 ถนนสุขุมวิท แขวงบางจาก</t>
+  </si>
+  <si>
+    <t>02 093 2201</t>
+  </si>
+  <si>
+    <t>สาขานครราชสีมา 2</t>
+  </si>
+  <si>
+    <t>545 ถนนมิตรภาพ</t>
+  </si>
+  <si>
+    <t>044 263487</t>
+  </si>
+  <si>
+    <t>9:00-18:00 น.</t>
+  </si>
+  <si>
+    <t>สาขาชลบุรี 2</t>
+  </si>
+  <si>
+    <t>116/110 หมู่ 3 ถนนสุขุมวิท</t>
+  </si>
+  <si>
+    <t>038 797457</t>
+  </si>
+  <si>
+    <t>สาขาสาทร 2</t>
+  </si>
+  <si>
+    <t>179/3 อาคารบางกอกซิตี้ทาวเวอร์ ถนนสาทรใต้</t>
+  </si>
+  <si>
+    <t>02 679 5700</t>
+  </si>
+  <si>
+    <t>สาขาราชบุรี</t>
+  </si>
+  <si>
+    <t>ราชบุรี</t>
+  </si>
+  <si>
+    <t>11 ถนนคฑาธร หน้าเมือง</t>
+  </si>
+  <si>
+    <t>032 310321</t>
+  </si>
+  <si>
+    <t>สาขาเซ็นทรัลเวิลด์</t>
+  </si>
+  <si>
+    <t>เลขที่ 4&amp;#44;4/1-4/2&amp;#44; 4/4 ห้องเลขที่ A409 ชั้น 4 เซ็นทรัลเวิลด์ ถนนราชดำริ</t>
+  </si>
+  <si>
+    <t>02 2529681</t>
+  </si>
+  <si>
+    <t>11:00-19:00 น.</t>
+  </si>
+  <si>
+    <t>สาขาถนนพระราม 6</t>
+  </si>
+  <si>
+    <t>118/1 อาคารทิปโก้ทาวเวอร์ ถนนพระราม 6</t>
+  </si>
+  <si>
+    <t>02 357 3460</t>
+  </si>
+  <si>
+    <t>สาขาเซ็นทรัล บางนา</t>
+  </si>
+  <si>
+    <t>587 ห้อง 415 ชั้น 4 ถนนบางนา - ตราด</t>
+  </si>
+  <si>
+    <t>02 361 7851</t>
+  </si>
+  <si>
+    <t>สาขาเซ็นทรัลแกรนด์ พระราม 9</t>
+  </si>
+  <si>
+    <t>ศูนย์การค้าเซ็นทรัลพลาซา แกรนด์ พระราม 9 เลขที่ 9/8 9/9 ห้อง 508-2 ชั้น 5 ถนนพระราม 9</t>
+  </si>
+  <si>
+    <t>02 160 3851</t>
+  </si>
+  <si>
+    <t>สาขาอีสเทิร์นซีบอร์ด</t>
+  </si>
+  <si>
+    <t>24/1 หมู่ 4 นิคมอุตสาหกรรมอีสเทิร์นซีบอร์ด</t>
+  </si>
+  <si>
+    <t>ปลวกแดง</t>
+  </si>
+  <si>
+    <t>038 955284</t>
+  </si>
+  <si>
+    <t>สาขาเซ็นทรัล ปิ่นเกล้า</t>
+  </si>
+  <si>
+    <t>7/222 ห้องเลขที่ 407 ชั้น 4 ห้างสรรพสินค้าเซ็นทรัลพลาซ่า ปิ่นเกล้า ถนนบรมราชชนนี อรุณอมรินทร์</t>
+  </si>
+  <si>
+    <t>บางกอกน้อย</t>
+  </si>
+  <si>
+    <t>02 884 8030</t>
+  </si>
+  <si>
+    <t>สาขาเซ็นทรัลเฟสติวัล ภูเก็ต</t>
+  </si>
+  <si>
+    <t>74-75 ชั้น 4 ห้างสรรพสินค้าเซ็นทรัลเฟสติวัลภูเก็ต หมู่ที่ 5 ต.วิชิตสงคราม</t>
+  </si>
+  <si>
+    <t>076 210526</t>
+  </si>
+  <si>
+    <t>สาขาโรบินสัน ศรีราชา</t>
+  </si>
+  <si>
+    <t>90/1 ห้องเลขที่ 1F-B-13 ชั้น G ห้างสรรพสินค้าโรบินสัน ศรีราชา</t>
+  </si>
+  <si>
+    <t>038 328458</t>
+  </si>
+  <si>
+    <t>สาขาเซ็นทรัลพลาซา รามอินทรา</t>
+  </si>
+  <si>
+    <t>109/10 ห้องเลขที่ 314 ชั้น 3 ห้างสรรพสินค้าเซ็นทรัลพลาซา รามอินทรา ถนนรามอินทรา อนุสาวรีย์</t>
+  </si>
+  <si>
+    <t>บางเขน</t>
+  </si>
+  <si>
+    <t>02 522 6646</t>
+  </si>
+  <si>
+    <t>สาขาเซ็นทรัล พระราม 2</t>
+  </si>
+  <si>
+    <t>128 หมู่ 6 ห้องที่ 159 ชั้น1 ห้างสรรพสินค้าเซ็นทรัลพลาซ่า พระราม 2 ถนนพระราม 2 แสมดำ</t>
+  </si>
+  <si>
+    <t>บางขุนเทียน</t>
+  </si>
+  <si>
+    <t>02 415 1648</t>
+  </si>
+  <si>
+    <t>สาขากาญจนบุรี</t>
+  </si>
+  <si>
+    <t>กาญจนบุรี</t>
+  </si>
+  <si>
+    <t>160/39-40 ถนนแสงชูโต บ้านหนือ</t>
+  </si>
+  <si>
+    <t>034 521621</t>
+  </si>
+  <si>
+    <t>สาขาสมุทรสงคราม</t>
+  </si>
+  <si>
+    <t>สมุทรสงคราม</t>
+  </si>
+  <si>
+    <t>125/28 ถนนทางเข้าเมือง</t>
+  </si>
+  <si>
+    <t>034 718111</t>
+  </si>
+  <si>
+    <t>สาขาร้อยเอ็ด</t>
+  </si>
+  <si>
+    <t>ร้อยเอ็ด</t>
+  </si>
+  <si>
+    <t>226/2 ถนนรณชัยชาญยุทธ ในเมือง</t>
+  </si>
+  <si>
+    <t>043 515850</t>
+  </si>
+  <si>
+    <t>สาขาตรัง</t>
+  </si>
+  <si>
+    <t>ตรัง</t>
+  </si>
+  <si>
+    <t>1/5-6 ถนนพระราม 6 ทับเที่ยง</t>
+  </si>
+  <si>
+    <t>075 217782</t>
+  </si>
+  <si>
+    <t>สาขาสกลนคร</t>
+  </si>
+  <si>
+    <t>สกลนคร</t>
+  </si>
+  <si>
+    <t>1551/9-10 ถนนสุขเกษม</t>
+  </si>
+  <si>
+    <t>042 716350</t>
+  </si>
+  <si>
+    <t>สาขามีนบุรี</t>
+  </si>
+  <si>
+    <t>599/1 อาคารศูนย์การค้านวมินทร์ พลาซ่า ชั้น G ม.13 ถนนสีหบุรานุกิจ</t>
+  </si>
+  <si>
+    <t>มีนบุรี</t>
+  </si>
+  <si>
+    <t>02 518 0815</t>
+  </si>
+  <si>
+    <t>สาขาบิ๊กซี อ้อมใหญ่</t>
+  </si>
+  <si>
+    <t>ศูนย์การค้าบิ๊กซี อ้อมใหญ่ เลขที่ 17/17 หมู่ 8 อ้อมใหญ่</t>
+  </si>
+  <si>
+    <t>สามพราน</t>
+  </si>
+  <si>
+    <t>02 431 1534</t>
+  </si>
+  <si>
+    <t>สาขาเซ็นทรัลพลาซา เวสต์เกต</t>
+  </si>
+  <si>
+    <t>199 199/1 199/2 หมู่ที่ 6 เสาธงหิน</t>
+  </si>
+  <si>
+    <t>บางใหญ่</t>
+  </si>
+  <si>
+    <t>02 194 2880</t>
+  </si>
+  <si>
+    <t>สาขาเซ็นทรัลแอร์พอร์ต เชียงใหม่</t>
+  </si>
+  <si>
+    <t>2 ถนนมหิดล  252-252/1 ถนนวัวลาย หายยา</t>
+  </si>
+  <si>
+    <t>053 904143</t>
+  </si>
+  <si>
+    <t>สาขาเยาวราช มหาจักร</t>
+  </si>
+  <si>
+    <t>236 238 240 ถนนเยาวราช จักรวรรดิ์</t>
+  </si>
+  <si>
+    <t>02 225 5241</t>
+  </si>
+  <si>
+    <t>สาขามาร์เก็ตวิลเลจ สุวรรณภูมิ</t>
+  </si>
+  <si>
+    <t>99/29 หมู่ที่ 1 ศูนย์การค้ามาร์เก็ต วิลเลจ สุวรรณภูมิ เลขที่ห้อง S302 ชั้น 3 ถ.บางนา-ตราด ราชาเทวะ</t>
+  </si>
+  <si>
+    <t>บางพลี</t>
+  </si>
+  <si>
+    <t>02 316 5326</t>
+  </si>
+  <si>
+    <t>สาขาตลาดไท</t>
+  </si>
+  <si>
+    <t>32/1044 หมู่ 9 คลองหนึ่ง</t>
+  </si>
+  <si>
+    <t>คลองหลวง</t>
+  </si>
+  <si>
+    <t>02 908 4784</t>
+  </si>
+  <si>
+    <t>9:30-18:30 น.</t>
+  </si>
+  <si>
+    <t>สาขามาบตาพุด</t>
+  </si>
+  <si>
+    <t>267/11-13 ถนนสุขุมวิท มาบตาพุด</t>
+  </si>
+  <si>
+    <t>038 607945</t>
+  </si>
+  <si>
+    <t>สาขาแพชชั่น ชัอปปิ้ง เดสติเนชั่น</t>
+  </si>
+  <si>
+    <t>ศูนย์การค้าแพชชั่น ช้อปปิ้ง เดสติเนชั่น 554/4 ชั้น 2 ถนนสุขุมวิท เนินพระ</t>
+  </si>
+  <si>
+    <t>038 023400</t>
+  </si>
+  <si>
+    <t>สาขาเซ็นทรัล ชลบุรี</t>
+  </si>
+  <si>
+    <t>ศูนย์การค้าเซ็นทรัลพลาซ่า ชลบุรี 55/88-9 55/91 ชั้น 2 ถนนสุขุมวิท เสม็ด</t>
+  </si>
+  <si>
+    <t>038 053920</t>
+  </si>
+  <si>
+    <t>สาขาโรบินสัน สมุทรปราการ</t>
+  </si>
+  <si>
+    <t>789 หมู่ที่ 2 ศูนย์การค้าโรบินสัน สมุทรปราการ ชั้น 3  ท้ายบ้านใหม่</t>
+  </si>
+  <si>
+    <t>0 2093 5160</t>
+  </si>
+  <si>
+    <t>สาขาเดอะเซอร์เคิล ราชพฤกษ์</t>
+  </si>
+  <si>
+    <t>39 ห้อง R6 ถนนราชพฤกษ์ บางระมาด</t>
+  </si>
+  <si>
+    <t>ตลิ่งชัน</t>
+  </si>
+  <si>
+    <t>02 863 8624</t>
+  </si>
+  <si>
+    <t>สาขาถนนเพชรเกษม หาดใหญ่</t>
+  </si>
+  <si>
+    <t>452/8 ถนนเพชรเกษม หาดใหญ่ หาดใหญ่</t>
+  </si>
+  <si>
+    <t>074 220262</t>
+  </si>
+  <si>
+    <t>สาขาเมกาบางนา</t>
+  </si>
+  <si>
+    <t>39 ม.6 ถนนบางนา-ตราด กม.8 บางแก้ว</t>
+  </si>
+  <si>
+    <t>02 186 8702</t>
+  </si>
+  <si>
+    <t>สาขาเกตเวย์ เอกมัย</t>
+  </si>
+  <si>
+    <t>ศูนย์การค้าเกตเวย์ เอกมัย 982/22 ชั้น 3 ห้องเลขที่ 3129 ถนนสุขุมวิท พระโขนง</t>
+  </si>
+  <si>
+    <t>02 108 2856</t>
+  </si>
+  <si>
+    <t>ยูไนเต็ด เซ็นเตอร์ สีลม</t>
+  </si>
+  <si>
+    <t>323  ชั้น 2  ห้อง 213 อาคารยูไนเต็ด เซ็นเตอร์ ถนนสีลม สีลม</t>
+  </si>
+  <si>
+    <t>02 237 4890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:30-18:30 น.    </t>
+  </si>
+  <si>
+    <t>สาขาบ้านห้วย อุดรธานี</t>
+  </si>
+  <si>
+    <t>214/27-29 ถนนอุดรดุษฎี หมากแข้ง</t>
+  </si>
+  <si>
+    <t>042 243639</t>
+  </si>
+  <si>
+    <t>สาขาห้าแยกฉลองภูเก็ต</t>
+  </si>
+  <si>
+    <t>9/108 ถนนเจ้าฟ้าตะวันออก ฉลอง</t>
+  </si>
+  <si>
+    <t>076 383801</t>
+  </si>
+  <si>
+    <t>สาขาเซ็นทรัลพลาซา พระราม 3</t>
+  </si>
+  <si>
+    <t>79 ชั้น 4 เลขที่ห้อง 434 ถนนสาธุประดิษฐ์ ช่องนนทรี</t>
+  </si>
+  <si>
+    <t>02 164 0085</t>
+  </si>
+  <si>
+    <t>สาขาซีคอนสแควร์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 ห้องเลขที่ 3057F ชั้น 3 ถนนศรีนครินทร์ </t>
+  </si>
+  <si>
+    <t>หนองบอน ประเวศ</t>
+  </si>
+  <si>
+    <t>02 721 9103</t>
+  </si>
+  <si>
+    <t>สาขาอมตะนคร</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700/17 หมู่ 1 คลองตำหรุ </t>
+  </si>
+  <si>
+    <t>038 457564</t>
+  </si>
+  <si>
+    <t>10:00-17:30 น.</t>
+  </si>
+  <si>
+    <t>สาขายูโอบี เวลท์แบงกิ้งเซ็นเตอร์ - สยามพารากอน</t>
+  </si>
+  <si>
+    <t>991 ศูนย์การค้าสยามพารากอน ห้องเลขที่ 3-01A ชั้น 3 ถนนพระราม 1 ปทุมวัน</t>
+  </si>
+  <si>
+    <t>02 129 4841</t>
+  </si>
+  <si>
+    <t>สาขาถนนท่าแพ เชียงใหม่</t>
+  </si>
+  <si>
+    <t>2-4 ถนนวิชยานนท์ ช้างม่อย</t>
+  </si>
+  <si>
+    <t>053 233860</t>
+  </si>
+  <si>
+    <t>สาขาสินธร ทาวเวอร์</t>
+  </si>
+  <si>
+    <t>130-132 ห้องที่ 13 ชั้น G อาคารสินธร ทาวเวอร์ ถนนวิทยุแขวงลุมพินี</t>
+  </si>
+  <si>
+    <t>0 2263 3530</t>
+  </si>
+  <si>
+    <t>ไอคอนสยาม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">299 ห้องที่ 509-510 ชั้น 5  ศูนย์การค้าไอคอนสยาม ถนนเจริญนคร คลองต้นไทร  </t>
+  </si>
+  <si>
+    <t>คลองสาน</t>
+  </si>
+  <si>
+    <t>0 2093 5910</t>
+  </si>
+  <si>
+    <t>สาขาเซ็นทรัลเฟสติวัล อิสต์วิลล์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69&amp;#44; 69/1&amp;#44; 69/2&amp;#44; 69/4 ห้องเลขที่ 304 – 305 ชั้น 3  ศูนย์การค้าเซ็นทรัลเฟสติวัล อีสต์วิลล์ ถนนประดิษฐ์มนูธรรม </t>
+  </si>
+  <si>
+    <t>ลาดพร้าว</t>
+  </si>
+  <si>
+    <t>0 2093 5888</t>
+  </si>
+  <si>
+    <t>สาขาสุรวงศ์</t>
+  </si>
+  <si>
+    <t>134 ถนนสุรวงศ์ สี่พระยา</t>
+  </si>
+  <si>
+    <t>02 233 9730</t>
+  </si>
+  <si>
+    <t>สาขาราชวงศ์</t>
+  </si>
+  <si>
+    <t>219/2 ถนนราชวงศ์ จักรวรรดิ</t>
+  </si>
+  <si>
+    <t>02 622 7388</t>
+  </si>
+  <si>
+    <t>สาขาอโศกมนตรี</t>
+  </si>
+  <si>
+    <t>163 อาคารรัชภาคย์ ชั้น 1 ถนนสุขุมวิท 21 คลองเตยเหนือ</t>
+  </si>
+  <si>
+    <t>02 258 3259</t>
+  </si>
+  <si>
+    <t>สาขาเชียงใหม่ - ห้วยแก้ว</t>
+  </si>
+  <si>
+    <t>137 ถนนห้วยแก้ว สุเทพ</t>
+  </si>
+  <si>
+    <t>053 211091</t>
+  </si>
+  <si>
+    <t>สาขาขอนแก่น - ถนนมิตรภาพ</t>
+  </si>
+  <si>
+    <t>81/1 ถนนมิตรภาพ ในเมือง</t>
+  </si>
+  <si>
+    <t>043 241613</t>
+  </si>
+  <si>
+    <t>8:30-17:00น.</t>
+  </si>
+  <si>
+    <t>สาขาเสนานิคม</t>
+  </si>
+  <si>
+    <t>126/19 ถนนพหลโยธิน 32 (ซอยเสนานิคม1) ลาดยาว</t>
+  </si>
+  <si>
+    <t>02 561 3100</t>
+  </si>
+  <si>
+    <t>สาขาศรีนครินทร์</t>
+  </si>
+  <si>
+    <t>395/5 ถนนศรีนครินทร์ สำโรงเหนือ</t>
+  </si>
+  <si>
+    <t>02 385 7312</t>
+  </si>
+  <si>
+    <t>สาขาพัฒนาการ</t>
+  </si>
+  <si>
+    <t>309/1-4 ถนนพัฒนาการ ประเวศ</t>
+  </si>
+  <si>
+    <t>02 322 0439</t>
+  </si>
+  <si>
+    <t>สาขาถนนสุขาภิบาล 3</t>
+  </si>
+  <si>
+    <t>902 ถนนรามคำแหง หัวหมาก</t>
+  </si>
+  <si>
+    <t>02 375 8799</t>
+  </si>
+  <si>
+    <t>สาขาเดอะมอลล์ บางแค</t>
+  </si>
+  <si>
+    <t>275 หมู่ 1 ชั้น 3 อาคารเดอะมอลล์ บางแค ถนนเพชรเกษม บางแคเหนือ</t>
+  </si>
+  <si>
+    <t>บางแค</t>
+  </si>
+  <si>
+    <t>02 482 9582</t>
+  </si>
+  <si>
+    <t>สาขาเซ็นทรัล รัตนาธิเบศร์</t>
+  </si>
+  <si>
+    <t>ห้างสรรพสินค้าเซ็นทรัลพลาซ่า รัตนาธิเบศร์ 562 566 ชั้น 2 โซน E-Center หมู่ 8 ถนนรัตนาธิเบศร์</t>
+  </si>
+  <si>
+    <t>02 527 8619</t>
+  </si>
+  <si>
+    <t>สาขาบางบัวทอง</t>
+  </si>
+  <si>
+    <t>28/33-35 หมู่ 4 ถนนบางกรวย-ไทรน้อย โสนลอย</t>
+  </si>
+  <si>
+    <t>บางบัวทอง</t>
+  </si>
+  <si>
+    <t>02 920 2451</t>
+  </si>
+  <si>
+    <t>สาขาเมืองทองธานี</t>
+  </si>
+  <si>
+    <t>339 ถนนบอนด์สตรีท บางพูด</t>
+  </si>
+  <si>
+    <t>ปากเกร็ด</t>
+  </si>
+  <si>
+    <t>02 503 4940</t>
+  </si>
+  <si>
+    <t>สาขาถนนกรุงธนบุรี</t>
+  </si>
+  <si>
+    <t>77/2 อาคารสินสาธรทาวเวอร์ ถนนกรุงธนบุรี คลองต้นไทร</t>
+  </si>
+  <si>
+    <t>02 440 0345</t>
+  </si>
+  <si>
+    <t>สาขารัชดา-ท่าพระ</t>
+  </si>
+  <si>
+    <t>299 อาคารเดชา 3 ถนนรัชดาภิเษก บุคคโล</t>
+  </si>
+  <si>
+    <t>ธนบุรี</t>
+  </si>
+  <si>
+    <t>02 476 9945</t>
+  </si>
+  <si>
+    <t>สาขาบางพลี</t>
+  </si>
+  <si>
+    <t>89 หมู่ 9 ศูนย์การค้าบิ๊กซีบางพลี ชั้น 2 ถนนเทพารักษ์ กม.13 บางพลีใหญ่</t>
+  </si>
+  <si>
+    <t>02 752 4507</t>
+  </si>
+  <si>
+    <t>สาขาสี่แยกศรีวรา</t>
+  </si>
+  <si>
+    <t>573/139 ซอยรามคำแหง 39 ถนนประชาอุทิศ วังทองหลาง</t>
+  </si>
+  <si>
+    <t>02 934 7941</t>
+  </si>
+  <si>
+    <t>สาขาบางมด</t>
+  </si>
+  <si>
+    <t>1/2 หมู่ 9 ถนนพระราม 2 บางมด</t>
+  </si>
+  <si>
+    <t>จอมทอง</t>
+  </si>
+  <si>
+    <t>02 867 0203</t>
+  </si>
+  <si>
+    <t>สาขาราชปรารภ</t>
+  </si>
+  <si>
+    <t>120/3-6 ถนนราชปรารภ พญาไท</t>
+  </si>
+  <si>
+    <t>02 656 3071</t>
+  </si>
+  <si>
+    <t>สาขาสุขุมวิท 26 (ที่ทำการชั่วคราว)</t>
+  </si>
+  <si>
+    <t>720/1 สุขุมวิท 28 ถนนสุขุมวิท คลองตัน</t>
+  </si>
+  <si>
+    <t>0 2258 4052</t>
+  </si>
+  <si>
+    <t>ศูนย์บริการสินเชื่อบ้านยูโอบี โฮมโลน-ตึกเพิร์ล กรุงเทพ</t>
+  </si>
+  <si>
+    <t>1177 ชั้น 3 เพิร์ล แบงก์ค็อก ถนนพหลโยธิน</t>
+  </si>
+  <si>
+    <t>02 093 3562</t>
+  </si>
+  <si>
+    <t>ยูโอบี เอ็กซ์เพลส เดอะมอลล์ ท่าพระ</t>
+  </si>
+  <si>
+    <t>99 ชั้น B ห้องเลขที่ BS-C4  ศูนย์การค้าเดอะมอลล์ ท่าพระ ถนนรัชดาภิเษก (ตากสิน-ท่าพระ)</t>
+  </si>
+  <si>
+    <t>02 093 2218-9</t>
+  </si>
+  <si>
+    <t>อินโนวทาวน์ แอท ทรู ดิจิทัล พาร์ค</t>
+  </si>
+  <si>
+    <t>101 ห้องเลขที่ Z6-07 ชั้น 6 ทรู ดิจิทัล พาร์ค ถนนสุขุมวิท</t>
+  </si>
+  <si>
+    <t>02 001 4747</t>
+  </si>
+  <si>
+    <t>ยูโอบี เอ็กซ์เพลส บิ๊กซี รังสิต</t>
+  </si>
+  <si>
+    <t>94 ห้องเลขที่ GCR 108/1 ชั้น 1 ศูนย์การค้าบิ๊กซี รังสิต ถนนพหลโยธิน ประชาธิปัตย์</t>
+  </si>
+  <si>
+    <t>02 343 3215</t>
+  </si>
+  <si>
+    <t>ยูโอบี เอ็กซ์เพลส เทสโก้โลตัส บางนา</t>
+  </si>
+  <si>
+    <t>14/9 ห้องเลขที่ 032PG055 ชั้น 1 ศูนย์การค้าเทสโก้โลตัส บางนา ถนนบางนา-ตราด</t>
+  </si>
+  <si>
+    <t>02 343 3178</t>
+  </si>
+  <si>
+    <t>สาขาบุรีรัมย์</t>
+  </si>
+  <si>
+    <t>บุรีรัมย์</t>
+  </si>
+  <si>
+    <t>377 ถนนจิระ อิสาณ</t>
+  </si>
+  <si>
+    <t>044 666 733</t>
+  </si>
+  <si>
+    <t>ยูโอบี เอ็กซ์เพลส เซนทรัล แจ้งวัฒนะ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">นนทบุรี </t>
+  </si>
+  <si>
+    <t>99 หมู่ที่ 2 ถนนแจ้งวัฒนะ ตำบลบางตลาด อำเภอปากเกร็ด จังหวัดนนทบุรี 11120 เซ็นทรัลพลาซา แจ้งวัฒนะ ห้องเลขที่ 404 ชั้น 4</t>
+  </si>
+  <si>
+    <t>0 2343 3191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+country</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
 </sst>
 </file>
@@ -273,10 +2296,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,46 +2584,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12" ht="28.8">
       <c r="A1" t="s">
         <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>598</v>
       </c>
       <c r="E1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="H1" t="s">
+        <v>741</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -609,24 +2649,33 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>10500</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2">
         <v>13.731427999999999</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>100.523836</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -638,24 +2687,33 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>10200</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3">
         <v>13.746428</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>100.50007600000001</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -667,24 +2725,33 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>10100</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4">
         <v>13.737927000000001</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>100.50801300000001</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -696,24 +2763,33 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <v>10330</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5">
         <v>13.743370000000001</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>100.54418</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -725,24 +2801,33 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>10330</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6">
         <v>13.747645</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>100.522688</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -754,24 +2839,33 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>20000</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7">
         <v>13.367065999999999</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>100.988356</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -783,24 +2877,33 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F8">
         <v>30000</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8">
         <v>14.973026000000001</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>102.098652</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -812,24 +2915,33 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F9">
         <v>80000</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9">
         <v>8.4409030000000005</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>99.961888999999999</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -841,24 +2953,33 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <v>90110</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10">
         <v>7.0026919999999997</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>100.469807</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -870,24 +2991,33 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F11">
         <v>95000</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11">
         <v>6.5510890000000002</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>101.286727</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -899,24 +3029,33 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F12">
         <v>20170</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12">
         <v>13.311185</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>101.113782</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -928,24 +3067,33 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F13">
         <v>20150</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13">
         <v>12.971168</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>100.903982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -957,18 +3105,5423 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>50100</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14">
         <v>18.781120000000001</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>98.997011999999998</v>
       </c>
-      <c r="I14">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15">
+        <v>24000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15">
+        <v>13.692282000000001</v>
+      </c>
+      <c r="K15">
+        <v>101.079959</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16">
+        <v>83000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16">
+        <v>7.880992</v>
+      </c>
+      <c r="K16">
+        <v>98.391694000000001</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17">
+        <v>34000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17">
+        <v>15.232138000000001</v>
+      </c>
+      <c r="K17">
+        <v>104.855614</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18">
+        <v>40000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18">
+        <v>16.435815000000002</v>
+      </c>
+      <c r="K18">
+        <v>102.834487</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19">
+        <v>10100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19">
+        <v>13.75409</v>
+      </c>
+      <c r="K19">
+        <v>100.51615</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20">
+        <v>11000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20">
+        <v>13.843832000000001</v>
+      </c>
+      <c r="K20">
+        <v>100.499413</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21">
+        <v>10500</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21">
+        <v>13.723876000000001</v>
+      </c>
+      <c r="K21">
+        <v>100.51671</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22">
+        <v>10270</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22">
+        <v>13.649533</v>
+      </c>
+      <c r="K22">
+        <v>100.597009</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <v>65000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23">
+        <v>16.817119999999999</v>
+      </c>
+      <c r="K23">
+        <v>100.265033</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24">
+        <v>10400</v>
+      </c>
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24">
+        <v>13.768891</v>
+      </c>
+      <c r="K24">
+        <v>100.540384</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25">
+        <v>18000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25">
+        <v>14.525961000000001</v>
+      </c>
+      <c r="K25">
+        <v>100.913211</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26">
+        <v>10140</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26">
+        <v>13.686303000000001</v>
+      </c>
+      <c r="K26">
+        <v>100.486316</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27">
+        <v>10310</v>
+      </c>
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27">
+        <v>13.796044</v>
+      </c>
+      <c r="K27">
+        <v>100.59163599999999</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28">
+        <v>32000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28">
+        <v>14.886862000000001</v>
+      </c>
+      <c r="K28">
+        <v>103.495225</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29">
+        <v>52000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29">
+        <v>18.288557000000001</v>
+      </c>
+      <c r="K29">
+        <v>99.494050000000001</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30">
+        <v>60000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" t="s">
+        <v>145</v>
+      </c>
+      <c r="J30">
+        <v>15.702826999999999</v>
+      </c>
+      <c r="K30">
+        <v>100.14001399999999</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31">
+        <v>10110</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" t="s">
+        <v>149</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31">
+        <v>13.735305</v>
+      </c>
+      <c r="K31">
+        <v>100.563508</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32">
+        <v>41000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32">
+        <v>17.404153999999998</v>
+      </c>
+      <c r="K32">
+        <v>102.794449</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33">
+        <v>22000</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" t="s">
+        <v>157</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33">
+        <v>12.606049000000001</v>
+      </c>
+      <c r="K33">
+        <v>102.11062800000001</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34">
+        <v>10100</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" t="s">
+        <v>160</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34">
+        <v>13.739537</v>
+      </c>
+      <c r="K34">
+        <v>100.512602</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35">
+        <v>10120</v>
+      </c>
+      <c r="G35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35">
+        <v>13.720420000000001</v>
+      </c>
+      <c r="K35">
+        <v>100.52727</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36">
+        <v>10700</v>
+      </c>
+      <c r="G36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" t="s">
+        <v>168</v>
+      </c>
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36">
+        <v>13.773898000000001</v>
+      </c>
+      <c r="K36">
+        <v>100.482433</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37">
+        <v>21000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" t="s">
+        <v>172</v>
+      </c>
+      <c r="I37" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37">
+        <v>12.682145</v>
+      </c>
+      <c r="K37">
+        <v>101.272535</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38">
+        <v>10110</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38">
+        <v>13.720767</v>
+      </c>
+      <c r="K38">
+        <v>100.557241</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39">
+        <v>10240</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" t="s">
+        <v>180</v>
+      </c>
+      <c r="I39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39">
+        <v>13.752618999999999</v>
+      </c>
+      <c r="K39">
+        <v>100.61135400000001</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40">
+        <v>10100</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" t="s">
+        <v>183</v>
+      </c>
+      <c r="I40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J40">
+        <v>13.740399999999999</v>
+      </c>
+      <c r="K40">
+        <v>100.50955999999999</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41">
+        <v>10100</v>
+      </c>
+      <c r="G41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" t="s">
+        <v>186</v>
+      </c>
+      <c r="I41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41">
+        <v>13.737</v>
+      </c>
+      <c r="K41">
+        <v>100.5132</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B42" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42">
+        <v>10210</v>
+      </c>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" t="s">
+        <v>190</v>
+      </c>
+      <c r="I42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42">
+        <v>13.887947</v>
+      </c>
+      <c r="K42">
+        <v>100.575968</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43">
+        <v>84000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" t="s">
+        <v>194</v>
+      </c>
+      <c r="I43" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43">
+        <v>9.1401420000000009</v>
+      </c>
+      <c r="K43">
+        <v>99.327882000000002</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B44" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>196</v>
+      </c>
+      <c r="E44" t="s">
+        <v>197</v>
+      </c>
+      <c r="F44">
+        <v>10160</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" t="s">
+        <v>198</v>
+      </c>
+      <c r="I44" t="s">
+        <v>199</v>
+      </c>
+      <c r="J44">
+        <v>13.711740000000001</v>
+      </c>
+      <c r="K44">
+        <v>100.433222</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45">
+        <v>57000</v>
+      </c>
+      <c r="G45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" t="s">
+        <v>203</v>
+      </c>
+      <c r="I45" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45">
+        <v>19.910543000000001</v>
+      </c>
+      <c r="K45">
+        <v>99.839269000000002</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>205</v>
+      </c>
+      <c r="E46" t="s">
+        <v>206</v>
+      </c>
+      <c r="F46">
+        <v>10250</v>
+      </c>
+      <c r="G46" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" t="s">
+        <v>207</v>
+      </c>
+      <c r="I46" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46">
+        <v>13.710176000000001</v>
+      </c>
+      <c r="K46">
+        <v>100.63012000000001</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47">
+        <v>12130</v>
+      </c>
+      <c r="G47" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" t="s">
+        <v>212</v>
+      </c>
+      <c r="I47" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47">
+        <v>13.962237</v>
+      </c>
+      <c r="K47">
+        <v>100.619967</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B48" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48">
+        <v>10240</v>
+      </c>
+      <c r="G48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I48" t="s">
+        <v>64</v>
+      </c>
+      <c r="J48">
+        <v>13.767502</v>
+      </c>
+      <c r="K48">
+        <v>100.64179</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E49" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49">
+        <v>10260</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" t="s">
+        <v>219</v>
+      </c>
+      <c r="I49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49">
+        <v>13.670018000000001</v>
+      </c>
+      <c r="K49">
+        <v>100.620684</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B50" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50">
+        <v>10120</v>
+      </c>
+      <c r="G50" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" t="s">
+        <v>223</v>
+      </c>
+      <c r="I50" t="s">
+        <v>56</v>
+      </c>
+      <c r="J50">
+        <v>13.694651</v>
+      </c>
+      <c r="K50">
+        <v>100.51491</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B51" t="s">
+        <v>224</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51" t="s">
+        <v>226</v>
+      </c>
+      <c r="F51">
+        <v>10400</v>
+      </c>
+      <c r="G51" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" t="s">
+        <v>227</v>
+      </c>
+      <c r="I51" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51">
+        <v>13.750666000000001</v>
+      </c>
+      <c r="K51">
+        <v>100.539255</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B52" t="s">
+        <v>228</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52">
+        <v>10500</v>
+      </c>
+      <c r="G52" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" t="s">
+        <v>230</v>
+      </c>
+      <c r="I52" t="s">
+        <v>231</v>
+      </c>
+      <c r="J52">
+        <v>13.744224000000001</v>
+      </c>
+      <c r="K52">
+        <v>100.535022</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B53" t="s">
+        <v>232</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>233</v>
+      </c>
+      <c r="E53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53">
+        <v>10100</v>
+      </c>
+      <c r="G53" t="s">
+        <v>54</v>
+      </c>
+      <c r="H53" t="s">
+        <v>234</v>
+      </c>
+      <c r="I53" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53">
+        <v>13.750797</v>
+      </c>
+      <c r="K53">
+        <v>100.50725</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B54" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>236</v>
+      </c>
+      <c r="E54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54">
+        <v>10500</v>
+      </c>
+      <c r="G54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" t="s">
+        <v>237</v>
+      </c>
+      <c r="I54" t="s">
+        <v>199</v>
+      </c>
+      <c r="J54">
+        <v>13.728270999999999</v>
+      </c>
+      <c r="K54">
+        <v>100.5351</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B55" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55">
+        <v>73000</v>
+      </c>
+      <c r="G55" t="s">
+        <v>54</v>
+      </c>
+      <c r="H55" t="s">
+        <v>241</v>
+      </c>
+      <c r="I55" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55">
+        <v>13.816895000000001</v>
+      </c>
+      <c r="K55">
+        <v>100.05572600000001</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C56" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" t="s">
+        <v>243</v>
+      </c>
+      <c r="E56" t="s">
+        <v>211</v>
+      </c>
+      <c r="F56">
+        <v>12150</v>
+      </c>
+      <c r="G56" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56" t="s">
+        <v>244</v>
+      </c>
+      <c r="I56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J56">
+        <v>13.935321</v>
+      </c>
+      <c r="K56">
+        <v>100.625174</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" t="s">
+        <v>246</v>
+      </c>
+      <c r="E57" t="s">
+        <v>247</v>
+      </c>
+      <c r="F57">
+        <v>83150</v>
+      </c>
+      <c r="G57" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" t="s">
+        <v>248</v>
+      </c>
+      <c r="I57" t="s">
+        <v>249</v>
+      </c>
+      <c r="J57">
+        <v>7.8851069999999996</v>
+      </c>
+      <c r="K57">
+        <v>98.295489000000003</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B58" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>251</v>
+      </c>
+      <c r="E58" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58">
+        <v>20260</v>
+      </c>
+      <c r="G58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" t="s">
+        <v>252</v>
+      </c>
+      <c r="I58" t="s">
+        <v>253</v>
+      </c>
+      <c r="J58">
+        <v>12.927666</v>
+      </c>
+      <c r="K58">
+        <v>100.877123</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B59" t="s">
+        <v>254</v>
+      </c>
+      <c r="C59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" t="s">
+        <v>255</v>
+      </c>
+      <c r="E59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59">
+        <v>11000</v>
+      </c>
+      <c r="G59" t="s">
+        <v>54</v>
+      </c>
+      <c r="H59" t="s">
+        <v>256</v>
+      </c>
+      <c r="I59" t="s">
+        <v>64</v>
+      </c>
+      <c r="J59">
+        <v>13.855147000000001</v>
+      </c>
+      <c r="K59">
+        <v>100.542</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B60" t="s">
+        <v>257</v>
+      </c>
+      <c r="C60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" t="s">
+        <v>258</v>
+      </c>
+      <c r="E60" t="s">
+        <v>259</v>
+      </c>
+      <c r="F60">
+        <v>21130</v>
+      </c>
+      <c r="G60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" t="s">
+        <v>260</v>
+      </c>
+      <c r="I60" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60">
+        <v>12.723402</v>
+      </c>
+      <c r="K60">
+        <v>101.052435</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>262</v>
+      </c>
+      <c r="E61" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61">
+        <v>10400</v>
+      </c>
+      <c r="G61" t="s">
+        <v>54</v>
+      </c>
+      <c r="H61" t="s">
+        <v>263</v>
+      </c>
+      <c r="I61" t="s">
+        <v>56</v>
+      </c>
+      <c r="J61">
+        <v>13.783474</v>
+      </c>
+      <c r="K61">
+        <v>100.546222</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B62" t="s">
+        <v>264</v>
+      </c>
+      <c r="C62" t="s">
+        <v>265</v>
+      </c>
+      <c r="D62" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62">
+        <v>74000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>54</v>
+      </c>
+      <c r="H62" t="s">
+        <v>267</v>
+      </c>
+      <c r="I62" t="s">
+        <v>56</v>
+      </c>
+      <c r="J62">
+        <v>13.551465</v>
+      </c>
+      <c r="K62">
+        <v>100.2736</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B63" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>269</v>
+      </c>
+      <c r="E63" t="s">
+        <v>270</v>
+      </c>
+      <c r="F63">
+        <v>10160</v>
+      </c>
+      <c r="G63" t="s">
+        <v>54</v>
+      </c>
+      <c r="H63" t="s">
+        <v>271</v>
+      </c>
+      <c r="I63" t="s">
+        <v>56</v>
+      </c>
+      <c r="J63">
+        <v>13.704817</v>
+      </c>
+      <c r="K63">
+        <v>100.336224</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B64" t="s">
+        <v>272</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>273</v>
+      </c>
+      <c r="E64" t="s">
+        <v>274</v>
+      </c>
+      <c r="F64">
+        <v>20110</v>
+      </c>
+      <c r="G64" t="s">
+        <v>54</v>
+      </c>
+      <c r="H64" t="s">
+        <v>275</v>
+      </c>
+      <c r="I64" t="s">
+        <v>56</v>
+      </c>
+      <c r="J64">
+        <v>13.162651</v>
+      </c>
+      <c r="K64">
+        <v>100.928442</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B65" t="s">
+        <v>276</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E65" t="s">
+        <v>278</v>
+      </c>
+      <c r="F65">
+        <v>10120</v>
+      </c>
+      <c r="G65" t="s">
+        <v>54</v>
+      </c>
+      <c r="H65" t="s">
+        <v>279</v>
+      </c>
+      <c r="I65" t="s">
+        <v>56</v>
+      </c>
+      <c r="J65">
+        <v>13.69605</v>
+      </c>
+      <c r="K65">
+        <v>100.5378</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B66" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>281</v>
+      </c>
+      <c r="E66" t="s">
+        <v>62</v>
+      </c>
+      <c r="F66">
+        <v>10330</v>
+      </c>
+      <c r="G66" t="s">
+        <v>54</v>
+      </c>
+      <c r="H66" t="s">
+        <v>282</v>
+      </c>
+      <c r="I66" t="s">
+        <v>283</v>
+      </c>
+      <c r="J66">
+        <v>13.739057000000001</v>
+      </c>
+      <c r="K66">
+        <v>100.547848</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B67" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" t="s">
+        <v>285</v>
+      </c>
+      <c r="D67" t="s">
+        <v>286</v>
+      </c>
+      <c r="E67" t="s">
+        <v>287</v>
+      </c>
+      <c r="F67">
+        <v>13000</v>
+      </c>
+      <c r="G67" t="s">
+        <v>54</v>
+      </c>
+      <c r="H67" t="s">
+        <v>288</v>
+      </c>
+      <c r="I67" t="s">
+        <v>80</v>
+      </c>
+      <c r="J67">
+        <v>14.354858</v>
+      </c>
+      <c r="K67">
+        <v>100.595888</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B68" t="s">
+        <v>289</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>290</v>
+      </c>
+      <c r="E68" t="s">
+        <v>291</v>
+      </c>
+      <c r="F68">
+        <v>10150</v>
+      </c>
+      <c r="G68" t="s">
+        <v>54</v>
+      </c>
+      <c r="H68" t="s">
+        <v>292</v>
+      </c>
+      <c r="I68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J68">
+        <v>13.680495000000001</v>
+      </c>
+      <c r="K68">
+        <v>100.437696</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B69" t="s">
+        <v>293</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>294</v>
+      </c>
+      <c r="E69" t="s">
+        <v>163</v>
+      </c>
+      <c r="F69">
+        <v>10120</v>
+      </c>
+      <c r="G69" t="s">
+        <v>54</v>
+      </c>
+      <c r="H69" t="s">
+        <v>295</v>
+      </c>
+      <c r="I69" t="s">
+        <v>56</v>
+      </c>
+      <c r="J69">
+        <v>13.724164</v>
+      </c>
+      <c r="K69">
+        <v>100.539362</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B70" t="s">
+        <v>296</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>297</v>
+      </c>
+      <c r="E70" t="s">
+        <v>175</v>
+      </c>
+      <c r="F70">
+        <v>10110</v>
+      </c>
+      <c r="G70" t="s">
+        <v>54</v>
+      </c>
+      <c r="H70" t="s">
+        <v>298</v>
+      </c>
+      <c r="I70" t="s">
+        <v>56</v>
+      </c>
+      <c r="J70">
+        <v>13.741047999999999</v>
+      </c>
+      <c r="K70">
+        <v>100.55474599999999</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B71" t="s">
+        <v>299</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>300</v>
+      </c>
+      <c r="E71" t="s">
+        <v>301</v>
+      </c>
+      <c r="F71">
+        <v>10320</v>
+      </c>
+      <c r="G71" t="s">
+        <v>54</v>
+      </c>
+      <c r="H71" t="s">
+        <v>302</v>
+      </c>
+      <c r="I71" t="s">
+        <v>56</v>
+      </c>
+      <c r="J71">
+        <v>13.777659</v>
+      </c>
+      <c r="K71">
+        <v>100.573295</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B72" t="s">
+        <v>303</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>304</v>
+      </c>
+      <c r="E72" t="s">
+        <v>131</v>
+      </c>
+      <c r="F72">
+        <v>10310</v>
+      </c>
+      <c r="G72" t="s">
+        <v>54</v>
+      </c>
+      <c r="H72" t="s">
+        <v>305</v>
+      </c>
+      <c r="I72" t="s">
+        <v>56</v>
+      </c>
+      <c r="J72">
+        <v>13.772365000000001</v>
+      </c>
+      <c r="K72">
+        <v>100.608952</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B73" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>307</v>
+      </c>
+      <c r="E73" t="s">
+        <v>308</v>
+      </c>
+      <c r="F73">
+        <v>10900</v>
+      </c>
+      <c r="G73" t="s">
+        <v>54</v>
+      </c>
+      <c r="H73" t="s">
+        <v>309</v>
+      </c>
+      <c r="I73" t="s">
+        <v>56</v>
+      </c>
+      <c r="J73">
+        <v>13.819765</v>
+      </c>
+      <c r="K73">
+        <v>100.563676</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B74" t="s">
+        <v>310</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>311</v>
+      </c>
+      <c r="E74" t="s">
+        <v>163</v>
+      </c>
+      <c r="F74">
+        <v>10120</v>
+      </c>
+      <c r="G74" t="s">
+        <v>54</v>
+      </c>
+      <c r="H74" t="s">
+        <v>312</v>
+      </c>
+      <c r="I74" t="s">
+        <v>56</v>
+      </c>
+      <c r="J74">
+        <v>13.7072</v>
+      </c>
+      <c r="K74">
+        <v>100.526826</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B75" t="s">
+        <v>313</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>314</v>
+      </c>
+      <c r="E75" t="s">
+        <v>315</v>
+      </c>
+      <c r="F75">
+        <v>10230</v>
+      </c>
+      <c r="G75" t="s">
+        <v>54</v>
+      </c>
+      <c r="H75" t="s">
+        <v>316</v>
+      </c>
+      <c r="I75" t="s">
+        <v>64</v>
+      </c>
+      <c r="J75">
+        <v>13.825226000000001</v>
+      </c>
+      <c r="K75">
+        <v>100.677566</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B76" t="s">
+        <v>317</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>318</v>
+      </c>
+      <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76">
+        <v>10250</v>
+      </c>
+      <c r="G76" t="s">
+        <v>54</v>
+      </c>
+      <c r="H76" t="s">
+        <v>319</v>
+      </c>
+      <c r="I76" t="s">
+        <v>56</v>
+      </c>
+      <c r="J76">
+        <v>13.733335</v>
+      </c>
+      <c r="K76">
+        <v>100.582207</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B77" t="s">
+        <v>320</v>
+      </c>
+      <c r="C77" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" t="s">
+        <v>321</v>
+      </c>
+      <c r="E77" t="s">
+        <v>322</v>
+      </c>
+      <c r="F77">
+        <v>12110</v>
+      </c>
+      <c r="G77" t="s">
+        <v>54</v>
+      </c>
+      <c r="H77" t="s">
+        <v>323</v>
+      </c>
+      <c r="I77" t="s">
+        <v>199</v>
+      </c>
+      <c r="J77">
+        <v>13.989385</v>
+      </c>
+      <c r="K77">
+        <v>100.616668</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B78" t="s">
+        <v>324</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>325</v>
+      </c>
+      <c r="E78" t="s">
+        <v>308</v>
+      </c>
+      <c r="F78">
+        <v>10900</v>
+      </c>
+      <c r="G78" t="s">
+        <v>54</v>
+      </c>
+      <c r="H78" t="s">
+        <v>326</v>
+      </c>
+      <c r="I78" t="s">
+        <v>56</v>
+      </c>
+      <c r="J78">
+        <v>13.808109999999999</v>
+      </c>
+      <c r="K78">
+        <v>100.55879</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B79" t="s">
+        <v>327</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>328</v>
+      </c>
+      <c r="E79" t="s">
+        <v>329</v>
+      </c>
+      <c r="F79">
+        <v>10310</v>
+      </c>
+      <c r="G79" t="s">
+        <v>54</v>
+      </c>
+      <c r="H79" t="s">
+        <v>330</v>
+      </c>
+      <c r="I79" t="s">
+        <v>56</v>
+      </c>
+      <c r="J79">
+        <v>13.755098</v>
+      </c>
+      <c r="K79">
+        <v>100.5719</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B80" t="s">
+        <v>331</v>
+      </c>
+      <c r="C80" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" t="s">
+        <v>332</v>
+      </c>
+      <c r="E80" t="s">
+        <v>66</v>
+      </c>
+      <c r="F80">
+        <v>50000</v>
+      </c>
+      <c r="G80" t="s">
+        <v>54</v>
+      </c>
+      <c r="H80" t="s">
+        <v>333</v>
+      </c>
+      <c r="I80" t="s">
+        <v>56</v>
+      </c>
+      <c r="J80">
+        <v>18.783954999999999</v>
+      </c>
+      <c r="K80">
+        <v>99.026819000000003</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B81" t="s">
+        <v>334</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>335</v>
+      </c>
+      <c r="E81" t="s">
+        <v>336</v>
+      </c>
+      <c r="F81">
+        <v>10260</v>
+      </c>
+      <c r="G81" t="s">
+        <v>54</v>
+      </c>
+      <c r="H81" t="s">
+        <v>337</v>
+      </c>
+      <c r="I81" t="s">
+        <v>64</v>
+      </c>
+      <c r="J81">
+        <v>13.702631</v>
+      </c>
+      <c r="K81">
+        <v>100.60191</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B82" t="s">
+        <v>338</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>339</v>
+      </c>
+      <c r="E82" t="s">
+        <v>127</v>
+      </c>
+      <c r="F82">
+        <v>10140</v>
+      </c>
+      <c r="G82" t="s">
+        <v>54</v>
+      </c>
+      <c r="H82" t="s">
+        <v>340</v>
+      </c>
+      <c r="I82" t="s">
+        <v>56</v>
+      </c>
+      <c r="J82">
+        <v>13.669539</v>
+      </c>
+      <c r="K82">
+        <v>100.50433700000001</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B83" t="s">
+        <v>341</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>342</v>
+      </c>
+      <c r="E83" t="s">
+        <v>343</v>
+      </c>
+      <c r="F83">
+        <v>10250</v>
+      </c>
+      <c r="G83" t="s">
+        <v>54</v>
+      </c>
+      <c r="H83" t="s">
+        <v>344</v>
+      </c>
+      <c r="I83" t="s">
+        <v>64</v>
+      </c>
+      <c r="J83">
+        <v>13.688057000000001</v>
+      </c>
+      <c r="K83">
+        <v>100.647733</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B84" t="s">
+        <v>345</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>346</v>
+      </c>
+      <c r="E84" t="s">
+        <v>336</v>
+      </c>
+      <c r="F84">
+        <v>10260</v>
+      </c>
+      <c r="G84" t="s">
+        <v>54</v>
+      </c>
+      <c r="H84" t="s">
+        <v>347</v>
+      </c>
+      <c r="I84" t="s">
+        <v>64</v>
+      </c>
+      <c r="J84">
+        <v>13.686070000000001</v>
+      </c>
+      <c r="K84">
+        <v>100.61095</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B85" t="s">
+        <v>348</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>349</v>
+      </c>
+      <c r="E85" t="s">
+        <v>66</v>
+      </c>
+      <c r="F85">
+        <v>30000</v>
+      </c>
+      <c r="G85" t="s">
+        <v>54</v>
+      </c>
+      <c r="H85" t="s">
+        <v>350</v>
+      </c>
+      <c r="I85" t="s">
+        <v>59</v>
+      </c>
+      <c r="J85">
+        <v>14.979063</v>
+      </c>
+      <c r="K85">
+        <v>102.070525</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B86" t="s">
+        <v>352</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>353</v>
+      </c>
+      <c r="E86" t="s">
+        <v>66</v>
+      </c>
+      <c r="F86">
+        <v>20000</v>
+      </c>
+      <c r="G86" t="s">
+        <v>54</v>
+      </c>
+      <c r="H86" t="s">
+        <v>354</v>
+      </c>
+      <c r="I86" t="s">
+        <v>56</v>
+      </c>
+      <c r="J86">
+        <v>13.343408</v>
+      </c>
+      <c r="K86">
+        <v>100.975943</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B87" t="s">
+        <v>355</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>356</v>
+      </c>
+      <c r="E87" t="s">
+        <v>163</v>
+      </c>
+      <c r="F87">
+        <v>10120</v>
+      </c>
+      <c r="G87" t="s">
+        <v>54</v>
+      </c>
+      <c r="H87" t="s">
+        <v>357</v>
+      </c>
+      <c r="I87" t="s">
+        <v>56</v>
+      </c>
+      <c r="J87">
+        <v>13.721487</v>
+      </c>
+      <c r="K87">
+        <v>100.531159</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B88" t="s">
+        <v>358</v>
+      </c>
+      <c r="C88" t="s">
+        <v>359</v>
+      </c>
+      <c r="D88" t="s">
+        <v>360</v>
+      </c>
+      <c r="E88" t="s">
+        <v>66</v>
+      </c>
+      <c r="F88">
+        <v>70000</v>
+      </c>
+      <c r="G88" t="s">
+        <v>54</v>
+      </c>
+      <c r="H88" t="s">
+        <v>361</v>
+      </c>
+      <c r="I88" t="s">
+        <v>56</v>
+      </c>
+      <c r="J88">
+        <v>13.536728</v>
+      </c>
+      <c r="K88">
+        <v>99.819428000000002</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B89" t="s">
+        <v>362</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>363</v>
+      </c>
+      <c r="E89" t="s">
+        <v>62</v>
+      </c>
+      <c r="F89">
+        <v>10330</v>
+      </c>
+      <c r="G89" t="s">
+        <v>54</v>
+      </c>
+      <c r="H89" t="s">
+        <v>364</v>
+      </c>
+      <c r="I89" t="s">
+        <v>365</v>
+      </c>
+      <c r="J89">
+        <v>13.746230000000001</v>
+      </c>
+      <c r="K89">
+        <v>100.53982000000001</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B90" t="s">
+        <v>366</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>367</v>
+      </c>
+      <c r="E90" t="s">
+        <v>119</v>
+      </c>
+      <c r="F90">
+        <v>10400</v>
+      </c>
+      <c r="G90" t="s">
+        <v>54</v>
+      </c>
+      <c r="H90" t="s">
+        <v>368</v>
+      </c>
+      <c r="I90" t="s">
+        <v>56</v>
+      </c>
+      <c r="J90">
+        <v>13.787800000000001</v>
+      </c>
+      <c r="K90">
+        <v>100.53601999999999</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B91" t="s">
+        <v>369</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>370</v>
+      </c>
+      <c r="E91" t="s">
+        <v>218</v>
+      </c>
+      <c r="F91">
+        <v>10260</v>
+      </c>
+      <c r="G91" t="s">
+        <v>54</v>
+      </c>
+      <c r="H91" t="s">
+        <v>371</v>
+      </c>
+      <c r="I91" t="s">
+        <v>64</v>
+      </c>
+      <c r="J91">
+        <v>13.668523</v>
+      </c>
+      <c r="K91">
+        <v>100.634247</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B92" t="s">
+        <v>372</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>373</v>
+      </c>
+      <c r="E92" t="s">
+        <v>329</v>
+      </c>
+      <c r="F92">
+        <v>10310</v>
+      </c>
+      <c r="G92" t="s">
+        <v>54</v>
+      </c>
+      <c r="H92" t="s">
+        <v>374</v>
+      </c>
+      <c r="I92" t="s">
+        <v>64</v>
+      </c>
+      <c r="J92">
+        <v>13.758324</v>
+      </c>
+      <c r="K92">
+        <v>100.56599799999999</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B93" t="s">
+        <v>375</v>
+      </c>
+      <c r="C93" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" t="s">
+        <v>376</v>
+      </c>
+      <c r="E93" t="s">
+        <v>377</v>
+      </c>
+      <c r="F93">
+        <v>21140</v>
+      </c>
+      <c r="G93" t="s">
+        <v>54</v>
+      </c>
+      <c r="H93" t="s">
+        <v>378</v>
+      </c>
+      <c r="I93" t="s">
+        <v>56</v>
+      </c>
+      <c r="J93">
+        <v>13.019546</v>
+      </c>
+      <c r="K93">
+        <v>101.15473900000001</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B94" t="s">
+        <v>379</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>380</v>
+      </c>
+      <c r="E94" t="s">
+        <v>381</v>
+      </c>
+      <c r="F94">
+        <v>10700</v>
+      </c>
+      <c r="G94" t="s">
+        <v>54</v>
+      </c>
+      <c r="H94" t="s">
+        <v>382</v>
+      </c>
+      <c r="I94" t="s">
+        <v>64</v>
+      </c>
+      <c r="J94">
+        <v>13.776652</v>
+      </c>
+      <c r="K94">
+        <v>100.476501</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B95" t="s">
+        <v>383</v>
+      </c>
+      <c r="C95" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" t="s">
+        <v>384</v>
+      </c>
+      <c r="E95" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95">
+        <v>83000</v>
+      </c>
+      <c r="G95" t="s">
+        <v>54</v>
+      </c>
+      <c r="H95" t="s">
+        <v>385</v>
+      </c>
+      <c r="I95" t="s">
+        <v>365</v>
+      </c>
+      <c r="J95">
+        <v>7.8911369999999996</v>
+      </c>
+      <c r="K95">
+        <v>98.367564000000002</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B96" t="s">
+        <v>386</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>387</v>
+      </c>
+      <c r="E96" t="s">
+        <v>274</v>
+      </c>
+      <c r="F96">
+        <v>20110</v>
+      </c>
+      <c r="G96" t="s">
+        <v>54</v>
+      </c>
+      <c r="H96" t="s">
+        <v>388</v>
+      </c>
+      <c r="I96" t="s">
+        <v>365</v>
+      </c>
+      <c r="J96">
+        <v>13.169494</v>
+      </c>
+      <c r="K96">
+        <v>100.930627</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B97" t="s">
+        <v>389</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>390</v>
+      </c>
+      <c r="E97" t="s">
+        <v>391</v>
+      </c>
+      <c r="F97">
+        <v>10220</v>
+      </c>
+      <c r="G97" t="s">
+        <v>54</v>
+      </c>
+      <c r="H97" t="s">
+        <v>392</v>
+      </c>
+      <c r="I97" t="s">
+        <v>64</v>
+      </c>
+      <c r="J97">
+        <v>13.87214</v>
+      </c>
+      <c r="K97">
+        <v>100.60162</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B98" t="s">
+        <v>393</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>394</v>
+      </c>
+      <c r="E98" t="s">
+        <v>395</v>
+      </c>
+      <c r="F98">
+        <v>10150</v>
+      </c>
+      <c r="G98" t="s">
+        <v>54</v>
+      </c>
+      <c r="H98" t="s">
+        <v>396</v>
+      </c>
+      <c r="I98" t="s">
+        <v>64</v>
+      </c>
+      <c r="J98">
+        <v>13.663781</v>
+      </c>
+      <c r="K98">
+        <v>100.437955</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B99" t="s">
+        <v>397</v>
+      </c>
+      <c r="C99" t="s">
+        <v>398</v>
+      </c>
+      <c r="D99" t="s">
+        <v>399</v>
+      </c>
+      <c r="E99" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99">
+        <v>71000</v>
+      </c>
+      <c r="G99" t="s">
+        <v>54</v>
+      </c>
+      <c r="H99" t="s">
+        <v>400</v>
+      </c>
+      <c r="I99" t="s">
+        <v>56</v>
+      </c>
+      <c r="J99">
+        <v>14.020758000000001</v>
+      </c>
+      <c r="K99">
+        <v>99.532999000000004</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B100" t="s">
+        <v>401</v>
+      </c>
+      <c r="C100" t="s">
+        <v>402</v>
+      </c>
+      <c r="D100" t="s">
+        <v>403</v>
+      </c>
+      <c r="E100" t="s">
+        <v>66</v>
+      </c>
+      <c r="F100">
+        <v>75000</v>
+      </c>
+      <c r="G100" t="s">
+        <v>54</v>
+      </c>
+      <c r="H100" t="s">
+        <v>404</v>
+      </c>
+      <c r="I100" t="s">
+        <v>56</v>
+      </c>
+      <c r="J100">
+        <v>13.40494</v>
+      </c>
+      <c r="K100">
+        <v>100.00122</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B101" t="s">
+        <v>405</v>
+      </c>
+      <c r="C101" t="s">
+        <v>406</v>
+      </c>
+      <c r="D101" t="s">
+        <v>407</v>
+      </c>
+      <c r="E101" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101">
+        <v>45000</v>
+      </c>
+      <c r="G101" t="s">
+        <v>54</v>
+      </c>
+      <c r="H101" t="s">
+        <v>408</v>
+      </c>
+      <c r="I101" t="s">
+        <v>56</v>
+      </c>
+      <c r="J101">
+        <v>16.047450000000001</v>
+      </c>
+      <c r="K101">
+        <v>103.6572</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B102" t="s">
+        <v>409</v>
+      </c>
+      <c r="C102" t="s">
+        <v>410</v>
+      </c>
+      <c r="D102" t="s">
+        <v>411</v>
+      </c>
+      <c r="E102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102">
+        <v>92000</v>
+      </c>
+      <c r="G102" t="s">
+        <v>54</v>
+      </c>
+      <c r="H102" t="s">
+        <v>412</v>
+      </c>
+      <c r="I102" t="s">
+        <v>56</v>
+      </c>
+      <c r="J102">
+        <v>7.5551310000000003</v>
+      </c>
+      <c r="K102">
+        <v>99.606459000000001</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B103" t="s">
+        <v>413</v>
+      </c>
+      <c r="C103" t="s">
+        <v>414</v>
+      </c>
+      <c r="D103" t="s">
+        <v>415</v>
+      </c>
+      <c r="E103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F103">
+        <v>47000</v>
+      </c>
+      <c r="G103" t="s">
+        <v>54</v>
+      </c>
+      <c r="H103" t="s">
+        <v>416</v>
+      </c>
+      <c r="I103" t="s">
+        <v>56</v>
+      </c>
+      <c r="J103">
+        <v>17.156286000000001</v>
+      </c>
+      <c r="K103">
+        <v>104.142301</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B104" t="s">
+        <v>417</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>418</v>
+      </c>
+      <c r="E104" t="s">
+        <v>419</v>
+      </c>
+      <c r="F104">
+        <v>10510</v>
+      </c>
+      <c r="G104" t="s">
+        <v>54</v>
+      </c>
+      <c r="H104" t="s">
+        <v>420</v>
+      </c>
+      <c r="I104" t="s">
+        <v>56</v>
+      </c>
+      <c r="J104">
+        <v>13.8124</v>
+      </c>
+      <c r="K104">
+        <v>100.7231</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B105" t="s">
+        <v>421</v>
+      </c>
+      <c r="C105" t="s">
+        <v>239</v>
+      </c>
+      <c r="D105" t="s">
+        <v>422</v>
+      </c>
+      <c r="E105" t="s">
+        <v>423</v>
+      </c>
+      <c r="F105">
+        <v>73160</v>
+      </c>
+      <c r="G105" t="s">
+        <v>54</v>
+      </c>
+      <c r="H105" t="s">
+        <v>424</v>
+      </c>
+      <c r="I105" t="s">
+        <v>253</v>
+      </c>
+      <c r="J105">
+        <v>13.707967</v>
+      </c>
+      <c r="K105">
+        <v>100.280942</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B106" t="s">
+        <v>425</v>
+      </c>
+      <c r="C106" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" t="s">
+        <v>426</v>
+      </c>
+      <c r="E106" t="s">
+        <v>427</v>
+      </c>
+      <c r="F106">
+        <v>11140</v>
+      </c>
+      <c r="G106" t="s">
+        <v>54</v>
+      </c>
+      <c r="H106" t="s">
+        <v>428</v>
+      </c>
+      <c r="I106" t="s">
+        <v>64</v>
+      </c>
+      <c r="J106">
+        <v>13.877005</v>
+      </c>
+      <c r="K106">
+        <v>100.410574</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B107" t="s">
+        <v>429</v>
+      </c>
+      <c r="C107" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" t="s">
+        <v>430</v>
+      </c>
+      <c r="E107" t="s">
+        <v>66</v>
+      </c>
+      <c r="F107">
+        <v>50100</v>
+      </c>
+      <c r="G107" t="s">
+        <v>54</v>
+      </c>
+      <c r="H107" t="s">
+        <v>431</v>
+      </c>
+      <c r="I107" t="s">
+        <v>64</v>
+      </c>
+      <c r="J107">
+        <v>18.769777000000001</v>
+      </c>
+      <c r="K107">
+        <v>98.975312000000002</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B108" t="s">
+        <v>432</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>433</v>
+      </c>
+      <c r="E108" t="s">
+        <v>60</v>
+      </c>
+      <c r="F108">
+        <v>10110</v>
+      </c>
+      <c r="G108" t="s">
+        <v>54</v>
+      </c>
+      <c r="H108" t="s">
+        <v>434</v>
+      </c>
+      <c r="I108" t="s">
+        <v>56</v>
+      </c>
+      <c r="J108">
+        <v>13.743230000000001</v>
+      </c>
+      <c r="K108">
+        <v>100.50597999999999</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B109" t="s">
+        <v>435</v>
+      </c>
+      <c r="C109" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109" t="s">
+        <v>436</v>
+      </c>
+      <c r="E109" t="s">
+        <v>437</v>
+      </c>
+      <c r="F109">
+        <v>10540</v>
+      </c>
+      <c r="G109" t="s">
+        <v>54</v>
+      </c>
+      <c r="H109" t="s">
+        <v>438</v>
+      </c>
+      <c r="I109" t="s">
+        <v>64</v>
+      </c>
+      <c r="J109">
+        <v>13.632619999999999</v>
+      </c>
+      <c r="K109">
+        <v>100.71084999999999</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B110" t="s">
+        <v>439</v>
+      </c>
+      <c r="C110" t="s">
+        <v>209</v>
+      </c>
+      <c r="D110" t="s">
+        <v>440</v>
+      </c>
+      <c r="E110" t="s">
+        <v>441</v>
+      </c>
+      <c r="F110">
+        <v>12120</v>
+      </c>
+      <c r="G110" t="s">
+        <v>54</v>
+      </c>
+      <c r="H110" t="s">
+        <v>442</v>
+      </c>
+      <c r="I110" t="s">
+        <v>443</v>
+      </c>
+      <c r="J110">
+        <v>14.08221</v>
+      </c>
+      <c r="K110">
+        <v>100.625694</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B111" t="s">
+        <v>444</v>
+      </c>
+      <c r="C111" t="s">
+        <v>170</v>
+      </c>
+      <c r="D111" t="s">
+        <v>445</v>
+      </c>
+      <c r="E111" t="s">
+        <v>66</v>
+      </c>
+      <c r="F111">
+        <v>21150</v>
+      </c>
+      <c r="G111" t="s">
+        <v>54</v>
+      </c>
+      <c r="H111" t="s">
+        <v>446</v>
+      </c>
+      <c r="I111" t="s">
+        <v>59</v>
+      </c>
+      <c r="J111">
+        <v>12.716531</v>
+      </c>
+      <c r="K111">
+        <v>101.162235</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B112" t="s">
+        <v>447</v>
+      </c>
+      <c r="C112" t="s">
+        <v>170</v>
+      </c>
+      <c r="D112" t="s">
+        <v>448</v>
+      </c>
+      <c r="E112" t="s">
+        <v>66</v>
+      </c>
+      <c r="F112">
+        <v>21000</v>
+      </c>
+      <c r="G112" t="s">
+        <v>54</v>
+      </c>
+      <c r="H112" t="s">
+        <v>449</v>
+      </c>
+      <c r="I112" t="s">
+        <v>365</v>
+      </c>
+      <c r="J112">
+        <v>12.68346</v>
+      </c>
+      <c r="K112">
+        <v>101.249</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B113" t="s">
+        <v>450</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>451</v>
+      </c>
+      <c r="E113" t="s">
+        <v>66</v>
+      </c>
+      <c r="F113">
+        <v>20000</v>
+      </c>
+      <c r="G113" t="s">
+        <v>54</v>
+      </c>
+      <c r="H113" t="s">
+        <v>452</v>
+      </c>
+      <c r="I113" t="s">
+        <v>365</v>
+      </c>
+      <c r="J113">
+        <v>13.337246</v>
+      </c>
+      <c r="K113">
+        <v>100.969245</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C114" t="s">
+        <v>110</v>
+      </c>
+      <c r="D114" t="s">
+        <v>454</v>
+      </c>
+      <c r="E114" t="s">
+        <v>66</v>
+      </c>
+      <c r="F114">
+        <v>10280</v>
+      </c>
+      <c r="G114" t="s">
+        <v>54</v>
+      </c>
+      <c r="H114" t="s">
+        <v>455</v>
+      </c>
+      <c r="I114" t="s">
+        <v>64</v>
+      </c>
+      <c r="J114">
+        <v>13.58437</v>
+      </c>
+      <c r="K114">
+        <v>100.60934</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B115" t="s">
+        <v>456</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>457</v>
+      </c>
+      <c r="E115" t="s">
+        <v>458</v>
+      </c>
+      <c r="F115">
+        <v>10170</v>
+      </c>
+      <c r="G115" t="s">
+        <v>54</v>
+      </c>
+      <c r="H115" t="s">
+        <v>459</v>
+      </c>
+      <c r="I115" t="s">
+        <v>64</v>
+      </c>
+      <c r="J115">
+        <v>13.767699</v>
+      </c>
+      <c r="K115">
+        <v>100.443153</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B116" t="s">
+        <v>460</v>
+      </c>
+      <c r="C116" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" t="s">
+        <v>461</v>
+      </c>
+      <c r="E116" t="s">
+        <v>70</v>
+      </c>
+      <c r="F116">
+        <v>90110</v>
+      </c>
+      <c r="G116" t="s">
+        <v>54</v>
+      </c>
+      <c r="H116" t="s">
+        <v>462</v>
+      </c>
+      <c r="I116" t="s">
+        <v>56</v>
+      </c>
+      <c r="J116">
+        <v>7.0155900000000004</v>
+      </c>
+      <c r="K116">
+        <v>100.47435</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B117" t="s">
+        <v>463</v>
+      </c>
+      <c r="C117" t="s">
+        <v>110</v>
+      </c>
+      <c r="D117" t="s">
+        <v>464</v>
+      </c>
+      <c r="E117" t="s">
+        <v>437</v>
+      </c>
+      <c r="F117">
+        <v>10540</v>
+      </c>
+      <c r="G117" t="s">
+        <v>54</v>
+      </c>
+      <c r="H117" t="s">
+        <v>465</v>
+      </c>
+      <c r="I117" t="s">
+        <v>64</v>
+      </c>
+      <c r="J117">
+        <v>13.648524</v>
+      </c>
+      <c r="K117">
+        <v>100.680503</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B118" t="s">
+        <v>466</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>467</v>
+      </c>
+      <c r="E118" t="s">
+        <v>175</v>
+      </c>
+      <c r="F118">
+        <v>10110</v>
+      </c>
+      <c r="G118" t="s">
+        <v>54</v>
+      </c>
+      <c r="H118" t="s">
+        <v>468</v>
+      </c>
+      <c r="I118" t="s">
+        <v>64</v>
+      </c>
+      <c r="J118">
+        <v>13.719353</v>
+      </c>
+      <c r="K118">
+        <v>100.58511300000001</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B119" t="s">
+        <v>469</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>470</v>
+      </c>
+      <c r="E119" t="s">
+        <v>53</v>
+      </c>
+      <c r="F119">
+        <v>10500</v>
+      </c>
+      <c r="G119" t="s">
+        <v>54</v>
+      </c>
+      <c r="H119" t="s">
+        <v>471</v>
+      </c>
+      <c r="I119" t="s">
+        <v>472</v>
+      </c>
+      <c r="J119">
+        <v>13.727149000000001</v>
+      </c>
+      <c r="K119">
+        <v>100.531553</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B120" t="s">
+        <v>473</v>
+      </c>
+      <c r="C120" t="s">
+        <v>151</v>
+      </c>
+      <c r="D120" t="s">
+        <v>474</v>
+      </c>
+      <c r="E120" t="s">
+        <v>66</v>
+      </c>
+      <c r="F120">
+        <v>41000</v>
+      </c>
+      <c r="G120" t="s">
+        <v>54</v>
+      </c>
+      <c r="H120" t="s">
+        <v>475</v>
+      </c>
+      <c r="I120" t="s">
+        <v>59</v>
+      </c>
+      <c r="J120">
+        <v>17.420338000000001</v>
+      </c>
+      <c r="K120">
+        <v>102.791157</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B121" t="s">
+        <v>476</v>
+      </c>
+      <c r="C121" t="s">
+        <v>86</v>
+      </c>
+      <c r="D121" t="s">
+        <v>477</v>
+      </c>
+      <c r="E121" t="s">
+        <v>66</v>
+      </c>
+      <c r="F121">
+        <v>83000</v>
+      </c>
+      <c r="G121" t="s">
+        <v>54</v>
+      </c>
+      <c r="H121" t="s">
+        <v>478</v>
+      </c>
+      <c r="I121" t="s">
+        <v>56</v>
+      </c>
+      <c r="J121">
+        <v>7.8266400000000003</v>
+      </c>
+      <c r="K121">
+        <v>98.343265000000002</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B122" t="s">
+        <v>479</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>480</v>
+      </c>
+      <c r="E122" t="s">
+        <v>278</v>
+      </c>
+      <c r="F122">
+        <v>10120</v>
+      </c>
+      <c r="G122" t="s">
+        <v>54</v>
+      </c>
+      <c r="H122" t="s">
+        <v>481</v>
+      </c>
+      <c r="I122" t="s">
+        <v>64</v>
+      </c>
+      <c r="J122">
+        <v>13.697649999999999</v>
+      </c>
+      <c r="K122">
+        <v>100.5378</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B123" t="s">
+        <v>482</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>483</v>
+      </c>
+      <c r="E123" t="s">
+        <v>484</v>
+      </c>
+      <c r="F123">
+        <v>10250</v>
+      </c>
+      <c r="G123" t="s">
+        <v>54</v>
+      </c>
+      <c r="H123" t="s">
+        <v>485</v>
+      </c>
+      <c r="I123" t="s">
+        <v>199</v>
+      </c>
+      <c r="J123">
+        <v>13.695548</v>
+      </c>
+      <c r="K123">
+        <v>100.648</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B124" t="s">
+        <v>486</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" t="s">
+        <v>487</v>
+      </c>
+      <c r="E124" t="s">
+        <v>66</v>
+      </c>
+      <c r="F124">
+        <v>20000</v>
+      </c>
+      <c r="G124" t="s">
+        <v>54</v>
+      </c>
+      <c r="H124" t="s">
+        <v>488</v>
+      </c>
+      <c r="I124" t="s">
+        <v>489</v>
+      </c>
+      <c r="J124">
+        <v>13.420329000000001</v>
+      </c>
+      <c r="K124">
+        <v>101.003405</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B125" t="s">
+        <v>490</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>491</v>
+      </c>
+      <c r="E125" t="s">
+        <v>62</v>
+      </c>
+      <c r="F125">
+        <v>10330</v>
+      </c>
+      <c r="G125" t="s">
+        <v>54</v>
+      </c>
+      <c r="H125" t="s">
+        <v>492</v>
+      </c>
+      <c r="I125" t="s">
+        <v>199</v>
+      </c>
+      <c r="J125">
+        <v>13.745903</v>
+      </c>
+      <c r="K125">
+        <v>100.535606</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B126" t="s">
+        <v>493</v>
+      </c>
+      <c r="C126" t="s">
+        <v>31</v>
+      </c>
+      <c r="D126" t="s">
+        <v>494</v>
+      </c>
+      <c r="E126" t="s">
+        <v>66</v>
+      </c>
+      <c r="F126">
+        <v>50300</v>
+      </c>
+      <c r="G126" t="s">
+        <v>54</v>
+      </c>
+      <c r="H126" t="s">
+        <v>495</v>
+      </c>
+      <c r="I126" t="s">
+        <v>56</v>
+      </c>
+      <c r="J126">
+        <v>18.788098000000002</v>
+      </c>
+      <c r="K126">
+        <v>99.001250999999996</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B127" t="s">
+        <v>496</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>497</v>
+      </c>
+      <c r="E127" t="s">
+        <v>62</v>
+      </c>
+      <c r="F127">
+        <v>10330</v>
+      </c>
+      <c r="G127" t="s">
+        <v>54</v>
+      </c>
+      <c r="H127" t="s">
+        <v>498</v>
+      </c>
+      <c r="I127" t="s">
+        <v>351</v>
+      </c>
+      <c r="J127">
+        <v>13.735849999999999</v>
+      </c>
+      <c r="K127">
+        <v>100.54546000000001</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B128" t="s">
+        <v>499</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>500</v>
+      </c>
+      <c r="E128" t="s">
+        <v>501</v>
+      </c>
+      <c r="F128">
+        <v>10600</v>
+      </c>
+      <c r="G128" t="s">
+        <v>54</v>
+      </c>
+      <c r="H128" t="s">
+        <v>502</v>
+      </c>
+      <c r="I128" t="s">
+        <v>199</v>
+      </c>
+      <c r="J128">
+        <v>13.72681</v>
+      </c>
+      <c r="K128">
+        <v>100.5097</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B129" t="s">
+        <v>503</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>504</v>
+      </c>
+      <c r="E129" t="s">
+        <v>505</v>
+      </c>
+      <c r="F129">
+        <v>10230</v>
+      </c>
+      <c r="G129" t="s">
+        <v>54</v>
+      </c>
+      <c r="H129" t="s">
+        <v>506</v>
+      </c>
+      <c r="I129" t="s">
+        <v>64</v>
+      </c>
+      <c r="J129">
+        <v>13.803610000000001</v>
+      </c>
+      <c r="K129">
+        <v>100.61409999999999</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B130" t="s">
+        <v>507</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>508</v>
+      </c>
+      <c r="E130" t="s">
+        <v>53</v>
+      </c>
+      <c r="F130">
+        <v>10500</v>
+      </c>
+      <c r="G130" t="s">
+        <v>54</v>
+      </c>
+      <c r="H130" t="s">
+        <v>509</v>
+      </c>
+      <c r="I130" t="s">
+        <v>56</v>
+      </c>
+      <c r="J130">
+        <v>13.729124000000001</v>
+      </c>
+      <c r="K130">
+        <v>100.528824</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B131" t="s">
+        <v>510</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>511</v>
+      </c>
+      <c r="E131" t="s">
+        <v>60</v>
+      </c>
+      <c r="F131">
+        <v>10100</v>
+      </c>
+      <c r="G131" t="s">
+        <v>54</v>
+      </c>
+      <c r="H131" t="s">
+        <v>512</v>
+      </c>
+      <c r="I131" t="s">
+        <v>56</v>
+      </c>
+      <c r="J131">
+        <v>13.740145999999999</v>
+      </c>
+      <c r="K131">
+        <v>100.50530000000001</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B132" t="s">
+        <v>513</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>514</v>
+      </c>
+      <c r="E132" t="s">
+        <v>148</v>
+      </c>
+      <c r="F132">
+        <v>10110</v>
+      </c>
+      <c r="G132" t="s">
+        <v>54</v>
+      </c>
+      <c r="H132" t="s">
+        <v>515</v>
+      </c>
+      <c r="I132" t="s">
+        <v>56</v>
+      </c>
+      <c r="J132">
+        <v>13.741744000000001</v>
+      </c>
+      <c r="K132">
+        <v>100.561981</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B133" t="s">
+        <v>516</v>
+      </c>
+      <c r="C133" t="s">
+        <v>31</v>
+      </c>
+      <c r="D133" t="s">
+        <v>517</v>
+      </c>
+      <c r="E133" t="s">
+        <v>66</v>
+      </c>
+      <c r="F133">
+        <v>50200</v>
+      </c>
+      <c r="G133" t="s">
+        <v>54</v>
+      </c>
+      <c r="H133" t="s">
+        <v>518</v>
+      </c>
+      <c r="I133" t="s">
+        <v>56</v>
+      </c>
+      <c r="J133">
+        <v>18.800138</v>
+      </c>
+      <c r="K133">
+        <v>98.970097999999993</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B134" t="s">
+        <v>519</v>
+      </c>
+      <c r="C134" t="s">
+        <v>94</v>
+      </c>
+      <c r="D134" t="s">
+        <v>520</v>
+      </c>
+      <c r="E134" t="s">
+        <v>66</v>
+      </c>
+      <c r="F134">
+        <v>40000</v>
+      </c>
+      <c r="G134" t="s">
+        <v>54</v>
+      </c>
+      <c r="H134" t="s">
+        <v>521</v>
+      </c>
+      <c r="I134" t="s">
+        <v>522</v>
+      </c>
+      <c r="J134">
+        <v>16.435400999999999</v>
+      </c>
+      <c r="K134">
+        <v>102.825468</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B135" t="s">
+        <v>523</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>524</v>
+      </c>
+      <c r="E135" t="s">
+        <v>308</v>
+      </c>
+      <c r="F135">
+        <v>10900</v>
+      </c>
+      <c r="G135" t="s">
+        <v>54</v>
+      </c>
+      <c r="H135" t="s">
+        <v>525</v>
+      </c>
+      <c r="I135" t="s">
+        <v>56</v>
+      </c>
+      <c r="J135">
+        <v>13.834663000000001</v>
+      </c>
+      <c r="K135">
+        <v>100.58207</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B136" t="s">
+        <v>526</v>
+      </c>
+      <c r="C136" t="s">
+        <v>110</v>
+      </c>
+      <c r="D136" t="s">
+        <v>527</v>
+      </c>
+      <c r="E136" t="s">
+        <v>66</v>
+      </c>
+      <c r="F136">
+        <v>10270</v>
+      </c>
+      <c r="G136" t="s">
+        <v>54</v>
+      </c>
+      <c r="H136" t="s">
+        <v>528</v>
+      </c>
+      <c r="I136" t="s">
+        <v>56</v>
+      </c>
+      <c r="J136">
+        <v>13.638839000000001</v>
+      </c>
+      <c r="K136">
+        <v>100.633588</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B137" t="s">
+        <v>529</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>530</v>
+      </c>
+      <c r="E137" t="s">
+        <v>343</v>
+      </c>
+      <c r="F137">
+        <v>10250</v>
+      </c>
+      <c r="G137" t="s">
+        <v>54</v>
+      </c>
+      <c r="H137" t="s">
+        <v>531</v>
+      </c>
+      <c r="I137" t="s">
+        <v>56</v>
+      </c>
+      <c r="J137">
+        <v>13.729526</v>
+      </c>
+      <c r="K137">
+        <v>100.65524000000001</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B138" t="s">
+        <v>532</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>533</v>
+      </c>
+      <c r="E138" t="s">
+        <v>179</v>
+      </c>
+      <c r="F138">
+        <v>10240</v>
+      </c>
+      <c r="G138" t="s">
+        <v>54</v>
+      </c>
+      <c r="H138" t="s">
+        <v>534</v>
+      </c>
+      <c r="I138" t="s">
+        <v>56</v>
+      </c>
+      <c r="J138">
+        <v>13.76502</v>
+      </c>
+      <c r="K138">
+        <v>100.65370799999999</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B139" t="s">
+        <v>535</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>536</v>
+      </c>
+      <c r="E139" t="s">
+        <v>537</v>
+      </c>
+      <c r="F139">
+        <v>10160</v>
+      </c>
+      <c r="G139" t="s">
+        <v>54</v>
+      </c>
+      <c r="H139" t="s">
+        <v>538</v>
+      </c>
+      <c r="I139" t="s">
+        <v>64</v>
+      </c>
+      <c r="J139">
+        <v>13.711</v>
+      </c>
+      <c r="K139">
+        <v>100.40900000000001</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B140" t="s">
+        <v>539</v>
+      </c>
+      <c r="C140" t="s">
+        <v>103</v>
+      </c>
+      <c r="D140" t="s">
+        <v>540</v>
+      </c>
+      <c r="E140" t="s">
+        <v>66</v>
+      </c>
+      <c r="F140">
+        <v>11000</v>
+      </c>
+      <c r="G140" t="s">
+        <v>54</v>
+      </c>
+      <c r="H140" t="s">
+        <v>541</v>
+      </c>
+      <c r="I140" t="s">
+        <v>365</v>
+      </c>
+      <c r="J140">
+        <v>13.8657</v>
+      </c>
+      <c r="K140">
+        <v>100.497027</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B141" t="s">
+        <v>542</v>
+      </c>
+      <c r="C141" t="s">
+        <v>103</v>
+      </c>
+      <c r="D141" t="s">
+        <v>543</v>
+      </c>
+      <c r="E141" t="s">
+        <v>544</v>
+      </c>
+      <c r="F141">
+        <v>11110</v>
+      </c>
+      <c r="G141" t="s">
+        <v>54</v>
+      </c>
+      <c r="H141" t="s">
+        <v>545</v>
+      </c>
+      <c r="I141" t="s">
+        <v>56</v>
+      </c>
+      <c r="J141">
+        <v>13.91385</v>
+      </c>
+      <c r="K141">
+        <v>100.423204</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B142" t="s">
+        <v>546</v>
+      </c>
+      <c r="C142" t="s">
+        <v>103</v>
+      </c>
+      <c r="D142" t="s">
+        <v>547</v>
+      </c>
+      <c r="E142" t="s">
+        <v>548</v>
+      </c>
+      <c r="F142">
+        <v>11120</v>
+      </c>
+      <c r="G142" t="s">
+        <v>54</v>
+      </c>
+      <c r="H142" t="s">
+        <v>549</v>
+      </c>
+      <c r="I142" t="s">
+        <v>56</v>
+      </c>
+      <c r="J142">
+        <v>13.917501</v>
+      </c>
+      <c r="K142">
+        <v>100.54040000000001</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B143" t="s">
+        <v>550</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>551</v>
+      </c>
+      <c r="E143" t="s">
+        <v>501</v>
+      </c>
+      <c r="F143">
+        <v>10600</v>
+      </c>
+      <c r="G143" t="s">
+        <v>54</v>
+      </c>
+      <c r="H143" t="s">
+        <v>552</v>
+      </c>
+      <c r="I143" t="s">
+        <v>56</v>
+      </c>
+      <c r="J143">
+        <v>13.721811000000001</v>
+      </c>
+      <c r="K143">
+        <v>100.49949100000001</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B144" t="s">
+        <v>553</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>554</v>
+      </c>
+      <c r="E144" t="s">
+        <v>555</v>
+      </c>
+      <c r="F144">
+        <v>10600</v>
+      </c>
+      <c r="G144" t="s">
+        <v>54</v>
+      </c>
+      <c r="H144" t="s">
+        <v>556</v>
+      </c>
+      <c r="I144" t="s">
+        <v>56</v>
+      </c>
+      <c r="J144">
+        <v>13.709250000000001</v>
+      </c>
+      <c r="K144">
+        <v>100.48050000000001</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B145" t="s">
+        <v>557</v>
+      </c>
+      <c r="C145" t="s">
+        <v>110</v>
+      </c>
+      <c r="D145" t="s">
+        <v>558</v>
+      </c>
+      <c r="E145" t="s">
+        <v>437</v>
+      </c>
+      <c r="F145">
+        <v>10540</v>
+      </c>
+      <c r="G145" t="s">
+        <v>54</v>
+      </c>
+      <c r="H145" t="s">
+        <v>559</v>
+      </c>
+      <c r="I145" t="s">
+        <v>253</v>
+      </c>
+      <c r="J145">
+        <v>13.603809999999999</v>
+      </c>
+      <c r="K145">
+        <v>100.707775</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B146" t="s">
+        <v>560</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>561</v>
+      </c>
+      <c r="E146" t="s">
+        <v>131</v>
+      </c>
+      <c r="F146">
+        <v>10310</v>
+      </c>
+      <c r="G146" t="s">
+        <v>54</v>
+      </c>
+      <c r="H146" t="s">
+        <v>562</v>
+      </c>
+      <c r="I146" t="s">
+        <v>56</v>
+      </c>
+      <c r="J146">
+        <v>13.766588</v>
+      </c>
+      <c r="K146">
+        <v>100.602783</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B147" t="s">
+        <v>563</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>564</v>
+      </c>
+      <c r="E147" t="s">
+        <v>565</v>
+      </c>
+      <c r="F147">
+        <v>10150</v>
+      </c>
+      <c r="G147" t="s">
+        <v>54</v>
+      </c>
+      <c r="H147" t="s">
+        <v>566</v>
+      </c>
+      <c r="I147" t="s">
+        <v>56</v>
+      </c>
+      <c r="J147">
+        <v>13.677467</v>
+      </c>
+      <c r="K147">
+        <v>100.463548</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B148" t="s">
+        <v>567</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>568</v>
+      </c>
+      <c r="E148" t="s">
+        <v>226</v>
+      </c>
+      <c r="F148">
+        <v>10400</v>
+      </c>
+      <c r="G148" t="s">
+        <v>54</v>
+      </c>
+      <c r="H148" t="s">
+        <v>569</v>
+      </c>
+      <c r="I148" t="s">
+        <v>59</v>
+      </c>
+      <c r="J148">
+        <v>13.754111999999999</v>
+      </c>
+      <c r="K148">
+        <v>100.54196399999999</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B149" t="s">
+        <v>570</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>571</v>
+      </c>
+      <c r="E149" t="s">
+        <v>175</v>
+      </c>
+      <c r="F149">
+        <v>10110</v>
+      </c>
+      <c r="G149" t="s">
+        <v>54</v>
+      </c>
+      <c r="H149" t="s">
+        <v>572</v>
+      </c>
+      <c r="I149" t="s">
+        <v>56</v>
+      </c>
+      <c r="J149">
+        <v>13.728609000000001</v>
+      </c>
+      <c r="K149">
+        <v>100.57211599999999</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B150" t="s">
+        <v>573</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>574</v>
+      </c>
+      <c r="E150" t="s">
+        <v>119</v>
+      </c>
+      <c r="F150">
+        <v>10400</v>
+      </c>
+      <c r="G150" t="s">
+        <v>54</v>
+      </c>
+      <c r="H150" t="s">
+        <v>575</v>
+      </c>
+      <c r="I150" t="s">
+        <v>351</v>
+      </c>
+      <c r="J150">
+        <v>13.777850000000001</v>
+      </c>
+      <c r="K150">
+        <v>100.5436</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B151" t="s">
+        <v>576</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>577</v>
+      </c>
+      <c r="E151" t="s">
+        <v>555</v>
+      </c>
+      <c r="F151">
+        <v>10600</v>
+      </c>
+      <c r="G151" t="s">
+        <v>54</v>
+      </c>
+      <c r="H151" t="s">
+        <v>578</v>
+      </c>
+      <c r="I151" t="s">
+        <v>199</v>
+      </c>
+      <c r="J151">
+        <v>13.713789999999999</v>
+      </c>
+      <c r="K151">
+        <v>100.4799</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B152" t="s">
+        <v>579</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>580</v>
+      </c>
+      <c r="E152" t="s">
+        <v>336</v>
+      </c>
+      <c r="F152">
+        <v>10260</v>
+      </c>
+      <c r="G152" t="s">
+        <v>54</v>
+      </c>
+      <c r="H152" t="s">
+        <v>581</v>
+      </c>
+      <c r="I152" t="s">
+        <v>351</v>
+      </c>
+      <c r="J152">
+        <v>13.68628</v>
+      </c>
+      <c r="K152">
+        <v>100.61109999999999</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B153" t="s">
+        <v>582</v>
+      </c>
+      <c r="C153" t="s">
+        <v>209</v>
+      </c>
+      <c r="D153" t="s">
+        <v>583</v>
+      </c>
+      <c r="E153" t="s">
+        <v>322</v>
+      </c>
+      <c r="F153">
+        <v>12130</v>
+      </c>
+      <c r="G153" t="s">
+        <v>54</v>
+      </c>
+      <c r="H153" t="s">
+        <v>584</v>
+      </c>
+      <c r="I153" t="s">
+        <v>199</v>
+      </c>
+      <c r="J153">
+        <v>13.99076</v>
+      </c>
+      <c r="K153">
+        <v>100.61854</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B154" t="s">
+        <v>585</v>
+      </c>
+      <c r="C154" t="s">
+        <v>110</v>
+      </c>
+      <c r="D154" t="s">
+        <v>586</v>
+      </c>
+      <c r="E154" t="s">
+        <v>437</v>
+      </c>
+      <c r="F154">
+        <v>10540</v>
+      </c>
+      <c r="G154" t="s">
+        <v>54</v>
+      </c>
+      <c r="H154" t="s">
+        <v>587</v>
+      </c>
+      <c r="I154" t="s">
+        <v>199</v>
+      </c>
+      <c r="J154">
+        <v>13.653169999999999</v>
+      </c>
+      <c r="K154">
+        <v>100.67901000000001</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B155" t="s">
+        <v>588</v>
+      </c>
+      <c r="C155" t="s">
+        <v>589</v>
+      </c>
+      <c r="D155" t="s">
+        <v>590</v>
+      </c>
+      <c r="E155" t="s">
+        <v>66</v>
+      </c>
+      <c r="F155">
+        <v>31000</v>
+      </c>
+      <c r="G155" t="s">
+        <v>54</v>
+      </c>
+      <c r="H155" t="s">
+        <v>591</v>
+      </c>
+      <c r="I155" t="s">
+        <v>56</v>
+      </c>
+      <c r="J155">
+        <v>14.988350000000001</v>
+      </c>
+      <c r="K155">
+        <v>103.086</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B156" t="s">
+        <v>592</v>
+      </c>
+      <c r="C156" t="s">
+        <v>593</v>
+      </c>
+      <c r="D156" t="s">
+        <v>594</v>
+      </c>
+      <c r="E156" t="s">
+        <v>548</v>
+      </c>
+      <c r="F156">
+        <v>11120</v>
+      </c>
+      <c r="G156" t="s">
+        <v>54</v>
+      </c>
+      <c r="H156" t="s">
+        <v>595</v>
+      </c>
+      <c r="I156" t="s">
+        <v>199</v>
+      </c>
+      <c r="J156">
+        <v>13.903498000000001</v>
+      </c>
+      <c r="K156">
+        <v>100.526061</v>
+      </c>
+      <c r="L156">
         <v>0</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="743">
   <si>
     <t>สาขาสี่พระยา</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>lat</t>
+  </si>
+  <si>
+    <t>zip</t>
   </si>
   <si>
     <t>name</t>
@@ -2587,13 +2590,13 @@
   <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="30.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="9" max="9" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2602,42 +2605,42 @@
         <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
       </c>
       <c r="D1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1" t="s">
         <v>598</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>596</v>
-      </c>
       <c r="H1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -2649,19 +2652,19 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>10500</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2">
         <v>13.731427999999999</v>
@@ -2675,7 +2678,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2687,19 +2690,19 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>10200</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J3">
         <v>13.746428</v>
@@ -2713,7 +2716,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -2725,19 +2728,19 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4">
         <v>10100</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4">
         <v>13.737927000000001</v>
@@ -2751,7 +2754,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -2763,19 +2766,19 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5">
         <v>10330</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5">
         <v>13.743370000000001</v>
@@ -2789,7 +2792,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2801,19 +2804,19 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F6">
         <v>10330</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6">
         <v>13.747645</v>
@@ -2827,7 +2830,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -2839,19 +2842,19 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <v>20000</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7">
         <v>13.367065999999999</v>
@@ -2865,7 +2868,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -2877,19 +2880,19 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>30000</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8">
         <v>14.973026000000001</v>
@@ -2903,7 +2906,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -2915,19 +2918,19 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>80000</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9">
         <v>8.4409030000000005</v>
@@ -2941,7 +2944,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -2953,19 +2956,19 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10">
         <v>90110</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10">
         <v>7.0026919999999997</v>
@@ -2979,7 +2982,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -2991,19 +2994,19 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F11">
         <v>95000</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J11">
         <v>6.5510890000000002</v>
@@ -3017,7 +3020,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -3029,19 +3032,19 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12">
         <v>20170</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J12">
         <v>13.311185</v>
@@ -3055,7 +3058,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -3067,19 +3070,19 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13">
         <v>20150</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J13">
         <v>12.971168</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -3105,19 +3108,19 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14">
         <v>50100</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J14">
         <v>18.781120000000001</v>
@@ -3131,31 +3134,31 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15">
         <v>24000</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15">
         <v>13.692282000000001</v>
@@ -3169,31 +3172,31 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16">
         <v>83000</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J16">
         <v>7.880992</v>
@@ -3207,31 +3210,31 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17">
         <v>34000</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J17">
         <v>15.232138000000001</v>
@@ -3245,31 +3248,31 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F18">
         <v>40000</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J18">
         <v>16.435815000000002</v>
@@ -3283,31 +3286,31 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <v>10100</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J19">
         <v>13.75409</v>
@@ -3321,31 +3324,31 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F20">
         <v>11000</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J20">
         <v>13.843832000000001</v>
@@ -3359,31 +3362,31 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21">
         <v>10500</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J21">
         <v>13.723876000000001</v>
@@ -3397,31 +3400,31 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F22">
         <v>10270</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J22">
         <v>13.649533</v>
@@ -3435,31 +3438,31 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F23">
         <v>65000</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J23">
         <v>16.817119999999999</v>
@@ -3473,31 +3476,31 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F24">
         <v>10400</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J24">
         <v>13.768891</v>
@@ -3511,31 +3514,31 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F25">
         <v>18000</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J25">
         <v>14.525961000000001</v>
@@ -3549,31 +3552,31 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F26">
         <v>10140</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J26">
         <v>13.686303000000001</v>
@@ -3587,31 +3590,31 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F27">
         <v>10310</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J27">
         <v>13.796044</v>
@@ -3625,31 +3628,31 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28">
         <v>32000</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J28">
         <v>14.886862000000001</v>
@@ -3663,31 +3666,31 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29">
         <v>52000</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J29">
         <v>18.288557000000001</v>
@@ -3701,31 +3704,31 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30">
         <v>60000</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J30">
         <v>15.702826999999999</v>
@@ -3739,31 +3742,31 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F31">
         <v>10110</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J31">
         <v>13.735305</v>
@@ -3777,31 +3780,31 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32">
         <v>41000</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J32">
         <v>17.404153999999998</v>
@@ -3815,31 +3818,31 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F33">
         <v>22000</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J33">
         <v>12.606049000000001</v>
@@ -3853,31 +3856,31 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F34">
         <v>10100</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J34">
         <v>13.739537</v>
@@ -3891,31 +3894,31 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F35">
         <v>10120</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J35">
         <v>13.720420000000001</v>
@@ -3929,31 +3932,31 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F36">
         <v>10700</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J36">
         <v>13.773898000000001</v>
@@ -3967,31 +3970,31 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F37">
         <v>21000</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J37">
         <v>12.682145</v>
@@ -4005,31 +4008,31 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F38">
         <v>10110</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J38">
         <v>13.720767</v>
@@ -4043,31 +4046,31 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F39">
         <v>10240</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J39">
         <v>13.752618999999999</v>
@@ -4081,31 +4084,31 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F40">
         <v>10100</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J40">
         <v>13.740399999999999</v>
@@ -4119,31 +4122,31 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F41">
         <v>10100</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J41">
         <v>13.737</v>
@@ -4157,31 +4160,31 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F42">
         <v>10210</v>
       </c>
       <c r="G42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J42">
         <v>13.887947</v>
@@ -4195,31 +4198,31 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F43">
         <v>84000</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J43">
         <v>9.1401420000000009</v>
@@ -4233,31 +4236,31 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F44">
         <v>10160</v>
       </c>
       <c r="G44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J44">
         <v>13.711740000000001</v>
@@ -4271,31 +4274,31 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F45">
         <v>57000</v>
       </c>
       <c r="G45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J45">
         <v>19.910543000000001</v>
@@ -4309,31 +4312,31 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F46">
         <v>10250</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J46">
         <v>13.710176000000001</v>
@@ -4347,31 +4350,31 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E47" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F47">
         <v>12130</v>
       </c>
       <c r="G47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J47">
         <v>13.962237</v>
@@ -4385,31 +4388,31 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F48">
         <v>10240</v>
       </c>
       <c r="G48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J48">
         <v>13.767502</v>
@@ -4423,31 +4426,31 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F49">
         <v>10260</v>
       </c>
       <c r="G49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J49">
         <v>13.670018000000001</v>
@@ -4461,31 +4464,31 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E50" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F50">
         <v>10120</v>
       </c>
       <c r="G50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H50" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J50">
         <v>13.694651</v>
@@ -4499,31 +4502,31 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E51" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F51">
         <v>10400</v>
       </c>
       <c r="G51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J51">
         <v>13.750666000000001</v>
@@ -4537,31 +4540,31 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B52" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F52">
         <v>10500</v>
       </c>
       <c r="G52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J52">
         <v>13.744224000000001</v>
@@ -4575,31 +4578,31 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B53" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F53">
         <v>10100</v>
       </c>
       <c r="G53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H53" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J53">
         <v>13.750797</v>
@@ -4613,31 +4616,31 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B54" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F54">
         <v>10500</v>
       </c>
       <c r="G54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J54">
         <v>13.728270999999999</v>
@@ -4651,31 +4654,31 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F55">
         <v>73000</v>
       </c>
       <c r="G55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H55" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J55">
         <v>13.816895000000001</v>
@@ -4689,31 +4692,31 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C56" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F56">
         <v>12150</v>
       </c>
       <c r="G56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J56">
         <v>13.935321</v>
@@ -4727,31 +4730,31 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B57" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E57" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F57">
         <v>83150</v>
       </c>
       <c r="G57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J57">
         <v>7.8851069999999996</v>
@@ -4765,31 +4768,31 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F58">
         <v>20260</v>
       </c>
       <c r="G58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J58">
         <v>12.927666</v>
@@ -4803,31 +4806,31 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D59" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F59">
         <v>11000</v>
       </c>
       <c r="G59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H59" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J59">
         <v>13.855147000000001</v>
@@ -4841,31 +4844,31 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B60" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E60" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F60">
         <v>21130</v>
       </c>
       <c r="G60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H60" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J60">
         <v>12.723402</v>
@@ -4879,31 +4882,31 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B61" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F61">
         <v>10400</v>
       </c>
       <c r="G61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H61" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J61">
         <v>13.783474</v>
@@ -4917,31 +4920,31 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B62" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C62" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F62">
         <v>74000</v>
       </c>
       <c r="G62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J62">
         <v>13.551465</v>
@@ -4955,31 +4958,31 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F63">
         <v>10160</v>
       </c>
       <c r="G63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H63" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J63">
         <v>13.704817</v>
@@ -4993,31 +4996,31 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E64" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F64">
         <v>20110</v>
       </c>
       <c r="G64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H64" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J64">
         <v>13.162651</v>
@@ -5031,31 +5034,31 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B65" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E65" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F65">
         <v>10120</v>
       </c>
       <c r="G65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H65" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J65">
         <v>13.69605</v>
@@ -5069,31 +5072,31 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B66" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F66">
         <v>10330</v>
       </c>
       <c r="G66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I66" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J66">
         <v>13.739057000000001</v>
@@ -5107,31 +5110,31 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B67" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C67" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D67" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E67" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F67">
         <v>13000</v>
       </c>
       <c r="G67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H67" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J67">
         <v>14.354858</v>
@@ -5145,31 +5148,31 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B68" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E68" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F68">
         <v>10150</v>
       </c>
       <c r="G68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H68" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J68">
         <v>13.680495000000001</v>
@@ -5183,31 +5186,31 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B69" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F69">
         <v>10120</v>
       </c>
       <c r="G69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H69" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J69">
         <v>13.724164</v>
@@ -5221,31 +5224,31 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B70" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F70">
         <v>10110</v>
       </c>
       <c r="G70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H70" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J70">
         <v>13.741047999999999</v>
@@ -5259,31 +5262,31 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B71" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E71" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F71">
         <v>10320</v>
       </c>
       <c r="G71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H71" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J71">
         <v>13.777659</v>
@@ -5297,31 +5300,31 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B72" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E72" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F72">
         <v>10310</v>
       </c>
       <c r="G72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H72" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J72">
         <v>13.772365000000001</v>
@@ -5335,31 +5338,31 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B73" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E73" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F73">
         <v>10900</v>
       </c>
       <c r="G73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H73" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J73">
         <v>13.819765</v>
@@ -5373,31 +5376,31 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B74" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F74">
         <v>10120</v>
       </c>
       <c r="G74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H74" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J74">
         <v>13.7072</v>
@@ -5411,31 +5414,31 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B75" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E75" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F75">
         <v>10230</v>
       </c>
       <c r="G75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H75" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J75">
         <v>13.825226000000001</v>
@@ -5449,31 +5452,31 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B76" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F76">
         <v>10250</v>
       </c>
       <c r="G76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H76" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J76">
         <v>13.733335</v>
@@ -5487,31 +5490,31 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B77" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C77" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D77" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E77" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F77">
         <v>12110</v>
       </c>
       <c r="G77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H77" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J77">
         <v>13.989385</v>
@@ -5525,31 +5528,31 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B78" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E78" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F78">
         <v>10900</v>
       </c>
       <c r="G78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H78" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J78">
         <v>13.808109999999999</v>
@@ -5563,31 +5566,31 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B79" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E79" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F79">
         <v>10310</v>
       </c>
       <c r="G79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H79" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J79">
         <v>13.755098</v>
@@ -5601,31 +5604,31 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B80" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C80" t="s">
         <v>31</v>
       </c>
       <c r="D80" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E80" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F80">
         <v>50000</v>
       </c>
       <c r="G80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H80" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J80">
         <v>18.783954999999999</v>
@@ -5639,31 +5642,31 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B81" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E81" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F81">
         <v>10260</v>
       </c>
       <c r="G81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H81" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J81">
         <v>13.702631</v>
@@ -5677,31 +5680,31 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B82" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E82" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F82">
         <v>10140</v>
       </c>
       <c r="G82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H82" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J82">
         <v>13.669539</v>
@@ -5715,31 +5718,31 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B83" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E83" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F83">
         <v>10250</v>
       </c>
       <c r="G83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H83" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J83">
         <v>13.688057000000001</v>
@@ -5753,31 +5756,31 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B84" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E84" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F84">
         <v>10260</v>
       </c>
       <c r="G84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H84" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I84" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J84">
         <v>13.686070000000001</v>
@@ -5791,31 +5794,31 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B85" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C85" t="s">
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F85">
         <v>30000</v>
       </c>
       <c r="G85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H85" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J85">
         <v>14.979063</v>
@@ -5829,31 +5832,31 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B86" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F86">
         <v>20000</v>
       </c>
       <c r="G86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H86" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J86">
         <v>13.343408</v>
@@ -5867,31 +5870,31 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B87" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F87">
         <v>10120</v>
       </c>
       <c r="G87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H87" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J87">
         <v>13.721487</v>
@@ -5905,31 +5908,31 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B88" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C88" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D88" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E88" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F88">
         <v>70000</v>
       </c>
       <c r="G88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H88" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J88">
         <v>13.536728</v>
@@ -5943,31 +5946,31 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B89" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F89">
         <v>10330</v>
       </c>
       <c r="G89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H89" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I89" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J89">
         <v>13.746230000000001</v>
@@ -5981,31 +5984,31 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B90" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E90" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F90">
         <v>10400</v>
       </c>
       <c r="G90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H90" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J90">
         <v>13.787800000000001</v>
@@ -6019,31 +6022,31 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B91" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F91">
         <v>10260</v>
       </c>
       <c r="G91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H91" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J91">
         <v>13.668523</v>
@@ -6057,31 +6060,31 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B92" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E92" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F92">
         <v>10310</v>
       </c>
       <c r="G92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H92" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J92">
         <v>13.758324</v>
@@ -6095,31 +6098,31 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B93" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C93" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D93" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E93" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F93">
         <v>21140</v>
       </c>
       <c r="G93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H93" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J93">
         <v>13.019546</v>
@@ -6133,31 +6136,31 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B94" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E94" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F94">
         <v>10700</v>
       </c>
       <c r="G94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H94" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I94" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J94">
         <v>13.776652</v>
@@ -6171,31 +6174,31 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B95" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C95" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D95" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E95" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F95">
         <v>83000</v>
       </c>
       <c r="G95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H95" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I95" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J95">
         <v>7.8911369999999996</v>
@@ -6209,31 +6212,31 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B96" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E96" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F96">
         <v>20110</v>
       </c>
       <c r="G96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H96" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I96" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J96">
         <v>13.169494</v>
@@ -6247,31 +6250,31 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B97" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E97" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F97">
         <v>10220</v>
       </c>
       <c r="G97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H97" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I97" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J97">
         <v>13.87214</v>
@@ -6285,31 +6288,31 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B98" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E98" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F98">
         <v>10150</v>
       </c>
       <c r="G98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H98" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I98" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J98">
         <v>13.663781</v>
@@ -6323,31 +6326,31 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B99" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C99" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D99" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F99">
         <v>71000</v>
       </c>
       <c r="G99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H99" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J99">
         <v>14.020758000000001</v>
@@ -6361,31 +6364,31 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B100" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C100" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D100" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F100">
         <v>75000</v>
       </c>
       <c r="G100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H100" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J100">
         <v>13.40494</v>
@@ -6399,31 +6402,31 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B101" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C101" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D101" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E101" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F101">
         <v>45000</v>
       </c>
       <c r="G101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H101" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J101">
         <v>16.047450000000001</v>
@@ -6437,31 +6440,31 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B102" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C102" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D102" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F102">
         <v>92000</v>
       </c>
       <c r="G102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H102" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J102">
         <v>7.5551310000000003</v>
@@ -6475,31 +6478,31 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B103" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C103" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D103" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E103" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F103">
         <v>47000</v>
       </c>
       <c r="G103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H103" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J103">
         <v>17.156286000000001</v>
@@ -6513,31 +6516,31 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B104" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E104" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F104">
         <v>10510</v>
       </c>
       <c r="G104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H104" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J104">
         <v>13.8124</v>
@@ -6551,31 +6554,31 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B105" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C105" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D105" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E105" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F105">
         <v>73160</v>
       </c>
       <c r="G105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H105" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I105" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J105">
         <v>13.707967</v>
@@ -6589,31 +6592,31 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B106" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C106" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D106" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E106" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F106">
         <v>11140</v>
       </c>
       <c r="G106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H106" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I106" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J106">
         <v>13.877005</v>
@@ -6627,31 +6630,31 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B107" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C107" t="s">
         <v>31</v>
       </c>
       <c r="D107" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E107" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F107">
         <v>50100</v>
       </c>
       <c r="G107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H107" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I107" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J107">
         <v>18.769777000000001</v>
@@ -6665,31 +6668,31 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B108" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E108" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F108">
         <v>10110</v>
       </c>
       <c r="G108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H108" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J108">
         <v>13.743230000000001</v>
@@ -6703,31 +6706,31 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B109" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C109" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D109" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E109" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F109">
         <v>10540</v>
       </c>
       <c r="G109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H109" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J109">
         <v>13.632619999999999</v>
@@ -6741,31 +6744,31 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B110" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C110" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D110" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E110" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F110">
         <v>12120</v>
       </c>
       <c r="G110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H110" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I110" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J110">
         <v>14.08221</v>
@@ -6779,31 +6782,31 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B111" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C111" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D111" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E111" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F111">
         <v>21150</v>
       </c>
       <c r="G111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H111" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J111">
         <v>12.716531</v>
@@ -6817,31 +6820,31 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B112" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C112" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D112" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E112" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F112">
         <v>21000</v>
       </c>
       <c r="G112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H112" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I112" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J112">
         <v>12.68346</v>
@@ -6855,31 +6858,31 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B113" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C113" t="s">
         <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F113">
         <v>20000</v>
       </c>
       <c r="G113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H113" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I113" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J113">
         <v>13.337246</v>
@@ -6893,31 +6896,31 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B114" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C114" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D114" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E114" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F114">
         <v>10280</v>
       </c>
       <c r="G114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H114" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J114">
         <v>13.58437</v>
@@ -6931,31 +6934,31 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B115" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E115" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F115">
         <v>10170</v>
       </c>
       <c r="G115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H115" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I115" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J115">
         <v>13.767699</v>
@@ -6969,31 +6972,31 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B116" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C116" t="s">
         <v>21</v>
       </c>
       <c r="D116" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E116" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F116">
         <v>90110</v>
       </c>
       <c r="G116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H116" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J116">
         <v>7.0155900000000004</v>
@@ -7007,31 +7010,31 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B117" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C117" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D117" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E117" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F117">
         <v>10540</v>
       </c>
       <c r="G117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H117" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I117" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J117">
         <v>13.648524</v>
@@ -7045,31 +7048,31 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B118" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E118" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F118">
         <v>10110</v>
       </c>
       <c r="G118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H118" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I118" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J118">
         <v>13.719353</v>
@@ -7083,31 +7086,31 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B119" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F119">
         <v>10500</v>
       </c>
       <c r="G119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H119" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I119" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J119">
         <v>13.727149000000001</v>
@@ -7121,31 +7124,31 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B120" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C120" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D120" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E120" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F120">
         <v>41000</v>
       </c>
       <c r="G120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H120" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I120" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J120">
         <v>17.420338000000001</v>
@@ -7159,31 +7162,31 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B121" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C121" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D121" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E121" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F121">
         <v>83000</v>
       </c>
       <c r="G121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H121" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J121">
         <v>7.8266400000000003</v>
@@ -7197,31 +7200,31 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B122" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E122" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F122">
         <v>10120</v>
       </c>
       <c r="G122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H122" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I122" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J122">
         <v>13.697649999999999</v>
@@ -7235,31 +7238,31 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B123" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E123" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F123">
         <v>10250</v>
       </c>
       <c r="G123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H123" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I123" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J123">
         <v>13.695548</v>
@@ -7273,31 +7276,31 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B124" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E124" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F124">
         <v>20000</v>
       </c>
       <c r="G124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H124" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I124" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J124">
         <v>13.420329000000001</v>
@@ -7311,31 +7314,31 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B125" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E125" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F125">
         <v>10330</v>
       </c>
       <c r="G125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H125" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I125" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J125">
         <v>13.745903</v>
@@ -7349,31 +7352,31 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B126" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C126" t="s">
         <v>31</v>
       </c>
       <c r="D126" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E126" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F126">
         <v>50300</v>
       </c>
       <c r="G126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H126" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J126">
         <v>18.788098000000002</v>
@@ -7387,31 +7390,31 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B127" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E127" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F127">
         <v>10330</v>
       </c>
       <c r="G127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H127" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I127" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J127">
         <v>13.735849999999999</v>
@@ -7425,31 +7428,31 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B128" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E128" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F128">
         <v>10600</v>
       </c>
       <c r="G128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H128" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I128" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J128">
         <v>13.72681</v>
@@ -7463,31 +7466,31 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B129" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E129" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F129">
         <v>10230</v>
       </c>
       <c r="G129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H129" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I129" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J129">
         <v>13.803610000000001</v>
@@ -7501,31 +7504,31 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B130" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E130" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F130">
         <v>10500</v>
       </c>
       <c r="G130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H130" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J130">
         <v>13.729124000000001</v>
@@ -7539,31 +7542,31 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B131" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E131" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F131">
         <v>10100</v>
       </c>
       <c r="G131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H131" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J131">
         <v>13.740145999999999</v>
@@ -7577,31 +7580,31 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B132" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E132" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F132">
         <v>10110</v>
       </c>
       <c r="G132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H132" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J132">
         <v>13.741744000000001</v>
@@ -7615,31 +7618,31 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B133" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C133" t="s">
         <v>31</v>
       </c>
       <c r="D133" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E133" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F133">
         <v>50200</v>
       </c>
       <c r="G133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H133" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J133">
         <v>18.800138</v>
@@ -7653,31 +7656,31 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B134" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C134" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D134" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E134" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F134">
         <v>40000</v>
       </c>
       <c r="G134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H134" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I134" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J134">
         <v>16.435400999999999</v>
@@ -7691,31 +7694,31 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B135" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E135" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F135">
         <v>10900</v>
       </c>
       <c r="G135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H135" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J135">
         <v>13.834663000000001</v>
@@ -7729,31 +7732,31 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B136" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C136" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D136" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E136" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F136">
         <v>10270</v>
       </c>
       <c r="G136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H136" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J136">
         <v>13.638839000000001</v>
@@ -7767,31 +7770,31 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B137" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E137" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F137">
         <v>10250</v>
       </c>
       <c r="G137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H137" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J137">
         <v>13.729526</v>
@@ -7805,31 +7808,31 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B138" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E138" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F138">
         <v>10240</v>
       </c>
       <c r="G138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H138" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J138">
         <v>13.76502</v>
@@ -7843,31 +7846,31 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B139" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E139" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F139">
         <v>10160</v>
       </c>
       <c r="G139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H139" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I139" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J139">
         <v>13.711</v>
@@ -7881,31 +7884,31 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B140" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C140" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D140" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E140" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F140">
         <v>11000</v>
       </c>
       <c r="G140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H140" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I140" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J140">
         <v>13.8657</v>
@@ -7919,31 +7922,31 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B141" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C141" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D141" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E141" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F141">
         <v>11110</v>
       </c>
       <c r="G141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H141" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J141">
         <v>13.91385</v>
@@ -7957,31 +7960,31 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B142" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C142" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D142" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E142" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F142">
         <v>11120</v>
       </c>
       <c r="G142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H142" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J142">
         <v>13.917501</v>
@@ -7995,31 +7998,31 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B143" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E143" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F143">
         <v>10600</v>
       </c>
       <c r="G143" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H143" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J143">
         <v>13.721811000000001</v>
@@ -8033,31 +8036,31 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B144" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E144" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F144">
         <v>10600</v>
       </c>
       <c r="G144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H144" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J144">
         <v>13.709250000000001</v>
@@ -8071,31 +8074,31 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B145" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C145" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D145" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E145" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F145">
         <v>10540</v>
       </c>
       <c r="G145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H145" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I145" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J145">
         <v>13.603809999999999</v>
@@ -8109,31 +8112,31 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B146" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E146" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F146">
         <v>10310</v>
       </c>
       <c r="G146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H146" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J146">
         <v>13.766588</v>
@@ -8147,31 +8150,31 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B147" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E147" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F147">
         <v>10150</v>
       </c>
       <c r="G147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H147" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J147">
         <v>13.677467</v>
@@ -8185,31 +8188,31 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B148" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E148" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F148">
         <v>10400</v>
       </c>
       <c r="G148" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H148" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I148" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J148">
         <v>13.754111999999999</v>
@@ -8223,31 +8226,31 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B149" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E149" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F149">
         <v>10110</v>
       </c>
       <c r="G149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H149" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J149">
         <v>13.728609000000001</v>
@@ -8261,31 +8264,31 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B150" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E150" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F150">
         <v>10400</v>
       </c>
       <c r="G150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H150" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I150" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J150">
         <v>13.777850000000001</v>
@@ -8299,31 +8302,31 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B151" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E151" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F151">
         <v>10600</v>
       </c>
       <c r="G151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H151" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I151" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J151">
         <v>13.713789999999999</v>
@@ -8337,31 +8340,31 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B152" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E152" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F152">
         <v>10260</v>
       </c>
       <c r="G152" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H152" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I152" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J152">
         <v>13.68628</v>
@@ -8375,31 +8378,31 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B153" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C153" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D153" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E153" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F153">
         <v>12130</v>
       </c>
       <c r="G153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H153" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I153" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J153">
         <v>13.99076</v>
@@ -8413,31 +8416,31 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B154" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C154" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D154" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E154" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F154">
         <v>10540</v>
       </c>
       <c r="G154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H154" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I154" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J154">
         <v>13.653169999999999</v>
@@ -8451,31 +8454,31 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B155" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C155" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D155" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E155" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F155">
         <v>31000</v>
       </c>
       <c r="G155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H155" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J155">
         <v>14.988350000000001</v>
@@ -8489,31 +8492,31 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B156" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C156" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D156" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E156" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F156">
         <v>11120</v>
       </c>
       <c r="G156" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H156" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I156" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J156">
         <v>13.903498000000001</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="745">
   <si>
     <t>สาขาสี่พระยา</t>
   </si>
@@ -2254,6 +2254,12 @@
   </si>
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>ธนาคาร</t>
+  </si>
+  <si>
+    <t>bank</t>
   </si>
 </sst>
 </file>
@@ -2587,5944 +2593,6414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L156"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="30.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" customWidth="1"/>
+    <col min="1" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8">
+    <row r="1" spans="1:13" ht="28.8">
       <c r="A1" t="s">
         <v>33</v>
       </c>
       <c r="B1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>599</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>598</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>742</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2" s="1" t="s">
+        <v>743</v>
       </c>
       <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>54</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10500</v>
       </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
       <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
         <v>56</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>57</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>13.731427999999999</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>100.523836</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10200</v>
       </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
       <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
         <v>59</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>60</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>13.746428</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>100.50007600000001</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>61</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10100</v>
       </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
       <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>57</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>13.737927000000001</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>100.50801300000001</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>63</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>10330</v>
       </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
       <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
         <v>64</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>65</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>13.743370000000001</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>100.54418</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>63</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>10330</v>
       </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
       <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
         <v>66</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>57</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>13.747645</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>100.522688</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>67</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>20000</v>
       </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
       <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
         <v>68</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>57</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>13.367065999999999</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>100.988356</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>67</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>30000</v>
       </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
       <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
         <v>69</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>57</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>14.973026000000001</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>102.098652</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>67</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>80000</v>
       </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
       <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
         <v>70</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>57</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>8.4409030000000005</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>99.961888999999999</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>71</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>90110</v>
       </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
       <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
         <v>72</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>57</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>7.0026919999999997</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>100.469807</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>67</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>95000</v>
       </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
       <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
         <v>73</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>74</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>6.5510890000000002</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>101.286727</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>75</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>20170</v>
       </c>
-      <c r="G12" t="s">
-        <v>55</v>
-      </c>
       <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
         <v>76</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>57</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>13.311185</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>101.113782</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>77</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>20150</v>
       </c>
-      <c r="G13" t="s">
-        <v>55</v>
-      </c>
       <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
         <v>78</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>79</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>12.971168</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>100.903982</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>67</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>50100</v>
       </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
       <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
         <v>80</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>81</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>18.781120000000001</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>98.997011999999998</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C15" t="s">
         <v>82</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>83</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>84</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>67</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>24000</v>
       </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
       <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
         <v>85</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>57</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>13.692282000000001</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>101.079959</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C16" t="s">
         <v>86</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>87</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>88</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>67</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>83000</v>
       </c>
-      <c r="G16" t="s">
-        <v>55</v>
-      </c>
       <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
         <v>89</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>57</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>7.880992</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>98.391694000000001</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C17" t="s">
         <v>90</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>91</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>92</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>67</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>34000</v>
       </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
       <c r="H17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" t="s">
         <v>93</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>57</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>15.232138000000001</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>104.855614</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C18" t="s">
         <v>94</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>95</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>96</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>67</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>40000</v>
       </c>
-      <c r="G18" t="s">
-        <v>55</v>
-      </c>
       <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" t="s">
         <v>97</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>57</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>16.435815000000002</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>102.834487</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C19" t="s">
         <v>98</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>99</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>100</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>10100</v>
       </c>
-      <c r="G19" t="s">
-        <v>55</v>
-      </c>
       <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" t="s">
         <v>101</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>102</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>13.75409</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>100.51615</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C20" t="s">
         <v>103</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>104</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>105</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>67</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>11000</v>
       </c>
-      <c r="G20" t="s">
-        <v>55</v>
-      </c>
       <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
         <v>106</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>57</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>13.843832000000001</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>100.499413</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C21" t="s">
         <v>107</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>108</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>54</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>10500</v>
       </c>
-      <c r="G21" t="s">
-        <v>55</v>
-      </c>
       <c r="H21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" t="s">
         <v>109</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>57</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>13.723876000000001</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>100.51671</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C22" t="s">
         <v>110</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>111</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>112</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>67</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>10270</v>
       </c>
-      <c r="G22" t="s">
-        <v>55</v>
-      </c>
       <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" t="s">
         <v>113</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>57</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>13.649533</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>100.597009</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C23" t="s">
         <v>114</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>115</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>116</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>67</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>65000</v>
       </c>
-      <c r="G23" t="s">
-        <v>55</v>
-      </c>
       <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s">
         <v>117</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>81</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>16.817119999999999</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>100.265033</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C24" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>119</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>120</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>10400</v>
       </c>
-      <c r="G24" t="s">
-        <v>55</v>
-      </c>
       <c r="H24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" t="s">
         <v>121</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>57</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>13.768891</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>100.540384</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C25" t="s">
         <v>122</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>123</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>124</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>67</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>18000</v>
       </c>
-      <c r="G25" t="s">
-        <v>55</v>
-      </c>
       <c r="H25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" t="s">
         <v>125</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>57</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>14.525961000000001</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>100.913211</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C26" t="s">
         <v>126</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>127</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>128</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>10140</v>
       </c>
-      <c r="G26" t="s">
-        <v>55</v>
-      </c>
       <c r="H26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" t="s">
         <v>129</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>57</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>13.686303000000001</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>100.486316</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C27" t="s">
         <v>130</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>131</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>132</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>10310</v>
       </c>
-      <c r="G27" t="s">
-        <v>55</v>
-      </c>
       <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" t="s">
         <v>133</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>57</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>13.796044</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>100.59163599999999</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C28" t="s">
         <v>134</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>135</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>136</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>67</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>32000</v>
       </c>
-      <c r="G28" t="s">
-        <v>55</v>
-      </c>
       <c r="H28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" t="s">
         <v>137</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>57</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>14.886862000000001</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>103.495225</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C29" t="s">
         <v>138</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>139</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>140</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>67</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>52000</v>
       </c>
-      <c r="G29" t="s">
-        <v>55</v>
-      </c>
       <c r="H29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" t="s">
         <v>141</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>57</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>18.288557000000001</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>99.494050000000001</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C30" t="s">
         <v>142</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>143</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>144</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>67</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>60000</v>
       </c>
-      <c r="G30" t="s">
-        <v>55</v>
-      </c>
       <c r="H30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" t="s">
         <v>145</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>146</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>15.702826999999999</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>100.14001399999999</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C31" t="s">
         <v>147</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>1</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>148</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>149</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>10110</v>
       </c>
-      <c r="G31" t="s">
-        <v>55</v>
-      </c>
       <c r="H31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" t="s">
         <v>150</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>57</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>13.735305</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>100.563508</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C32" t="s">
         <v>151</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>152</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>153</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>67</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>41000</v>
       </c>
-      <c r="G32" t="s">
-        <v>55</v>
-      </c>
       <c r="H32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" t="s">
         <v>154</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>57</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>17.404153999999998</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>102.794449</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C33" t="s">
         <v>155</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>156</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>157</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>67</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>22000</v>
       </c>
-      <c r="G33" t="s">
-        <v>55</v>
-      </c>
       <c r="H33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" t="s">
         <v>158</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>57</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>12.606049000000001</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>102.11062800000001</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C34" t="s">
         <v>159</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>1</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>160</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>61</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>10100</v>
       </c>
-      <c r="G34" t="s">
-        <v>55</v>
-      </c>
       <c r="H34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" t="s">
         <v>161</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>57</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>13.739537</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>100.512602</v>
       </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C35" t="s">
         <v>162</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>163</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>164</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>10120</v>
       </c>
-      <c r="G35" t="s">
-        <v>55</v>
-      </c>
       <c r="H35" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" t="s">
         <v>165</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>57</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>13.720420000000001</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>100.52727</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C36" t="s">
         <v>166</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>167</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>168</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>10700</v>
       </c>
-      <c r="G36" t="s">
-        <v>55</v>
-      </c>
       <c r="H36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" t="s">
         <v>169</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>57</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>13.773898000000001</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>100.482433</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C37" t="s">
         <v>170</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>171</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>172</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>67</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>21000</v>
       </c>
-      <c r="G37" t="s">
-        <v>55</v>
-      </c>
       <c r="H37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" t="s">
         <v>173</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>57</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>12.682145</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>101.272535</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C38" t="s">
         <v>174</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>175</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>176</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>10110</v>
       </c>
-      <c r="G38" t="s">
-        <v>55</v>
-      </c>
       <c r="H38" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" t="s">
         <v>177</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>57</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>13.720767</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>100.557241</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C39" t="s">
         <v>178</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>179</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>180</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>10240</v>
       </c>
-      <c r="G39" t="s">
-        <v>55</v>
-      </c>
       <c r="H39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" t="s">
         <v>181</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>57</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>13.752618999999999</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>100.61135400000001</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C40" t="s">
         <v>182</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>1</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>183</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>61</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>10100</v>
       </c>
-      <c r="G40" t="s">
-        <v>55</v>
-      </c>
       <c r="H40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" t="s">
         <v>184</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>60</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>13.740399999999999</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>100.50955999999999</v>
       </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C41" t="s">
         <v>185</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>1</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>186</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>61</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>10100</v>
       </c>
-      <c r="G41" t="s">
-        <v>55</v>
-      </c>
       <c r="H41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" t="s">
         <v>187</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>57</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>13.737</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>100.5132</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C42" t="s">
         <v>188</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>189</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>190</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>10210</v>
       </c>
-      <c r="G42" t="s">
-        <v>55</v>
-      </c>
       <c r="H42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" t="s">
         <v>191</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>57</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>13.887947</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>100.575968</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C43" t="s">
         <v>192</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>193</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>194</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>67</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>84000</v>
       </c>
-      <c r="G43" t="s">
-        <v>55</v>
-      </c>
       <c r="H43" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" t="s">
         <v>195</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>57</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>9.1401420000000009</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>99.327882000000002</v>
       </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C44" t="s">
         <v>196</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>197</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>198</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>10160</v>
       </c>
-      <c r="G44" t="s">
-        <v>55</v>
-      </c>
       <c r="H44" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" t="s">
         <v>199</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>200</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>13.711740000000001</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>100.433222</v>
       </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C45" t="s">
         <v>201</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>202</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>203</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>67</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>57000</v>
       </c>
-      <c r="G45" t="s">
-        <v>55</v>
-      </c>
       <c r="H45" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" t="s">
         <v>204</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>57</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>19.910543000000001</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>99.839269000000002</v>
       </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C46" t="s">
         <v>205</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>206</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>207</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>10250</v>
       </c>
-      <c r="G46" t="s">
-        <v>55</v>
-      </c>
       <c r="H46" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" t="s">
         <v>208</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>57</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>13.710176000000001</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>100.63012000000001</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C47" t="s">
         <v>209</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>210</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>211</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>212</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>12130</v>
       </c>
-      <c r="G47" t="s">
-        <v>55</v>
-      </c>
       <c r="H47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" t="s">
         <v>213</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>57</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>13.962237</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>100.619967</v>
       </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C48" t="s">
         <v>214</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>1</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>215</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>180</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>10240</v>
       </c>
-      <c r="G48" t="s">
-        <v>55</v>
-      </c>
       <c r="H48" t="s">
+        <v>55</v>
+      </c>
+      <c r="I48" t="s">
         <v>216</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>65</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>13.767502</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>100.64179</v>
       </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C49" t="s">
         <v>217</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>1</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>218</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>219</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>10260</v>
       </c>
-      <c r="G49" t="s">
-        <v>55</v>
-      </c>
       <c r="H49" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" t="s">
         <v>220</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>57</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>13.670018000000001</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>100.620684</v>
       </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C50" t="s">
         <v>221</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>1</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>222</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>223</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>10120</v>
       </c>
-      <c r="G50" t="s">
-        <v>55</v>
-      </c>
       <c r="H50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50" t="s">
         <v>224</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>57</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>13.694651</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>100.51491</v>
       </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C51" t="s">
         <v>225</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>1</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>226</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>227</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>10400</v>
       </c>
-      <c r="G51" t="s">
-        <v>55</v>
-      </c>
       <c r="H51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I51" t="s">
         <v>228</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>60</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>13.750666000000001</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>100.539255</v>
       </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C52" t="s">
         <v>229</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>1</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>230</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>63</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>10500</v>
       </c>
-      <c r="G52" t="s">
-        <v>55</v>
-      </c>
       <c r="H52" t="s">
+        <v>55</v>
+      </c>
+      <c r="I52" t="s">
         <v>231</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>232</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>13.744224000000001</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>100.535022</v>
       </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C53" t="s">
         <v>233</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>1</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>234</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>100</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>10100</v>
       </c>
-      <c r="G53" t="s">
-        <v>55</v>
-      </c>
       <c r="H53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I53" t="s">
         <v>235</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>57</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>13.750797</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>100.50725</v>
       </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C54" t="s">
         <v>236</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>1</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>237</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>54</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>10500</v>
       </c>
-      <c r="G54" t="s">
-        <v>55</v>
-      </c>
       <c r="H54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I54" t="s">
         <v>238</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>200</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>13.728270999999999</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>100.5351</v>
       </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C55" t="s">
         <v>239</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>240</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>241</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>67</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>73000</v>
       </c>
-      <c r="G55" t="s">
-        <v>55</v>
-      </c>
       <c r="H55" t="s">
+        <v>55</v>
+      </c>
+      <c r="I55" t="s">
         <v>242</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>57</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>13.816895000000001</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>100.05572600000001</v>
       </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C56" t="s">
         <v>243</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>210</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>244</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>212</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>12150</v>
       </c>
-      <c r="G56" t="s">
-        <v>55</v>
-      </c>
       <c r="H56" t="s">
+        <v>55</v>
+      </c>
+      <c r="I56" t="s">
         <v>245</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>57</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>13.935321</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>100.625174</v>
       </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C57" t="s">
         <v>246</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>87</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>247</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>248</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>83150</v>
       </c>
-      <c r="G57" t="s">
-        <v>55</v>
-      </c>
       <c r="H57" t="s">
+        <v>55</v>
+      </c>
+      <c r="I57" t="s">
         <v>249</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>250</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>7.8851069999999996</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>98.295489000000003</v>
       </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C58" t="s">
         <v>251</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>12</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>252</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>77</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>20260</v>
       </c>
-      <c r="G58" t="s">
-        <v>55</v>
-      </c>
       <c r="H58" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" t="s">
         <v>253</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>254</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>12.927666</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>100.877123</v>
       </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C59" t="s">
         <v>255</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>104</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>256</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>67</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>11000</v>
       </c>
-      <c r="G59" t="s">
-        <v>55</v>
-      </c>
       <c r="H59" t="s">
+        <v>55</v>
+      </c>
+      <c r="I59" t="s">
         <v>257</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>65</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>13.855147000000001</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>100.542</v>
       </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C60" t="s">
         <v>258</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>171</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>259</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>260</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>21130</v>
       </c>
-      <c r="G60" t="s">
-        <v>55</v>
-      </c>
       <c r="H60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" t="s">
         <v>261</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>60</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>12.723402</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>101.052435</v>
       </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C61" t="s">
         <v>262</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>1</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>263</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>120</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>10400</v>
       </c>
-      <c r="G61" t="s">
-        <v>55</v>
-      </c>
       <c r="H61" t="s">
+        <v>55</v>
+      </c>
+      <c r="I61" t="s">
         <v>264</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>57</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>13.783474</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>100.546222</v>
       </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C62" t="s">
         <v>265</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>266</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>267</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>67</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>74000</v>
       </c>
-      <c r="G62" t="s">
-        <v>55</v>
-      </c>
       <c r="H62" t="s">
+        <v>55</v>
+      </c>
+      <c r="I62" t="s">
         <v>268</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>57</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>13.551465</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>100.2736</v>
       </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C63" t="s">
         <v>269</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>1</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>270</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>271</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>10160</v>
       </c>
-      <c r="G63" t="s">
-        <v>55</v>
-      </c>
       <c r="H63" t="s">
+        <v>55</v>
+      </c>
+      <c r="I63" t="s">
         <v>272</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>57</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>13.704817</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>100.336224</v>
       </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C64" t="s">
         <v>273</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>12</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>274</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>275</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>20110</v>
       </c>
-      <c r="G64" t="s">
-        <v>55</v>
-      </c>
       <c r="H64" t="s">
+        <v>55</v>
+      </c>
+      <c r="I64" t="s">
         <v>276</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>57</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>13.162651</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>100.928442</v>
       </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C65" t="s">
         <v>277</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>1</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>278</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>279</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>10120</v>
       </c>
-      <c r="G65" t="s">
-        <v>55</v>
-      </c>
       <c r="H65" t="s">
+        <v>55</v>
+      </c>
+      <c r="I65" t="s">
         <v>280</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>57</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>13.69605</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>100.5378</v>
       </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C66" t="s">
         <v>281</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>1</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>282</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>63</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>10330</v>
       </c>
-      <c r="G66" t="s">
-        <v>55</v>
-      </c>
       <c r="H66" t="s">
+        <v>55</v>
+      </c>
+      <c r="I66" t="s">
         <v>283</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>284</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>13.739057000000001</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>100.547848</v>
       </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C67" t="s">
         <v>285</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>286</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>287</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>288</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>13000</v>
       </c>
-      <c r="G67" t="s">
-        <v>55</v>
-      </c>
       <c r="H67" t="s">
+        <v>55</v>
+      </c>
+      <c r="I67" t="s">
         <v>289</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>81</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>14.354858</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>100.595888</v>
       </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C68" t="s">
         <v>290</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>1</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>291</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>292</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>10150</v>
       </c>
-      <c r="G68" t="s">
-        <v>55</v>
-      </c>
       <c r="H68" t="s">
+        <v>55</v>
+      </c>
+      <c r="I68" t="s">
         <v>293</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>57</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>13.680495000000001</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>100.437696</v>
       </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C69" t="s">
         <v>294</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>1</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>295</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>164</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>10120</v>
       </c>
-      <c r="G69" t="s">
-        <v>55</v>
-      </c>
       <c r="H69" t="s">
+        <v>55</v>
+      </c>
+      <c r="I69" t="s">
         <v>296</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>57</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>13.724164</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>100.539362</v>
       </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C70" t="s">
         <v>297</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>1</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>298</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>176</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>10110</v>
       </c>
-      <c r="G70" t="s">
-        <v>55</v>
-      </c>
       <c r="H70" t="s">
+        <v>55</v>
+      </c>
+      <c r="I70" t="s">
         <v>299</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>57</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>13.741047999999999</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>100.55474599999999</v>
       </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C71" t="s">
         <v>300</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>1</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>301</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>302</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>10320</v>
       </c>
-      <c r="G71" t="s">
-        <v>55</v>
-      </c>
       <c r="H71" t="s">
+        <v>55</v>
+      </c>
+      <c r="I71" t="s">
         <v>303</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>57</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>13.777659</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>100.573295</v>
       </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C72" t="s">
         <v>304</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>1</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>305</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>132</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>10310</v>
       </c>
-      <c r="G72" t="s">
-        <v>55</v>
-      </c>
       <c r="H72" t="s">
+        <v>55</v>
+      </c>
+      <c r="I72" t="s">
         <v>306</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>57</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>13.772365000000001</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>100.608952</v>
       </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C73" t="s">
         <v>307</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>1</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>308</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>309</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>10900</v>
       </c>
-      <c r="G73" t="s">
-        <v>55</v>
-      </c>
       <c r="H73" t="s">
+        <v>55</v>
+      </c>
+      <c r="I73" t="s">
         <v>310</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>57</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>13.819765</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>100.563676</v>
       </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C74" t="s">
         <v>311</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>1</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>312</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>164</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>10120</v>
       </c>
-      <c r="G74" t="s">
-        <v>55</v>
-      </c>
       <c r="H74" t="s">
+        <v>55</v>
+      </c>
+      <c r="I74" t="s">
         <v>313</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>57</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>13.7072</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>100.526826</v>
       </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C75" t="s">
         <v>314</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>1</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>315</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>316</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>10230</v>
       </c>
-      <c r="G75" t="s">
-        <v>55</v>
-      </c>
       <c r="H75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I75" t="s">
         <v>317</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>65</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>13.825226000000001</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>100.677566</v>
       </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C76" t="s">
         <v>318</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>1</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>319</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>149</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>10250</v>
       </c>
-      <c r="G76" t="s">
-        <v>55</v>
-      </c>
       <c r="H76" t="s">
+        <v>55</v>
+      </c>
+      <c r="I76" t="s">
         <v>320</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>57</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>13.733335</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>100.582207</v>
       </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C77" t="s">
         <v>321</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>210</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>322</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>323</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>12110</v>
       </c>
-      <c r="G77" t="s">
-        <v>55</v>
-      </c>
       <c r="H77" t="s">
+        <v>55</v>
+      </c>
+      <c r="I77" t="s">
         <v>324</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>200</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>13.989385</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>100.616668</v>
       </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C78" t="s">
         <v>325</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>1</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>326</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>309</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>10900</v>
       </c>
-      <c r="G78" t="s">
-        <v>55</v>
-      </c>
       <c r="H78" t="s">
+        <v>55</v>
+      </c>
+      <c r="I78" t="s">
         <v>327</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>57</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>13.808109999999999</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>100.55879</v>
       </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C79" t="s">
         <v>328</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>1</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>329</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>330</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>10310</v>
       </c>
-      <c r="G79" t="s">
-        <v>55</v>
-      </c>
       <c r="H79" t="s">
+        <v>55</v>
+      </c>
+      <c r="I79" t="s">
         <v>331</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>57</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>13.755098</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>100.5719</v>
       </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C80" t="s">
         <v>332</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>31</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>333</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>67</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>50000</v>
       </c>
-      <c r="G80" t="s">
-        <v>55</v>
-      </c>
       <c r="H80" t="s">
+        <v>55</v>
+      </c>
+      <c r="I80" t="s">
         <v>334</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>57</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>18.783954999999999</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>99.026819000000003</v>
       </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C81" t="s">
         <v>335</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>1</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>336</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>337</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>10260</v>
       </c>
-      <c r="G81" t="s">
-        <v>55</v>
-      </c>
       <c r="H81" t="s">
+        <v>55</v>
+      </c>
+      <c r="I81" t="s">
         <v>338</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>65</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>13.702631</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>100.60191</v>
       </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C82" t="s">
         <v>339</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>1</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>340</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>128</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>10140</v>
       </c>
-      <c r="G82" t="s">
-        <v>55</v>
-      </c>
       <c r="H82" t="s">
+        <v>55</v>
+      </c>
+      <c r="I82" t="s">
         <v>341</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>57</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>13.669539</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>100.50433700000001</v>
       </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C83" t="s">
         <v>342</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>1</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>343</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>344</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>10250</v>
       </c>
-      <c r="G83" t="s">
-        <v>55</v>
-      </c>
       <c r="H83" t="s">
+        <v>55</v>
+      </c>
+      <c r="I83" t="s">
         <v>345</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>65</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>13.688057000000001</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>100.647733</v>
       </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C84" t="s">
         <v>346</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>1</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>347</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>337</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>10260</v>
       </c>
-      <c r="G84" t="s">
-        <v>55</v>
-      </c>
       <c r="H84" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" t="s">
         <v>348</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>65</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>13.686070000000001</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>100.61095</v>
       </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C85" t="s">
         <v>349</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>15</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>350</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>67</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>30000</v>
       </c>
-      <c r="G85" t="s">
-        <v>55</v>
-      </c>
       <c r="H85" t="s">
+        <v>55</v>
+      </c>
+      <c r="I85" t="s">
         <v>351</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>60</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>14.979063</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>102.070525</v>
       </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C86" t="s">
         <v>353</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>12</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>354</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>67</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>20000</v>
       </c>
-      <c r="G86" t="s">
-        <v>55</v>
-      </c>
       <c r="H86" t="s">
+        <v>55</v>
+      </c>
+      <c r="I86" t="s">
         <v>355</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>57</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>13.343408</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>100.975943</v>
       </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C87" t="s">
         <v>356</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>1</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>357</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>164</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>10120</v>
       </c>
-      <c r="G87" t="s">
-        <v>55</v>
-      </c>
       <c r="H87" t="s">
+        <v>55</v>
+      </c>
+      <c r="I87" t="s">
         <v>358</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>57</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>13.721487</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>100.531159</v>
       </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C88" t="s">
         <v>359</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>360</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>361</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>67</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>70000</v>
       </c>
-      <c r="G88" t="s">
-        <v>55</v>
-      </c>
       <c r="H88" t="s">
+        <v>55</v>
+      </c>
+      <c r="I88" t="s">
         <v>362</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>57</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>13.536728</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>99.819428000000002</v>
       </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C89" t="s">
         <v>363</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>1</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>364</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>63</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>10330</v>
       </c>
-      <c r="G89" t="s">
-        <v>55</v>
-      </c>
       <c r="H89" t="s">
+        <v>55</v>
+      </c>
+      <c r="I89" t="s">
         <v>365</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>366</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>13.746230000000001</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>100.53982000000001</v>
       </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C90" t="s">
         <v>367</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>1</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>368</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>120</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>10400</v>
       </c>
-      <c r="G90" t="s">
-        <v>55</v>
-      </c>
       <c r="H90" t="s">
+        <v>55</v>
+      </c>
+      <c r="I90" t="s">
         <v>369</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>57</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>13.787800000000001</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>100.53601999999999</v>
       </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C91" t="s">
         <v>370</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>1</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>371</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>219</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>10260</v>
       </c>
-      <c r="G91" t="s">
-        <v>55</v>
-      </c>
       <c r="H91" t="s">
+        <v>55</v>
+      </c>
+      <c r="I91" t="s">
         <v>372</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>65</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>13.668523</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>100.634247</v>
       </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C92" t="s">
         <v>373</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>1</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>374</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>330</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>10310</v>
       </c>
-      <c r="G92" t="s">
-        <v>55</v>
-      </c>
       <c r="H92" t="s">
+        <v>55</v>
+      </c>
+      <c r="I92" t="s">
         <v>375</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>65</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>13.758324</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>100.56599799999999</v>
       </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C93" t="s">
         <v>376</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>171</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>377</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>378</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>21140</v>
       </c>
-      <c r="G93" t="s">
-        <v>55</v>
-      </c>
       <c r="H93" t="s">
+        <v>55</v>
+      </c>
+      <c r="I93" t="s">
         <v>379</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>57</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>13.019546</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <v>101.15473900000001</v>
       </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C94" t="s">
         <v>380</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>1</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>381</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>382</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>10700</v>
       </c>
-      <c r="G94" t="s">
-        <v>55</v>
-      </c>
       <c r="H94" t="s">
+        <v>55</v>
+      </c>
+      <c r="I94" t="s">
         <v>383</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>65</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>13.776652</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <v>100.476501</v>
       </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C95" t="s">
         <v>384</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>87</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>385</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>67</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>83000</v>
       </c>
-      <c r="G95" t="s">
-        <v>55</v>
-      </c>
       <c r="H95" t="s">
+        <v>55</v>
+      </c>
+      <c r="I95" t="s">
         <v>386</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>366</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>7.8911369999999996</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>98.367564000000002</v>
       </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C96" t="s">
         <v>387</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>12</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>388</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>275</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>20110</v>
       </c>
-      <c r="G96" t="s">
-        <v>55</v>
-      </c>
       <c r="H96" t="s">
+        <v>55</v>
+      </c>
+      <c r="I96" t="s">
         <v>389</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>366</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>13.169494</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>100.930627</v>
       </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C97" t="s">
         <v>390</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>1</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>391</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>392</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>10220</v>
       </c>
-      <c r="G97" t="s">
-        <v>55</v>
-      </c>
       <c r="H97" t="s">
+        <v>55</v>
+      </c>
+      <c r="I97" t="s">
         <v>393</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>65</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>13.87214</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <v>100.60162</v>
       </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C98" t="s">
         <v>394</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>1</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>395</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>396</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>10150</v>
       </c>
-      <c r="G98" t="s">
-        <v>55</v>
-      </c>
       <c r="H98" t="s">
+        <v>55</v>
+      </c>
+      <c r="I98" t="s">
         <v>397</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>65</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>13.663781</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <v>100.437955</v>
       </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C99" t="s">
         <v>398</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>399</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>400</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>67</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>71000</v>
       </c>
-      <c r="G99" t="s">
-        <v>55</v>
-      </c>
       <c r="H99" t="s">
+        <v>55</v>
+      </c>
+      <c r="I99" t="s">
         <v>401</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>57</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>14.020758000000001</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <v>99.532999000000004</v>
       </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C100" t="s">
         <v>402</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>403</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>404</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>67</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>75000</v>
       </c>
-      <c r="G100" t="s">
-        <v>55</v>
-      </c>
       <c r="H100" t="s">
+        <v>55</v>
+      </c>
+      <c r="I100" t="s">
         <v>405</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>57</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>13.40494</v>
       </c>
-      <c r="K100">
+      <c r="L100">
         <v>100.00122</v>
       </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C101" t="s">
         <v>406</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>407</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>408</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>67</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>45000</v>
       </c>
-      <c r="G101" t="s">
-        <v>55</v>
-      </c>
       <c r="H101" t="s">
+        <v>55</v>
+      </c>
+      <c r="I101" t="s">
         <v>409</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>57</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>16.047450000000001</v>
       </c>
-      <c r="K101">
+      <c r="L101">
         <v>103.6572</v>
       </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="M101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C102" t="s">
         <v>410</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>411</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>412</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>67</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>92000</v>
       </c>
-      <c r="G102" t="s">
-        <v>55</v>
-      </c>
       <c r="H102" t="s">
+        <v>55</v>
+      </c>
+      <c r="I102" t="s">
         <v>413</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>57</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>7.5551310000000003</v>
       </c>
-      <c r="K102">
+      <c r="L102">
         <v>99.606459000000001</v>
       </c>
-      <c r="L102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C103" t="s">
         <v>414</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>415</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>416</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>67</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>47000</v>
       </c>
-      <c r="G103" t="s">
-        <v>55</v>
-      </c>
       <c r="H103" t="s">
+        <v>55</v>
+      </c>
+      <c r="I103" t="s">
         <v>417</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>57</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>17.156286000000001</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <v>104.142301</v>
       </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C104" t="s">
         <v>418</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>1</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>419</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>420</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>10510</v>
       </c>
-      <c r="G104" t="s">
-        <v>55</v>
-      </c>
       <c r="H104" t="s">
+        <v>55</v>
+      </c>
+      <c r="I104" t="s">
         <v>421</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>57</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>13.8124</v>
       </c>
-      <c r="K104">
+      <c r="L104">
         <v>100.7231</v>
       </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C105" t="s">
         <v>422</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>240</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>423</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>424</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>73160</v>
       </c>
-      <c r="G105" t="s">
-        <v>55</v>
-      </c>
       <c r="H105" t="s">
+        <v>55</v>
+      </c>
+      <c r="I105" t="s">
         <v>425</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>254</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>13.707967</v>
       </c>
-      <c r="K105">
+      <c r="L105">
         <v>100.280942</v>
       </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="M105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C106" t="s">
         <v>426</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>104</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>427</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>428</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>11140</v>
       </c>
-      <c r="G106" t="s">
-        <v>55</v>
-      </c>
       <c r="H106" t="s">
+        <v>55</v>
+      </c>
+      <c r="I106" t="s">
         <v>429</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>65</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>13.877005</v>
       </c>
-      <c r="K106">
+      <c r="L106">
         <v>100.410574</v>
       </c>
-      <c r="L106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C107" t="s">
         <v>430</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>31</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>431</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>67</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>50100</v>
       </c>
-      <c r="G107" t="s">
-        <v>55</v>
-      </c>
       <c r="H107" t="s">
+        <v>55</v>
+      </c>
+      <c r="I107" t="s">
         <v>432</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>65</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>18.769777000000001</v>
       </c>
-      <c r="K107">
+      <c r="L107">
         <v>98.975312000000002</v>
       </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="M107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C108" t="s">
         <v>433</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>1</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>434</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>61</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>10110</v>
       </c>
-      <c r="G108" t="s">
-        <v>55</v>
-      </c>
       <c r="H108" t="s">
+        <v>55</v>
+      </c>
+      <c r="I108" t="s">
         <v>435</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>57</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>13.743230000000001</v>
       </c>
-      <c r="K108">
+      <c r="L108">
         <v>100.50597999999999</v>
       </c>
-      <c r="L108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C109" t="s">
         <v>436</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>111</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>437</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>438</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>10540</v>
       </c>
-      <c r="G109" t="s">
-        <v>55</v>
-      </c>
       <c r="H109" t="s">
+        <v>55</v>
+      </c>
+      <c r="I109" t="s">
         <v>439</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>65</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>13.632619999999999</v>
       </c>
-      <c r="K109">
+      <c r="L109">
         <v>100.71084999999999</v>
       </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="M109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C110" t="s">
         <v>440</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>210</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>441</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>442</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>12120</v>
       </c>
-      <c r="G110" t="s">
-        <v>55</v>
-      </c>
       <c r="H110" t="s">
+        <v>55</v>
+      </c>
+      <c r="I110" t="s">
         <v>443</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>444</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>14.08221</v>
       </c>
-      <c r="K110">
+      <c r="L110">
         <v>100.625694</v>
       </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="M110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C111" t="s">
         <v>445</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>171</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>446</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>67</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>21150</v>
       </c>
-      <c r="G111" t="s">
-        <v>55</v>
-      </c>
       <c r="H111" t="s">
+        <v>55</v>
+      </c>
+      <c r="I111" t="s">
         <v>447</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>60</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>12.716531</v>
       </c>
-      <c r="K111">
+      <c r="L111">
         <v>101.162235</v>
       </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="M111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C112" t="s">
         <v>448</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>171</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>449</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>67</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>21000</v>
       </c>
-      <c r="G112" t="s">
-        <v>55</v>
-      </c>
       <c r="H112" t="s">
+        <v>55</v>
+      </c>
+      <c r="I112" t="s">
         <v>450</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>366</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>12.68346</v>
       </c>
-      <c r="K112">
+      <c r="L112">
         <v>101.249</v>
       </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="M112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C113" t="s">
         <v>451</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>12</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>452</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>67</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>20000</v>
       </c>
-      <c r="G113" t="s">
-        <v>55</v>
-      </c>
       <c r="H113" t="s">
+        <v>55</v>
+      </c>
+      <c r="I113" t="s">
         <v>453</v>
       </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>366</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>13.337246</v>
       </c>
-      <c r="K113">
+      <c r="L113">
         <v>100.969245</v>
       </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="M113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C114" t="s">
         <v>454</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>111</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>455</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>67</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>10280</v>
       </c>
-      <c r="G114" t="s">
-        <v>55</v>
-      </c>
       <c r="H114" t="s">
+        <v>55</v>
+      </c>
+      <c r="I114" t="s">
         <v>456</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>65</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>13.58437</v>
       </c>
-      <c r="K114">
+      <c r="L114">
         <v>100.60934</v>
       </c>
-      <c r="L114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="M114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C115" t="s">
         <v>457</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>1</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>458</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>459</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>10170</v>
       </c>
-      <c r="G115" t="s">
-        <v>55</v>
-      </c>
       <c r="H115" t="s">
+        <v>55</v>
+      </c>
+      <c r="I115" t="s">
         <v>460</v>
       </c>
-      <c r="I115" t="s">
+      <c r="J115" t="s">
         <v>65</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>13.767699</v>
       </c>
-      <c r="K115">
+      <c r="L115">
         <v>100.443153</v>
       </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="M115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C116" t="s">
         <v>461</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>21</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>462</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>71</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>90110</v>
       </c>
-      <c r="G116" t="s">
-        <v>55</v>
-      </c>
       <c r="H116" t="s">
+        <v>55</v>
+      </c>
+      <c r="I116" t="s">
         <v>463</v>
       </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
         <v>57</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>7.0155900000000004</v>
       </c>
-      <c r="K116">
+      <c r="L116">
         <v>100.47435</v>
       </c>
-      <c r="L116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+      <c r="M116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C117" t="s">
         <v>464</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>111</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>465</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>438</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>10540</v>
       </c>
-      <c r="G117" t="s">
-        <v>55</v>
-      </c>
       <c r="H117" t="s">
+        <v>55</v>
+      </c>
+      <c r="I117" t="s">
         <v>466</v>
       </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>65</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>13.648524</v>
       </c>
-      <c r="K117">
+      <c r="L117">
         <v>100.680503</v>
       </c>
-      <c r="L117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+      <c r="M117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C118" t="s">
         <v>467</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>1</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>468</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>176</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>10110</v>
       </c>
-      <c r="G118" t="s">
-        <v>55</v>
-      </c>
       <c r="H118" t="s">
+        <v>55</v>
+      </c>
+      <c r="I118" t="s">
         <v>469</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>65</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>13.719353</v>
       </c>
-      <c r="K118">
+      <c r="L118">
         <v>100.58511300000001</v>
       </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="M118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C119" t="s">
         <v>470</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>1</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>471</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>54</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>10500</v>
       </c>
-      <c r="G119" t="s">
-        <v>55</v>
-      </c>
       <c r="H119" t="s">
+        <v>55</v>
+      </c>
+      <c r="I119" t="s">
         <v>472</v>
       </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
         <v>473</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>13.727149000000001</v>
       </c>
-      <c r="K119">
+      <c r="L119">
         <v>100.531553</v>
       </c>
-      <c r="L119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
+      <c r="M119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C120" t="s">
         <v>474</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>152</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>475</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>67</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>41000</v>
       </c>
-      <c r="G120" t="s">
-        <v>55</v>
-      </c>
       <c r="H120" t="s">
+        <v>55</v>
+      </c>
+      <c r="I120" t="s">
         <v>476</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>60</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>17.420338000000001</v>
       </c>
-      <c r="K120">
+      <c r="L120">
         <v>102.791157</v>
       </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
+      <c r="M120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C121" t="s">
         <v>477</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>87</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>478</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>67</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>83000</v>
       </c>
-      <c r="G121" t="s">
-        <v>55</v>
-      </c>
       <c r="H121" t="s">
+        <v>55</v>
+      </c>
+      <c r="I121" t="s">
         <v>479</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>57</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>7.8266400000000003</v>
       </c>
-      <c r="K121">
+      <c r="L121">
         <v>98.343265000000002</v>
       </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="M121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C122" t="s">
         <v>480</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>1</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>481</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>279</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>10120</v>
       </c>
-      <c r="G122" t="s">
-        <v>55</v>
-      </c>
       <c r="H122" t="s">
+        <v>55</v>
+      </c>
+      <c r="I122" t="s">
         <v>482</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>65</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>13.697649999999999</v>
       </c>
-      <c r="K122">
+      <c r="L122">
         <v>100.5378</v>
       </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
+      <c r="M122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C123" t="s">
         <v>483</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>1</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>484</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>485</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>10250</v>
       </c>
-      <c r="G123" t="s">
-        <v>55</v>
-      </c>
       <c r="H123" t="s">
+        <v>55</v>
+      </c>
+      <c r="I123" t="s">
         <v>486</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>200</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>13.695548</v>
       </c>
-      <c r="K123">
+      <c r="L123">
         <v>100.648</v>
       </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="M123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C124" t="s">
         <v>487</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>12</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>488</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>67</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>20000</v>
       </c>
-      <c r="G124" t="s">
-        <v>55</v>
-      </c>
       <c r="H124" t="s">
+        <v>55</v>
+      </c>
+      <c r="I124" t="s">
         <v>489</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>490</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <v>13.420329000000001</v>
       </c>
-      <c r="K124">
+      <c r="L124">
         <v>101.003405</v>
       </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
+      <c r="M124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C125" t="s">
         <v>491</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>1</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>492</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>63</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>10330</v>
       </c>
-      <c r="G125" t="s">
-        <v>55</v>
-      </c>
       <c r="H125" t="s">
+        <v>55</v>
+      </c>
+      <c r="I125" t="s">
         <v>493</v>
       </c>
-      <c r="I125" t="s">
+      <c r="J125" t="s">
         <v>200</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>13.745903</v>
       </c>
-      <c r="K125">
+      <c r="L125">
         <v>100.535606</v>
       </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
+      <c r="M125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C126" t="s">
         <v>494</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>31</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>495</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>67</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>50300</v>
       </c>
-      <c r="G126" t="s">
-        <v>55</v>
-      </c>
       <c r="H126" t="s">
+        <v>55</v>
+      </c>
+      <c r="I126" t="s">
         <v>496</v>
       </c>
-      <c r="I126" t="s">
+      <c r="J126" t="s">
         <v>57</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>18.788098000000002</v>
       </c>
-      <c r="K126">
+      <c r="L126">
         <v>99.001250999999996</v>
       </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
+      <c r="M126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C127" t="s">
         <v>497</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>1</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>498</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>63</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>10330</v>
       </c>
-      <c r="G127" t="s">
-        <v>55</v>
-      </c>
       <c r="H127" t="s">
+        <v>55</v>
+      </c>
+      <c r="I127" t="s">
         <v>499</v>
       </c>
-      <c r="I127" t="s">
+      <c r="J127" t="s">
         <v>352</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>13.735849999999999</v>
       </c>
-      <c r="K127">
+      <c r="L127">
         <v>100.54546000000001</v>
       </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
+      <c r="M127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C128" t="s">
         <v>500</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>1</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>501</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>502</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>10600</v>
       </c>
-      <c r="G128" t="s">
-        <v>55</v>
-      </c>
       <c r="H128" t="s">
+        <v>55</v>
+      </c>
+      <c r="I128" t="s">
         <v>503</v>
       </c>
-      <c r="I128" t="s">
+      <c r="J128" t="s">
         <v>200</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>13.72681</v>
       </c>
-      <c r="K128">
+      <c r="L128">
         <v>100.5097</v>
       </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+      <c r="M128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C129" t="s">
         <v>504</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>1</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>505</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>506</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>10230</v>
       </c>
-      <c r="G129" t="s">
-        <v>55</v>
-      </c>
       <c r="H129" t="s">
+        <v>55</v>
+      </c>
+      <c r="I129" t="s">
         <v>507</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>65</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>13.803610000000001</v>
       </c>
-      <c r="K129">
+      <c r="L129">
         <v>100.61409999999999</v>
       </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
+      <c r="M129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C130" t="s">
         <v>508</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>1</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>509</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>54</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>10500</v>
       </c>
-      <c r="G130" t="s">
-        <v>55</v>
-      </c>
       <c r="H130" t="s">
+        <v>55</v>
+      </c>
+      <c r="I130" t="s">
         <v>510</v>
       </c>
-      <c r="I130" t="s">
+      <c r="J130" t="s">
         <v>57</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>13.729124000000001</v>
       </c>
-      <c r="K130">
+      <c r="L130">
         <v>100.528824</v>
       </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
+      <c r="M130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C131" t="s">
         <v>511</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>1</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>512</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>61</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>10100</v>
       </c>
-      <c r="G131" t="s">
-        <v>55</v>
-      </c>
       <c r="H131" t="s">
+        <v>55</v>
+      </c>
+      <c r="I131" t="s">
         <v>513</v>
       </c>
-      <c r="I131" t="s">
+      <c r="J131" t="s">
         <v>57</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>13.740145999999999</v>
       </c>
-      <c r="K131">
+      <c r="L131">
         <v>100.50530000000001</v>
       </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
+      <c r="M131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C132" t="s">
         <v>514</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>1</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>515</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>149</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>10110</v>
       </c>
-      <c r="G132" t="s">
-        <v>55</v>
-      </c>
       <c r="H132" t="s">
+        <v>55</v>
+      </c>
+      <c r="I132" t="s">
         <v>516</v>
       </c>
-      <c r="I132" t="s">
+      <c r="J132" t="s">
         <v>57</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <v>13.741744000000001</v>
       </c>
-      <c r="K132">
+      <c r="L132">
         <v>100.561981</v>
       </c>
-      <c r="L132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
+      <c r="M132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C133" t="s">
         <v>517</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>31</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>518</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>67</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>50200</v>
       </c>
-      <c r="G133" t="s">
-        <v>55</v>
-      </c>
       <c r="H133" t="s">
+        <v>55</v>
+      </c>
+      <c r="I133" t="s">
         <v>519</v>
       </c>
-      <c r="I133" t="s">
+      <c r="J133" t="s">
         <v>57</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <v>18.800138</v>
       </c>
-      <c r="K133">
+      <c r="L133">
         <v>98.970097999999993</v>
       </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="M133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C134" t="s">
         <v>520</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>95</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>521</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>67</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>40000</v>
       </c>
-      <c r="G134" t="s">
-        <v>55</v>
-      </c>
       <c r="H134" t="s">
+        <v>55</v>
+      </c>
+      <c r="I134" t="s">
         <v>522</v>
       </c>
-      <c r="I134" t="s">
+      <c r="J134" t="s">
         <v>523</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>16.435400999999999</v>
       </c>
-      <c r="K134">
+      <c r="L134">
         <v>102.825468</v>
       </c>
-      <c r="L134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="M134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C135" t="s">
         <v>524</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>1</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>525</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>309</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>10900</v>
       </c>
-      <c r="G135" t="s">
-        <v>55</v>
-      </c>
       <c r="H135" t="s">
+        <v>55</v>
+      </c>
+      <c r="I135" t="s">
         <v>526</v>
       </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
         <v>57</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>13.834663000000001</v>
       </c>
-      <c r="K135">
+      <c r="L135">
         <v>100.58207</v>
       </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
+      <c r="M135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C136" t="s">
         <v>527</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>111</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>528</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>67</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>10270</v>
       </c>
-      <c r="G136" t="s">
-        <v>55</v>
-      </c>
       <c r="H136" t="s">
+        <v>55</v>
+      </c>
+      <c r="I136" t="s">
         <v>529</v>
       </c>
-      <c r="I136" t="s">
+      <c r="J136" t="s">
         <v>57</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>13.638839000000001</v>
       </c>
-      <c r="K136">
+      <c r="L136">
         <v>100.633588</v>
       </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="M136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C137" t="s">
         <v>530</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>1</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>531</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>344</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>10250</v>
       </c>
-      <c r="G137" t="s">
-        <v>55</v>
-      </c>
       <c r="H137" t="s">
+        <v>55</v>
+      </c>
+      <c r="I137" t="s">
         <v>532</v>
       </c>
-      <c r="I137" t="s">
+      <c r="J137" t="s">
         <v>57</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>13.729526</v>
       </c>
-      <c r="K137">
+      <c r="L137">
         <v>100.65524000000001</v>
       </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="M137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C138" t="s">
         <v>533</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>1</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>534</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>180</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>10240</v>
       </c>
-      <c r="G138" t="s">
-        <v>55</v>
-      </c>
       <c r="H138" t="s">
+        <v>55</v>
+      </c>
+      <c r="I138" t="s">
         <v>535</v>
       </c>
-      <c r="I138" t="s">
+      <c r="J138" t="s">
         <v>57</v>
       </c>
-      <c r="J138">
+      <c r="K138">
         <v>13.76502</v>
       </c>
-      <c r="K138">
+      <c r="L138">
         <v>100.65370799999999</v>
       </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="M138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C139" t="s">
         <v>536</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>1</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>537</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>538</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>10160</v>
       </c>
-      <c r="G139" t="s">
-        <v>55</v>
-      </c>
       <c r="H139" t="s">
+        <v>55</v>
+      </c>
+      <c r="I139" t="s">
         <v>539</v>
       </c>
-      <c r="I139" t="s">
+      <c r="J139" t="s">
         <v>65</v>
       </c>
-      <c r="J139">
+      <c r="K139">
         <v>13.711</v>
       </c>
-      <c r="K139">
+      <c r="L139">
         <v>100.40900000000001</v>
       </c>
-      <c r="L139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
+      <c r="M139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C140" t="s">
         <v>540</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>104</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>541</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>67</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>11000</v>
       </c>
-      <c r="G140" t="s">
-        <v>55</v>
-      </c>
       <c r="H140" t="s">
+        <v>55</v>
+      </c>
+      <c r="I140" t="s">
         <v>542</v>
       </c>
-      <c r="I140" t="s">
+      <c r="J140" t="s">
         <v>366</v>
       </c>
-      <c r="J140">
+      <c r="K140">
         <v>13.8657</v>
       </c>
-      <c r="K140">
+      <c r="L140">
         <v>100.497027</v>
       </c>
-      <c r="L140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="M140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C141" t="s">
         <v>543</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>104</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>544</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>545</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>11110</v>
       </c>
-      <c r="G141" t="s">
-        <v>55</v>
-      </c>
       <c r="H141" t="s">
+        <v>55</v>
+      </c>
+      <c r="I141" t="s">
         <v>546</v>
       </c>
-      <c r="I141" t="s">
+      <c r="J141" t="s">
         <v>57</v>
       </c>
-      <c r="J141">
+      <c r="K141">
         <v>13.91385</v>
       </c>
-      <c r="K141">
+      <c r="L141">
         <v>100.423204</v>
       </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
+      <c r="M141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C142" t="s">
         <v>547</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>104</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>548</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>549</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>11120</v>
       </c>
-      <c r="G142" t="s">
-        <v>55</v>
-      </c>
       <c r="H142" t="s">
+        <v>55</v>
+      </c>
+      <c r="I142" t="s">
         <v>550</v>
       </c>
-      <c r="I142" t="s">
+      <c r="J142" t="s">
         <v>57</v>
       </c>
-      <c r="J142">
+      <c r="K142">
         <v>13.917501</v>
       </c>
-      <c r="K142">
+      <c r="L142">
         <v>100.54040000000001</v>
       </c>
-      <c r="L142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
+      <c r="M142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C143" t="s">
         <v>551</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>1</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>552</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>502</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>10600</v>
       </c>
-      <c r="G143" t="s">
-        <v>55</v>
-      </c>
       <c r="H143" t="s">
+        <v>55</v>
+      </c>
+      <c r="I143" t="s">
         <v>553</v>
       </c>
-      <c r="I143" t="s">
+      <c r="J143" t="s">
         <v>57</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <v>13.721811000000001</v>
       </c>
-      <c r="K143">
+      <c r="L143">
         <v>100.49949100000001</v>
       </c>
-      <c r="L143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
+      <c r="M143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C144" t="s">
         <v>554</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>1</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>555</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>556</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>10600</v>
       </c>
-      <c r="G144" t="s">
-        <v>55</v>
-      </c>
       <c r="H144" t="s">
+        <v>55</v>
+      </c>
+      <c r="I144" t="s">
         <v>557</v>
       </c>
-      <c r="I144" t="s">
+      <c r="J144" t="s">
         <v>57</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <v>13.709250000000001</v>
       </c>
-      <c r="K144">
+      <c r="L144">
         <v>100.48050000000001</v>
       </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
+      <c r="M144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C145" t="s">
         <v>558</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>111</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>559</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>438</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>10540</v>
       </c>
-      <c r="G145" t="s">
-        <v>55</v>
-      </c>
       <c r="H145" t="s">
+        <v>55</v>
+      </c>
+      <c r="I145" t="s">
         <v>560</v>
       </c>
-      <c r="I145" t="s">
+      <c r="J145" t="s">
         <v>254</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <v>13.603809999999999</v>
       </c>
-      <c r="K145">
+      <c r="L145">
         <v>100.707775</v>
       </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
+      <c r="M145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C146" t="s">
         <v>561</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>1</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>562</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>132</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>10310</v>
       </c>
-      <c r="G146" t="s">
-        <v>55</v>
-      </c>
       <c r="H146" t="s">
+        <v>55</v>
+      </c>
+      <c r="I146" t="s">
         <v>563</v>
       </c>
-      <c r="I146" t="s">
+      <c r="J146" t="s">
         <v>57</v>
       </c>
-      <c r="J146">
+      <c r="K146">
         <v>13.766588</v>
       </c>
-      <c r="K146">
+      <c r="L146">
         <v>100.602783</v>
       </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
+      <c r="M146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C147" t="s">
         <v>564</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>1</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>565</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>566</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>10150</v>
       </c>
-      <c r="G147" t="s">
-        <v>55</v>
-      </c>
       <c r="H147" t="s">
+        <v>55</v>
+      </c>
+      <c r="I147" t="s">
         <v>567</v>
       </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>57</v>
       </c>
-      <c r="J147">
+      <c r="K147">
         <v>13.677467</v>
       </c>
-      <c r="K147">
+      <c r="L147">
         <v>100.463548</v>
       </c>
-      <c r="L147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
+      <c r="M147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C148" t="s">
         <v>568</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>1</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>569</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>227</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>10400</v>
       </c>
-      <c r="G148" t="s">
-        <v>55</v>
-      </c>
       <c r="H148" t="s">
+        <v>55</v>
+      </c>
+      <c r="I148" t="s">
         <v>570</v>
       </c>
-      <c r="I148" t="s">
+      <c r="J148" t="s">
         <v>60</v>
       </c>
-      <c r="J148">
+      <c r="K148">
         <v>13.754111999999999</v>
       </c>
-      <c r="K148">
+      <c r="L148">
         <v>100.54196399999999</v>
       </c>
-      <c r="L148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
+      <c r="M148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C149" t="s">
         <v>571</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>1</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>572</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>176</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>10110</v>
       </c>
-      <c r="G149" t="s">
-        <v>55</v>
-      </c>
       <c r="H149" t="s">
+        <v>55</v>
+      </c>
+      <c r="I149" t="s">
         <v>573</v>
       </c>
-      <c r="I149" t="s">
+      <c r="J149" t="s">
         <v>57</v>
       </c>
-      <c r="J149">
+      <c r="K149">
         <v>13.728609000000001</v>
       </c>
-      <c r="K149">
+      <c r="L149">
         <v>100.57211599999999</v>
       </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
+      <c r="M149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C150" t="s">
         <v>574</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>1</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>575</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>120</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>10400</v>
       </c>
-      <c r="G150" t="s">
-        <v>55</v>
-      </c>
       <c r="H150" t="s">
+        <v>55</v>
+      </c>
+      <c r="I150" t="s">
         <v>576</v>
       </c>
-      <c r="I150" t="s">
+      <c r="J150" t="s">
         <v>352</v>
       </c>
-      <c r="J150">
+      <c r="K150">
         <v>13.777850000000001</v>
       </c>
-      <c r="K150">
+      <c r="L150">
         <v>100.5436</v>
       </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
+      <c r="M150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C151" t="s">
         <v>577</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>1</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>578</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>556</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>10600</v>
       </c>
-      <c r="G151" t="s">
-        <v>55</v>
-      </c>
       <c r="H151" t="s">
+        <v>55</v>
+      </c>
+      <c r="I151" t="s">
         <v>579</v>
       </c>
-      <c r="I151" t="s">
+      <c r="J151" t="s">
         <v>200</v>
       </c>
-      <c r="J151">
+      <c r="K151">
         <v>13.713789999999999</v>
       </c>
-      <c r="K151">
+      <c r="L151">
         <v>100.4799</v>
       </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
+      <c r="M151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C152" t="s">
         <v>580</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>1</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>581</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>337</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>10260</v>
       </c>
-      <c r="G152" t="s">
-        <v>55</v>
-      </c>
       <c r="H152" t="s">
+        <v>55</v>
+      </c>
+      <c r="I152" t="s">
         <v>582</v>
       </c>
-      <c r="I152" t="s">
+      <c r="J152" t="s">
         <v>352</v>
       </c>
-      <c r="J152">
+      <c r="K152">
         <v>13.68628</v>
       </c>
-      <c r="K152">
+      <c r="L152">
         <v>100.61109999999999</v>
       </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
+      <c r="M152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C153" t="s">
         <v>583</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>210</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>584</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>323</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>12130</v>
       </c>
-      <c r="G153" t="s">
-        <v>55</v>
-      </c>
       <c r="H153" t="s">
+        <v>55</v>
+      </c>
+      <c r="I153" t="s">
         <v>585</v>
       </c>
-      <c r="I153" t="s">
+      <c r="J153" t="s">
         <v>200</v>
       </c>
-      <c r="J153">
+      <c r="K153">
         <v>13.99076</v>
       </c>
-      <c r="K153">
+      <c r="L153">
         <v>100.61854</v>
       </c>
-      <c r="L153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
+      <c r="M153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C154" t="s">
         <v>586</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>111</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>587</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>438</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>10540</v>
       </c>
-      <c r="G154" t="s">
-        <v>55</v>
-      </c>
       <c r="H154" t="s">
+        <v>55</v>
+      </c>
+      <c r="I154" t="s">
         <v>588</v>
       </c>
-      <c r="I154" t="s">
+      <c r="J154" t="s">
         <v>200</v>
       </c>
-      <c r="J154">
+      <c r="K154">
         <v>13.653169999999999</v>
       </c>
-      <c r="K154">
+      <c r="L154">
         <v>100.67901000000001</v>
       </c>
-      <c r="L154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
+      <c r="M154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C155" t="s">
         <v>589</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>590</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>591</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>67</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>31000</v>
       </c>
-      <c r="G155" t="s">
-        <v>55</v>
-      </c>
       <c r="H155" t="s">
+        <v>55</v>
+      </c>
+      <c r="I155" t="s">
         <v>592</v>
       </c>
-      <c r="I155" t="s">
+      <c r="J155" t="s">
         <v>57</v>
       </c>
-      <c r="J155">
+      <c r="K155">
         <v>14.988350000000001</v>
       </c>
-      <c r="K155">
+      <c r="L155">
         <v>103.086</v>
       </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
+      <c r="M155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C156" t="s">
         <v>593</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>594</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>595</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>549</v>
       </c>
-      <c r="F156">
+      <c r="G156">
         <v>11120</v>
       </c>
-      <c r="G156" t="s">
-        <v>55</v>
-      </c>
       <c r="H156" t="s">
+        <v>55</v>
+      </c>
+      <c r="I156" t="s">
         <v>596</v>
       </c>
-      <c r="I156" t="s">
+      <c r="J156" t="s">
         <v>200</v>
       </c>
-      <c r="J156">
+      <c r="K156">
         <v>13.903498000000001</v>
       </c>
-      <c r="K156">
+      <c r="L156">
         <v>100.526061</v>
       </c>
-      <c r="L156">
+      <c r="M156">
         <v>0</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -2256,10 +2256,10 @@
     <t>phone</t>
   </si>
   <si>
-    <t>ธนาคาร</t>
-  </si>
-  <si>
     <t>bank</t>
+  </si>
+  <si>
+    <t>ธนาคาร UOB</t>
   </si>
 </sst>
 </file>
@@ -2596,7 +2596,7 @@
   <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2:B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2613,7 +2613,7 @@
         <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -2654,7 +2654,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -2736,7 +2736,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2777,7 +2777,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2818,7 +2818,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -2859,7 +2859,7 @@
         <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -2900,7 +2900,7 @@
         <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -2941,7 +2941,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -2982,7 +2982,7 @@
         <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -3023,7 +3023,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -3064,7 +3064,7 @@
         <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -3105,7 +3105,7 @@
         <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -3146,7 +3146,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -3187,7 +3187,7 @@
         <v>600</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C15" t="s">
         <v>82</v>
@@ -3228,7 +3228,7 @@
         <v>601</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C16" t="s">
         <v>86</v>
@@ -3269,7 +3269,7 @@
         <v>602</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C17" t="s">
         <v>90</v>
@@ -3310,7 +3310,7 @@
         <v>603</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C18" t="s">
         <v>94</v>
@@ -3351,7 +3351,7 @@
         <v>604</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C19" t="s">
         <v>98</v>
@@ -3392,7 +3392,7 @@
         <v>605</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C20" t="s">
         <v>103</v>
@@ -3433,7 +3433,7 @@
         <v>606</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C21" t="s">
         <v>107</v>
@@ -3474,7 +3474,7 @@
         <v>607</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C22" t="s">
         <v>110</v>
@@ -3515,7 +3515,7 @@
         <v>608</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C23" t="s">
         <v>114</v>
@@ -3556,7 +3556,7 @@
         <v>609</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C24" t="s">
         <v>118</v>
@@ -3597,7 +3597,7 @@
         <v>610</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C25" t="s">
         <v>122</v>
@@ -3638,7 +3638,7 @@
         <v>611</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C26" t="s">
         <v>126</v>
@@ -3679,7 +3679,7 @@
         <v>612</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C27" t="s">
         <v>130</v>
@@ -3720,7 +3720,7 @@
         <v>613</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C28" t="s">
         <v>134</v>
@@ -3761,7 +3761,7 @@
         <v>614</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C29" t="s">
         <v>138</v>
@@ -3802,7 +3802,7 @@
         <v>615</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C30" t="s">
         <v>142</v>
@@ -3843,7 +3843,7 @@
         <v>616</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C31" t="s">
         <v>147</v>
@@ -3884,7 +3884,7 @@
         <v>617</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C32" t="s">
         <v>151</v>
@@ -3925,7 +3925,7 @@
         <v>618</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C33" t="s">
         <v>155</v>
@@ -3966,7 +3966,7 @@
         <v>619</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C34" t="s">
         <v>159</v>
@@ -4007,7 +4007,7 @@
         <v>620</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C35" t="s">
         <v>162</v>
@@ -4048,7 +4048,7 @@
         <v>621</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C36" t="s">
         <v>166</v>
@@ -4089,7 +4089,7 @@
         <v>622</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C37" t="s">
         <v>170</v>
@@ -4130,7 +4130,7 @@
         <v>623</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C38" t="s">
         <v>174</v>
@@ -4171,7 +4171,7 @@
         <v>624</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C39" t="s">
         <v>178</v>
@@ -4212,7 +4212,7 @@
         <v>625</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C40" t="s">
         <v>182</v>
@@ -4253,7 +4253,7 @@
         <v>626</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C41" t="s">
         <v>185</v>
@@ -4294,7 +4294,7 @@
         <v>627</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C42" t="s">
         <v>188</v>
@@ -4335,7 +4335,7 @@
         <v>628</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C43" t="s">
         <v>192</v>
@@ -4376,7 +4376,7 @@
         <v>629</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C44" t="s">
         <v>196</v>
@@ -4417,7 +4417,7 @@
         <v>630</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C45" t="s">
         <v>201</v>
@@ -4458,7 +4458,7 @@
         <v>631</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C46" t="s">
         <v>205</v>
@@ -4499,7 +4499,7 @@
         <v>632</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C47" t="s">
         <v>209</v>
@@ -4540,7 +4540,7 @@
         <v>633</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C48" t="s">
         <v>214</v>
@@ -4581,7 +4581,7 @@
         <v>634</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C49" t="s">
         <v>217</v>
@@ -4622,7 +4622,7 @@
         <v>635</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C50" t="s">
         <v>221</v>
@@ -4663,7 +4663,7 @@
         <v>636</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C51" t="s">
         <v>225</v>
@@ -4704,7 +4704,7 @@
         <v>637</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C52" t="s">
         <v>229</v>
@@ -4745,7 +4745,7 @@
         <v>638</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C53" t="s">
         <v>233</v>
@@ -4786,7 +4786,7 @@
         <v>639</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C54" t="s">
         <v>236</v>
@@ -4827,7 +4827,7 @@
         <v>640</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C55" t="s">
         <v>239</v>
@@ -4868,7 +4868,7 @@
         <v>641</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C56" t="s">
         <v>243</v>
@@ -4909,7 +4909,7 @@
         <v>642</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C57" t="s">
         <v>246</v>
@@ -4950,7 +4950,7 @@
         <v>643</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C58" t="s">
         <v>251</v>
@@ -4991,7 +4991,7 @@
         <v>644</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C59" t="s">
         <v>255</v>
@@ -5032,7 +5032,7 @@
         <v>645</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C60" t="s">
         <v>258</v>
@@ -5073,7 +5073,7 @@
         <v>646</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C61" t="s">
         <v>262</v>
@@ -5114,7 +5114,7 @@
         <v>647</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C62" t="s">
         <v>265</v>
@@ -5155,7 +5155,7 @@
         <v>648</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C63" t="s">
         <v>269</v>
@@ -5196,7 +5196,7 @@
         <v>649</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C64" t="s">
         <v>273</v>
@@ -5237,7 +5237,7 @@
         <v>650</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C65" t="s">
         <v>277</v>
@@ -5278,7 +5278,7 @@
         <v>651</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C66" t="s">
         <v>281</v>
@@ -5319,7 +5319,7 @@
         <v>652</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C67" t="s">
         <v>285</v>
@@ -5360,7 +5360,7 @@
         <v>653</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C68" t="s">
         <v>290</v>
@@ -5401,7 +5401,7 @@
         <v>654</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C69" t="s">
         <v>294</v>
@@ -5442,7 +5442,7 @@
         <v>655</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C70" t="s">
         <v>297</v>
@@ -5483,7 +5483,7 @@
         <v>656</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C71" t="s">
         <v>300</v>
@@ -5524,7 +5524,7 @@
         <v>657</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C72" t="s">
         <v>304</v>
@@ -5565,7 +5565,7 @@
         <v>658</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C73" t="s">
         <v>307</v>
@@ -5606,7 +5606,7 @@
         <v>659</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C74" t="s">
         <v>311</v>
@@ -5647,7 +5647,7 @@
         <v>660</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C75" t="s">
         <v>314</v>
@@ -5688,7 +5688,7 @@
         <v>661</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C76" t="s">
         <v>318</v>
@@ -5729,7 +5729,7 @@
         <v>662</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C77" t="s">
         <v>321</v>
@@ -5770,7 +5770,7 @@
         <v>663</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C78" t="s">
         <v>325</v>
@@ -5811,7 +5811,7 @@
         <v>664</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C79" t="s">
         <v>328</v>
@@ -5852,7 +5852,7 @@
         <v>665</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C80" t="s">
         <v>332</v>
@@ -5893,7 +5893,7 @@
         <v>666</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C81" t="s">
         <v>335</v>
@@ -5934,7 +5934,7 @@
         <v>667</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C82" t="s">
         <v>339</v>
@@ -5975,7 +5975,7 @@
         <v>668</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C83" t="s">
         <v>342</v>
@@ -6016,7 +6016,7 @@
         <v>669</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C84" t="s">
         <v>346</v>
@@ -6057,7 +6057,7 @@
         <v>670</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C85" t="s">
         <v>349</v>
@@ -6098,7 +6098,7 @@
         <v>671</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C86" t="s">
         <v>353</v>
@@ -6139,7 +6139,7 @@
         <v>672</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C87" t="s">
         <v>356</v>
@@ -6180,7 +6180,7 @@
         <v>673</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C88" t="s">
         <v>359</v>
@@ -6221,7 +6221,7 @@
         <v>674</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C89" t="s">
         <v>363</v>
@@ -6262,7 +6262,7 @@
         <v>675</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C90" t="s">
         <v>367</v>
@@ -6303,7 +6303,7 @@
         <v>676</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C91" t="s">
         <v>370</v>
@@ -6344,7 +6344,7 @@
         <v>677</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C92" t="s">
         <v>373</v>
@@ -6385,7 +6385,7 @@
         <v>678</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C93" t="s">
         <v>376</v>
@@ -6426,7 +6426,7 @@
         <v>679</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C94" t="s">
         <v>380</v>
@@ -6467,7 +6467,7 @@
         <v>680</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C95" t="s">
         <v>384</v>
@@ -6508,7 +6508,7 @@
         <v>681</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C96" t="s">
         <v>387</v>
@@ -6549,7 +6549,7 @@
         <v>682</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C97" t="s">
         <v>390</v>
@@ -6590,7 +6590,7 @@
         <v>683</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C98" t="s">
         <v>394</v>
@@ -6631,7 +6631,7 @@
         <v>684</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C99" t="s">
         <v>398</v>
@@ -6672,7 +6672,7 @@
         <v>685</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C100" t="s">
         <v>402</v>
@@ -6713,7 +6713,7 @@
         <v>686</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C101" t="s">
         <v>406</v>
@@ -6754,7 +6754,7 @@
         <v>687</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C102" t="s">
         <v>410</v>
@@ -6795,7 +6795,7 @@
         <v>688</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C103" t="s">
         <v>414</v>
@@ -6836,7 +6836,7 @@
         <v>689</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C104" t="s">
         <v>418</v>
@@ -6877,7 +6877,7 @@
         <v>690</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C105" t="s">
         <v>422</v>
@@ -6918,7 +6918,7 @@
         <v>691</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C106" t="s">
         <v>426</v>
@@ -6959,7 +6959,7 @@
         <v>692</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C107" t="s">
         <v>430</v>
@@ -7000,7 +7000,7 @@
         <v>693</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C108" t="s">
         <v>433</v>
@@ -7041,7 +7041,7 @@
         <v>694</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C109" t="s">
         <v>436</v>
@@ -7082,7 +7082,7 @@
         <v>695</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C110" t="s">
         <v>440</v>
@@ -7123,7 +7123,7 @@
         <v>696</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C111" t="s">
         <v>445</v>
@@ -7164,7 +7164,7 @@
         <v>697</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C112" t="s">
         <v>448</v>
@@ -7205,7 +7205,7 @@
         <v>698</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C113" t="s">
         <v>451</v>
@@ -7246,7 +7246,7 @@
         <v>699</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C114" t="s">
         <v>454</v>
@@ -7287,7 +7287,7 @@
         <v>700</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C115" t="s">
         <v>457</v>
@@ -7328,7 +7328,7 @@
         <v>701</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C116" t="s">
         <v>461</v>
@@ -7369,7 +7369,7 @@
         <v>702</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C117" t="s">
         <v>464</v>
@@ -7410,7 +7410,7 @@
         <v>703</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C118" t="s">
         <v>467</v>
@@ -7451,7 +7451,7 @@
         <v>704</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C119" t="s">
         <v>470</v>
@@ -7492,7 +7492,7 @@
         <v>705</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C120" t="s">
         <v>474</v>
@@ -7533,7 +7533,7 @@
         <v>706</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C121" t="s">
         <v>477</v>
@@ -7574,7 +7574,7 @@
         <v>707</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C122" t="s">
         <v>480</v>
@@ -7615,7 +7615,7 @@
         <v>708</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C123" t="s">
         <v>483</v>
@@ -7656,7 +7656,7 @@
         <v>709</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C124" t="s">
         <v>487</v>
@@ -7697,7 +7697,7 @@
         <v>710</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C125" t="s">
         <v>491</v>
@@ -7738,7 +7738,7 @@
         <v>711</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C126" t="s">
         <v>494</v>
@@ -7779,7 +7779,7 @@
         <v>712</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C127" t="s">
         <v>497</v>
@@ -7820,7 +7820,7 @@
         <v>713</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C128" t="s">
         <v>500</v>
@@ -7861,7 +7861,7 @@
         <v>714</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C129" t="s">
         <v>504</v>
@@ -7902,7 +7902,7 @@
         <v>715</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C130" t="s">
         <v>508</v>
@@ -7943,7 +7943,7 @@
         <v>716</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C131" t="s">
         <v>511</v>
@@ -7984,7 +7984,7 @@
         <v>717</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C132" t="s">
         <v>514</v>
@@ -8025,7 +8025,7 @@
         <v>718</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C133" t="s">
         <v>517</v>
@@ -8066,7 +8066,7 @@
         <v>719</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C134" t="s">
         <v>520</v>
@@ -8107,7 +8107,7 @@
         <v>720</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C135" t="s">
         <v>524</v>
@@ -8148,7 +8148,7 @@
         <v>721</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C136" t="s">
         <v>527</v>
@@ -8189,7 +8189,7 @@
         <v>722</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C137" t="s">
         <v>530</v>
@@ -8230,7 +8230,7 @@
         <v>723</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C138" t="s">
         <v>533</v>
@@ -8271,7 +8271,7 @@
         <v>724</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C139" t="s">
         <v>536</v>
@@ -8312,7 +8312,7 @@
         <v>725</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C140" t="s">
         <v>540</v>
@@ -8353,7 +8353,7 @@
         <v>726</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C141" t="s">
         <v>543</v>
@@ -8394,7 +8394,7 @@
         <v>727</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C142" t="s">
         <v>547</v>
@@ -8435,7 +8435,7 @@
         <v>728</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C143" t="s">
         <v>551</v>
@@ -8476,7 +8476,7 @@
         <v>729</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C144" t="s">
         <v>554</v>
@@ -8517,7 +8517,7 @@
         <v>730</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C145" t="s">
         <v>558</v>
@@ -8558,7 +8558,7 @@
         <v>731</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C146" t="s">
         <v>561</v>
@@ -8599,7 +8599,7 @@
         <v>732</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C147" t="s">
         <v>564</v>
@@ -8640,7 +8640,7 @@
         <v>733</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C148" t="s">
         <v>568</v>
@@ -8681,7 +8681,7 @@
         <v>734</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C149" t="s">
         <v>571</v>
@@ -8722,7 +8722,7 @@
         <v>735</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C150" t="s">
         <v>574</v>
@@ -8763,7 +8763,7 @@
         <v>736</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C151" t="s">
         <v>577</v>
@@ -8804,7 +8804,7 @@
         <v>737</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C152" t="s">
         <v>580</v>
@@ -8845,7 +8845,7 @@
         <v>738</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C153" t="s">
         <v>583</v>
@@ -8886,7 +8886,7 @@
         <v>739</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C154" t="s">
         <v>586</v>
@@ -8927,7 +8927,7 @@
         <v>740</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C155" t="s">
         <v>589</v>
@@ -8968,7 +8968,7 @@
         <v>741</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C156" t="s">
         <v>593</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6402" uniqueCount="2279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7094" uniqueCount="2280">
   <si>
     <t>สาขาสี่พระยา</t>
   </si>
@@ -6862,6 +6862,9 @@
   </si>
   <si>
     <t>847</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -7197,8 +7200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M848"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A830" workbookViewId="0">
-      <selection activeCell="E806" sqref="E806"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13632,6 +13635,9 @@
       <c r="H157" t="s">
         <v>55</v>
       </c>
+      <c r="I157" t="s">
+        <v>2279</v>
+      </c>
       <c r="J157" t="s">
         <v>748</v>
       </c>
@@ -13670,6 +13676,9 @@
       <c r="H158" t="s">
         <v>55</v>
       </c>
+      <c r="I158" t="s">
+        <v>2279</v>
+      </c>
       <c r="J158" t="s">
         <v>748</v>
       </c>
@@ -13708,6 +13717,9 @@
       <c r="H159" t="s">
         <v>55</v>
       </c>
+      <c r="I159" t="s">
+        <v>2279</v>
+      </c>
       <c r="J159" t="s">
         <v>748</v>
       </c>
@@ -13746,6 +13758,9 @@
       <c r="H160" t="s">
         <v>55</v>
       </c>
+      <c r="I160" t="s">
+        <v>2279</v>
+      </c>
       <c r="J160" t="s">
         <v>748</v>
       </c>
@@ -13784,6 +13799,9 @@
       <c r="H161" t="s">
         <v>55</v>
       </c>
+      <c r="I161" t="s">
+        <v>2279</v>
+      </c>
       <c r="J161" t="s">
         <v>748</v>
       </c>
@@ -13822,6 +13840,9 @@
       <c r="H162" t="s">
         <v>55</v>
       </c>
+      <c r="I162" t="s">
+        <v>2279</v>
+      </c>
       <c r="J162" t="s">
         <v>748</v>
       </c>
@@ -13860,6 +13881,9 @@
       <c r="H163" t="s">
         <v>55</v>
       </c>
+      <c r="I163" t="s">
+        <v>2279</v>
+      </c>
       <c r="J163" t="s">
         <v>748</v>
       </c>
@@ -13898,6 +13922,9 @@
       <c r="H164" t="s">
         <v>55</v>
       </c>
+      <c r="I164" t="s">
+        <v>2279</v>
+      </c>
       <c r="J164" t="s">
         <v>748</v>
       </c>
@@ -13936,6 +13963,9 @@
       <c r="H165" t="s">
         <v>55</v>
       </c>
+      <c r="I165" t="s">
+        <v>2279</v>
+      </c>
       <c r="J165" t="s">
         <v>748</v>
       </c>
@@ -13974,6 +14004,9 @@
       <c r="H166" t="s">
         <v>55</v>
       </c>
+      <c r="I166" t="s">
+        <v>2279</v>
+      </c>
       <c r="J166" t="s">
         <v>748</v>
       </c>
@@ -14012,6 +14045,9 @@
       <c r="H167" t="s">
         <v>55</v>
       </c>
+      <c r="I167" t="s">
+        <v>2279</v>
+      </c>
       <c r="J167" t="s">
         <v>748</v>
       </c>
@@ -14050,6 +14086,9 @@
       <c r="H168" t="s">
         <v>55</v>
       </c>
+      <c r="I168" t="s">
+        <v>2279</v>
+      </c>
       <c r="J168" t="s">
         <v>748</v>
       </c>
@@ -14088,6 +14127,9 @@
       <c r="H169" t="s">
         <v>55</v>
       </c>
+      <c r="I169" t="s">
+        <v>2279</v>
+      </c>
       <c r="J169" t="s">
         <v>748</v>
       </c>
@@ -14126,6 +14168,9 @@
       <c r="H170" t="s">
         <v>55</v>
       </c>
+      <c r="I170" t="s">
+        <v>2279</v>
+      </c>
       <c r="J170" t="s">
         <v>748</v>
       </c>
@@ -14164,6 +14209,9 @@
       <c r="H171" t="s">
         <v>55</v>
       </c>
+      <c r="I171" t="s">
+        <v>2279</v>
+      </c>
       <c r="J171" t="s">
         <v>748</v>
       </c>
@@ -14202,6 +14250,9 @@
       <c r="H172" t="s">
         <v>55</v>
       </c>
+      <c r="I172" t="s">
+        <v>2279</v>
+      </c>
       <c r="J172" t="s">
         <v>748</v>
       </c>
@@ -14240,6 +14291,9 @@
       <c r="H173" t="s">
         <v>55</v>
       </c>
+      <c r="I173" t="s">
+        <v>2279</v>
+      </c>
       <c r="J173" t="s">
         <v>748</v>
       </c>
@@ -14278,6 +14332,9 @@
       <c r="H174" t="s">
         <v>55</v>
       </c>
+      <c r="I174" t="s">
+        <v>2279</v>
+      </c>
       <c r="J174" t="s">
         <v>748</v>
       </c>
@@ -14316,6 +14373,9 @@
       <c r="H175" t="s">
         <v>55</v>
       </c>
+      <c r="I175" t="s">
+        <v>2279</v>
+      </c>
       <c r="J175" t="s">
         <v>748</v>
       </c>
@@ -14354,6 +14414,9 @@
       <c r="H176" t="s">
         <v>55</v>
       </c>
+      <c r="I176" t="s">
+        <v>2279</v>
+      </c>
       <c r="J176" t="s">
         <v>748</v>
       </c>
@@ -14392,6 +14455,9 @@
       <c r="H177" t="s">
         <v>55</v>
       </c>
+      <c r="I177" t="s">
+        <v>2279</v>
+      </c>
       <c r="J177" t="s">
         <v>748</v>
       </c>
@@ -14430,6 +14496,9 @@
       <c r="H178" t="s">
         <v>55</v>
       </c>
+      <c r="I178" t="s">
+        <v>2279</v>
+      </c>
       <c r="J178" t="s">
         <v>748</v>
       </c>
@@ -14468,6 +14537,9 @@
       <c r="H179" t="s">
         <v>55</v>
       </c>
+      <c r="I179" t="s">
+        <v>2279</v>
+      </c>
       <c r="J179" t="s">
         <v>748</v>
       </c>
@@ -14506,6 +14578,9 @@
       <c r="H180" t="s">
         <v>55</v>
       </c>
+      <c r="I180" t="s">
+        <v>2279</v>
+      </c>
       <c r="J180" t="s">
         <v>748</v>
       </c>
@@ -14544,6 +14619,9 @@
       <c r="H181" t="s">
         <v>55</v>
       </c>
+      <c r="I181" t="s">
+        <v>2279</v>
+      </c>
       <c r="J181" t="s">
         <v>748</v>
       </c>
@@ -14582,6 +14660,9 @@
       <c r="H182" t="s">
         <v>55</v>
       </c>
+      <c r="I182" t="s">
+        <v>2279</v>
+      </c>
       <c r="J182" t="s">
         <v>748</v>
       </c>
@@ -14620,6 +14701,9 @@
       <c r="H183" t="s">
         <v>55</v>
       </c>
+      <c r="I183" t="s">
+        <v>2279</v>
+      </c>
       <c r="J183" t="s">
         <v>748</v>
       </c>
@@ -14658,6 +14742,9 @@
       <c r="H184" t="s">
         <v>55</v>
       </c>
+      <c r="I184" t="s">
+        <v>2279</v>
+      </c>
       <c r="J184" t="s">
         <v>748</v>
       </c>
@@ -14696,6 +14783,9 @@
       <c r="H185" t="s">
         <v>55</v>
       </c>
+      <c r="I185" t="s">
+        <v>2279</v>
+      </c>
       <c r="J185" t="s">
         <v>748</v>
       </c>
@@ -14734,6 +14824,9 @@
       <c r="H186" t="s">
         <v>55</v>
       </c>
+      <c r="I186" t="s">
+        <v>2279</v>
+      </c>
       <c r="J186" t="s">
         <v>748</v>
       </c>
@@ -14772,6 +14865,9 @@
       <c r="H187" t="s">
         <v>55</v>
       </c>
+      <c r="I187" t="s">
+        <v>2279</v>
+      </c>
       <c r="J187" t="s">
         <v>748</v>
       </c>
@@ -14810,6 +14906,9 @@
       <c r="H188" t="s">
         <v>55</v>
       </c>
+      <c r="I188" t="s">
+        <v>2279</v>
+      </c>
       <c r="J188" t="s">
         <v>748</v>
       </c>
@@ -14848,6 +14947,9 @@
       <c r="H189" t="s">
         <v>55</v>
       </c>
+      <c r="I189" t="s">
+        <v>2279</v>
+      </c>
       <c r="J189" t="s">
         <v>748</v>
       </c>
@@ -14886,6 +14988,9 @@
       <c r="H190" t="s">
         <v>55</v>
       </c>
+      <c r="I190" t="s">
+        <v>2279</v>
+      </c>
       <c r="J190" t="s">
         <v>748</v>
       </c>
@@ -14924,6 +15029,9 @@
       <c r="H191" t="s">
         <v>55</v>
       </c>
+      <c r="I191" t="s">
+        <v>2279</v>
+      </c>
       <c r="J191" t="s">
         <v>748</v>
       </c>
@@ -14962,6 +15070,9 @@
       <c r="H192" t="s">
         <v>55</v>
       </c>
+      <c r="I192" t="s">
+        <v>2279</v>
+      </c>
       <c r="J192" t="s">
         <v>748</v>
       </c>
@@ -15000,6 +15111,9 @@
       <c r="H193" t="s">
         <v>55</v>
       </c>
+      <c r="I193" t="s">
+        <v>2279</v>
+      </c>
       <c r="J193" t="s">
         <v>748</v>
       </c>
@@ -15038,6 +15152,9 @@
       <c r="H194" t="s">
         <v>55</v>
       </c>
+      <c r="I194" t="s">
+        <v>2279</v>
+      </c>
       <c r="J194" t="s">
         <v>748</v>
       </c>
@@ -15076,6 +15193,9 @@
       <c r="H195" t="s">
         <v>55</v>
       </c>
+      <c r="I195" t="s">
+        <v>2279</v>
+      </c>
       <c r="J195" t="s">
         <v>748</v>
       </c>
@@ -15114,6 +15234,9 @@
       <c r="H196" t="s">
         <v>55</v>
       </c>
+      <c r="I196" t="s">
+        <v>2279</v>
+      </c>
       <c r="J196" t="s">
         <v>748</v>
       </c>
@@ -15152,6 +15275,9 @@
       <c r="H197" t="s">
         <v>55</v>
       </c>
+      <c r="I197" t="s">
+        <v>2279</v>
+      </c>
       <c r="J197" t="s">
         <v>748</v>
       </c>
@@ -15190,6 +15316,9 @@
       <c r="H198" t="s">
         <v>55</v>
       </c>
+      <c r="I198" t="s">
+        <v>2279</v>
+      </c>
       <c r="J198" t="s">
         <v>748</v>
       </c>
@@ -15228,6 +15357,9 @@
       <c r="H199" t="s">
         <v>55</v>
       </c>
+      <c r="I199" t="s">
+        <v>2279</v>
+      </c>
       <c r="J199" t="s">
         <v>748</v>
       </c>
@@ -15266,6 +15398,9 @@
       <c r="H200" t="s">
         <v>55</v>
       </c>
+      <c r="I200" t="s">
+        <v>2279</v>
+      </c>
       <c r="J200" t="s">
         <v>748</v>
       </c>
@@ -15304,6 +15439,9 @@
       <c r="H201" t="s">
         <v>55</v>
       </c>
+      <c r="I201" t="s">
+        <v>2279</v>
+      </c>
       <c r="J201" t="s">
         <v>748</v>
       </c>
@@ -15342,6 +15480,9 @@
       <c r="H202" t="s">
         <v>55</v>
       </c>
+      <c r="I202" t="s">
+        <v>2279</v>
+      </c>
       <c r="J202" t="s">
         <v>748</v>
       </c>
@@ -15380,6 +15521,9 @@
       <c r="H203" t="s">
         <v>55</v>
       </c>
+      <c r="I203" t="s">
+        <v>2279</v>
+      </c>
       <c r="J203" t="s">
         <v>748</v>
       </c>
@@ -15418,6 +15562,9 @@
       <c r="H204" t="s">
         <v>55</v>
       </c>
+      <c r="I204" t="s">
+        <v>2279</v>
+      </c>
       <c r="J204" t="s">
         <v>748</v>
       </c>
@@ -15456,6 +15603,9 @@
       <c r="H205" t="s">
         <v>55</v>
       </c>
+      <c r="I205" t="s">
+        <v>2279</v>
+      </c>
       <c r="J205" t="s">
         <v>748</v>
       </c>
@@ -15494,6 +15644,9 @@
       <c r="H206" t="s">
         <v>55</v>
       </c>
+      <c r="I206" t="s">
+        <v>2279</v>
+      </c>
       <c r="J206" t="s">
         <v>748</v>
       </c>
@@ -15532,6 +15685,9 @@
       <c r="H207" t="s">
         <v>55</v>
       </c>
+      <c r="I207" t="s">
+        <v>2279</v>
+      </c>
       <c r="J207" t="s">
         <v>748</v>
       </c>
@@ -15570,6 +15726,9 @@
       <c r="H208" t="s">
         <v>55</v>
       </c>
+      <c r="I208" t="s">
+        <v>2279</v>
+      </c>
       <c r="J208" t="s">
         <v>748</v>
       </c>
@@ -15608,6 +15767,9 @@
       <c r="H209" t="s">
         <v>55</v>
       </c>
+      <c r="I209" t="s">
+        <v>2279</v>
+      </c>
       <c r="J209" t="s">
         <v>748</v>
       </c>
@@ -15646,6 +15808,9 @@
       <c r="H210" t="s">
         <v>55</v>
       </c>
+      <c r="I210" t="s">
+        <v>2279</v>
+      </c>
       <c r="J210" t="s">
         <v>748</v>
       </c>
@@ -15684,6 +15849,9 @@
       <c r="H211" t="s">
         <v>55</v>
       </c>
+      <c r="I211" t="s">
+        <v>2279</v>
+      </c>
       <c r="J211" t="s">
         <v>748</v>
       </c>
@@ -15722,6 +15890,9 @@
       <c r="H212" t="s">
         <v>55</v>
       </c>
+      <c r="I212" t="s">
+        <v>2279</v>
+      </c>
       <c r="J212" t="s">
         <v>748</v>
       </c>
@@ -15760,6 +15931,9 @@
       <c r="H213" t="s">
         <v>55</v>
       </c>
+      <c r="I213" t="s">
+        <v>2279</v>
+      </c>
       <c r="J213" t="s">
         <v>748</v>
       </c>
@@ -15798,6 +15972,9 @@
       <c r="H214" t="s">
         <v>55</v>
       </c>
+      <c r="I214" t="s">
+        <v>2279</v>
+      </c>
       <c r="J214" t="s">
         <v>748</v>
       </c>
@@ -15836,6 +16013,9 @@
       <c r="H215" t="s">
         <v>55</v>
       </c>
+      <c r="I215" t="s">
+        <v>2279</v>
+      </c>
       <c r="J215" t="s">
         <v>748</v>
       </c>
@@ -15874,6 +16054,9 @@
       <c r="H216" t="s">
         <v>55</v>
       </c>
+      <c r="I216" t="s">
+        <v>2279</v>
+      </c>
       <c r="J216" t="s">
         <v>748</v>
       </c>
@@ -15912,6 +16095,9 @@
       <c r="H217" t="s">
         <v>55</v>
       </c>
+      <c r="I217" t="s">
+        <v>2279</v>
+      </c>
       <c r="J217" t="s">
         <v>748</v>
       </c>
@@ -15950,6 +16136,9 @@
       <c r="H218" t="s">
         <v>55</v>
       </c>
+      <c r="I218" t="s">
+        <v>2279</v>
+      </c>
       <c r="J218" t="s">
         <v>748</v>
       </c>
@@ -15988,6 +16177,9 @@
       <c r="H219" t="s">
         <v>55</v>
       </c>
+      <c r="I219" t="s">
+        <v>2279</v>
+      </c>
       <c r="J219" t="s">
         <v>748</v>
       </c>
@@ -16026,6 +16218,9 @@
       <c r="H220" t="s">
         <v>55</v>
       </c>
+      <c r="I220" t="s">
+        <v>2279</v>
+      </c>
       <c r="J220" t="s">
         <v>748</v>
       </c>
@@ -16064,6 +16259,9 @@
       <c r="H221" t="s">
         <v>55</v>
       </c>
+      <c r="I221" t="s">
+        <v>2279</v>
+      </c>
       <c r="J221" t="s">
         <v>748</v>
       </c>
@@ -16102,6 +16300,9 @@
       <c r="H222" t="s">
         <v>55</v>
       </c>
+      <c r="I222" t="s">
+        <v>2279</v>
+      </c>
       <c r="J222" t="s">
         <v>748</v>
       </c>
@@ -16140,6 +16341,9 @@
       <c r="H223" t="s">
         <v>55</v>
       </c>
+      <c r="I223" t="s">
+        <v>2279</v>
+      </c>
       <c r="J223" t="s">
         <v>748</v>
       </c>
@@ -16178,6 +16382,9 @@
       <c r="H224" t="s">
         <v>55</v>
       </c>
+      <c r="I224" t="s">
+        <v>2279</v>
+      </c>
       <c r="J224" t="s">
         <v>748</v>
       </c>
@@ -16216,6 +16423,9 @@
       <c r="H225" t="s">
         <v>55</v>
       </c>
+      <c r="I225" t="s">
+        <v>2279</v>
+      </c>
       <c r="J225" t="s">
         <v>748</v>
       </c>
@@ -16254,6 +16464,9 @@
       <c r="H226" t="s">
         <v>55</v>
       </c>
+      <c r="I226" t="s">
+        <v>2279</v>
+      </c>
       <c r="J226" t="s">
         <v>748</v>
       </c>
@@ -16292,6 +16505,9 @@
       <c r="H227" t="s">
         <v>55</v>
       </c>
+      <c r="I227" t="s">
+        <v>2279</v>
+      </c>
       <c r="J227" t="s">
         <v>748</v>
       </c>
@@ -16330,6 +16546,9 @@
       <c r="H228" t="s">
         <v>55</v>
       </c>
+      <c r="I228" t="s">
+        <v>2279</v>
+      </c>
       <c r="J228" t="s">
         <v>748</v>
       </c>
@@ -16368,6 +16587,9 @@
       <c r="H229" t="s">
         <v>55</v>
       </c>
+      <c r="I229" t="s">
+        <v>2279</v>
+      </c>
       <c r="J229" t="s">
         <v>748</v>
       </c>
@@ -16406,6 +16628,9 @@
       <c r="H230" t="s">
         <v>55</v>
       </c>
+      <c r="I230" t="s">
+        <v>2279</v>
+      </c>
       <c r="J230" t="s">
         <v>748</v>
       </c>
@@ -16444,6 +16669,9 @@
       <c r="H231" t="s">
         <v>55</v>
       </c>
+      <c r="I231" t="s">
+        <v>2279</v>
+      </c>
       <c r="J231" t="s">
         <v>748</v>
       </c>
@@ -16482,6 +16710,9 @@
       <c r="H232" t="s">
         <v>55</v>
       </c>
+      <c r="I232" t="s">
+        <v>2279</v>
+      </c>
       <c r="J232" t="s">
         <v>748</v>
       </c>
@@ -16520,6 +16751,9 @@
       <c r="H233" t="s">
         <v>55</v>
       </c>
+      <c r="I233" t="s">
+        <v>2279</v>
+      </c>
       <c r="J233" t="s">
         <v>748</v>
       </c>
@@ -16558,6 +16792,9 @@
       <c r="H234" t="s">
         <v>55</v>
       </c>
+      <c r="I234" t="s">
+        <v>2279</v>
+      </c>
       <c r="J234" t="s">
         <v>748</v>
       </c>
@@ -16596,6 +16833,9 @@
       <c r="H235" t="s">
         <v>55</v>
       </c>
+      <c r="I235" t="s">
+        <v>2279</v>
+      </c>
       <c r="J235" t="s">
         <v>748</v>
       </c>
@@ -16634,6 +16874,9 @@
       <c r="H236" t="s">
         <v>55</v>
       </c>
+      <c r="I236" t="s">
+        <v>2279</v>
+      </c>
       <c r="J236" t="s">
         <v>748</v>
       </c>
@@ -16672,6 +16915,9 @@
       <c r="H237" t="s">
         <v>55</v>
       </c>
+      <c r="I237" t="s">
+        <v>2279</v>
+      </c>
       <c r="J237" t="s">
         <v>748</v>
       </c>
@@ -16710,6 +16956,9 @@
       <c r="H238" t="s">
         <v>55</v>
       </c>
+      <c r="I238" t="s">
+        <v>2279</v>
+      </c>
       <c r="J238" t="s">
         <v>748</v>
       </c>
@@ -16748,6 +16997,9 @@
       <c r="H239" t="s">
         <v>55</v>
       </c>
+      <c r="I239" t="s">
+        <v>2279</v>
+      </c>
       <c r="J239" t="s">
         <v>748</v>
       </c>
@@ -16786,6 +17038,9 @@
       <c r="H240" t="s">
         <v>55</v>
       </c>
+      <c r="I240" t="s">
+        <v>2279</v>
+      </c>
       <c r="J240" t="s">
         <v>748</v>
       </c>
@@ -16824,6 +17079,9 @@
       <c r="H241" t="s">
         <v>55</v>
       </c>
+      <c r="I241" t="s">
+        <v>2279</v>
+      </c>
       <c r="J241" t="s">
         <v>748</v>
       </c>
@@ -16862,6 +17120,9 @@
       <c r="H242" t="s">
         <v>55</v>
       </c>
+      <c r="I242" t="s">
+        <v>2279</v>
+      </c>
       <c r="J242" t="s">
         <v>748</v>
       </c>
@@ -16900,6 +17161,9 @@
       <c r="H243" t="s">
         <v>55</v>
       </c>
+      <c r="I243" t="s">
+        <v>2279</v>
+      </c>
       <c r="J243" t="s">
         <v>748</v>
       </c>
@@ -16938,6 +17202,9 @@
       <c r="H244" t="s">
         <v>55</v>
       </c>
+      <c r="I244" t="s">
+        <v>2279</v>
+      </c>
       <c r="J244" t="s">
         <v>748</v>
       </c>
@@ -16976,6 +17243,9 @@
       <c r="H245" t="s">
         <v>55</v>
       </c>
+      <c r="I245" t="s">
+        <v>2279</v>
+      </c>
       <c r="J245" t="s">
         <v>748</v>
       </c>
@@ -17014,6 +17284,9 @@
       <c r="H246" t="s">
         <v>55</v>
       </c>
+      <c r="I246" t="s">
+        <v>2279</v>
+      </c>
       <c r="J246" t="s">
         <v>748</v>
       </c>
@@ -17052,6 +17325,9 @@
       <c r="H247" t="s">
         <v>55</v>
       </c>
+      <c r="I247" t="s">
+        <v>2279</v>
+      </c>
       <c r="J247" t="s">
         <v>748</v>
       </c>
@@ -17090,6 +17366,9 @@
       <c r="H248" t="s">
         <v>55</v>
       </c>
+      <c r="I248" t="s">
+        <v>2279</v>
+      </c>
       <c r="J248" t="s">
         <v>748</v>
       </c>
@@ -17128,6 +17407,9 @@
       <c r="H249" t="s">
         <v>55</v>
       </c>
+      <c r="I249" t="s">
+        <v>2279</v>
+      </c>
       <c r="J249" t="s">
         <v>748</v>
       </c>
@@ -17166,6 +17448,9 @@
       <c r="H250" t="s">
         <v>55</v>
       </c>
+      <c r="I250" t="s">
+        <v>2279</v>
+      </c>
       <c r="J250" t="s">
         <v>748</v>
       </c>
@@ -17204,6 +17489,9 @@
       <c r="H251" t="s">
         <v>55</v>
       </c>
+      <c r="I251" t="s">
+        <v>2279</v>
+      </c>
       <c r="J251" t="s">
         <v>748</v>
       </c>
@@ -17242,6 +17530,9 @@
       <c r="H252" t="s">
         <v>55</v>
       </c>
+      <c r="I252" t="s">
+        <v>2279</v>
+      </c>
       <c r="J252" t="s">
         <v>748</v>
       </c>
@@ -17280,6 +17571,9 @@
       <c r="H253" t="s">
         <v>55</v>
       </c>
+      <c r="I253" t="s">
+        <v>2279</v>
+      </c>
       <c r="J253" t="s">
         <v>748</v>
       </c>
@@ -17318,6 +17612,9 @@
       <c r="H254" t="s">
         <v>55</v>
       </c>
+      <c r="I254" t="s">
+        <v>2279</v>
+      </c>
       <c r="J254" t="s">
         <v>748</v>
       </c>
@@ -17356,6 +17653,9 @@
       <c r="H255" t="s">
         <v>55</v>
       </c>
+      <c r="I255" t="s">
+        <v>2279</v>
+      </c>
       <c r="J255" t="s">
         <v>748</v>
       </c>
@@ -17394,6 +17694,9 @@
       <c r="H256" t="s">
         <v>55</v>
       </c>
+      <c r="I256" t="s">
+        <v>2279</v>
+      </c>
       <c r="J256" t="s">
         <v>748</v>
       </c>
@@ -17432,6 +17735,9 @@
       <c r="H257" t="s">
         <v>55</v>
       </c>
+      <c r="I257" t="s">
+        <v>2279</v>
+      </c>
       <c r="J257" t="s">
         <v>748</v>
       </c>
@@ -17470,6 +17776,9 @@
       <c r="H258" t="s">
         <v>55</v>
       </c>
+      <c r="I258" t="s">
+        <v>2279</v>
+      </c>
       <c r="J258" t="s">
         <v>748</v>
       </c>
@@ -17508,6 +17817,9 @@
       <c r="H259" t="s">
         <v>55</v>
       </c>
+      <c r="I259" t="s">
+        <v>2279</v>
+      </c>
       <c r="J259" t="s">
         <v>748</v>
       </c>
@@ -17546,6 +17858,9 @@
       <c r="H260" t="s">
         <v>55</v>
       </c>
+      <c r="I260" t="s">
+        <v>2279</v>
+      </c>
       <c r="J260" t="s">
         <v>748</v>
       </c>
@@ -17584,6 +17899,9 @@
       <c r="H261" t="s">
         <v>55</v>
       </c>
+      <c r="I261" t="s">
+        <v>2279</v>
+      </c>
       <c r="J261" t="s">
         <v>748</v>
       </c>
@@ -17622,6 +17940,9 @@
       <c r="H262" t="s">
         <v>55</v>
       </c>
+      <c r="I262" t="s">
+        <v>2279</v>
+      </c>
       <c r="J262" t="s">
         <v>748</v>
       </c>
@@ -17660,6 +17981,9 @@
       <c r="H263" t="s">
         <v>55</v>
       </c>
+      <c r="I263" t="s">
+        <v>2279</v>
+      </c>
       <c r="J263" t="s">
         <v>748</v>
       </c>
@@ -17698,6 +18022,9 @@
       <c r="H264" t="s">
         <v>55</v>
       </c>
+      <c r="I264" t="s">
+        <v>2279</v>
+      </c>
       <c r="J264" t="s">
         <v>748</v>
       </c>
@@ -17736,6 +18063,9 @@
       <c r="H265" t="s">
         <v>55</v>
       </c>
+      <c r="I265" t="s">
+        <v>2279</v>
+      </c>
       <c r="J265" t="s">
         <v>748</v>
       </c>
@@ -17774,6 +18104,9 @@
       <c r="H266" t="s">
         <v>55</v>
       </c>
+      <c r="I266" t="s">
+        <v>2279</v>
+      </c>
       <c r="J266" t="s">
         <v>748</v>
       </c>
@@ -17812,6 +18145,9 @@
       <c r="H267" t="s">
         <v>55</v>
       </c>
+      <c r="I267" t="s">
+        <v>2279</v>
+      </c>
       <c r="J267" t="s">
         <v>748</v>
       </c>
@@ -17850,6 +18186,9 @@
       <c r="H268" t="s">
         <v>55</v>
       </c>
+      <c r="I268" t="s">
+        <v>2279</v>
+      </c>
       <c r="J268" t="s">
         <v>748</v>
       </c>
@@ -17888,6 +18227,9 @@
       <c r="H269" t="s">
         <v>55</v>
       </c>
+      <c r="I269" t="s">
+        <v>2279</v>
+      </c>
       <c r="J269" t="s">
         <v>1023</v>
       </c>
@@ -17926,6 +18268,9 @@
       <c r="H270" t="s">
         <v>55</v>
       </c>
+      <c r="I270" t="s">
+        <v>2279</v>
+      </c>
       <c r="J270" t="s">
         <v>1023</v>
       </c>
@@ -17964,6 +18309,9 @@
       <c r="H271" t="s">
         <v>55</v>
       </c>
+      <c r="I271" t="s">
+        <v>2279</v>
+      </c>
       <c r="J271" t="s">
         <v>1023</v>
       </c>
@@ -18002,6 +18350,9 @@
       <c r="H272" t="s">
         <v>55</v>
       </c>
+      <c r="I272" t="s">
+        <v>2279</v>
+      </c>
       <c r="J272" t="s">
         <v>1023</v>
       </c>
@@ -18040,6 +18391,9 @@
       <c r="H273" t="s">
         <v>55</v>
       </c>
+      <c r="I273" t="s">
+        <v>2279</v>
+      </c>
       <c r="J273" t="s">
         <v>1023</v>
       </c>
@@ -18078,6 +18432,9 @@
       <c r="H274" t="s">
         <v>55</v>
       </c>
+      <c r="I274" t="s">
+        <v>2279</v>
+      </c>
       <c r="J274" t="s">
         <v>748</v>
       </c>
@@ -18116,6 +18473,9 @@
       <c r="H275" t="s">
         <v>55</v>
       </c>
+      <c r="I275" t="s">
+        <v>2279</v>
+      </c>
       <c r="J275" t="s">
         <v>748</v>
       </c>
@@ -18154,6 +18514,9 @@
       <c r="H276" t="s">
         <v>55</v>
       </c>
+      <c r="I276" t="s">
+        <v>2279</v>
+      </c>
       <c r="J276" t="s">
         <v>748</v>
       </c>
@@ -18192,6 +18555,9 @@
       <c r="H277" t="s">
         <v>55</v>
       </c>
+      <c r="I277" t="s">
+        <v>2279</v>
+      </c>
       <c r="J277" t="s">
         <v>748</v>
       </c>
@@ -18230,6 +18596,9 @@
       <c r="H278" t="s">
         <v>55</v>
       </c>
+      <c r="I278" t="s">
+        <v>2279</v>
+      </c>
       <c r="J278" t="s">
         <v>748</v>
       </c>
@@ -18268,6 +18637,9 @@
       <c r="H279" t="s">
         <v>55</v>
       </c>
+      <c r="I279" t="s">
+        <v>2279</v>
+      </c>
       <c r="J279" t="s">
         <v>748</v>
       </c>
@@ -18306,6 +18678,9 @@
       <c r="H280" t="s">
         <v>55</v>
       </c>
+      <c r="I280" t="s">
+        <v>2279</v>
+      </c>
       <c r="J280" t="s">
         <v>748</v>
       </c>
@@ -18344,6 +18719,9 @@
       <c r="H281" t="s">
         <v>55</v>
       </c>
+      <c r="I281" t="s">
+        <v>2279</v>
+      </c>
       <c r="J281" t="s">
         <v>748</v>
       </c>
@@ -18382,6 +18760,9 @@
       <c r="H282" t="s">
         <v>55</v>
       </c>
+      <c r="I282" t="s">
+        <v>2279</v>
+      </c>
       <c r="J282" t="s">
         <v>748</v>
       </c>
@@ -18420,6 +18801,9 @@
       <c r="H283" t="s">
         <v>55</v>
       </c>
+      <c r="I283" t="s">
+        <v>2279</v>
+      </c>
       <c r="J283" t="s">
         <v>748</v>
       </c>
@@ -18458,6 +18842,9 @@
       <c r="H284" t="s">
         <v>55</v>
       </c>
+      <c r="I284" t="s">
+        <v>2279</v>
+      </c>
       <c r="J284" t="s">
         <v>748</v>
       </c>
@@ -18496,6 +18883,9 @@
       <c r="H285" t="s">
         <v>55</v>
       </c>
+      <c r="I285" t="s">
+        <v>2279</v>
+      </c>
       <c r="J285" t="s">
         <v>748</v>
       </c>
@@ -18534,6 +18924,9 @@
       <c r="H286" t="s">
         <v>55</v>
       </c>
+      <c r="I286" t="s">
+        <v>2279</v>
+      </c>
       <c r="J286" t="s">
         <v>748</v>
       </c>
@@ -18572,6 +18965,9 @@
       <c r="H287" t="s">
         <v>55</v>
       </c>
+      <c r="I287" t="s">
+        <v>2279</v>
+      </c>
       <c r="J287" t="s">
         <v>748</v>
       </c>
@@ -18610,6 +19006,9 @@
       <c r="H288" t="s">
         <v>55</v>
       </c>
+      <c r="I288" t="s">
+        <v>2279</v>
+      </c>
       <c r="J288" t="s">
         <v>748</v>
       </c>
@@ -18648,6 +19047,9 @@
       <c r="H289" t="s">
         <v>55</v>
       </c>
+      <c r="I289" t="s">
+        <v>2279</v>
+      </c>
       <c r="J289" t="s">
         <v>748</v>
       </c>
@@ -18686,6 +19088,9 @@
       <c r="H290" t="s">
         <v>55</v>
       </c>
+      <c r="I290" t="s">
+        <v>2279</v>
+      </c>
       <c r="J290" t="s">
         <v>748</v>
       </c>
@@ -18724,6 +19129,9 @@
       <c r="H291" t="s">
         <v>55</v>
       </c>
+      <c r="I291" t="s">
+        <v>2279</v>
+      </c>
       <c r="J291" t="s">
         <v>748</v>
       </c>
@@ -18762,6 +19170,9 @@
       <c r="H292" t="s">
         <v>55</v>
       </c>
+      <c r="I292" t="s">
+        <v>2279</v>
+      </c>
       <c r="J292" t="s">
         <v>748</v>
       </c>
@@ -18800,6 +19211,9 @@
       <c r="H293" t="s">
         <v>55</v>
       </c>
+      <c r="I293" t="s">
+        <v>2279</v>
+      </c>
       <c r="J293" t="s">
         <v>748</v>
       </c>
@@ -18838,6 +19252,9 @@
       <c r="H294" t="s">
         <v>55</v>
       </c>
+      <c r="I294" t="s">
+        <v>2279</v>
+      </c>
       <c r="J294" t="s">
         <v>748</v>
       </c>
@@ -18876,6 +19293,9 @@
       <c r="H295" t="s">
         <v>55</v>
       </c>
+      <c r="I295" t="s">
+        <v>2279</v>
+      </c>
       <c r="J295" t="s">
         <v>748</v>
       </c>
@@ -18914,6 +19334,9 @@
       <c r="H296" t="s">
         <v>55</v>
       </c>
+      <c r="I296" t="s">
+        <v>2279</v>
+      </c>
       <c r="J296" t="s">
         <v>748</v>
       </c>
@@ -18952,6 +19375,9 @@
       <c r="H297" t="s">
         <v>55</v>
       </c>
+      <c r="I297" t="s">
+        <v>2279</v>
+      </c>
       <c r="J297" t="s">
         <v>748</v>
       </c>
@@ -18990,6 +19416,9 @@
       <c r="H298" t="s">
         <v>55</v>
       </c>
+      <c r="I298" t="s">
+        <v>2279</v>
+      </c>
       <c r="J298" t="s">
         <v>748</v>
       </c>
@@ -19028,6 +19457,9 @@
       <c r="H299" t="s">
         <v>55</v>
       </c>
+      <c r="I299" t="s">
+        <v>2279</v>
+      </c>
       <c r="J299" t="s">
         <v>748</v>
       </c>
@@ -19066,6 +19498,9 @@
       <c r="H300" t="s">
         <v>55</v>
       </c>
+      <c r="I300" t="s">
+        <v>2279</v>
+      </c>
       <c r="J300" t="s">
         <v>748</v>
       </c>
@@ -19104,6 +19539,9 @@
       <c r="H301" t="s">
         <v>55</v>
       </c>
+      <c r="I301" t="s">
+        <v>2279</v>
+      </c>
       <c r="J301" t="s">
         <v>748</v>
       </c>
@@ -19142,6 +19580,9 @@
       <c r="H302" t="s">
         <v>55</v>
       </c>
+      <c r="I302" t="s">
+        <v>2279</v>
+      </c>
       <c r="J302" t="s">
         <v>748</v>
       </c>
@@ -19180,6 +19621,9 @@
       <c r="H303" t="s">
         <v>55</v>
       </c>
+      <c r="I303" t="s">
+        <v>2279</v>
+      </c>
       <c r="J303" t="s">
         <v>748</v>
       </c>
@@ -19218,6 +19662,9 @@
       <c r="H304" t="s">
         <v>55</v>
       </c>
+      <c r="I304" t="s">
+        <v>2279</v>
+      </c>
       <c r="J304" t="s">
         <v>748</v>
       </c>
@@ -19256,6 +19703,9 @@
       <c r="H305" t="s">
         <v>55</v>
       </c>
+      <c r="I305" t="s">
+        <v>2279</v>
+      </c>
       <c r="J305" t="s">
         <v>748</v>
       </c>
@@ -19294,6 +19744,9 @@
       <c r="H306" t="s">
         <v>55</v>
       </c>
+      <c r="I306" t="s">
+        <v>2279</v>
+      </c>
       <c r="J306" t="s">
         <v>748</v>
       </c>
@@ -19332,6 +19785,9 @@
       <c r="H307" t="s">
         <v>55</v>
       </c>
+      <c r="I307" t="s">
+        <v>2279</v>
+      </c>
       <c r="J307" t="s">
         <v>748</v>
       </c>
@@ -19370,6 +19826,9 @@
       <c r="H308" t="s">
         <v>55</v>
       </c>
+      <c r="I308" t="s">
+        <v>2279</v>
+      </c>
       <c r="J308" t="s">
         <v>1023</v>
       </c>
@@ -19408,6 +19867,9 @@
       <c r="H309" t="s">
         <v>55</v>
       </c>
+      <c r="I309" t="s">
+        <v>2279</v>
+      </c>
       <c r="J309" t="s">
         <v>1023</v>
       </c>
@@ -19446,6 +19908,9 @@
       <c r="H310" t="s">
         <v>55</v>
       </c>
+      <c r="I310" t="s">
+        <v>2279</v>
+      </c>
       <c r="J310" t="s">
         <v>748</v>
       </c>
@@ -19484,6 +19949,9 @@
       <c r="H311" t="s">
         <v>55</v>
       </c>
+      <c r="I311" t="s">
+        <v>2279</v>
+      </c>
       <c r="J311" t="s">
         <v>748</v>
       </c>
@@ -19522,6 +19990,9 @@
       <c r="H312" t="s">
         <v>55</v>
       </c>
+      <c r="I312" t="s">
+        <v>2279</v>
+      </c>
       <c r="J312" t="s">
         <v>748</v>
       </c>
@@ -19560,6 +20031,9 @@
       <c r="H313" t="s">
         <v>55</v>
       </c>
+      <c r="I313" t="s">
+        <v>2279</v>
+      </c>
       <c r="J313" t="s">
         <v>748</v>
       </c>
@@ -19598,6 +20072,9 @@
       <c r="H314" t="s">
         <v>55</v>
       </c>
+      <c r="I314" t="s">
+        <v>2279</v>
+      </c>
       <c r="J314" t="s">
         <v>748</v>
       </c>
@@ -19636,6 +20113,9 @@
       <c r="H315" t="s">
         <v>55</v>
       </c>
+      <c r="I315" t="s">
+        <v>2279</v>
+      </c>
       <c r="J315" t="s">
         <v>748</v>
       </c>
@@ -19674,6 +20154,9 @@
       <c r="H316" t="s">
         <v>55</v>
       </c>
+      <c r="I316" t="s">
+        <v>2279</v>
+      </c>
       <c r="J316" t="s">
         <v>748</v>
       </c>
@@ -19712,6 +20195,9 @@
       <c r="H317" t="s">
         <v>55</v>
       </c>
+      <c r="I317" t="s">
+        <v>2279</v>
+      </c>
       <c r="J317" t="s">
         <v>748</v>
       </c>
@@ -19750,6 +20236,9 @@
       <c r="H318" t="s">
         <v>55</v>
       </c>
+      <c r="I318" t="s">
+        <v>2279</v>
+      </c>
       <c r="J318" t="s">
         <v>1023</v>
       </c>
@@ -19788,6 +20277,9 @@
       <c r="H319" t="s">
         <v>55</v>
       </c>
+      <c r="I319" t="s">
+        <v>2279</v>
+      </c>
       <c r="J319" t="s">
         <v>1023</v>
       </c>
@@ -19826,6 +20318,9 @@
       <c r="H320" t="s">
         <v>55</v>
       </c>
+      <c r="I320" t="s">
+        <v>2279</v>
+      </c>
       <c r="J320" t="s">
         <v>748</v>
       </c>
@@ -19864,6 +20359,9 @@
       <c r="H321" t="s">
         <v>55</v>
       </c>
+      <c r="I321" t="s">
+        <v>2279</v>
+      </c>
       <c r="J321" t="s">
         <v>748</v>
       </c>
@@ -19902,6 +20400,9 @@
       <c r="H322" t="s">
         <v>55</v>
       </c>
+      <c r="I322" t="s">
+        <v>2279</v>
+      </c>
       <c r="J322" t="s">
         <v>748</v>
       </c>
@@ -19940,6 +20441,9 @@
       <c r="H323" t="s">
         <v>55</v>
       </c>
+      <c r="I323" t="s">
+        <v>2279</v>
+      </c>
       <c r="J323" t="s">
         <v>748</v>
       </c>
@@ -19978,6 +20482,9 @@
       <c r="H324" t="s">
         <v>55</v>
       </c>
+      <c r="I324" t="s">
+        <v>2279</v>
+      </c>
       <c r="J324" t="s">
         <v>748</v>
       </c>
@@ -20016,6 +20523,9 @@
       <c r="H325" t="s">
         <v>55</v>
       </c>
+      <c r="I325" t="s">
+        <v>2279</v>
+      </c>
       <c r="J325" t="s">
         <v>748</v>
       </c>
@@ -20054,6 +20564,9 @@
       <c r="H326" t="s">
         <v>55</v>
       </c>
+      <c r="I326" t="s">
+        <v>2279</v>
+      </c>
       <c r="J326" t="s">
         <v>748</v>
       </c>
@@ -20092,6 +20605,9 @@
       <c r="H327" t="s">
         <v>55</v>
       </c>
+      <c r="I327" t="s">
+        <v>2279</v>
+      </c>
       <c r="J327" t="s">
         <v>748</v>
       </c>
@@ -20130,6 +20646,9 @@
       <c r="H328" t="s">
         <v>55</v>
       </c>
+      <c r="I328" t="s">
+        <v>2279</v>
+      </c>
       <c r="J328" t="s">
         <v>748</v>
       </c>
@@ -20168,6 +20687,9 @@
       <c r="H329" t="s">
         <v>55</v>
       </c>
+      <c r="I329" t="s">
+        <v>2279</v>
+      </c>
       <c r="J329" t="s">
         <v>748</v>
       </c>
@@ -20206,6 +20728,9 @@
       <c r="H330" t="s">
         <v>55</v>
       </c>
+      <c r="I330" t="s">
+        <v>2279</v>
+      </c>
       <c r="J330" t="s">
         <v>748</v>
       </c>
@@ -20244,6 +20769,9 @@
       <c r="H331" t="s">
         <v>55</v>
       </c>
+      <c r="I331" t="s">
+        <v>2279</v>
+      </c>
       <c r="J331" t="s">
         <v>748</v>
       </c>
@@ -20282,6 +20810,9 @@
       <c r="H332" t="s">
         <v>55</v>
       </c>
+      <c r="I332" t="s">
+        <v>2279</v>
+      </c>
       <c r="J332" t="s">
         <v>748</v>
       </c>
@@ -20320,6 +20851,9 @@
       <c r="H333" t="s">
         <v>55</v>
       </c>
+      <c r="I333" t="s">
+        <v>2279</v>
+      </c>
       <c r="J333" t="s">
         <v>748</v>
       </c>
@@ -20358,6 +20892,9 @@
       <c r="H334" t="s">
         <v>55</v>
       </c>
+      <c r="I334" t="s">
+        <v>2279</v>
+      </c>
       <c r="J334" t="s">
         <v>748</v>
       </c>
@@ -20396,6 +20933,9 @@
       <c r="H335" t="s">
         <v>55</v>
       </c>
+      <c r="I335" t="s">
+        <v>2279</v>
+      </c>
       <c r="J335" t="s">
         <v>1134</v>
       </c>
@@ -20434,6 +20974,9 @@
       <c r="H336" t="s">
         <v>55</v>
       </c>
+      <c r="I336" t="s">
+        <v>2279</v>
+      </c>
       <c r="J336" t="s">
         <v>1134</v>
       </c>
@@ -20472,6 +21015,9 @@
       <c r="H337" t="s">
         <v>55</v>
       </c>
+      <c r="I337" t="s">
+        <v>2279</v>
+      </c>
       <c r="J337" t="s">
         <v>1137</v>
       </c>
@@ -20510,6 +21056,9 @@
       <c r="H338" t="s">
         <v>55</v>
       </c>
+      <c r="I338" t="s">
+        <v>2279</v>
+      </c>
       <c r="J338" t="s">
         <v>1023</v>
       </c>
@@ -20548,6 +21097,9 @@
       <c r="H339" t="s">
         <v>55</v>
       </c>
+      <c r="I339" t="s">
+        <v>2279</v>
+      </c>
       <c r="J339" t="s">
         <v>1023</v>
       </c>
@@ -20586,6 +21138,9 @@
       <c r="H340" t="s">
         <v>55</v>
       </c>
+      <c r="I340" t="s">
+        <v>2279</v>
+      </c>
       <c r="J340" t="s">
         <v>1023</v>
       </c>
@@ -20624,6 +21179,9 @@
       <c r="H341" t="s">
         <v>55</v>
       </c>
+      <c r="I341" t="s">
+        <v>2279</v>
+      </c>
       <c r="J341" t="s">
         <v>1023</v>
       </c>
@@ -20662,6 +21220,9 @@
       <c r="H342" t="s">
         <v>55</v>
       </c>
+      <c r="I342" t="s">
+        <v>2279</v>
+      </c>
       <c r="J342" t="s">
         <v>1023</v>
       </c>
@@ -20700,6 +21261,9 @@
       <c r="H343" t="s">
         <v>55</v>
       </c>
+      <c r="I343" t="s">
+        <v>2279</v>
+      </c>
       <c r="J343" t="s">
         <v>1023</v>
       </c>
@@ -20738,6 +21302,9 @@
       <c r="H344" t="s">
         <v>55</v>
       </c>
+      <c r="I344" t="s">
+        <v>2279</v>
+      </c>
       <c r="J344" t="s">
         <v>1023</v>
       </c>
@@ -20776,6 +21343,9 @@
       <c r="H345" t="s">
         <v>55</v>
       </c>
+      <c r="I345" t="s">
+        <v>2279</v>
+      </c>
       <c r="J345" t="s">
         <v>1023</v>
       </c>
@@ -20814,6 +21384,9 @@
       <c r="H346" t="s">
         <v>55</v>
       </c>
+      <c r="I346" t="s">
+        <v>2279</v>
+      </c>
       <c r="J346" t="s">
         <v>1023</v>
       </c>
@@ -20852,6 +21425,9 @@
       <c r="H347" t="s">
         <v>55</v>
       </c>
+      <c r="I347" t="s">
+        <v>2279</v>
+      </c>
       <c r="J347" t="s">
         <v>1023</v>
       </c>
@@ -20890,6 +21466,9 @@
       <c r="H348" t="s">
         <v>55</v>
       </c>
+      <c r="I348" t="s">
+        <v>2279</v>
+      </c>
       <c r="J348" t="s">
         <v>1023</v>
       </c>
@@ -20928,6 +21507,9 @@
       <c r="H349" t="s">
         <v>55</v>
       </c>
+      <c r="I349" t="s">
+        <v>2279</v>
+      </c>
       <c r="J349" t="s">
         <v>1023</v>
       </c>
@@ -20966,6 +21548,9 @@
       <c r="H350" t="s">
         <v>55</v>
       </c>
+      <c r="I350" t="s">
+        <v>2279</v>
+      </c>
       <c r="J350" t="s">
         <v>1023</v>
       </c>
@@ -21004,6 +21589,9 @@
       <c r="H351" t="s">
         <v>55</v>
       </c>
+      <c r="I351" t="s">
+        <v>2279</v>
+      </c>
       <c r="J351" t="s">
         <v>1023</v>
       </c>
@@ -21042,6 +21630,9 @@
       <c r="H352" t="s">
         <v>55</v>
       </c>
+      <c r="I352" t="s">
+        <v>2279</v>
+      </c>
       <c r="J352" t="s">
         <v>1023</v>
       </c>
@@ -21080,6 +21671,9 @@
       <c r="H353" t="s">
         <v>55</v>
       </c>
+      <c r="I353" t="s">
+        <v>2279</v>
+      </c>
       <c r="J353" t="s">
         <v>1023</v>
       </c>
@@ -21118,6 +21712,9 @@
       <c r="H354" t="s">
         <v>55</v>
       </c>
+      <c r="I354" t="s">
+        <v>2279</v>
+      </c>
       <c r="J354" t="s">
         <v>1023</v>
       </c>
@@ -21156,6 +21753,9 @@
       <c r="H355" t="s">
         <v>55</v>
       </c>
+      <c r="I355" t="s">
+        <v>2279</v>
+      </c>
       <c r="J355" t="s">
         <v>1023</v>
       </c>
@@ -21194,6 +21794,9 @@
       <c r="H356" t="s">
         <v>55</v>
       </c>
+      <c r="I356" t="s">
+        <v>2279</v>
+      </c>
       <c r="J356" t="s">
         <v>1023</v>
       </c>
@@ -21232,6 +21835,9 @@
       <c r="H357" t="s">
         <v>55</v>
       </c>
+      <c r="I357" t="s">
+        <v>2279</v>
+      </c>
       <c r="J357" t="s">
         <v>1023</v>
       </c>
@@ -21270,6 +21876,9 @@
       <c r="H358" t="s">
         <v>55</v>
       </c>
+      <c r="I358" t="s">
+        <v>2279</v>
+      </c>
       <c r="J358" t="s">
         <v>1023</v>
       </c>
@@ -21308,6 +21917,9 @@
       <c r="H359" t="s">
         <v>55</v>
       </c>
+      <c r="I359" t="s">
+        <v>2279</v>
+      </c>
       <c r="J359" t="s">
         <v>1023</v>
       </c>
@@ -21346,6 +21958,9 @@
       <c r="H360" t="s">
         <v>55</v>
       </c>
+      <c r="I360" t="s">
+        <v>2279</v>
+      </c>
       <c r="J360" t="s">
         <v>1023</v>
       </c>
@@ -21384,6 +21999,9 @@
       <c r="H361" t="s">
         <v>55</v>
       </c>
+      <c r="I361" t="s">
+        <v>2279</v>
+      </c>
       <c r="J361" t="s">
         <v>1023</v>
       </c>
@@ -21422,6 +22040,9 @@
       <c r="H362" t="s">
         <v>55</v>
       </c>
+      <c r="I362" t="s">
+        <v>2279</v>
+      </c>
       <c r="J362" t="s">
         <v>1023</v>
       </c>
@@ -21460,6 +22081,9 @@
       <c r="H363" t="s">
         <v>55</v>
       </c>
+      <c r="I363" t="s">
+        <v>2279</v>
+      </c>
       <c r="J363" t="s">
         <v>1023</v>
       </c>
@@ -21498,6 +22122,9 @@
       <c r="H364" t="s">
         <v>55</v>
       </c>
+      <c r="I364" t="s">
+        <v>2279</v>
+      </c>
       <c r="J364" t="s">
         <v>1023</v>
       </c>
@@ -21536,6 +22163,9 @@
       <c r="H365" t="s">
         <v>55</v>
       </c>
+      <c r="I365" t="s">
+        <v>2279</v>
+      </c>
       <c r="J365" t="s">
         <v>1023</v>
       </c>
@@ -21574,6 +22204,9 @@
       <c r="H366" t="s">
         <v>55</v>
       </c>
+      <c r="I366" t="s">
+        <v>2279</v>
+      </c>
       <c r="J366" t="s">
         <v>748</v>
       </c>
@@ -21612,6 +22245,9 @@
       <c r="H367" t="s">
         <v>55</v>
       </c>
+      <c r="I367" t="s">
+        <v>2279</v>
+      </c>
       <c r="J367" t="s">
         <v>1023</v>
       </c>
@@ -21650,6 +22286,9 @@
       <c r="H368" t="s">
         <v>55</v>
       </c>
+      <c r="I368" t="s">
+        <v>2279</v>
+      </c>
       <c r="J368" t="s">
         <v>1023</v>
       </c>
@@ -21688,6 +22327,9 @@
       <c r="H369" t="s">
         <v>55</v>
       </c>
+      <c r="I369" t="s">
+        <v>2279</v>
+      </c>
       <c r="J369" t="s">
         <v>1023</v>
       </c>
@@ -21726,6 +22368,9 @@
       <c r="H370" t="s">
         <v>55</v>
       </c>
+      <c r="I370" t="s">
+        <v>2279</v>
+      </c>
       <c r="J370" t="s">
         <v>1023</v>
       </c>
@@ -21764,6 +22409,9 @@
       <c r="H371" t="s">
         <v>55</v>
       </c>
+      <c r="I371" t="s">
+        <v>2279</v>
+      </c>
       <c r="J371" t="s">
         <v>1023</v>
       </c>
@@ -21802,6 +22450,9 @@
       <c r="H372" t="s">
         <v>55</v>
       </c>
+      <c r="I372" t="s">
+        <v>2279</v>
+      </c>
       <c r="J372" t="s">
         <v>1023</v>
       </c>
@@ -21840,6 +22491,9 @@
       <c r="H373" t="s">
         <v>55</v>
       </c>
+      <c r="I373" t="s">
+        <v>2279</v>
+      </c>
       <c r="J373" t="s">
         <v>1023</v>
       </c>
@@ -21878,6 +22532,9 @@
       <c r="H374" t="s">
         <v>55</v>
       </c>
+      <c r="I374" t="s">
+        <v>2279</v>
+      </c>
       <c r="J374" t="s">
         <v>748</v>
       </c>
@@ -21916,6 +22573,9 @@
       <c r="H375" t="s">
         <v>55</v>
       </c>
+      <c r="I375" t="s">
+        <v>2279</v>
+      </c>
       <c r="J375" t="s">
         <v>748</v>
       </c>
@@ -21954,6 +22614,9 @@
       <c r="H376" t="s">
         <v>55</v>
       </c>
+      <c r="I376" t="s">
+        <v>2279</v>
+      </c>
       <c r="J376" t="s">
         <v>748</v>
       </c>
@@ -21992,6 +22655,9 @@
       <c r="H377" t="s">
         <v>55</v>
       </c>
+      <c r="I377" t="s">
+        <v>2279</v>
+      </c>
       <c r="J377" t="s">
         <v>748</v>
       </c>
@@ -22030,6 +22696,9 @@
       <c r="H378" t="s">
         <v>55</v>
       </c>
+      <c r="I378" t="s">
+        <v>2279</v>
+      </c>
       <c r="J378" t="s">
         <v>748</v>
       </c>
@@ -22068,6 +22737,9 @@
       <c r="H379" t="s">
         <v>55</v>
       </c>
+      <c r="I379" t="s">
+        <v>2279</v>
+      </c>
       <c r="J379" t="s">
         <v>748</v>
       </c>
@@ -22106,6 +22778,9 @@
       <c r="H380" t="s">
         <v>55</v>
       </c>
+      <c r="I380" t="s">
+        <v>2279</v>
+      </c>
       <c r="J380" t="s">
         <v>748</v>
       </c>
@@ -22144,6 +22819,9 @@
       <c r="H381" t="s">
         <v>55</v>
       </c>
+      <c r="I381" t="s">
+        <v>2279</v>
+      </c>
       <c r="J381" t="s">
         <v>748</v>
       </c>
@@ -22182,6 +22860,9 @@
       <c r="H382" t="s">
         <v>55</v>
       </c>
+      <c r="I382" t="s">
+        <v>2279</v>
+      </c>
       <c r="J382" t="s">
         <v>748</v>
       </c>
@@ -22220,6 +22901,9 @@
       <c r="H383" t="s">
         <v>55</v>
       </c>
+      <c r="I383" t="s">
+        <v>2279</v>
+      </c>
       <c r="J383" t="s">
         <v>748</v>
       </c>
@@ -22258,6 +22942,9 @@
       <c r="H384" t="s">
         <v>55</v>
       </c>
+      <c r="I384" t="s">
+        <v>2279</v>
+      </c>
       <c r="J384" t="s">
         <v>748</v>
       </c>
@@ -22296,6 +22983,9 @@
       <c r="H385" t="s">
         <v>55</v>
       </c>
+      <c r="I385" t="s">
+        <v>2279</v>
+      </c>
       <c r="J385" t="s">
         <v>748</v>
       </c>
@@ -22334,6 +23024,9 @@
       <c r="H386" t="s">
         <v>55</v>
       </c>
+      <c r="I386" t="s">
+        <v>2279</v>
+      </c>
       <c r="J386" t="s">
         <v>748</v>
       </c>
@@ -22372,6 +23065,9 @@
       <c r="H387" t="s">
         <v>55</v>
       </c>
+      <c r="I387" t="s">
+        <v>2279</v>
+      </c>
       <c r="J387" t="s">
         <v>748</v>
       </c>
@@ -22410,6 +23106,9 @@
       <c r="H388" t="s">
         <v>55</v>
       </c>
+      <c r="I388" t="s">
+        <v>2279</v>
+      </c>
       <c r="J388" t="s">
         <v>748</v>
       </c>
@@ -22448,6 +23147,9 @@
       <c r="H389" t="s">
         <v>55</v>
       </c>
+      <c r="I389" t="s">
+        <v>2279</v>
+      </c>
       <c r="J389" t="s">
         <v>748</v>
       </c>
@@ -22486,6 +23188,9 @@
       <c r="H390" t="s">
         <v>55</v>
       </c>
+      <c r="I390" t="s">
+        <v>2279</v>
+      </c>
       <c r="J390" t="s">
         <v>748</v>
       </c>
@@ -22524,6 +23229,9 @@
       <c r="H391" t="s">
         <v>55</v>
       </c>
+      <c r="I391" t="s">
+        <v>2279</v>
+      </c>
       <c r="J391" t="s">
         <v>748</v>
       </c>
@@ -22562,6 +23270,9 @@
       <c r="H392" t="s">
         <v>55</v>
       </c>
+      <c r="I392" t="s">
+        <v>2279</v>
+      </c>
       <c r="J392" t="s">
         <v>748</v>
       </c>
@@ -22600,6 +23311,9 @@
       <c r="H393" t="s">
         <v>55</v>
       </c>
+      <c r="I393" t="s">
+        <v>2279</v>
+      </c>
       <c r="J393" t="s">
         <v>748</v>
       </c>
@@ -22638,6 +23352,9 @@
       <c r="H394" t="s">
         <v>55</v>
       </c>
+      <c r="I394" t="s">
+        <v>2279</v>
+      </c>
       <c r="J394" t="s">
         <v>748</v>
       </c>
@@ -22676,6 +23393,9 @@
       <c r="H395" t="s">
         <v>55</v>
       </c>
+      <c r="I395" t="s">
+        <v>2279</v>
+      </c>
       <c r="J395" t="s">
         <v>748</v>
       </c>
@@ -22714,6 +23434,9 @@
       <c r="H396" t="s">
         <v>55</v>
       </c>
+      <c r="I396" t="s">
+        <v>2279</v>
+      </c>
       <c r="J396" t="s">
         <v>748</v>
       </c>
@@ -22752,6 +23475,9 @@
       <c r="H397" t="s">
         <v>55</v>
       </c>
+      <c r="I397" t="s">
+        <v>2279</v>
+      </c>
       <c r="J397" t="s">
         <v>748</v>
       </c>
@@ -22790,6 +23516,9 @@
       <c r="H398" t="s">
         <v>55</v>
       </c>
+      <c r="I398" t="s">
+        <v>2279</v>
+      </c>
       <c r="J398" t="s">
         <v>748</v>
       </c>
@@ -22828,6 +23557,9 @@
       <c r="H399" t="s">
         <v>55</v>
       </c>
+      <c r="I399" t="s">
+        <v>2279</v>
+      </c>
       <c r="J399" t="s">
         <v>748</v>
       </c>
@@ -22866,6 +23598,9 @@
       <c r="H400" t="s">
         <v>55</v>
       </c>
+      <c r="I400" t="s">
+        <v>2279</v>
+      </c>
       <c r="J400" t="s">
         <v>748</v>
       </c>
@@ -22904,6 +23639,9 @@
       <c r="H401" t="s">
         <v>55</v>
       </c>
+      <c r="I401" t="s">
+        <v>2279</v>
+      </c>
       <c r="J401" t="s">
         <v>748</v>
       </c>
@@ -22942,6 +23680,9 @@
       <c r="H402" t="s">
         <v>55</v>
       </c>
+      <c r="I402" t="s">
+        <v>2279</v>
+      </c>
       <c r="J402" t="s">
         <v>748</v>
       </c>
@@ -22980,6 +23721,9 @@
       <c r="H403" t="s">
         <v>55</v>
       </c>
+      <c r="I403" t="s">
+        <v>2279</v>
+      </c>
       <c r="J403" t="s">
         <v>748</v>
       </c>
@@ -23018,6 +23762,9 @@
       <c r="H404" t="s">
         <v>55</v>
       </c>
+      <c r="I404" t="s">
+        <v>2279</v>
+      </c>
       <c r="J404" t="s">
         <v>748</v>
       </c>
@@ -23056,6 +23803,9 @@
       <c r="H405" t="s">
         <v>55</v>
       </c>
+      <c r="I405" t="s">
+        <v>2279</v>
+      </c>
       <c r="J405" t="s">
         <v>748</v>
       </c>
@@ -23094,6 +23844,9 @@
       <c r="H406" t="s">
         <v>55</v>
       </c>
+      <c r="I406" t="s">
+        <v>2279</v>
+      </c>
       <c r="J406" t="s">
         <v>748</v>
       </c>
@@ -23132,6 +23885,9 @@
       <c r="H407" t="s">
         <v>55</v>
       </c>
+      <c r="I407" t="s">
+        <v>2279</v>
+      </c>
       <c r="J407" t="s">
         <v>748</v>
       </c>
@@ -23170,6 +23926,9 @@
       <c r="H408" t="s">
         <v>55</v>
       </c>
+      <c r="I408" t="s">
+        <v>2279</v>
+      </c>
       <c r="J408" t="s">
         <v>748</v>
       </c>
@@ -23208,6 +23967,9 @@
       <c r="H409" t="s">
         <v>55</v>
       </c>
+      <c r="I409" t="s">
+        <v>2279</v>
+      </c>
       <c r="J409" t="s">
         <v>748</v>
       </c>
@@ -23246,6 +24008,9 @@
       <c r="H410" t="s">
         <v>55</v>
       </c>
+      <c r="I410" t="s">
+        <v>2279</v>
+      </c>
       <c r="J410" t="s">
         <v>748</v>
       </c>
@@ -23284,6 +24049,9 @@
       <c r="H411" t="s">
         <v>55</v>
       </c>
+      <c r="I411" t="s">
+        <v>2279</v>
+      </c>
       <c r="J411" t="s">
         <v>748</v>
       </c>
@@ -23322,6 +24090,9 @@
       <c r="H412" t="s">
         <v>55</v>
       </c>
+      <c r="I412" t="s">
+        <v>2279</v>
+      </c>
       <c r="J412" t="s">
         <v>748</v>
       </c>
@@ -23360,6 +24131,9 @@
       <c r="H413" t="s">
         <v>55</v>
       </c>
+      <c r="I413" t="s">
+        <v>2279</v>
+      </c>
       <c r="J413" t="s">
         <v>748</v>
       </c>
@@ -23398,6 +24172,9 @@
       <c r="H414" t="s">
         <v>55</v>
       </c>
+      <c r="I414" t="s">
+        <v>2279</v>
+      </c>
       <c r="J414" t="s">
         <v>748</v>
       </c>
@@ -23436,6 +24213,9 @@
       <c r="H415" t="s">
         <v>55</v>
       </c>
+      <c r="I415" t="s">
+        <v>2279</v>
+      </c>
       <c r="J415" t="s">
         <v>748</v>
       </c>
@@ -23474,6 +24254,9 @@
       <c r="H416" t="s">
         <v>55</v>
       </c>
+      <c r="I416" t="s">
+        <v>2279</v>
+      </c>
       <c r="J416" t="s">
         <v>748</v>
       </c>
@@ -23512,6 +24295,9 @@
       <c r="H417" t="s">
         <v>55</v>
       </c>
+      <c r="I417" t="s">
+        <v>2279</v>
+      </c>
       <c r="J417" t="s">
         <v>748</v>
       </c>
@@ -23550,6 +24336,9 @@
       <c r="H418" t="s">
         <v>55</v>
       </c>
+      <c r="I418" t="s">
+        <v>2279</v>
+      </c>
       <c r="J418" t="s">
         <v>748</v>
       </c>
@@ -23588,6 +24377,9 @@
       <c r="H419" t="s">
         <v>55</v>
       </c>
+      <c r="I419" t="s">
+        <v>2279</v>
+      </c>
       <c r="J419" t="s">
         <v>748</v>
       </c>
@@ -23626,6 +24418,9 @@
       <c r="H420" t="s">
         <v>55</v>
       </c>
+      <c r="I420" t="s">
+        <v>2279</v>
+      </c>
       <c r="J420" t="s">
         <v>748</v>
       </c>
@@ -23664,6 +24459,9 @@
       <c r="H421" t="s">
         <v>55</v>
       </c>
+      <c r="I421" t="s">
+        <v>2279</v>
+      </c>
       <c r="J421" t="s">
         <v>748</v>
       </c>
@@ -23702,6 +24500,9 @@
       <c r="H422" t="s">
         <v>55</v>
       </c>
+      <c r="I422" t="s">
+        <v>2279</v>
+      </c>
       <c r="J422" t="s">
         <v>748</v>
       </c>
@@ -23740,6 +24541,9 @@
       <c r="H423" t="s">
         <v>55</v>
       </c>
+      <c r="I423" t="s">
+        <v>2279</v>
+      </c>
       <c r="J423" t="s">
         <v>748</v>
       </c>
@@ -23778,6 +24582,9 @@
       <c r="H424" t="s">
         <v>55</v>
       </c>
+      <c r="I424" t="s">
+        <v>2279</v>
+      </c>
       <c r="J424" t="s">
         <v>748</v>
       </c>
@@ -23816,6 +24623,9 @@
       <c r="H425" t="s">
         <v>55</v>
       </c>
+      <c r="I425" t="s">
+        <v>2279</v>
+      </c>
       <c r="J425" t="s">
         <v>748</v>
       </c>
@@ -23854,6 +24664,9 @@
       <c r="H426" t="s">
         <v>55</v>
       </c>
+      <c r="I426" t="s">
+        <v>2279</v>
+      </c>
       <c r="J426" t="s">
         <v>748</v>
       </c>
@@ -23892,6 +24705,9 @@
       <c r="H427" t="s">
         <v>55</v>
       </c>
+      <c r="I427" t="s">
+        <v>2279</v>
+      </c>
       <c r="J427" t="s">
         <v>748</v>
       </c>
@@ -23930,6 +24746,9 @@
       <c r="H428" t="s">
         <v>55</v>
       </c>
+      <c r="I428" t="s">
+        <v>2279</v>
+      </c>
       <c r="J428" t="s">
         <v>748</v>
       </c>
@@ -23968,6 +24787,9 @@
       <c r="H429" t="s">
         <v>55</v>
       </c>
+      <c r="I429" t="s">
+        <v>2279</v>
+      </c>
       <c r="J429" t="s">
         <v>748</v>
       </c>
@@ -24006,6 +24828,9 @@
       <c r="H430" t="s">
         <v>55</v>
       </c>
+      <c r="I430" t="s">
+        <v>2279</v>
+      </c>
       <c r="J430" t="s">
         <v>748</v>
       </c>
@@ -24044,6 +24869,9 @@
       <c r="H431" t="s">
         <v>55</v>
       </c>
+      <c r="I431" t="s">
+        <v>2279</v>
+      </c>
       <c r="J431" t="s">
         <v>748</v>
       </c>
@@ -24082,6 +24910,9 @@
       <c r="H432" t="s">
         <v>55</v>
       </c>
+      <c r="I432" t="s">
+        <v>2279</v>
+      </c>
       <c r="J432" t="s">
         <v>748</v>
       </c>
@@ -24120,6 +24951,9 @@
       <c r="H433" t="s">
         <v>55</v>
       </c>
+      <c r="I433" t="s">
+        <v>2279</v>
+      </c>
       <c r="J433" t="s">
         <v>748</v>
       </c>
@@ -24158,6 +24992,9 @@
       <c r="H434" t="s">
         <v>55</v>
       </c>
+      <c r="I434" t="s">
+        <v>2279</v>
+      </c>
       <c r="J434" t="s">
         <v>748</v>
       </c>
@@ -24196,6 +25033,9 @@
       <c r="H435" t="s">
         <v>55</v>
       </c>
+      <c r="I435" t="s">
+        <v>2279</v>
+      </c>
       <c r="J435" t="s">
         <v>748</v>
       </c>
@@ -24234,6 +25074,9 @@
       <c r="H436" t="s">
         <v>55</v>
       </c>
+      <c r="I436" t="s">
+        <v>2279</v>
+      </c>
       <c r="J436" t="s">
         <v>748</v>
       </c>
@@ -24272,6 +25115,9 @@
       <c r="H437" t="s">
         <v>55</v>
       </c>
+      <c r="I437" t="s">
+        <v>2279</v>
+      </c>
       <c r="J437" t="s">
         <v>748</v>
       </c>
@@ -24310,6 +25156,9 @@
       <c r="H438" t="s">
         <v>55</v>
       </c>
+      <c r="I438" t="s">
+        <v>2279</v>
+      </c>
       <c r="J438" t="s">
         <v>748</v>
       </c>
@@ -24348,6 +25197,9 @@
       <c r="H439" t="s">
         <v>55</v>
       </c>
+      <c r="I439" t="s">
+        <v>2279</v>
+      </c>
       <c r="J439" t="s">
         <v>748</v>
       </c>
@@ -24386,6 +25238,9 @@
       <c r="H440" t="s">
         <v>55</v>
       </c>
+      <c r="I440" t="s">
+        <v>2279</v>
+      </c>
       <c r="J440" t="s">
         <v>1023</v>
       </c>
@@ -24424,6 +25279,9 @@
       <c r="H441" t="s">
         <v>55</v>
       </c>
+      <c r="I441" t="s">
+        <v>2279</v>
+      </c>
       <c r="J441" t="s">
         <v>1023</v>
       </c>
@@ -24462,6 +25320,9 @@
       <c r="H442" t="s">
         <v>55</v>
       </c>
+      <c r="I442" t="s">
+        <v>2279</v>
+      </c>
       <c r="J442" t="s">
         <v>1202</v>
       </c>
@@ -24500,6 +25361,9 @@
       <c r="H443" t="s">
         <v>55</v>
       </c>
+      <c r="I443" t="s">
+        <v>2279</v>
+      </c>
       <c r="J443" t="s">
         <v>1202</v>
       </c>
@@ -24538,6 +25402,9 @@
       <c r="H444" t="s">
         <v>55</v>
       </c>
+      <c r="I444" t="s">
+        <v>2279</v>
+      </c>
       <c r="J444" t="s">
         <v>748</v>
       </c>
@@ -24576,6 +25443,9 @@
       <c r="H445" t="s">
         <v>55</v>
       </c>
+      <c r="I445" t="s">
+        <v>2279</v>
+      </c>
       <c r="J445" t="s">
         <v>748</v>
       </c>
@@ -24614,6 +25484,9 @@
       <c r="H446" t="s">
         <v>55</v>
       </c>
+      <c r="I446" t="s">
+        <v>2279</v>
+      </c>
       <c r="J446" t="s">
         <v>1023</v>
       </c>
@@ -24652,6 +25525,9 @@
       <c r="H447" t="s">
         <v>55</v>
       </c>
+      <c r="I447" t="s">
+        <v>2279</v>
+      </c>
       <c r="J447" t="s">
         <v>1023</v>
       </c>
@@ -24690,6 +25566,9 @@
       <c r="H448" t="s">
         <v>55</v>
       </c>
+      <c r="I448" t="s">
+        <v>2279</v>
+      </c>
       <c r="J448" t="s">
         <v>1023</v>
       </c>
@@ -24728,6 +25607,9 @@
       <c r="H449" t="s">
         <v>55</v>
       </c>
+      <c r="I449" t="s">
+        <v>2279</v>
+      </c>
       <c r="J449" t="s">
         <v>1023</v>
       </c>
@@ -24766,6 +25648,9 @@
       <c r="H450" t="s">
         <v>55</v>
       </c>
+      <c r="I450" t="s">
+        <v>2279</v>
+      </c>
       <c r="J450" t="s">
         <v>1023</v>
       </c>
@@ -24804,6 +25689,9 @@
       <c r="H451" t="s">
         <v>55</v>
       </c>
+      <c r="I451" t="s">
+        <v>2279</v>
+      </c>
       <c r="J451" t="s">
         <v>748</v>
       </c>
@@ -24842,6 +25730,9 @@
       <c r="H452" t="s">
         <v>55</v>
       </c>
+      <c r="I452" t="s">
+        <v>2279</v>
+      </c>
       <c r="J452" t="s">
         <v>748</v>
       </c>
@@ -24880,6 +25771,9 @@
       <c r="H453" t="s">
         <v>55</v>
       </c>
+      <c r="I453" t="s">
+        <v>2279</v>
+      </c>
       <c r="J453" t="s">
         <v>748</v>
       </c>
@@ -24918,6 +25812,9 @@
       <c r="H454" t="s">
         <v>55</v>
       </c>
+      <c r="I454" t="s">
+        <v>2279</v>
+      </c>
       <c r="J454" t="s">
         <v>748</v>
       </c>
@@ -24956,6 +25853,9 @@
       <c r="H455" t="s">
         <v>55</v>
       </c>
+      <c r="I455" t="s">
+        <v>2279</v>
+      </c>
       <c r="J455" t="s">
         <v>1023</v>
       </c>
@@ -24994,6 +25894,9 @@
       <c r="H456" t="s">
         <v>55</v>
       </c>
+      <c r="I456" t="s">
+        <v>2279</v>
+      </c>
       <c r="J456" t="s">
         <v>748</v>
       </c>
@@ -25032,6 +25935,9 @@
       <c r="H457" t="s">
         <v>55</v>
       </c>
+      <c r="I457" t="s">
+        <v>2279</v>
+      </c>
       <c r="J457" t="s">
         <v>748</v>
       </c>
@@ -25070,6 +25976,9 @@
       <c r="H458" t="s">
         <v>55</v>
       </c>
+      <c r="I458" t="s">
+        <v>2279</v>
+      </c>
       <c r="J458" t="s">
         <v>1023</v>
       </c>
@@ -25108,6 +26017,9 @@
       <c r="H459" t="s">
         <v>55</v>
       </c>
+      <c r="I459" t="s">
+        <v>2279</v>
+      </c>
       <c r="J459" t="s">
         <v>1023</v>
       </c>
@@ -25146,6 +26058,9 @@
       <c r="H460" t="s">
         <v>55</v>
       </c>
+      <c r="I460" t="s">
+        <v>2279</v>
+      </c>
       <c r="J460" t="s">
         <v>1023</v>
       </c>
@@ -25184,6 +26099,9 @@
       <c r="H461" t="s">
         <v>55</v>
       </c>
+      <c r="I461" t="s">
+        <v>2279</v>
+      </c>
       <c r="J461" t="s">
         <v>1023</v>
       </c>
@@ -25222,6 +26140,9 @@
       <c r="H462" t="s">
         <v>55</v>
       </c>
+      <c r="I462" t="s">
+        <v>2279</v>
+      </c>
       <c r="J462" t="s">
         <v>748</v>
       </c>
@@ -25260,6 +26181,9 @@
       <c r="H463" t="s">
         <v>55</v>
       </c>
+      <c r="I463" t="s">
+        <v>2279</v>
+      </c>
       <c r="J463" t="s">
         <v>748</v>
       </c>
@@ -25298,6 +26222,9 @@
       <c r="H464" t="s">
         <v>55</v>
       </c>
+      <c r="I464" t="s">
+        <v>2279</v>
+      </c>
       <c r="J464" t="s">
         <v>748</v>
       </c>
@@ -25336,6 +26263,9 @@
       <c r="H465" t="s">
         <v>55</v>
       </c>
+      <c r="I465" t="s">
+        <v>2279</v>
+      </c>
       <c r="J465" t="s">
         <v>748</v>
       </c>
@@ -25374,6 +26304,9 @@
       <c r="H466" t="s">
         <v>55</v>
       </c>
+      <c r="I466" t="s">
+        <v>2279</v>
+      </c>
       <c r="J466" t="s">
         <v>748</v>
       </c>
@@ -25412,6 +26345,9 @@
       <c r="H467" t="s">
         <v>55</v>
       </c>
+      <c r="I467" t="s">
+        <v>2279</v>
+      </c>
       <c r="J467" t="s">
         <v>748</v>
       </c>
@@ -25450,6 +26386,9 @@
       <c r="H468" t="s">
         <v>55</v>
       </c>
+      <c r="I468" t="s">
+        <v>2279</v>
+      </c>
       <c r="J468" t="s">
         <v>748</v>
       </c>
@@ -25488,6 +26427,9 @@
       <c r="H469" t="s">
         <v>55</v>
       </c>
+      <c r="I469" t="s">
+        <v>2279</v>
+      </c>
       <c r="J469" t="s">
         <v>748</v>
       </c>
@@ -25526,6 +26468,9 @@
       <c r="H470" t="s">
         <v>55</v>
       </c>
+      <c r="I470" t="s">
+        <v>2279</v>
+      </c>
       <c r="J470" t="s">
         <v>748</v>
       </c>
@@ -25564,6 +26509,9 @@
       <c r="H471" t="s">
         <v>55</v>
       </c>
+      <c r="I471" t="s">
+        <v>2279</v>
+      </c>
       <c r="J471" t="s">
         <v>1023</v>
       </c>
@@ -25602,6 +26550,9 @@
       <c r="H472" t="s">
         <v>55</v>
       </c>
+      <c r="I472" t="s">
+        <v>2279</v>
+      </c>
       <c r="J472" t="s">
         <v>1023</v>
       </c>
@@ -25640,6 +26591,9 @@
       <c r="H473" t="s">
         <v>55</v>
       </c>
+      <c r="I473" t="s">
+        <v>2279</v>
+      </c>
       <c r="J473" t="s">
         <v>1023</v>
       </c>
@@ -25678,6 +26632,9 @@
       <c r="H474" t="s">
         <v>55</v>
       </c>
+      <c r="I474" t="s">
+        <v>2279</v>
+      </c>
       <c r="J474" t="s">
         <v>1023</v>
       </c>
@@ -25716,6 +26673,9 @@
       <c r="H475" t="s">
         <v>55</v>
       </c>
+      <c r="I475" t="s">
+        <v>2279</v>
+      </c>
       <c r="J475" t="s">
         <v>748</v>
       </c>
@@ -25754,6 +26714,9 @@
       <c r="H476" t="s">
         <v>55</v>
       </c>
+      <c r="I476" t="s">
+        <v>2279</v>
+      </c>
       <c r="J476" t="s">
         <v>748</v>
       </c>
@@ -25792,6 +26755,9 @@
       <c r="H477" t="s">
         <v>55</v>
       </c>
+      <c r="I477" t="s">
+        <v>2279</v>
+      </c>
       <c r="J477" t="s">
         <v>748</v>
       </c>
@@ -25830,6 +26796,9 @@
       <c r="H478" t="s">
         <v>55</v>
       </c>
+      <c r="I478" t="s">
+        <v>2279</v>
+      </c>
       <c r="J478" t="s">
         <v>748</v>
       </c>
@@ -25868,6 +26837,9 @@
       <c r="H479" t="s">
         <v>55</v>
       </c>
+      <c r="I479" t="s">
+        <v>2279</v>
+      </c>
       <c r="J479" t="s">
         <v>748</v>
       </c>
@@ -25906,6 +26878,9 @@
       <c r="H480" t="s">
         <v>55</v>
       </c>
+      <c r="I480" t="s">
+        <v>2279</v>
+      </c>
       <c r="J480" t="s">
         <v>748</v>
       </c>
@@ -25944,6 +26919,9 @@
       <c r="H481" t="s">
         <v>55</v>
       </c>
+      <c r="I481" t="s">
+        <v>2279</v>
+      </c>
       <c r="J481" t="s">
         <v>748</v>
       </c>
@@ -25982,6 +26960,9 @@
       <c r="H482" t="s">
         <v>55</v>
       </c>
+      <c r="I482" t="s">
+        <v>2279</v>
+      </c>
       <c r="J482" t="s">
         <v>748</v>
       </c>
@@ -26020,6 +27001,9 @@
       <c r="H483" t="s">
         <v>55</v>
       </c>
+      <c r="I483" t="s">
+        <v>2279</v>
+      </c>
       <c r="J483" t="s">
         <v>748</v>
       </c>
@@ -26058,6 +27042,9 @@
       <c r="H484" t="s">
         <v>55</v>
       </c>
+      <c r="I484" t="s">
+        <v>2279</v>
+      </c>
       <c r="J484" t="s">
         <v>1023</v>
       </c>
@@ -26096,6 +27083,9 @@
       <c r="H485" t="s">
         <v>55</v>
       </c>
+      <c r="I485" t="s">
+        <v>2279</v>
+      </c>
       <c r="J485" t="s">
         <v>1023</v>
       </c>
@@ -26134,6 +27124,9 @@
       <c r="H486" t="s">
         <v>55</v>
       </c>
+      <c r="I486" t="s">
+        <v>2279</v>
+      </c>
       <c r="J486" t="s">
         <v>748</v>
       </c>
@@ -26172,6 +27165,9 @@
       <c r="H487" t="s">
         <v>55</v>
       </c>
+      <c r="I487" t="s">
+        <v>2279</v>
+      </c>
       <c r="J487" t="s">
         <v>748</v>
       </c>
@@ -26210,6 +27206,9 @@
       <c r="H488" t="s">
         <v>55</v>
       </c>
+      <c r="I488" t="s">
+        <v>2279</v>
+      </c>
       <c r="J488" t="s">
         <v>748</v>
       </c>
@@ -26248,6 +27247,9 @@
       <c r="H489" t="s">
         <v>55</v>
       </c>
+      <c r="I489" t="s">
+        <v>2279</v>
+      </c>
       <c r="J489" t="s">
         <v>1023</v>
       </c>
@@ -26286,6 +27288,9 @@
       <c r="H490" t="s">
         <v>55</v>
       </c>
+      <c r="I490" t="s">
+        <v>2279</v>
+      </c>
       <c r="J490" t="s">
         <v>1023</v>
       </c>
@@ -26324,6 +27329,9 @@
       <c r="H491" t="s">
         <v>55</v>
       </c>
+      <c r="I491" t="s">
+        <v>2279</v>
+      </c>
       <c r="J491" t="s">
         <v>748</v>
       </c>
@@ -26362,6 +27370,9 @@
       <c r="H492" t="s">
         <v>55</v>
       </c>
+      <c r="I492" t="s">
+        <v>2279</v>
+      </c>
       <c r="J492" t="s">
         <v>748</v>
       </c>
@@ -26400,6 +27411,9 @@
       <c r="H493" t="s">
         <v>55</v>
       </c>
+      <c r="I493" t="s">
+        <v>2279</v>
+      </c>
       <c r="J493" t="s">
         <v>748</v>
       </c>
@@ -26438,6 +27452,9 @@
       <c r="H494" t="s">
         <v>55</v>
       </c>
+      <c r="I494" t="s">
+        <v>2279</v>
+      </c>
       <c r="J494" t="s">
         <v>748</v>
       </c>
@@ -26476,6 +27493,9 @@
       <c r="H495" t="s">
         <v>55</v>
       </c>
+      <c r="I495" t="s">
+        <v>2279</v>
+      </c>
       <c r="J495" t="s">
         <v>748</v>
       </c>
@@ -26514,6 +27534,9 @@
       <c r="H496" t="s">
         <v>55</v>
       </c>
+      <c r="I496" t="s">
+        <v>2279</v>
+      </c>
       <c r="J496" t="s">
         <v>748</v>
       </c>
@@ -26552,6 +27575,9 @@
       <c r="H497" t="s">
         <v>55</v>
       </c>
+      <c r="I497" t="s">
+        <v>2279</v>
+      </c>
       <c r="J497" t="s">
         <v>748</v>
       </c>
@@ -26590,6 +27616,9 @@
       <c r="H498" t="s">
         <v>55</v>
       </c>
+      <c r="I498" t="s">
+        <v>2279</v>
+      </c>
       <c r="J498" t="s">
         <v>748</v>
       </c>
@@ -26628,6 +27657,9 @@
       <c r="H499" t="s">
         <v>55</v>
       </c>
+      <c r="I499" t="s">
+        <v>2279</v>
+      </c>
       <c r="J499" t="s">
         <v>748</v>
       </c>
@@ -26666,6 +27698,9 @@
       <c r="H500" t="s">
         <v>55</v>
       </c>
+      <c r="I500" t="s">
+        <v>2279</v>
+      </c>
       <c r="J500" t="s">
         <v>748</v>
       </c>
@@ -26704,6 +27739,9 @@
       <c r="H501" t="s">
         <v>55</v>
       </c>
+      <c r="I501" t="s">
+        <v>2279</v>
+      </c>
       <c r="J501" t="s">
         <v>748</v>
       </c>
@@ -26742,6 +27780,9 @@
       <c r="H502" t="s">
         <v>55</v>
       </c>
+      <c r="I502" t="s">
+        <v>2279</v>
+      </c>
       <c r="J502" t="s">
         <v>748</v>
       </c>
@@ -26780,6 +27821,9 @@
       <c r="H503" t="s">
         <v>55</v>
       </c>
+      <c r="I503" t="s">
+        <v>2279</v>
+      </c>
       <c r="J503" t="s">
         <v>748</v>
       </c>
@@ -26818,6 +27862,9 @@
       <c r="H504" t="s">
         <v>55</v>
       </c>
+      <c r="I504" t="s">
+        <v>2279</v>
+      </c>
       <c r="J504" t="s">
         <v>748</v>
       </c>
@@ -26856,6 +27903,9 @@
       <c r="H505" t="s">
         <v>55</v>
       </c>
+      <c r="I505" t="s">
+        <v>2279</v>
+      </c>
       <c r="J505" t="s">
         <v>748</v>
       </c>
@@ -26894,6 +27944,9 @@
       <c r="H506" t="s">
         <v>55</v>
       </c>
+      <c r="I506" t="s">
+        <v>2279</v>
+      </c>
       <c r="J506" t="s">
         <v>748</v>
       </c>
@@ -26932,6 +27985,9 @@
       <c r="H507" t="s">
         <v>55</v>
       </c>
+      <c r="I507" t="s">
+        <v>2279</v>
+      </c>
       <c r="J507" t="s">
         <v>748</v>
       </c>
@@ -26970,6 +28026,9 @@
       <c r="H508" t="s">
         <v>55</v>
       </c>
+      <c r="I508" t="s">
+        <v>2279</v>
+      </c>
       <c r="J508" t="s">
         <v>748</v>
       </c>
@@ -27008,6 +28067,9 @@
       <c r="H509" t="s">
         <v>55</v>
       </c>
+      <c r="I509" t="s">
+        <v>2279</v>
+      </c>
       <c r="J509" t="s">
         <v>1247</v>
       </c>
@@ -27046,6 +28108,9 @@
       <c r="H510" t="s">
         <v>55</v>
       </c>
+      <c r="I510" t="s">
+        <v>2279</v>
+      </c>
       <c r="J510" t="s">
         <v>1247</v>
       </c>
@@ -27084,6 +28149,9 @@
       <c r="H511" t="s">
         <v>55</v>
       </c>
+      <c r="I511" t="s">
+        <v>2279</v>
+      </c>
       <c r="J511" t="s">
         <v>748</v>
       </c>
@@ -27122,6 +28190,9 @@
       <c r="H512" t="s">
         <v>55</v>
       </c>
+      <c r="I512" t="s">
+        <v>2279</v>
+      </c>
       <c r="J512" t="s">
         <v>748</v>
       </c>
@@ -27160,6 +28231,9 @@
       <c r="H513" t="s">
         <v>55</v>
       </c>
+      <c r="I513" t="s">
+        <v>2279</v>
+      </c>
       <c r="J513" t="s">
         <v>748</v>
       </c>
@@ -27198,6 +28272,9 @@
       <c r="H514" t="s">
         <v>55</v>
       </c>
+      <c r="I514" t="s">
+        <v>2279</v>
+      </c>
       <c r="J514" t="s">
         <v>748</v>
       </c>
@@ -27236,6 +28313,9 @@
       <c r="H515" t="s">
         <v>55</v>
       </c>
+      <c r="I515" t="s">
+        <v>2279</v>
+      </c>
       <c r="J515" t="s">
         <v>1023</v>
       </c>
@@ -27274,6 +28354,9 @@
       <c r="H516" t="s">
         <v>55</v>
       </c>
+      <c r="I516" t="s">
+        <v>2279</v>
+      </c>
       <c r="J516" t="s">
         <v>1023</v>
       </c>
@@ -27312,6 +28395,9 @@
       <c r="H517" t="s">
         <v>55</v>
       </c>
+      <c r="I517" t="s">
+        <v>2279</v>
+      </c>
       <c r="J517" t="s">
         <v>748</v>
       </c>
@@ -27350,6 +28436,9 @@
       <c r="H518" t="s">
         <v>55</v>
       </c>
+      <c r="I518" t="s">
+        <v>2279</v>
+      </c>
       <c r="J518" t="s">
         <v>748</v>
       </c>
@@ -27388,6 +28477,9 @@
       <c r="H519" t="s">
         <v>55</v>
       </c>
+      <c r="I519" t="s">
+        <v>2279</v>
+      </c>
       <c r="J519" t="s">
         <v>748</v>
       </c>
@@ -27426,6 +28518,9 @@
       <c r="H520" t="s">
         <v>55</v>
       </c>
+      <c r="I520" t="s">
+        <v>2279</v>
+      </c>
       <c r="J520" t="s">
         <v>748</v>
       </c>
@@ -27464,6 +28559,9 @@
       <c r="H521" t="s">
         <v>55</v>
       </c>
+      <c r="I521" t="s">
+        <v>2279</v>
+      </c>
       <c r="J521" t="s">
         <v>748</v>
       </c>
@@ -27502,6 +28600,9 @@
       <c r="H522" t="s">
         <v>55</v>
       </c>
+      <c r="I522" t="s">
+        <v>2279</v>
+      </c>
       <c r="J522" t="s">
         <v>748</v>
       </c>
@@ -27540,6 +28641,9 @@
       <c r="H523" t="s">
         <v>55</v>
       </c>
+      <c r="I523" t="s">
+        <v>2279</v>
+      </c>
       <c r="J523" t="s">
         <v>748</v>
       </c>
@@ -27578,6 +28682,9 @@
       <c r="H524" t="s">
         <v>55</v>
       </c>
+      <c r="I524" t="s">
+        <v>2279</v>
+      </c>
       <c r="J524" t="s">
         <v>748</v>
       </c>
@@ -27616,6 +28723,9 @@
       <c r="H525" t="s">
         <v>55</v>
       </c>
+      <c r="I525" t="s">
+        <v>2279</v>
+      </c>
       <c r="J525" t="s">
         <v>748</v>
       </c>
@@ -27654,6 +28764,9 @@
       <c r="H526" t="s">
         <v>55</v>
       </c>
+      <c r="I526" t="s">
+        <v>2279</v>
+      </c>
       <c r="J526" t="s">
         <v>748</v>
       </c>
@@ -27692,6 +28805,9 @@
       <c r="H527" t="s">
         <v>55</v>
       </c>
+      <c r="I527" t="s">
+        <v>2279</v>
+      </c>
       <c r="J527" t="s">
         <v>748</v>
       </c>
@@ -27730,6 +28846,9 @@
       <c r="H528" t="s">
         <v>55</v>
       </c>
+      <c r="I528" t="s">
+        <v>2279</v>
+      </c>
       <c r="J528" t="s">
         <v>748</v>
       </c>
@@ -27768,6 +28887,9 @@
       <c r="H529" t="s">
         <v>55</v>
       </c>
+      <c r="I529" t="s">
+        <v>2279</v>
+      </c>
       <c r="J529" t="s">
         <v>748</v>
       </c>
@@ -27806,6 +28928,9 @@
       <c r="H530" t="s">
         <v>55</v>
       </c>
+      <c r="I530" t="s">
+        <v>2279</v>
+      </c>
       <c r="J530" t="s">
         <v>748</v>
       </c>
@@ -27844,6 +28969,9 @@
       <c r="H531" t="s">
         <v>55</v>
       </c>
+      <c r="I531" t="s">
+        <v>2279</v>
+      </c>
       <c r="J531" t="s">
         <v>748</v>
       </c>
@@ -27882,6 +29010,9 @@
       <c r="H532" t="s">
         <v>55</v>
       </c>
+      <c r="I532" t="s">
+        <v>2279</v>
+      </c>
       <c r="J532" t="s">
         <v>748</v>
       </c>
@@ -27920,6 +29051,9 @@
       <c r="H533" t="s">
         <v>55</v>
       </c>
+      <c r="I533" t="s">
+        <v>2279</v>
+      </c>
       <c r="J533" t="s">
         <v>748</v>
       </c>
@@ -27958,6 +29092,9 @@
       <c r="H534" t="s">
         <v>55</v>
       </c>
+      <c r="I534" t="s">
+        <v>2279</v>
+      </c>
       <c r="J534" t="s">
         <v>748</v>
       </c>
@@ -27996,6 +29133,9 @@
       <c r="H535" t="s">
         <v>55</v>
       </c>
+      <c r="I535" t="s">
+        <v>2279</v>
+      </c>
       <c r="J535" t="s">
         <v>748</v>
       </c>
@@ -28034,6 +29174,9 @@
       <c r="H536" t="s">
         <v>55</v>
       </c>
+      <c r="I536" t="s">
+        <v>2279</v>
+      </c>
       <c r="J536" t="s">
         <v>748</v>
       </c>
@@ -28072,6 +29215,9 @@
       <c r="H537" t="s">
         <v>55</v>
       </c>
+      <c r="I537" t="s">
+        <v>2279</v>
+      </c>
       <c r="J537" t="s">
         <v>748</v>
       </c>
@@ -28110,6 +29256,9 @@
       <c r="H538" t="s">
         <v>55</v>
       </c>
+      <c r="I538" t="s">
+        <v>2279</v>
+      </c>
       <c r="J538" t="s">
         <v>748</v>
       </c>
@@ -28148,6 +29297,9 @@
       <c r="H539" t="s">
         <v>55</v>
       </c>
+      <c r="I539" t="s">
+        <v>2279</v>
+      </c>
       <c r="J539" t="s">
         <v>748</v>
       </c>
@@ -28186,6 +29338,9 @@
       <c r="H540" t="s">
         <v>55</v>
       </c>
+      <c r="I540" t="s">
+        <v>2279</v>
+      </c>
       <c r="J540" t="s">
         <v>748</v>
       </c>
@@ -28224,6 +29379,9 @@
       <c r="H541" t="s">
         <v>55</v>
       </c>
+      <c r="I541" t="s">
+        <v>2279</v>
+      </c>
       <c r="J541" t="s">
         <v>748</v>
       </c>
@@ -28262,6 +29420,9 @@
       <c r="H542" t="s">
         <v>55</v>
       </c>
+      <c r="I542" t="s">
+        <v>2279</v>
+      </c>
       <c r="J542" t="s">
         <v>748</v>
       </c>
@@ -28300,6 +29461,9 @@
       <c r="H543" t="s">
         <v>55</v>
       </c>
+      <c r="I543" t="s">
+        <v>2279</v>
+      </c>
       <c r="J543" t="s">
         <v>1269</v>
       </c>
@@ -28338,6 +29502,9 @@
       <c r="H544" t="s">
         <v>55</v>
       </c>
+      <c r="I544" t="s">
+        <v>2279</v>
+      </c>
       <c r="J544" t="s">
         <v>748</v>
       </c>
@@ -28376,6 +29543,9 @@
       <c r="H545" t="s">
         <v>55</v>
       </c>
+      <c r="I545" t="s">
+        <v>2279</v>
+      </c>
       <c r="J545" t="s">
         <v>748</v>
       </c>
@@ -28414,6 +29584,9 @@
       <c r="H546" t="s">
         <v>55</v>
       </c>
+      <c r="I546" t="s">
+        <v>2279</v>
+      </c>
       <c r="J546" t="s">
         <v>748</v>
       </c>
@@ -28452,6 +29625,9 @@
       <c r="H547" t="s">
         <v>55</v>
       </c>
+      <c r="I547" t="s">
+        <v>2279</v>
+      </c>
       <c r="J547" t="s">
         <v>748</v>
       </c>
@@ -28490,6 +29666,9 @@
       <c r="H548" t="s">
         <v>55</v>
       </c>
+      <c r="I548" t="s">
+        <v>2279</v>
+      </c>
       <c r="J548" t="s">
         <v>748</v>
       </c>
@@ -28528,6 +29707,9 @@
       <c r="H549" t="s">
         <v>55</v>
       </c>
+      <c r="I549" t="s">
+        <v>2279</v>
+      </c>
       <c r="J549" t="s">
         <v>748</v>
       </c>
@@ -28566,6 +29748,9 @@
       <c r="H550" t="s">
         <v>55</v>
       </c>
+      <c r="I550" t="s">
+        <v>2279</v>
+      </c>
       <c r="J550" t="s">
         <v>748</v>
       </c>
@@ -28604,6 +29789,9 @@
       <c r="H551" t="s">
         <v>55</v>
       </c>
+      <c r="I551" t="s">
+        <v>2279</v>
+      </c>
       <c r="J551" t="s">
         <v>1023</v>
       </c>
@@ -28642,6 +29830,9 @@
       <c r="H552" t="s">
         <v>55</v>
       </c>
+      <c r="I552" t="s">
+        <v>2279</v>
+      </c>
       <c r="J552" t="s">
         <v>1023</v>
       </c>
@@ -28680,6 +29871,9 @@
       <c r="H553" t="s">
         <v>55</v>
       </c>
+      <c r="I553" t="s">
+        <v>2279</v>
+      </c>
       <c r="J553" t="s">
         <v>748</v>
       </c>
@@ -28718,6 +29912,9 @@
       <c r="H554" t="s">
         <v>55</v>
       </c>
+      <c r="I554" t="s">
+        <v>2279</v>
+      </c>
       <c r="J554" t="s">
         <v>748</v>
       </c>
@@ -28756,6 +29953,9 @@
       <c r="H555" t="s">
         <v>55</v>
       </c>
+      <c r="I555" t="s">
+        <v>2279</v>
+      </c>
       <c r="J555" t="s">
         <v>748</v>
       </c>
@@ -28794,6 +29994,9 @@
       <c r="H556" t="s">
         <v>55</v>
       </c>
+      <c r="I556" t="s">
+        <v>2279</v>
+      </c>
       <c r="J556" t="s">
         <v>748</v>
       </c>
@@ -28832,6 +30035,9 @@
       <c r="H557" t="s">
         <v>55</v>
       </c>
+      <c r="I557" t="s">
+        <v>2279</v>
+      </c>
       <c r="J557" t="s">
         <v>748</v>
       </c>
@@ -28870,6 +30076,9 @@
       <c r="H558" t="s">
         <v>55</v>
       </c>
+      <c r="I558" t="s">
+        <v>2279</v>
+      </c>
       <c r="J558" t="s">
         <v>748</v>
       </c>
@@ -28908,6 +30117,9 @@
       <c r="H559" t="s">
         <v>55</v>
       </c>
+      <c r="I559" t="s">
+        <v>2279</v>
+      </c>
       <c r="J559" t="s">
         <v>748</v>
       </c>
@@ -28946,6 +30158,9 @@
       <c r="H560" t="s">
         <v>55</v>
       </c>
+      <c r="I560" t="s">
+        <v>2279</v>
+      </c>
       <c r="J560" t="s">
         <v>748</v>
       </c>
@@ -28984,6 +30199,9 @@
       <c r="H561" t="s">
         <v>55</v>
       </c>
+      <c r="I561" t="s">
+        <v>2279</v>
+      </c>
       <c r="J561" t="s">
         <v>748</v>
       </c>
@@ -29022,6 +30240,9 @@
       <c r="H562" t="s">
         <v>55</v>
       </c>
+      <c r="I562" t="s">
+        <v>2279</v>
+      </c>
       <c r="J562" t="s">
         <v>748</v>
       </c>
@@ -29060,6 +30281,9 @@
       <c r="H563" t="s">
         <v>55</v>
       </c>
+      <c r="I563" t="s">
+        <v>2279</v>
+      </c>
       <c r="J563" t="s">
         <v>748</v>
       </c>
@@ -29098,6 +30322,9 @@
       <c r="H564" t="s">
         <v>55</v>
       </c>
+      <c r="I564" t="s">
+        <v>2279</v>
+      </c>
       <c r="J564" t="s">
         <v>748</v>
       </c>
@@ -29136,6 +30363,9 @@
       <c r="H565" t="s">
         <v>55</v>
       </c>
+      <c r="I565" t="s">
+        <v>2279</v>
+      </c>
       <c r="J565" t="s">
         <v>748</v>
       </c>
@@ -29174,6 +30404,9 @@
       <c r="H566" t="s">
         <v>55</v>
       </c>
+      <c r="I566" t="s">
+        <v>2279</v>
+      </c>
       <c r="J566" t="s">
         <v>1023</v>
       </c>
@@ -29212,6 +30445,9 @@
       <c r="H567" t="s">
         <v>55</v>
       </c>
+      <c r="I567" t="s">
+        <v>2279</v>
+      </c>
       <c r="J567" t="s">
         <v>748</v>
       </c>
@@ -29250,6 +30486,9 @@
       <c r="H568" t="s">
         <v>55</v>
       </c>
+      <c r="I568" t="s">
+        <v>2279</v>
+      </c>
       <c r="J568" t="s">
         <v>748</v>
       </c>
@@ -29288,6 +30527,9 @@
       <c r="H569" t="s">
         <v>55</v>
       </c>
+      <c r="I569" t="s">
+        <v>2279</v>
+      </c>
       <c r="J569" t="s">
         <v>748</v>
       </c>
@@ -29326,6 +30568,9 @@
       <c r="H570" t="s">
         <v>55</v>
       </c>
+      <c r="I570" t="s">
+        <v>2279</v>
+      </c>
       <c r="J570" t="s">
         <v>748</v>
       </c>
@@ -29364,6 +30609,9 @@
       <c r="H571" t="s">
         <v>55</v>
       </c>
+      <c r="I571" t="s">
+        <v>2279</v>
+      </c>
       <c r="J571" t="s">
         <v>748</v>
       </c>
@@ -29402,6 +30650,9 @@
       <c r="H572" t="s">
         <v>55</v>
       </c>
+      <c r="I572" t="s">
+        <v>2279</v>
+      </c>
       <c r="J572" t="s">
         <v>748</v>
       </c>
@@ -29440,6 +30691,9 @@
       <c r="H573" t="s">
         <v>55</v>
       </c>
+      <c r="I573" t="s">
+        <v>2279</v>
+      </c>
       <c r="J573" t="s">
         <v>748</v>
       </c>
@@ -29478,6 +30732,9 @@
       <c r="H574" t="s">
         <v>55</v>
       </c>
+      <c r="I574" t="s">
+        <v>2279</v>
+      </c>
       <c r="J574" t="s">
         <v>748</v>
       </c>
@@ -29516,6 +30773,9 @@
       <c r="H575" t="s">
         <v>55</v>
       </c>
+      <c r="I575" t="s">
+        <v>2279</v>
+      </c>
       <c r="J575" t="s">
         <v>748</v>
       </c>
@@ -29554,6 +30814,9 @@
       <c r="H576" t="s">
         <v>55</v>
       </c>
+      <c r="I576" t="s">
+        <v>2279</v>
+      </c>
       <c r="J576" t="s">
         <v>748</v>
       </c>
@@ -29592,6 +30855,9 @@
       <c r="H577" t="s">
         <v>55</v>
       </c>
+      <c r="I577" t="s">
+        <v>2279</v>
+      </c>
       <c r="J577" t="s">
         <v>748</v>
       </c>
@@ -29621,6 +30887,9 @@
       <c r="H578" t="s">
         <v>55</v>
       </c>
+      <c r="I578" t="s">
+        <v>2279</v>
+      </c>
       <c r="J578" t="s">
         <v>200</v>
       </c>
@@ -29650,6 +30919,9 @@
       <c r="H579" t="s">
         <v>55</v>
       </c>
+      <c r="I579" t="s">
+        <v>2279</v>
+      </c>
       <c r="J579" t="s">
         <v>57</v>
       </c>
@@ -29679,6 +30951,9 @@
       <c r="H580" t="s">
         <v>55</v>
       </c>
+      <c r="I580" t="s">
+        <v>2279</v>
+      </c>
       <c r="J580" t="s">
         <v>57</v>
       </c>
@@ -29708,6 +30983,9 @@
       <c r="H581" t="s">
         <v>55</v>
       </c>
+      <c r="I581" t="s">
+        <v>2279</v>
+      </c>
       <c r="J581" t="s">
         <v>57</v>
       </c>
@@ -29737,6 +31015,9 @@
       <c r="H582" t="s">
         <v>55</v>
       </c>
+      <c r="I582" t="s">
+        <v>2279</v>
+      </c>
       <c r="J582" t="s">
         <v>57</v>
       </c>
@@ -29766,6 +31047,9 @@
       <c r="H583" t="s">
         <v>55</v>
       </c>
+      <c r="I583" t="s">
+        <v>2279</v>
+      </c>
       <c r="J583" t="s">
         <v>57</v>
       </c>
@@ -29795,6 +31079,9 @@
       <c r="H584" t="s">
         <v>55</v>
       </c>
+      <c r="I584" t="s">
+        <v>2279</v>
+      </c>
       <c r="J584" t="s">
         <v>57</v>
       </c>
@@ -29824,6 +31111,9 @@
       <c r="H585" t="s">
         <v>55</v>
       </c>
+      <c r="I585" t="s">
+        <v>2279</v>
+      </c>
       <c r="J585" t="s">
         <v>232</v>
       </c>
@@ -29853,6 +31143,9 @@
       <c r="H586" t="s">
         <v>55</v>
       </c>
+      <c r="I586" t="s">
+        <v>2279</v>
+      </c>
       <c r="J586" t="s">
         <v>57</v>
       </c>
@@ -29882,6 +31175,9 @@
       <c r="H587" t="s">
         <v>55</v>
       </c>
+      <c r="I587" t="s">
+        <v>2279</v>
+      </c>
       <c r="J587" t="s">
         <v>1973</v>
       </c>
@@ -29911,6 +31207,9 @@
       <c r="H588" t="s">
         <v>55</v>
       </c>
+      <c r="I588" t="s">
+        <v>2279</v>
+      </c>
       <c r="J588" t="s">
         <v>232</v>
       </c>
@@ -29940,6 +31239,9 @@
       <c r="H589" t="s">
         <v>55</v>
       </c>
+      <c r="I589" t="s">
+        <v>2279</v>
+      </c>
       <c r="J589" t="s">
         <v>102</v>
       </c>
@@ -29969,6 +31271,9 @@
       <c r="H590" t="s">
         <v>55</v>
       </c>
+      <c r="I590" t="s">
+        <v>2279</v>
+      </c>
       <c r="J590" t="s">
         <v>1974</v>
       </c>
@@ -29998,6 +31303,9 @@
       <c r="H591" t="s">
         <v>55</v>
       </c>
+      <c r="I591" t="s">
+        <v>2279</v>
+      </c>
       <c r="J591" t="s">
         <v>1974</v>
       </c>
@@ -30027,6 +31335,9 @@
       <c r="H592" t="s">
         <v>55</v>
       </c>
+      <c r="I592" t="s">
+        <v>2279</v>
+      </c>
       <c r="J592" t="s">
         <v>1974</v>
       </c>
@@ -30056,6 +31367,9 @@
       <c r="H593" t="s">
         <v>55</v>
       </c>
+      <c r="I593" t="s">
+        <v>2279</v>
+      </c>
       <c r="J593" t="s">
         <v>1974</v>
       </c>
@@ -30085,6 +31399,9 @@
       <c r="H594" t="s">
         <v>55</v>
       </c>
+      <c r="I594" t="s">
+        <v>2279</v>
+      </c>
       <c r="J594" t="s">
         <v>1974</v>
       </c>
@@ -30114,6 +31431,9 @@
       <c r="H595" t="s">
         <v>55</v>
       </c>
+      <c r="I595" t="s">
+        <v>2279</v>
+      </c>
       <c r="J595" t="s">
         <v>1974</v>
       </c>
@@ -30143,6 +31463,9 @@
       <c r="H596" t="s">
         <v>55</v>
       </c>
+      <c r="I596" t="s">
+        <v>2279</v>
+      </c>
       <c r="J596" t="s">
         <v>1974</v>
       </c>
@@ -30172,6 +31495,9 @@
       <c r="H597" t="s">
         <v>55</v>
       </c>
+      <c r="I597" t="s">
+        <v>2279</v>
+      </c>
       <c r="J597" t="s">
         <v>1974</v>
       </c>
@@ -30201,6 +31527,9 @@
       <c r="H598" t="s">
         <v>55</v>
       </c>
+      <c r="I598" t="s">
+        <v>2279</v>
+      </c>
       <c r="J598" t="s">
         <v>1974</v>
       </c>
@@ -30230,6 +31559,9 @@
       <c r="H599" t="s">
         <v>55</v>
       </c>
+      <c r="I599" t="s">
+        <v>2279</v>
+      </c>
       <c r="J599" t="s">
         <v>1974</v>
       </c>
@@ -30259,6 +31591,9 @@
       <c r="H600" t="s">
         <v>55</v>
       </c>
+      <c r="I600" t="s">
+        <v>2279</v>
+      </c>
       <c r="J600" t="s">
         <v>1974</v>
       </c>
@@ -30288,6 +31623,9 @@
       <c r="H601" t="s">
         <v>55</v>
       </c>
+      <c r="I601" t="s">
+        <v>2279</v>
+      </c>
       <c r="J601" t="s">
         <v>1974</v>
       </c>
@@ -30317,6 +31655,9 @@
       <c r="H602" t="s">
         <v>55</v>
       </c>
+      <c r="I602" t="s">
+        <v>2279</v>
+      </c>
       <c r="J602" t="s">
         <v>1974</v>
       </c>
@@ -30346,6 +31687,9 @@
       <c r="H603" t="s">
         <v>55</v>
       </c>
+      <c r="I603" t="s">
+        <v>2279</v>
+      </c>
       <c r="J603" t="s">
         <v>1974</v>
       </c>
@@ -30375,6 +31719,9 @@
       <c r="H604" t="s">
         <v>55</v>
       </c>
+      <c r="I604" t="s">
+        <v>2279</v>
+      </c>
       <c r="J604" t="s">
         <v>1974</v>
       </c>
@@ -30404,6 +31751,9 @@
       <c r="H605" t="s">
         <v>55</v>
       </c>
+      <c r="I605" t="s">
+        <v>2279</v>
+      </c>
       <c r="J605" t="s">
         <v>1974</v>
       </c>
@@ -30433,6 +31783,9 @@
       <c r="H606" t="s">
         <v>55</v>
       </c>
+      <c r="I606" t="s">
+        <v>2279</v>
+      </c>
       <c r="J606" t="s">
         <v>1974</v>
       </c>
@@ -30462,6 +31815,9 @@
       <c r="H607" t="s">
         <v>55</v>
       </c>
+      <c r="I607" t="s">
+        <v>2279</v>
+      </c>
       <c r="J607" t="s">
         <v>1974</v>
       </c>
@@ -30491,6 +31847,9 @@
       <c r="H608" t="s">
         <v>55</v>
       </c>
+      <c r="I608" t="s">
+        <v>2279</v>
+      </c>
       <c r="J608" t="s">
         <v>1974</v>
       </c>
@@ -30520,6 +31879,9 @@
       <c r="H609" t="s">
         <v>55</v>
       </c>
+      <c r="I609" t="s">
+        <v>2279</v>
+      </c>
       <c r="J609" t="s">
         <v>1974</v>
       </c>
@@ -30549,6 +31911,9 @@
       <c r="H610" t="s">
         <v>55</v>
       </c>
+      <c r="I610" t="s">
+        <v>2279</v>
+      </c>
       <c r="J610" t="s">
         <v>1974</v>
       </c>
@@ -30578,6 +31943,9 @@
       <c r="H611" t="s">
         <v>55</v>
       </c>
+      <c r="I611" t="s">
+        <v>2279</v>
+      </c>
       <c r="J611" t="s">
         <v>1974</v>
       </c>
@@ -30607,6 +31975,9 @@
       <c r="H612" t="s">
         <v>55</v>
       </c>
+      <c r="I612" t="s">
+        <v>2279</v>
+      </c>
       <c r="J612" t="s">
         <v>1974</v>
       </c>
@@ -30636,6 +32007,9 @@
       <c r="H613" t="s">
         <v>55</v>
       </c>
+      <c r="I613" t="s">
+        <v>2279</v>
+      </c>
       <c r="J613" t="s">
         <v>1974</v>
       </c>
@@ -30665,6 +32039,9 @@
       <c r="H614" t="s">
         <v>55</v>
       </c>
+      <c r="I614" t="s">
+        <v>2279</v>
+      </c>
       <c r="J614" t="s">
         <v>1974</v>
       </c>
@@ -30694,6 +32071,9 @@
       <c r="H615" t="s">
         <v>55</v>
       </c>
+      <c r="I615" t="s">
+        <v>2279</v>
+      </c>
       <c r="J615" t="s">
         <v>1974</v>
       </c>
@@ -30723,6 +32103,9 @@
       <c r="H616" t="s">
         <v>55</v>
       </c>
+      <c r="I616" t="s">
+        <v>2279</v>
+      </c>
       <c r="J616" t="s">
         <v>1974</v>
       </c>
@@ -30752,6 +32135,9 @@
       <c r="H617" t="s">
         <v>55</v>
       </c>
+      <c r="I617" t="s">
+        <v>2279</v>
+      </c>
       <c r="J617" t="s">
         <v>1974</v>
       </c>
@@ -30781,6 +32167,9 @@
       <c r="H618" t="s">
         <v>55</v>
       </c>
+      <c r="I618" t="s">
+        <v>2279</v>
+      </c>
       <c r="J618" t="s">
         <v>1974</v>
       </c>
@@ -30810,6 +32199,9 @@
       <c r="H619" t="s">
         <v>55</v>
       </c>
+      <c r="I619" t="s">
+        <v>2279</v>
+      </c>
       <c r="J619" t="s">
         <v>1974</v>
       </c>
@@ -30839,6 +32231,9 @@
       <c r="H620" t="s">
         <v>55</v>
       </c>
+      <c r="I620" t="s">
+        <v>2279</v>
+      </c>
       <c r="J620" t="s">
         <v>1974</v>
       </c>
@@ -30868,6 +32263,9 @@
       <c r="H621" t="s">
         <v>55</v>
       </c>
+      <c r="I621" t="s">
+        <v>2279</v>
+      </c>
       <c r="J621" t="s">
         <v>1974</v>
       </c>
@@ -30897,6 +32295,9 @@
       <c r="H622" t="s">
         <v>55</v>
       </c>
+      <c r="I622" t="s">
+        <v>2279</v>
+      </c>
       <c r="J622" t="s">
         <v>232</v>
       </c>
@@ -30926,6 +32327,9 @@
       <c r="H623" t="s">
         <v>55</v>
       </c>
+      <c r="I623" t="s">
+        <v>2279</v>
+      </c>
       <c r="J623" t="s">
         <v>57</v>
       </c>
@@ -30955,6 +32359,9 @@
       <c r="H624" t="s">
         <v>55</v>
       </c>
+      <c r="I624" t="s">
+        <v>2279</v>
+      </c>
       <c r="J624" t="s">
         <v>200</v>
       </c>
@@ -30984,6 +32391,9 @@
       <c r="H625" t="s">
         <v>55</v>
       </c>
+      <c r="I625" t="s">
+        <v>2279</v>
+      </c>
       <c r="J625" t="s">
         <v>200</v>
       </c>
@@ -31013,6 +32423,9 @@
       <c r="H626" t="s">
         <v>55</v>
       </c>
+      <c r="I626" t="s">
+        <v>2279</v>
+      </c>
       <c r="J626" t="s">
         <v>200</v>
       </c>
@@ -31042,6 +32455,9 @@
       <c r="H627" t="s">
         <v>55</v>
       </c>
+      <c r="I627" t="s">
+        <v>2279</v>
+      </c>
       <c r="J627" t="s">
         <v>1975</v>
       </c>
@@ -31071,6 +32487,9 @@
       <c r="H628" t="s">
         <v>55</v>
       </c>
+      <c r="I628" t="s">
+        <v>2279</v>
+      </c>
       <c r="J628" t="s">
         <v>200</v>
       </c>
@@ -31100,6 +32519,9 @@
       <c r="H629" t="s">
         <v>55</v>
       </c>
+      <c r="I629" t="s">
+        <v>2279</v>
+      </c>
       <c r="J629" t="s">
         <v>200</v>
       </c>
@@ -31129,6 +32551,9 @@
       <c r="H630" t="s">
         <v>55</v>
       </c>
+      <c r="I630" t="s">
+        <v>2279</v>
+      </c>
       <c r="J630" t="s">
         <v>200</v>
       </c>
@@ -31158,6 +32583,9 @@
       <c r="H631" t="s">
         <v>55</v>
       </c>
+      <c r="I631" t="s">
+        <v>2279</v>
+      </c>
       <c r="J631" t="s">
         <v>200</v>
       </c>
@@ -31187,6 +32615,9 @@
       <c r="H632" t="s">
         <v>55</v>
       </c>
+      <c r="I632" t="s">
+        <v>2279</v>
+      </c>
       <c r="J632" t="s">
         <v>200</v>
       </c>
@@ -31216,6 +32647,9 @@
       <c r="H633" t="s">
         <v>55</v>
       </c>
+      <c r="I633" t="s">
+        <v>2279</v>
+      </c>
       <c r="J633" t="s">
         <v>57</v>
       </c>
@@ -31245,6 +32679,9 @@
       <c r="H634" t="s">
         <v>55</v>
       </c>
+      <c r="I634" t="s">
+        <v>2279</v>
+      </c>
       <c r="J634" t="s">
         <v>60</v>
       </c>
@@ -31274,6 +32711,9 @@
       <c r="H635" t="s">
         <v>55</v>
       </c>
+      <c r="I635" t="s">
+        <v>2279</v>
+      </c>
       <c r="J635" t="s">
         <v>200</v>
       </c>
@@ -31303,6 +32743,9 @@
       <c r="H636" t="s">
         <v>55</v>
       </c>
+      <c r="I636" t="s">
+        <v>2279</v>
+      </c>
       <c r="J636" t="s">
         <v>200</v>
       </c>
@@ -31332,6 +32775,9 @@
       <c r="H637" t="s">
         <v>55</v>
       </c>
+      <c r="I637" t="s">
+        <v>2279</v>
+      </c>
       <c r="J637" t="s">
         <v>57</v>
       </c>
@@ -31361,6 +32807,9 @@
       <c r="H638" t="s">
         <v>55</v>
       </c>
+      <c r="I638" t="s">
+        <v>2279</v>
+      </c>
       <c r="J638" t="s">
         <v>57</v>
       </c>
@@ -31390,6 +32839,9 @@
       <c r="H639" t="s">
         <v>55</v>
       </c>
+      <c r="I639" t="s">
+        <v>2279</v>
+      </c>
       <c r="J639" t="s">
         <v>57</v>
       </c>
@@ -31419,6 +32871,9 @@
       <c r="H640" t="s">
         <v>55</v>
       </c>
+      <c r="I640" t="s">
+        <v>2279</v>
+      </c>
       <c r="J640" t="s">
         <v>57</v>
       </c>
@@ -31448,6 +32903,9 @@
       <c r="H641" t="s">
         <v>55</v>
       </c>
+      <c r="I641" t="s">
+        <v>2279</v>
+      </c>
       <c r="J641" t="s">
         <v>200</v>
       </c>
@@ -31477,6 +32935,9 @@
       <c r="H642" t="s">
         <v>55</v>
       </c>
+      <c r="I642" t="s">
+        <v>2279</v>
+      </c>
       <c r="J642" t="s">
         <v>200</v>
       </c>
@@ -31506,6 +32967,9 @@
       <c r="H643" t="s">
         <v>55</v>
       </c>
+      <c r="I643" t="s">
+        <v>2279</v>
+      </c>
       <c r="J643" t="s">
         <v>352</v>
       </c>
@@ -31535,6 +32999,9 @@
       <c r="H644" t="s">
         <v>55</v>
       </c>
+      <c r="I644" t="s">
+        <v>2279</v>
+      </c>
       <c r="J644" t="s">
         <v>57</v>
       </c>
@@ -31564,6 +33031,9 @@
       <c r="H645" t="s">
         <v>55</v>
       </c>
+      <c r="I645" t="s">
+        <v>2279</v>
+      </c>
       <c r="J645" t="s">
         <v>57</v>
       </c>
@@ -31593,6 +33063,9 @@
       <c r="H646" t="s">
         <v>55</v>
       </c>
+      <c r="I646" t="s">
+        <v>2279</v>
+      </c>
       <c r="J646" t="s">
         <v>57</v>
       </c>
@@ -31622,6 +33095,9 @@
       <c r="H647" t="s">
         <v>55</v>
       </c>
+      <c r="I647" t="s">
+        <v>2279</v>
+      </c>
       <c r="J647" t="s">
         <v>57</v>
       </c>
@@ -31651,6 +33127,9 @@
       <c r="H648" t="s">
         <v>55</v>
       </c>
+      <c r="I648" t="s">
+        <v>2279</v>
+      </c>
       <c r="J648" t="s">
         <v>57</v>
       </c>
@@ -31680,6 +33159,9 @@
       <c r="H649" t="s">
         <v>55</v>
       </c>
+      <c r="I649" t="s">
+        <v>2279</v>
+      </c>
       <c r="J649" t="s">
         <v>57</v>
       </c>
@@ -31709,6 +33191,9 @@
       <c r="H650" t="s">
         <v>55</v>
       </c>
+      <c r="I650" t="s">
+        <v>2279</v>
+      </c>
       <c r="J650" t="s">
         <v>200</v>
       </c>
@@ -31738,6 +33223,9 @@
       <c r="H651" t="s">
         <v>55</v>
       </c>
+      <c r="I651" t="s">
+        <v>2279</v>
+      </c>
       <c r="J651" t="s">
         <v>57</v>
       </c>
@@ -31767,6 +33255,9 @@
       <c r="H652" t="s">
         <v>55</v>
       </c>
+      <c r="I652" t="s">
+        <v>2279</v>
+      </c>
       <c r="J652" t="s">
         <v>57</v>
       </c>
@@ -31796,6 +33287,9 @@
       <c r="H653" t="s">
         <v>55</v>
       </c>
+      <c r="I653" t="s">
+        <v>2279</v>
+      </c>
       <c r="J653" t="s">
         <v>57</v>
       </c>
@@ -31825,6 +33319,9 @@
       <c r="H654" t="s">
         <v>55</v>
       </c>
+      <c r="I654" t="s">
+        <v>2279</v>
+      </c>
       <c r="J654" t="s">
         <v>57</v>
       </c>
@@ -31854,6 +33351,9 @@
       <c r="H655" t="s">
         <v>55</v>
       </c>
+      <c r="I655" t="s">
+        <v>2279</v>
+      </c>
       <c r="J655" t="s">
         <v>57</v>
       </c>
@@ -31883,6 +33383,9 @@
       <c r="H656" t="s">
         <v>55</v>
       </c>
+      <c r="I656" t="s">
+        <v>2279</v>
+      </c>
       <c r="J656" t="s">
         <v>200</v>
       </c>
@@ -31912,6 +33415,9 @@
       <c r="H657" t="s">
         <v>55</v>
       </c>
+      <c r="I657" t="s">
+        <v>2279</v>
+      </c>
       <c r="J657" t="s">
         <v>57</v>
       </c>
@@ -31941,6 +33447,9 @@
       <c r="H658" t="s">
         <v>55</v>
       </c>
+      <c r="I658" t="s">
+        <v>2279</v>
+      </c>
       <c r="J658" t="s">
         <v>57</v>
       </c>
@@ -31970,6 +33479,9 @@
       <c r="H659" t="s">
         <v>55</v>
       </c>
+      <c r="I659" t="s">
+        <v>2279</v>
+      </c>
       <c r="J659" t="s">
         <v>57</v>
       </c>
@@ -31999,6 +33511,9 @@
       <c r="H660" t="s">
         <v>55</v>
       </c>
+      <c r="I660" t="s">
+        <v>2279</v>
+      </c>
       <c r="J660" t="s">
         <v>60</v>
       </c>
@@ -32028,6 +33543,9 @@
       <c r="H661" t="s">
         <v>55</v>
       </c>
+      <c r="I661" t="s">
+        <v>2279</v>
+      </c>
       <c r="J661" t="s">
         <v>57</v>
       </c>
@@ -32057,6 +33575,9 @@
       <c r="H662" t="s">
         <v>55</v>
       </c>
+      <c r="I662" t="s">
+        <v>2279</v>
+      </c>
       <c r="J662" t="s">
         <v>200</v>
       </c>
@@ -32086,6 +33607,9 @@
       <c r="H663" t="s">
         <v>55</v>
       </c>
+      <c r="I663" t="s">
+        <v>2279</v>
+      </c>
       <c r="J663" t="s">
         <v>57</v>
       </c>
@@ -32115,6 +33639,9 @@
       <c r="H664" t="s">
         <v>55</v>
       </c>
+      <c r="I664" t="s">
+        <v>2279</v>
+      </c>
       <c r="J664" t="s">
         <v>57</v>
       </c>
@@ -32144,6 +33671,9 @@
       <c r="H665" t="s">
         <v>55</v>
       </c>
+      <c r="I665" t="s">
+        <v>2279</v>
+      </c>
       <c r="J665" t="s">
         <v>57</v>
       </c>
@@ -32173,6 +33703,9 @@
       <c r="H666" t="s">
         <v>55</v>
       </c>
+      <c r="I666" t="s">
+        <v>2279</v>
+      </c>
       <c r="J666" t="s">
         <v>57</v>
       </c>
@@ -32202,6 +33735,9 @@
       <c r="H667" t="s">
         <v>55</v>
       </c>
+      <c r="I667" t="s">
+        <v>2279</v>
+      </c>
       <c r="J667" t="s">
         <v>57</v>
       </c>
@@ -32231,6 +33767,9 @@
       <c r="H668" t="s">
         <v>55</v>
       </c>
+      <c r="I668" t="s">
+        <v>2279</v>
+      </c>
       <c r="J668" t="s">
         <v>200</v>
       </c>
@@ -32260,6 +33799,9 @@
       <c r="H669" t="s">
         <v>55</v>
       </c>
+      <c r="I669" t="s">
+        <v>2279</v>
+      </c>
       <c r="J669" t="s">
         <v>200</v>
       </c>
@@ -32289,6 +33831,9 @@
       <c r="H670" t="s">
         <v>55</v>
       </c>
+      <c r="I670" t="s">
+        <v>2279</v>
+      </c>
       <c r="J670" t="s">
         <v>57</v>
       </c>
@@ -32318,6 +33863,9 @@
       <c r="H671" t="s">
         <v>55</v>
       </c>
+      <c r="I671" t="s">
+        <v>2279</v>
+      </c>
       <c r="J671" t="s">
         <v>57</v>
       </c>
@@ -32347,6 +33895,9 @@
       <c r="H672" t="s">
         <v>55</v>
       </c>
+      <c r="I672" t="s">
+        <v>2279</v>
+      </c>
       <c r="J672" t="s">
         <v>57</v>
       </c>
@@ -32376,6 +33927,9 @@
       <c r="H673" t="s">
         <v>55</v>
       </c>
+      <c r="I673" t="s">
+        <v>2279</v>
+      </c>
       <c r="J673" t="s">
         <v>232</v>
       </c>
@@ -32405,6 +33959,9 @@
       <c r="H674" t="s">
         <v>55</v>
       </c>
+      <c r="I674" t="s">
+        <v>2279</v>
+      </c>
       <c r="J674" t="s">
         <v>57</v>
       </c>
@@ -32434,6 +33991,9 @@
       <c r="H675" t="s">
         <v>55</v>
       </c>
+      <c r="I675" t="s">
+        <v>2279</v>
+      </c>
       <c r="J675" t="s">
         <v>200</v>
       </c>
@@ -32463,6 +34023,9 @@
       <c r="H676" t="s">
         <v>55</v>
       </c>
+      <c r="I676" t="s">
+        <v>2279</v>
+      </c>
       <c r="J676" t="s">
         <v>352</v>
       </c>
@@ -32492,6 +34055,9 @@
       <c r="H677" t="s">
         <v>55</v>
       </c>
+      <c r="I677" t="s">
+        <v>2279</v>
+      </c>
       <c r="J677" t="s">
         <v>57</v>
       </c>
@@ -32521,6 +34087,9 @@
       <c r="H678" t="s">
         <v>55</v>
       </c>
+      <c r="I678" t="s">
+        <v>2279</v>
+      </c>
       <c r="J678" t="s">
         <v>57</v>
       </c>
@@ -32550,6 +34119,9 @@
       <c r="H679" t="s">
         <v>55</v>
       </c>
+      <c r="I679" t="s">
+        <v>2279</v>
+      </c>
       <c r="J679" t="s">
         <v>57</v>
       </c>
@@ -32579,6 +34151,9 @@
       <c r="H680" t="s">
         <v>55</v>
       </c>
+      <c r="I680" t="s">
+        <v>2279</v>
+      </c>
       <c r="J680" t="s">
         <v>57</v>
       </c>
@@ -32608,6 +34183,9 @@
       <c r="H681" t="s">
         <v>55</v>
       </c>
+      <c r="I681" t="s">
+        <v>2279</v>
+      </c>
       <c r="J681" t="s">
         <v>200</v>
       </c>
@@ -32637,6 +34215,9 @@
       <c r="H682" t="s">
         <v>55</v>
       </c>
+      <c r="I682" t="s">
+        <v>2279</v>
+      </c>
       <c r="J682" t="s">
         <v>57</v>
       </c>
@@ -32666,6 +34247,9 @@
       <c r="H683" t="s">
         <v>55</v>
       </c>
+      <c r="I683" t="s">
+        <v>2279</v>
+      </c>
       <c r="J683" t="s">
         <v>57</v>
       </c>
@@ -32695,6 +34279,9 @@
       <c r="H684" t="s">
         <v>55</v>
       </c>
+      <c r="I684" t="s">
+        <v>2279</v>
+      </c>
       <c r="J684" t="s">
         <v>57</v>
       </c>
@@ -32724,6 +34311,9 @@
       <c r="H685" t="s">
         <v>55</v>
       </c>
+      <c r="I685" t="s">
+        <v>2279</v>
+      </c>
       <c r="J685" t="s">
         <v>57</v>
       </c>
@@ -32753,6 +34343,9 @@
       <c r="H686" t="s">
         <v>55</v>
       </c>
+      <c r="I686" t="s">
+        <v>2279</v>
+      </c>
       <c r="J686" t="s">
         <v>57</v>
       </c>
@@ -32782,6 +34375,9 @@
       <c r="H687" t="s">
         <v>55</v>
       </c>
+      <c r="I687" t="s">
+        <v>2279</v>
+      </c>
       <c r="J687" t="s">
         <v>57</v>
       </c>
@@ -32811,6 +34407,9 @@
       <c r="H688" t="s">
         <v>55</v>
       </c>
+      <c r="I688" t="s">
+        <v>2279</v>
+      </c>
       <c r="J688" t="s">
         <v>57</v>
       </c>
@@ -32840,6 +34439,9 @@
       <c r="H689" t="s">
         <v>55</v>
       </c>
+      <c r="I689" t="s">
+        <v>2279</v>
+      </c>
       <c r="J689" t="s">
         <v>444</v>
       </c>
@@ -32869,6 +34471,9 @@
       <c r="H690" t="s">
         <v>55</v>
       </c>
+      <c r="I690" t="s">
+        <v>2279</v>
+      </c>
       <c r="J690" t="s">
         <v>57</v>
       </c>
@@ -32898,6 +34503,9 @@
       <c r="H691" t="s">
         <v>55</v>
       </c>
+      <c r="I691" t="s">
+        <v>2279</v>
+      </c>
       <c r="J691" t="s">
         <v>57</v>
       </c>
@@ -32927,6 +34535,9 @@
       <c r="H692" t="s">
         <v>55</v>
       </c>
+      <c r="I692" t="s">
+        <v>2279</v>
+      </c>
       <c r="J692" t="s">
         <v>57</v>
       </c>
@@ -32956,6 +34567,9 @@
       <c r="H693" t="s">
         <v>55</v>
       </c>
+      <c r="I693" t="s">
+        <v>2279</v>
+      </c>
       <c r="J693" t="s">
         <v>57</v>
       </c>
@@ -32985,6 +34599,9 @@
       <c r="H694" t="s">
         <v>55</v>
       </c>
+      <c r="I694" t="s">
+        <v>2279</v>
+      </c>
       <c r="J694" t="s">
         <v>57</v>
       </c>
@@ -33014,6 +34631,9 @@
       <c r="H695" t="s">
         <v>55</v>
       </c>
+      <c r="I695" t="s">
+        <v>2279</v>
+      </c>
       <c r="J695" t="s">
         <v>57</v>
       </c>
@@ -33043,6 +34663,9 @@
       <c r="H696" t="s">
         <v>55</v>
       </c>
+      <c r="I696" t="s">
+        <v>2279</v>
+      </c>
       <c r="J696" t="s">
         <v>57</v>
       </c>
@@ -33072,6 +34695,9 @@
       <c r="H697" t="s">
         <v>55</v>
       </c>
+      <c r="I697" t="s">
+        <v>2279</v>
+      </c>
       <c r="J697" t="s">
         <v>57</v>
       </c>
@@ -33101,6 +34727,9 @@
       <c r="H698" t="s">
         <v>55</v>
       </c>
+      <c r="I698" t="s">
+        <v>2279</v>
+      </c>
       <c r="J698" t="s">
         <v>57</v>
       </c>
@@ -33130,6 +34759,9 @@
       <c r="H699" t="s">
         <v>55</v>
       </c>
+      <c r="I699" t="s">
+        <v>2279</v>
+      </c>
       <c r="J699" t="s">
         <v>57</v>
       </c>
@@ -33159,6 +34791,9 @@
       <c r="H700" t="s">
         <v>55</v>
       </c>
+      <c r="I700" t="s">
+        <v>2279</v>
+      </c>
       <c r="J700" t="s">
         <v>60</v>
       </c>
@@ -33188,6 +34823,9 @@
       <c r="H701" t="s">
         <v>55</v>
       </c>
+      <c r="I701" t="s">
+        <v>2279</v>
+      </c>
       <c r="J701" t="s">
         <v>60</v>
       </c>
@@ -33217,6 +34855,9 @@
       <c r="H702" t="s">
         <v>55</v>
       </c>
+      <c r="I702" t="s">
+        <v>2279</v>
+      </c>
       <c r="J702" t="s">
         <v>200</v>
       </c>
@@ -33246,6 +34887,9 @@
       <c r="H703" t="s">
         <v>55</v>
       </c>
+      <c r="I703" t="s">
+        <v>2279</v>
+      </c>
       <c r="J703" t="s">
         <v>200</v>
       </c>
@@ -33275,6 +34919,9 @@
       <c r="H704" t="s">
         <v>55</v>
       </c>
+      <c r="I704" t="s">
+        <v>2279</v>
+      </c>
       <c r="J704" t="s">
         <v>200</v>
       </c>
@@ -33304,6 +34951,9 @@
       <c r="H705" t="s">
         <v>55</v>
       </c>
+      <c r="I705" t="s">
+        <v>2279</v>
+      </c>
       <c r="J705" t="s">
         <v>200</v>
       </c>
@@ -33333,6 +34983,9 @@
       <c r="H706" t="s">
         <v>55</v>
       </c>
+      <c r="I706" t="s">
+        <v>2279</v>
+      </c>
       <c r="J706" t="s">
         <v>232</v>
       </c>
@@ -33362,6 +35015,9 @@
       <c r="H707" t="s">
         <v>55</v>
       </c>
+      <c r="I707" t="s">
+        <v>2279</v>
+      </c>
       <c r="J707" t="s">
         <v>57</v>
       </c>
@@ -33391,6 +35047,9 @@
       <c r="H708" t="s">
         <v>55</v>
       </c>
+      <c r="I708" t="s">
+        <v>2279</v>
+      </c>
       <c r="J708" t="s">
         <v>1976</v>
       </c>
@@ -33420,6 +35079,9 @@
       <c r="H709" t="s">
         <v>55</v>
       </c>
+      <c r="I709" t="s">
+        <v>2279</v>
+      </c>
       <c r="J709" t="s">
         <v>200</v>
       </c>
@@ -33449,6 +35111,9 @@
       <c r="H710" t="s">
         <v>55</v>
       </c>
+      <c r="I710" t="s">
+        <v>2279</v>
+      </c>
       <c r="J710" t="s">
         <v>57</v>
       </c>
@@ -33478,6 +35143,9 @@
       <c r="H711" t="s">
         <v>55</v>
       </c>
+      <c r="I711" t="s">
+        <v>2279</v>
+      </c>
       <c r="J711" t="s">
         <v>57</v>
       </c>
@@ -33507,6 +35175,9 @@
       <c r="H712" t="s">
         <v>55</v>
       </c>
+      <c r="I712" t="s">
+        <v>2279</v>
+      </c>
       <c r="J712" t="s">
         <v>200</v>
       </c>
@@ -33536,6 +35207,9 @@
       <c r="H713" t="s">
         <v>55</v>
       </c>
+      <c r="I713" t="s">
+        <v>2279</v>
+      </c>
       <c r="J713" t="s">
         <v>1974</v>
       </c>
@@ -33565,6 +35239,9 @@
       <c r="H714" t="s">
         <v>55</v>
       </c>
+      <c r="I714" t="s">
+        <v>2279</v>
+      </c>
       <c r="J714" t="s">
         <v>1974</v>
       </c>
@@ -33594,6 +35271,9 @@
       <c r="H715" t="s">
         <v>55</v>
       </c>
+      <c r="I715" t="s">
+        <v>2279</v>
+      </c>
       <c r="J715" t="s">
         <v>1974</v>
       </c>
@@ -33623,6 +35303,9 @@
       <c r="H716" t="s">
         <v>55</v>
       </c>
+      <c r="I716" t="s">
+        <v>2279</v>
+      </c>
       <c r="J716" t="s">
         <v>1974</v>
       </c>
@@ -33652,6 +35335,9 @@
       <c r="H717" t="s">
         <v>55</v>
       </c>
+      <c r="I717" t="s">
+        <v>2279</v>
+      </c>
       <c r="J717" t="s">
         <v>1974</v>
       </c>
@@ -33681,6 +35367,9 @@
       <c r="H718" t="s">
         <v>55</v>
       </c>
+      <c r="I718" t="s">
+        <v>2279</v>
+      </c>
       <c r="J718" t="s">
         <v>1974</v>
       </c>
@@ -33710,6 +35399,9 @@
       <c r="H719" t="s">
         <v>55</v>
       </c>
+      <c r="I719" t="s">
+        <v>2279</v>
+      </c>
       <c r="J719" t="s">
         <v>1974</v>
       </c>
@@ -33739,6 +35431,9 @@
       <c r="H720" t="s">
         <v>55</v>
       </c>
+      <c r="I720" t="s">
+        <v>2279</v>
+      </c>
       <c r="J720" t="s">
         <v>1974</v>
       </c>
@@ -33768,6 +35463,9 @@
       <c r="H721" t="s">
         <v>55</v>
       </c>
+      <c r="I721" t="s">
+        <v>2279</v>
+      </c>
       <c r="J721" t="s">
         <v>1974</v>
       </c>
@@ -33797,6 +35495,9 @@
       <c r="H722" t="s">
         <v>55</v>
       </c>
+      <c r="I722" t="s">
+        <v>2279</v>
+      </c>
       <c r="J722" t="s">
         <v>1974</v>
       </c>
@@ -33826,6 +35527,9 @@
       <c r="H723" t="s">
         <v>55</v>
       </c>
+      <c r="I723" t="s">
+        <v>2279</v>
+      </c>
       <c r="J723" t="s">
         <v>1974</v>
       </c>
@@ -33855,6 +35559,9 @@
       <c r="H724" t="s">
         <v>55</v>
       </c>
+      <c r="I724" t="s">
+        <v>2279</v>
+      </c>
       <c r="J724" t="s">
         <v>1974</v>
       </c>
@@ -33884,6 +35591,9 @@
       <c r="H725" t="s">
         <v>55</v>
       </c>
+      <c r="I725" t="s">
+        <v>2279</v>
+      </c>
       <c r="J725" t="s">
         <v>1974</v>
       </c>
@@ -33913,6 +35623,9 @@
       <c r="H726" t="s">
         <v>55</v>
       </c>
+      <c r="I726" t="s">
+        <v>2279</v>
+      </c>
       <c r="J726" t="s">
         <v>1974</v>
       </c>
@@ -33942,6 +35655,9 @@
       <c r="H727" t="s">
         <v>55</v>
       </c>
+      <c r="I727" t="s">
+        <v>2279</v>
+      </c>
       <c r="J727" t="s">
         <v>1974</v>
       </c>
@@ -33971,6 +35687,9 @@
       <c r="H728" t="s">
         <v>55</v>
       </c>
+      <c r="I728" t="s">
+        <v>2279</v>
+      </c>
       <c r="J728" t="s">
         <v>1974</v>
       </c>
@@ -34000,6 +35719,9 @@
       <c r="H729" t="s">
         <v>55</v>
       </c>
+      <c r="I729" t="s">
+        <v>2279</v>
+      </c>
       <c r="J729" t="s">
         <v>1974</v>
       </c>
@@ -34029,6 +35751,9 @@
       <c r="H730" t="s">
         <v>55</v>
       </c>
+      <c r="I730" t="s">
+        <v>2279</v>
+      </c>
       <c r="J730" t="s">
         <v>1974</v>
       </c>
@@ -34058,6 +35783,9 @@
       <c r="H731" t="s">
         <v>55</v>
       </c>
+      <c r="I731" t="s">
+        <v>2279</v>
+      </c>
       <c r="J731" t="s">
         <v>1974</v>
       </c>
@@ -34087,6 +35815,9 @@
       <c r="H732" t="s">
         <v>55</v>
       </c>
+      <c r="I732" t="s">
+        <v>2279</v>
+      </c>
       <c r="J732" t="s">
         <v>1974</v>
       </c>
@@ -34116,6 +35847,9 @@
       <c r="H733" t="s">
         <v>55</v>
       </c>
+      <c r="I733" t="s">
+        <v>2279</v>
+      </c>
       <c r="J733" t="s">
         <v>1974</v>
       </c>
@@ -34145,6 +35879,9 @@
       <c r="H734" t="s">
         <v>55</v>
       </c>
+      <c r="I734" t="s">
+        <v>2279</v>
+      </c>
       <c r="J734" t="s">
         <v>1974</v>
       </c>
@@ -34174,6 +35911,9 @@
       <c r="H735" t="s">
         <v>55</v>
       </c>
+      <c r="I735" t="s">
+        <v>2279</v>
+      </c>
       <c r="J735" t="s">
         <v>1974</v>
       </c>
@@ -34203,6 +35943,9 @@
       <c r="H736" t="s">
         <v>55</v>
       </c>
+      <c r="I736" t="s">
+        <v>2279</v>
+      </c>
       <c r="J736" t="s">
         <v>1977</v>
       </c>
@@ -34232,6 +35975,9 @@
       <c r="H737" t="s">
         <v>55</v>
       </c>
+      <c r="I737" t="s">
+        <v>2279</v>
+      </c>
       <c r="J737" t="s">
         <v>1978</v>
       </c>
@@ -34261,6 +36007,9 @@
       <c r="H738" t="s">
         <v>55</v>
       </c>
+      <c r="I738" t="s">
+        <v>2279</v>
+      </c>
       <c r="J738" t="s">
         <v>1978</v>
       </c>
@@ -34290,6 +36039,9 @@
       <c r="H739" t="s">
         <v>55</v>
       </c>
+      <c r="I739" t="s">
+        <v>2279</v>
+      </c>
       <c r="J739" t="s">
         <v>1978</v>
       </c>
@@ -34319,6 +36071,9 @@
       <c r="H740" t="s">
         <v>55</v>
       </c>
+      <c r="I740" t="s">
+        <v>2279</v>
+      </c>
       <c r="J740" t="s">
         <v>1978</v>
       </c>
@@ -34348,6 +36103,9 @@
       <c r="H741" t="s">
         <v>55</v>
       </c>
+      <c r="I741" t="s">
+        <v>2279</v>
+      </c>
       <c r="J741" t="s">
         <v>1978</v>
       </c>
@@ -34377,6 +36135,9 @@
       <c r="H742" t="s">
         <v>55</v>
       </c>
+      <c r="I742" t="s">
+        <v>2279</v>
+      </c>
       <c r="J742" t="s">
         <v>1979</v>
       </c>
@@ -34406,6 +36167,9 @@
       <c r="H743" t="s">
         <v>55</v>
       </c>
+      <c r="I743" t="s">
+        <v>2279</v>
+      </c>
       <c r="J743" t="s">
         <v>1980</v>
       </c>
@@ -34435,6 +36199,9 @@
       <c r="H744" t="s">
         <v>55</v>
       </c>
+      <c r="I744" t="s">
+        <v>2279</v>
+      </c>
       <c r="J744" t="s">
         <v>1981</v>
       </c>
@@ -34464,6 +36231,9 @@
       <c r="H745" t="s">
         <v>55</v>
       </c>
+      <c r="I745" t="s">
+        <v>2279</v>
+      </c>
       <c r="J745" t="s">
         <v>1980</v>
       </c>
@@ -34493,6 +36263,9 @@
       <c r="H746" t="s">
         <v>55</v>
       </c>
+      <c r="I746" t="s">
+        <v>2279</v>
+      </c>
       <c r="J746" t="s">
         <v>1982</v>
       </c>
@@ -34522,6 +36295,9 @@
       <c r="H747" t="s">
         <v>55</v>
       </c>
+      <c r="I747" t="s">
+        <v>2279</v>
+      </c>
       <c r="J747" t="s">
         <v>1983</v>
       </c>
@@ -34551,6 +36327,9 @@
       <c r="H748" t="s">
         <v>55</v>
       </c>
+      <c r="I748" t="s">
+        <v>2279</v>
+      </c>
       <c r="J748" t="s">
         <v>1979</v>
       </c>
@@ -34580,6 +36359,9 @@
       <c r="H749" t="s">
         <v>55</v>
       </c>
+      <c r="I749" t="s">
+        <v>2279</v>
+      </c>
       <c r="J749" t="s">
         <v>1984</v>
       </c>
@@ -34609,6 +36391,9 @@
       <c r="H750" t="s">
         <v>55</v>
       </c>
+      <c r="I750" t="s">
+        <v>2279</v>
+      </c>
       <c r="J750" t="s">
         <v>1982</v>
       </c>
@@ -34638,6 +36423,9 @@
       <c r="H751" t="s">
         <v>55</v>
       </c>
+      <c r="I751" t="s">
+        <v>2279</v>
+      </c>
       <c r="J751" t="s">
         <v>1979</v>
       </c>
@@ -34667,6 +36455,9 @@
       <c r="H752" t="s">
         <v>55</v>
       </c>
+      <c r="I752" t="s">
+        <v>2279</v>
+      </c>
       <c r="J752" t="s">
         <v>1980</v>
       </c>
@@ -34696,6 +36487,9 @@
       <c r="H753" t="s">
         <v>55</v>
       </c>
+      <c r="I753" t="s">
+        <v>2279</v>
+      </c>
       <c r="J753" t="s">
         <v>1985</v>
       </c>
@@ -34725,6 +36519,9 @@
       <c r="H754" t="s">
         <v>55</v>
       </c>
+      <c r="I754" t="s">
+        <v>2279</v>
+      </c>
       <c r="J754" t="s">
         <v>1979</v>
       </c>
@@ -34754,6 +36551,9 @@
       <c r="H755" t="s">
         <v>55</v>
       </c>
+      <c r="I755" t="s">
+        <v>2279</v>
+      </c>
       <c r="J755" t="s">
         <v>1986</v>
       </c>
@@ -34783,6 +36583,9 @@
       <c r="H756" t="s">
         <v>55</v>
       </c>
+      <c r="I756" t="s">
+        <v>2279</v>
+      </c>
       <c r="J756" t="s">
         <v>1979</v>
       </c>
@@ -34812,6 +36615,9 @@
       <c r="H757" t="s">
         <v>55</v>
       </c>
+      <c r="I757" t="s">
+        <v>2279</v>
+      </c>
       <c r="J757" t="s">
         <v>1983</v>
       </c>
@@ -34841,6 +36647,9 @@
       <c r="H758" t="s">
         <v>55</v>
       </c>
+      <c r="I758" t="s">
+        <v>2279</v>
+      </c>
       <c r="J758" t="s">
         <v>1987</v>
       </c>
@@ -34870,6 +36679,9 @@
       <c r="H759" t="s">
         <v>55</v>
       </c>
+      <c r="I759" t="s">
+        <v>2279</v>
+      </c>
       <c r="J759" t="s">
         <v>1988</v>
       </c>
@@ -34899,6 +36711,9 @@
       <c r="H760" t="s">
         <v>55</v>
       </c>
+      <c r="I760" t="s">
+        <v>2279</v>
+      </c>
       <c r="J760" t="s">
         <v>1989</v>
       </c>
@@ -34928,6 +36743,9 @@
       <c r="H761" t="s">
         <v>55</v>
       </c>
+      <c r="I761" t="s">
+        <v>2279</v>
+      </c>
       <c r="J761" t="s">
         <v>1985</v>
       </c>
@@ -34957,6 +36775,9 @@
       <c r="H762" t="s">
         <v>55</v>
       </c>
+      <c r="I762" t="s">
+        <v>2279</v>
+      </c>
       <c r="J762" t="s">
         <v>1984</v>
       </c>
@@ -34986,6 +36807,9 @@
       <c r="H763" t="s">
         <v>55</v>
       </c>
+      <c r="I763" t="s">
+        <v>2279</v>
+      </c>
       <c r="J763" t="s">
         <v>1983</v>
       </c>
@@ -35015,6 +36839,9 @@
       <c r="H764" t="s">
         <v>55</v>
       </c>
+      <c r="I764" t="s">
+        <v>2279</v>
+      </c>
       <c r="J764" t="s">
         <v>1990</v>
       </c>
@@ -35044,6 +36871,9 @@
       <c r="H765" t="s">
         <v>55</v>
       </c>
+      <c r="I765" t="s">
+        <v>2279</v>
+      </c>
       <c r="J765" t="s">
         <v>1981</v>
       </c>
@@ -35073,6 +36903,9 @@
       <c r="H766" t="s">
         <v>55</v>
       </c>
+      <c r="I766" t="s">
+        <v>2279</v>
+      </c>
       <c r="J766" t="s">
         <v>1986</v>
       </c>
@@ -35102,6 +36935,9 @@
       <c r="H767" t="s">
         <v>55</v>
       </c>
+      <c r="I767" t="s">
+        <v>2279</v>
+      </c>
       <c r="J767" t="s">
         <v>1991</v>
       </c>
@@ -35131,6 +36967,9 @@
       <c r="H768" t="s">
         <v>55</v>
       </c>
+      <c r="I768" t="s">
+        <v>2279</v>
+      </c>
       <c r="J768" t="s">
         <v>1986</v>
       </c>
@@ -35160,6 +36999,9 @@
       <c r="H769" t="s">
         <v>55</v>
       </c>
+      <c r="I769" t="s">
+        <v>2279</v>
+      </c>
       <c r="J769" t="s">
         <v>1992</v>
       </c>
@@ -35189,6 +37031,9 @@
       <c r="H770" t="s">
         <v>55</v>
       </c>
+      <c r="I770" t="s">
+        <v>2279</v>
+      </c>
       <c r="J770" t="s">
         <v>1986</v>
       </c>
@@ -35218,6 +37063,9 @@
       <c r="H771" t="s">
         <v>55</v>
       </c>
+      <c r="I771" t="s">
+        <v>2279</v>
+      </c>
       <c r="J771" t="s">
         <v>1993</v>
       </c>
@@ -35247,6 +37095,9 @@
       <c r="H772" t="s">
         <v>55</v>
       </c>
+      <c r="I772" t="s">
+        <v>2279</v>
+      </c>
       <c r="J772" t="s">
         <v>1988</v>
       </c>
@@ -35276,6 +37127,9 @@
       <c r="H773" t="s">
         <v>55</v>
       </c>
+      <c r="I773" t="s">
+        <v>2279</v>
+      </c>
       <c r="J773" t="s">
         <v>1980</v>
       </c>
@@ -35305,6 +37159,9 @@
       <c r="H774" t="s">
         <v>55</v>
       </c>
+      <c r="I774" t="s">
+        <v>2279</v>
+      </c>
       <c r="J774" t="s">
         <v>1986</v>
       </c>
@@ -35334,6 +37191,9 @@
       <c r="H775" t="s">
         <v>55</v>
       </c>
+      <c r="I775" t="s">
+        <v>2279</v>
+      </c>
       <c r="J775" t="s">
         <v>1994</v>
       </c>
@@ -35363,6 +37223,9 @@
       <c r="H776" t="s">
         <v>55</v>
       </c>
+      <c r="I776" t="s">
+        <v>2279</v>
+      </c>
       <c r="J776" t="s">
         <v>1995</v>
       </c>
@@ -35392,6 +37255,9 @@
       <c r="H777" t="s">
         <v>55</v>
       </c>
+      <c r="I777" t="s">
+        <v>2279</v>
+      </c>
       <c r="J777" t="s">
         <v>1996</v>
       </c>
@@ -35421,6 +37287,9 @@
       <c r="H778" t="s">
         <v>55</v>
       </c>
+      <c r="I778" t="s">
+        <v>2279</v>
+      </c>
       <c r="J778" t="s">
         <v>1980</v>
       </c>
@@ -35450,6 +37319,9 @@
       <c r="H779" t="s">
         <v>55</v>
       </c>
+      <c r="I779" t="s">
+        <v>2279</v>
+      </c>
       <c r="J779" t="s">
         <v>1997</v>
       </c>
@@ -35479,6 +37351,9 @@
       <c r="H780" t="s">
         <v>55</v>
       </c>
+      <c r="I780" t="s">
+        <v>2279</v>
+      </c>
       <c r="J780" t="s">
         <v>1993</v>
       </c>
@@ -35508,6 +37383,9 @@
       <c r="H781" t="s">
         <v>55</v>
       </c>
+      <c r="I781" t="s">
+        <v>2279</v>
+      </c>
       <c r="J781" t="s">
         <v>1980</v>
       </c>
@@ -35537,6 +37415,9 @@
       <c r="H782" t="s">
         <v>55</v>
       </c>
+      <c r="I782" t="s">
+        <v>2279</v>
+      </c>
       <c r="J782" t="s">
         <v>1977</v>
       </c>
@@ -35566,6 +37447,9 @@
       <c r="H783" t="s">
         <v>55</v>
       </c>
+      <c r="I783" t="s">
+        <v>2279</v>
+      </c>
       <c r="J783" t="s">
         <v>1981</v>
       </c>
@@ -35595,6 +37479,9 @@
       <c r="H784" t="s">
         <v>55</v>
       </c>
+      <c r="I784" t="s">
+        <v>2279</v>
+      </c>
       <c r="J784" t="s">
         <v>1981</v>
       </c>
@@ -35624,6 +37511,9 @@
       <c r="H785" t="s">
         <v>55</v>
       </c>
+      <c r="I785" t="s">
+        <v>2279</v>
+      </c>
       <c r="J785" t="s">
         <v>1992</v>
       </c>
@@ -35653,6 +37543,9 @@
       <c r="H786" t="s">
         <v>55</v>
       </c>
+      <c r="I786" t="s">
+        <v>2279</v>
+      </c>
       <c r="J786" t="s">
         <v>1993</v>
       </c>
@@ -35682,6 +37575,9 @@
       <c r="H787" t="s">
         <v>55</v>
       </c>
+      <c r="I787" t="s">
+        <v>2279</v>
+      </c>
       <c r="J787" t="s">
         <v>1994</v>
       </c>
@@ -35711,6 +37607,9 @@
       <c r="H788" t="s">
         <v>55</v>
       </c>
+      <c r="I788" t="s">
+        <v>2279</v>
+      </c>
       <c r="J788" t="s">
         <v>1993</v>
       </c>
@@ -35740,6 +37639,9 @@
       <c r="H789" t="s">
         <v>55</v>
       </c>
+      <c r="I789" t="s">
+        <v>2279</v>
+      </c>
       <c r="J789" t="s">
         <v>1993</v>
       </c>
@@ -35769,6 +37671,9 @@
       <c r="H790" t="s">
         <v>55</v>
       </c>
+      <c r="I790" t="s">
+        <v>2279</v>
+      </c>
       <c r="J790" t="s">
         <v>1977</v>
       </c>
@@ -35798,6 +37703,9 @@
       <c r="H791" t="s">
         <v>55</v>
       </c>
+      <c r="I791" t="s">
+        <v>2279</v>
+      </c>
       <c r="J791" t="s">
         <v>1980</v>
       </c>
@@ -35827,6 +37735,9 @@
       <c r="H792" t="s">
         <v>55</v>
       </c>
+      <c r="I792" t="s">
+        <v>2279</v>
+      </c>
       <c r="J792" t="s">
         <v>1980</v>
       </c>
@@ -35856,6 +37767,9 @@
       <c r="H793" t="s">
         <v>55</v>
       </c>
+      <c r="I793" t="s">
+        <v>2279</v>
+      </c>
       <c r="J793" t="s">
         <v>1977</v>
       </c>
@@ -35885,6 +37799,9 @@
       <c r="H794" t="s">
         <v>55</v>
       </c>
+      <c r="I794" t="s">
+        <v>2279</v>
+      </c>
       <c r="J794" t="s">
         <v>1981</v>
       </c>
@@ -35914,6 +37831,9 @@
       <c r="H795" t="s">
         <v>55</v>
       </c>
+      <c r="I795" t="s">
+        <v>2279</v>
+      </c>
       <c r="J795" t="s">
         <v>1981</v>
       </c>
@@ -35943,6 +37863,9 @@
       <c r="H796" t="s">
         <v>55</v>
       </c>
+      <c r="I796" t="s">
+        <v>2279</v>
+      </c>
       <c r="J796" t="s">
         <v>1983</v>
       </c>
@@ -35972,6 +37895,9 @@
       <c r="H797" t="s">
         <v>55</v>
       </c>
+      <c r="I797" t="s">
+        <v>2279</v>
+      </c>
       <c r="J797" t="s">
         <v>1998</v>
       </c>
@@ -36001,6 +37927,9 @@
       <c r="H798" t="s">
         <v>55</v>
       </c>
+      <c r="I798" t="s">
+        <v>2279</v>
+      </c>
       <c r="J798" t="s">
         <v>1980</v>
       </c>
@@ -36030,6 +37959,9 @@
       <c r="H799" t="s">
         <v>55</v>
       </c>
+      <c r="I799" t="s">
+        <v>2279</v>
+      </c>
       <c r="J799" t="s">
         <v>1986</v>
       </c>
@@ -36059,6 +37991,9 @@
       <c r="H800" t="s">
         <v>55</v>
       </c>
+      <c r="I800" t="s">
+        <v>2279</v>
+      </c>
       <c r="J800" t="s">
         <v>1981</v>
       </c>
@@ -36088,6 +38023,9 @@
       <c r="H801" t="s">
         <v>55</v>
       </c>
+      <c r="I801" t="s">
+        <v>2279</v>
+      </c>
       <c r="J801" t="s">
         <v>1993</v>
       </c>
@@ -36117,6 +38055,9 @@
       <c r="H802" t="s">
         <v>55</v>
       </c>
+      <c r="I802" t="s">
+        <v>2279</v>
+      </c>
       <c r="J802" t="s">
         <v>1980</v>
       </c>
@@ -36146,6 +38087,9 @@
       <c r="H803" t="s">
         <v>55</v>
       </c>
+      <c r="I803" t="s">
+        <v>2279</v>
+      </c>
       <c r="J803" t="s">
         <v>1977</v>
       </c>
@@ -36175,6 +38119,9 @@
       <c r="H804" t="s">
         <v>55</v>
       </c>
+      <c r="I804" t="s">
+        <v>2279</v>
+      </c>
       <c r="J804" t="s">
         <v>1999</v>
       </c>
@@ -36204,6 +38151,9 @@
       <c r="H805" t="s">
         <v>55</v>
       </c>
+      <c r="I805" t="s">
+        <v>2279</v>
+      </c>
       <c r="J805" t="s">
         <v>2000</v>
       </c>
@@ -36233,6 +38183,9 @@
       <c r="H806" t="s">
         <v>55</v>
       </c>
+      <c r="I806" t="s">
+        <v>2279</v>
+      </c>
       <c r="J806" t="s">
         <v>1986</v>
       </c>
@@ -36262,6 +38215,9 @@
       <c r="H807" t="s">
         <v>55</v>
       </c>
+      <c r="I807" t="s">
+        <v>2279</v>
+      </c>
       <c r="J807" t="s">
         <v>1988</v>
       </c>
@@ -36291,6 +38247,9 @@
       <c r="H808" t="s">
         <v>55</v>
       </c>
+      <c r="I808" t="s">
+        <v>2279</v>
+      </c>
       <c r="J808" t="s">
         <v>2001</v>
       </c>
@@ -36320,6 +38279,9 @@
       <c r="H809" t="s">
         <v>55</v>
       </c>
+      <c r="I809" t="s">
+        <v>2279</v>
+      </c>
       <c r="J809" t="s">
         <v>1983</v>
       </c>
@@ -36349,6 +38311,9 @@
       <c r="H810" t="s">
         <v>55</v>
       </c>
+      <c r="I810" t="s">
+        <v>2279</v>
+      </c>
       <c r="J810" t="s">
         <v>1978</v>
       </c>
@@ -36378,6 +38343,9 @@
       <c r="H811" t="s">
         <v>55</v>
       </c>
+      <c r="I811" t="s">
+        <v>2279</v>
+      </c>
       <c r="J811" t="s">
         <v>1988</v>
       </c>
@@ -36407,6 +38375,9 @@
       <c r="H812" t="s">
         <v>55</v>
       </c>
+      <c r="I812" t="s">
+        <v>2279</v>
+      </c>
       <c r="J812" t="s">
         <v>748</v>
       </c>
@@ -36436,6 +38407,9 @@
       <c r="H813" t="s">
         <v>55</v>
       </c>
+      <c r="I813" t="s">
+        <v>2279</v>
+      </c>
       <c r="J813" t="s">
         <v>748</v>
       </c>
@@ -36465,6 +38439,9 @@
       <c r="H814" t="s">
         <v>55</v>
       </c>
+      <c r="I814" t="s">
+        <v>2279</v>
+      </c>
       <c r="J814" t="s">
         <v>748</v>
       </c>
@@ -36494,6 +38471,9 @@
       <c r="H815" t="s">
         <v>55</v>
       </c>
+      <c r="I815" t="s">
+        <v>2279</v>
+      </c>
       <c r="J815" t="s">
         <v>748</v>
       </c>
@@ -36523,6 +38503,9 @@
       <c r="H816" t="s">
         <v>55</v>
       </c>
+      <c r="I816" t="s">
+        <v>2279</v>
+      </c>
       <c r="J816" t="s">
         <v>748</v>
       </c>
@@ -36552,6 +38535,9 @@
       <c r="H817" t="s">
         <v>55</v>
       </c>
+      <c r="I817" t="s">
+        <v>2279</v>
+      </c>
       <c r="J817" t="s">
         <v>748</v>
       </c>
@@ -36581,6 +38567,9 @@
       <c r="H818" t="s">
         <v>55</v>
       </c>
+      <c r="I818" t="s">
+        <v>2279</v>
+      </c>
       <c r="J818" t="s">
         <v>748</v>
       </c>
@@ -36610,6 +38599,9 @@
       <c r="H819" t="s">
         <v>55</v>
       </c>
+      <c r="I819" t="s">
+        <v>2279</v>
+      </c>
       <c r="J819" t="s">
         <v>748</v>
       </c>
@@ -36639,6 +38631,9 @@
       <c r="H820" t="s">
         <v>55</v>
       </c>
+      <c r="I820" t="s">
+        <v>2279</v>
+      </c>
       <c r="J820" t="s">
         <v>748</v>
       </c>
@@ -36668,6 +38663,9 @@
       <c r="H821" t="s">
         <v>55</v>
       </c>
+      <c r="I821" t="s">
+        <v>2279</v>
+      </c>
       <c r="J821" t="s">
         <v>748</v>
       </c>
@@ -36697,6 +38695,9 @@
       <c r="H822" t="s">
         <v>55</v>
       </c>
+      <c r="I822" t="s">
+        <v>2279</v>
+      </c>
       <c r="J822" t="s">
         <v>748</v>
       </c>
@@ -36726,6 +38727,9 @@
       <c r="H823" t="s">
         <v>55</v>
       </c>
+      <c r="I823" t="s">
+        <v>2279</v>
+      </c>
       <c r="J823" t="s">
         <v>748</v>
       </c>
@@ -36755,6 +38759,9 @@
       <c r="H824" t="s">
         <v>55</v>
       </c>
+      <c r="I824" t="s">
+        <v>2279</v>
+      </c>
       <c r="J824" t="s">
         <v>748</v>
       </c>
@@ -36784,6 +38791,9 @@
       <c r="H825" t="s">
         <v>55</v>
       </c>
+      <c r="I825" t="s">
+        <v>2279</v>
+      </c>
       <c r="J825" t="s">
         <v>748</v>
       </c>
@@ -36813,6 +38823,9 @@
       <c r="H826" t="s">
         <v>55</v>
       </c>
+      <c r="I826" t="s">
+        <v>2279</v>
+      </c>
       <c r="J826" t="s">
         <v>748</v>
       </c>
@@ -36842,6 +38855,9 @@
       <c r="H827" t="s">
         <v>55</v>
       </c>
+      <c r="I827" t="s">
+        <v>2279</v>
+      </c>
       <c r="J827" t="s">
         <v>748</v>
       </c>
@@ -36871,6 +38887,9 @@
       <c r="H828" t="s">
         <v>55</v>
       </c>
+      <c r="I828" t="s">
+        <v>2279</v>
+      </c>
       <c r="J828" t="s">
         <v>748</v>
       </c>
@@ -36900,6 +38919,9 @@
       <c r="H829" t="s">
         <v>55</v>
       </c>
+      <c r="I829" t="s">
+        <v>2279</v>
+      </c>
       <c r="J829" t="s">
         <v>748</v>
       </c>
@@ -36929,6 +38951,9 @@
       <c r="H830" t="s">
         <v>55</v>
       </c>
+      <c r="I830" t="s">
+        <v>2279</v>
+      </c>
       <c r="J830" t="s">
         <v>748</v>
       </c>
@@ -36958,6 +38983,9 @@
       <c r="H831" t="s">
         <v>55</v>
       </c>
+      <c r="I831" t="s">
+        <v>2279</v>
+      </c>
       <c r="J831" t="s">
         <v>748</v>
       </c>
@@ -36987,6 +39015,9 @@
       <c r="H832" t="s">
         <v>55</v>
       </c>
+      <c r="I832" t="s">
+        <v>2279</v>
+      </c>
       <c r="J832" t="s">
         <v>748</v>
       </c>
@@ -37016,6 +39047,9 @@
       <c r="H833" t="s">
         <v>55</v>
       </c>
+      <c r="I833" t="s">
+        <v>2279</v>
+      </c>
       <c r="J833" t="s">
         <v>748</v>
       </c>
@@ -37045,6 +39079,9 @@
       <c r="H834" t="s">
         <v>55</v>
       </c>
+      <c r="I834" t="s">
+        <v>2279</v>
+      </c>
       <c r="J834" t="s">
         <v>748</v>
       </c>
@@ -37074,6 +39111,9 @@
       <c r="H835" t="s">
         <v>55</v>
       </c>
+      <c r="I835" t="s">
+        <v>2279</v>
+      </c>
       <c r="J835" t="s">
         <v>1023</v>
       </c>
@@ -37103,6 +39143,9 @@
       <c r="H836" t="s">
         <v>55</v>
       </c>
+      <c r="I836" t="s">
+        <v>2279</v>
+      </c>
       <c r="J836" t="s">
         <v>748</v>
       </c>
@@ -37132,6 +39175,9 @@
       <c r="H837" t="s">
         <v>55</v>
       </c>
+      <c r="I837" t="s">
+        <v>2279</v>
+      </c>
       <c r="J837" t="s">
         <v>748</v>
       </c>
@@ -37161,6 +39207,9 @@
       <c r="H838" t="s">
         <v>55</v>
       </c>
+      <c r="I838" t="s">
+        <v>2279</v>
+      </c>
       <c r="J838" t="s">
         <v>748</v>
       </c>
@@ -37190,6 +39239,9 @@
       <c r="H839" t="s">
         <v>55</v>
       </c>
+      <c r="I839" t="s">
+        <v>2279</v>
+      </c>
       <c r="J839" t="s">
         <v>748</v>
       </c>
@@ -37219,6 +39271,9 @@
       <c r="H840" t="s">
         <v>55</v>
       </c>
+      <c r="I840" t="s">
+        <v>2279</v>
+      </c>
       <c r="J840" t="s">
         <v>748</v>
       </c>
@@ -37248,6 +39303,9 @@
       <c r="H841" t="s">
         <v>55</v>
       </c>
+      <c r="I841" t="s">
+        <v>2279</v>
+      </c>
       <c r="J841" t="s">
         <v>748</v>
       </c>
@@ -37277,6 +39335,9 @@
       <c r="H842" t="s">
         <v>55</v>
       </c>
+      <c r="I842" t="s">
+        <v>2279</v>
+      </c>
       <c r="J842" t="s">
         <v>748</v>
       </c>
@@ -37306,6 +39367,9 @@
       <c r="H843" t="s">
         <v>55</v>
       </c>
+      <c r="I843" t="s">
+        <v>2279</v>
+      </c>
       <c r="J843" t="s">
         <v>1023</v>
       </c>
@@ -37335,6 +39399,9 @@
       <c r="H844" t="s">
         <v>55</v>
       </c>
+      <c r="I844" t="s">
+        <v>2279</v>
+      </c>
       <c r="J844" t="s">
         <v>1023</v>
       </c>
@@ -37364,6 +39431,9 @@
       <c r="H845" t="s">
         <v>55</v>
       </c>
+      <c r="I845" t="s">
+        <v>2279</v>
+      </c>
       <c r="J845" t="s">
         <v>748</v>
       </c>
@@ -37393,6 +39463,9 @@
       <c r="H846" t="s">
         <v>55</v>
       </c>
+      <c r="I846" t="s">
+        <v>2279</v>
+      </c>
       <c r="J846" t="s">
         <v>1023</v>
       </c>
@@ -37422,6 +39495,9 @@
       <c r="H847" t="s">
         <v>55</v>
       </c>
+      <c r="I847" t="s">
+        <v>2279</v>
+      </c>
       <c r="J847" t="s">
         <v>748</v>
       </c>
@@ -37450,6 +39526,9 @@
       </c>
       <c r="H848" t="s">
         <v>55</v>
+      </c>
+      <c r="I848" t="s">
+        <v>2279</v>
       </c>
       <c r="J848" t="s">
         <v>748</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7094" uniqueCount="2280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7907" uniqueCount="2280">
   <si>
     <t>สาขาสี่พระยา</t>
   </si>
@@ -7200,8 +7200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M848"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="H164" sqref="H164"/>
+    <sheetView tabSelected="1" topLeftCell="B569" workbookViewId="0">
+      <selection activeCell="E578" sqref="E578:G848"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30884,6 +30884,15 @@
       <c r="D578" t="s">
         <v>1</v>
       </c>
+      <c r="E578" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F578" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G578" t="s">
+        <v>2279</v>
+      </c>
       <c r="H578" t="s">
         <v>55</v>
       </c>
@@ -30916,6 +30925,15 @@
       <c r="D579" t="s">
         <v>1</v>
       </c>
+      <c r="E579" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F579" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G579" t="s">
+        <v>2279</v>
+      </c>
       <c r="H579" t="s">
         <v>55</v>
       </c>
@@ -30948,6 +30966,15 @@
       <c r="D580" t="s">
         <v>1</v>
       </c>
+      <c r="E580" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F580" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G580" t="s">
+        <v>2279</v>
+      </c>
       <c r="H580" t="s">
         <v>55</v>
       </c>
@@ -30980,6 +31007,15 @@
       <c r="D581" t="s">
         <v>1</v>
       </c>
+      <c r="E581" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F581" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G581" t="s">
+        <v>2279</v>
+      </c>
       <c r="H581" t="s">
         <v>55</v>
       </c>
@@ -31012,6 +31048,15 @@
       <c r="D582" t="s">
         <v>104</v>
       </c>
+      <c r="E582" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F582" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G582" t="s">
+        <v>2279</v>
+      </c>
       <c r="H582" t="s">
         <v>55</v>
       </c>
@@ -31044,6 +31089,15 @@
       <c r="D583" t="s">
         <v>1</v>
       </c>
+      <c r="E583" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F583" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G583" t="s">
+        <v>2279</v>
+      </c>
       <c r="H583" t="s">
         <v>55</v>
       </c>
@@ -31076,6 +31130,15 @@
       <c r="D584" t="s">
         <v>1</v>
       </c>
+      <c r="E584" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F584" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G584" t="s">
+        <v>2279</v>
+      </c>
       <c r="H584" t="s">
         <v>55</v>
       </c>
@@ -31108,6 +31171,15 @@
       <c r="D585" t="s">
         <v>111</v>
       </c>
+      <c r="E585" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F585" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G585" t="s">
+        <v>2279</v>
+      </c>
       <c r="H585" t="s">
         <v>55</v>
       </c>
@@ -31140,6 +31212,15 @@
       <c r="D586" t="s">
         <v>1</v>
       </c>
+      <c r="E586" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F586" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G586" t="s">
+        <v>2279</v>
+      </c>
       <c r="H586" t="s">
         <v>55</v>
       </c>
@@ -31172,6 +31253,15 @@
       <c r="D587" t="s">
         <v>1</v>
       </c>
+      <c r="E587" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F587" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G587" t="s">
+        <v>2279</v>
+      </c>
       <c r="H587" t="s">
         <v>55</v>
       </c>
@@ -31204,6 +31294,15 @@
       <c r="D588" t="s">
         <v>240</v>
       </c>
+      <c r="E588" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F588" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G588" t="s">
+        <v>2279</v>
+      </c>
       <c r="H588" t="s">
         <v>55</v>
       </c>
@@ -31236,6 +31335,15 @@
       <c r="D589" t="s">
         <v>1</v>
       </c>
+      <c r="E589" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F589" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G589" t="s">
+        <v>2279</v>
+      </c>
       <c r="H589" t="s">
         <v>55</v>
       </c>
@@ -31268,6 +31376,15 @@
       <c r="D590" t="s">
         <v>1</v>
       </c>
+      <c r="E590" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F590" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G590" t="s">
+        <v>2279</v>
+      </c>
       <c r="H590" t="s">
         <v>55</v>
       </c>
@@ -31300,6 +31417,15 @@
       <c r="D591" t="s">
         <v>1</v>
       </c>
+      <c r="E591" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F591" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G591" t="s">
+        <v>2279</v>
+      </c>
       <c r="H591" t="s">
         <v>55</v>
       </c>
@@ -31332,6 +31458,15 @@
       <c r="D592" t="s">
         <v>1</v>
       </c>
+      <c r="E592" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F592" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G592" t="s">
+        <v>2279</v>
+      </c>
       <c r="H592" t="s">
         <v>55</v>
       </c>
@@ -31364,6 +31499,15 @@
       <c r="D593" t="s">
         <v>1</v>
       </c>
+      <c r="E593" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F593" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G593" t="s">
+        <v>2279</v>
+      </c>
       <c r="H593" t="s">
         <v>55</v>
       </c>
@@ -31396,6 +31540,15 @@
       <c r="D594" t="s">
         <v>1</v>
       </c>
+      <c r="E594" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F594" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G594" t="s">
+        <v>2279</v>
+      </c>
       <c r="H594" t="s">
         <v>55</v>
       </c>
@@ -31428,6 +31581,15 @@
       <c r="D595" t="s">
         <v>1</v>
       </c>
+      <c r="E595" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F595" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G595" t="s">
+        <v>2279</v>
+      </c>
       <c r="H595" t="s">
         <v>55</v>
       </c>
@@ -31460,6 +31622,15 @@
       <c r="D596" t="s">
         <v>1</v>
       </c>
+      <c r="E596" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F596" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G596" t="s">
+        <v>2279</v>
+      </c>
       <c r="H596" t="s">
         <v>55</v>
       </c>
@@ -31492,6 +31663,15 @@
       <c r="D597" t="s">
         <v>1</v>
       </c>
+      <c r="E597" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F597" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G597" t="s">
+        <v>2279</v>
+      </c>
       <c r="H597" t="s">
         <v>55</v>
       </c>
@@ -31524,6 +31704,15 @@
       <c r="D598" t="s">
         <v>1</v>
       </c>
+      <c r="E598" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F598" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G598" t="s">
+        <v>2279</v>
+      </c>
       <c r="H598" t="s">
         <v>55</v>
       </c>
@@ -31556,6 +31745,15 @@
       <c r="D599" t="s">
         <v>1</v>
       </c>
+      <c r="E599" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F599" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G599" t="s">
+        <v>2279</v>
+      </c>
       <c r="H599" t="s">
         <v>55</v>
       </c>
@@ -31588,6 +31786,15 @@
       <c r="D600" t="s">
         <v>1</v>
       </c>
+      <c r="E600" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F600" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G600" t="s">
+        <v>2279</v>
+      </c>
       <c r="H600" t="s">
         <v>55</v>
       </c>
@@ -31620,6 +31827,15 @@
       <c r="D601" t="s">
         <v>1</v>
       </c>
+      <c r="E601" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F601" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G601" t="s">
+        <v>2279</v>
+      </c>
       <c r="H601" t="s">
         <v>55</v>
       </c>
@@ -31652,6 +31868,15 @@
       <c r="D602" t="s">
         <v>1</v>
       </c>
+      <c r="E602" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F602" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G602" t="s">
+        <v>2279</v>
+      </c>
       <c r="H602" t="s">
         <v>55</v>
       </c>
@@ -31684,6 +31909,15 @@
       <c r="D603" t="s">
         <v>1</v>
       </c>
+      <c r="E603" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F603" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G603" t="s">
+        <v>2279</v>
+      </c>
       <c r="H603" t="s">
         <v>55</v>
       </c>
@@ -31716,6 +31950,15 @@
       <c r="D604" t="s">
         <v>1</v>
       </c>
+      <c r="E604" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F604" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G604" t="s">
+        <v>2279</v>
+      </c>
       <c r="H604" t="s">
         <v>55</v>
       </c>
@@ -31748,6 +31991,15 @@
       <c r="D605" t="s">
         <v>1</v>
       </c>
+      <c r="E605" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F605" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G605" t="s">
+        <v>2279</v>
+      </c>
       <c r="H605" t="s">
         <v>55</v>
       </c>
@@ -31780,6 +32032,15 @@
       <c r="D606" t="s">
         <v>1</v>
       </c>
+      <c r="E606" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F606" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G606" t="s">
+        <v>2279</v>
+      </c>
       <c r="H606" t="s">
         <v>55</v>
       </c>
@@ -31812,6 +32073,15 @@
       <c r="D607" t="s">
         <v>1</v>
       </c>
+      <c r="E607" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F607" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G607" t="s">
+        <v>2279</v>
+      </c>
       <c r="H607" t="s">
         <v>55</v>
       </c>
@@ -31844,6 +32114,15 @@
       <c r="D608" t="s">
         <v>1</v>
       </c>
+      <c r="E608" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F608" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G608" t="s">
+        <v>2279</v>
+      </c>
       <c r="H608" t="s">
         <v>55</v>
       </c>
@@ -31876,6 +32155,15 @@
       <c r="D609" t="s">
         <v>1</v>
       </c>
+      <c r="E609" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F609" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G609" t="s">
+        <v>2279</v>
+      </c>
       <c r="H609" t="s">
         <v>55</v>
       </c>
@@ -31908,6 +32196,15 @@
       <c r="D610" t="s">
         <v>1</v>
       </c>
+      <c r="E610" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F610" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G610" t="s">
+        <v>2279</v>
+      </c>
       <c r="H610" t="s">
         <v>55</v>
       </c>
@@ -31940,6 +32237,15 @@
       <c r="D611" t="s">
         <v>1</v>
       </c>
+      <c r="E611" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F611" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G611" t="s">
+        <v>2279</v>
+      </c>
       <c r="H611" t="s">
         <v>55</v>
       </c>
@@ -31972,6 +32278,15 @@
       <c r="D612" t="s">
         <v>1</v>
       </c>
+      <c r="E612" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F612" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G612" t="s">
+        <v>2279</v>
+      </c>
       <c r="H612" t="s">
         <v>55</v>
       </c>
@@ -32004,6 +32319,15 @@
       <c r="D613" t="s">
         <v>1</v>
       </c>
+      <c r="E613" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F613" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G613" t="s">
+        <v>2279</v>
+      </c>
       <c r="H613" t="s">
         <v>55</v>
       </c>
@@ -32036,6 +32360,15 @@
       <c r="D614" t="s">
         <v>1</v>
       </c>
+      <c r="E614" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F614" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G614" t="s">
+        <v>2279</v>
+      </c>
       <c r="H614" t="s">
         <v>55</v>
       </c>
@@ -32068,6 +32401,15 @@
       <c r="D615" t="s">
         <v>1</v>
       </c>
+      <c r="E615" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F615" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G615" t="s">
+        <v>2279</v>
+      </c>
       <c r="H615" t="s">
         <v>55</v>
       </c>
@@ -32100,6 +32442,15 @@
       <c r="D616" t="s">
         <v>1</v>
       </c>
+      <c r="E616" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F616" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G616" t="s">
+        <v>2279</v>
+      </c>
       <c r="H616" t="s">
         <v>55</v>
       </c>
@@ -32132,6 +32483,15 @@
       <c r="D617" t="s">
         <v>1</v>
       </c>
+      <c r="E617" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F617" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G617" t="s">
+        <v>2279</v>
+      </c>
       <c r="H617" t="s">
         <v>55</v>
       </c>
@@ -32164,6 +32524,15 @@
       <c r="D618" t="s">
         <v>1</v>
       </c>
+      <c r="E618" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F618" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G618" t="s">
+        <v>2279</v>
+      </c>
       <c r="H618" t="s">
         <v>55</v>
       </c>
@@ -32196,6 +32565,15 @@
       <c r="D619" t="s">
         <v>1</v>
       </c>
+      <c r="E619" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F619" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G619" t="s">
+        <v>2279</v>
+      </c>
       <c r="H619" t="s">
         <v>55</v>
       </c>
@@ -32228,6 +32606,15 @@
       <c r="D620" t="s">
         <v>1</v>
       </c>
+      <c r="E620" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F620" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G620" t="s">
+        <v>2279</v>
+      </c>
       <c r="H620" t="s">
         <v>55</v>
       </c>
@@ -32260,6 +32647,15 @@
       <c r="D621" t="s">
         <v>1</v>
       </c>
+      <c r="E621" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F621" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G621" t="s">
+        <v>2279</v>
+      </c>
       <c r="H621" t="s">
         <v>55</v>
       </c>
@@ -32292,6 +32688,15 @@
       <c r="D622" t="s">
         <v>1</v>
       </c>
+      <c r="E622" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F622" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G622" t="s">
+        <v>2279</v>
+      </c>
       <c r="H622" t="s">
         <v>55</v>
       </c>
@@ -32324,6 +32729,15 @@
       <c r="D623" t="s">
         <v>1</v>
       </c>
+      <c r="E623" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F623" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G623" t="s">
+        <v>2279</v>
+      </c>
       <c r="H623" t="s">
         <v>55</v>
       </c>
@@ -32356,6 +32770,15 @@
       <c r="D624" t="s">
         <v>1</v>
       </c>
+      <c r="E624" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F624" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G624" t="s">
+        <v>2279</v>
+      </c>
       <c r="H624" t="s">
         <v>55</v>
       </c>
@@ -32388,6 +32811,15 @@
       <c r="D625" t="s">
         <v>1</v>
       </c>
+      <c r="E625" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F625" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G625" t="s">
+        <v>2279</v>
+      </c>
       <c r="H625" t="s">
         <v>55</v>
       </c>
@@ -32420,6 +32852,15 @@
       <c r="D626" t="s">
         <v>1</v>
       </c>
+      <c r="E626" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F626" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G626" t="s">
+        <v>2279</v>
+      </c>
       <c r="H626" t="s">
         <v>55</v>
       </c>
@@ -32452,6 +32893,15 @@
       <c r="D627" t="s">
         <v>1</v>
       </c>
+      <c r="E627" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F627" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G627" t="s">
+        <v>2279</v>
+      </c>
       <c r="H627" t="s">
         <v>55</v>
       </c>
@@ -32484,6 +32934,15 @@
       <c r="D628" t="s">
         <v>1</v>
       </c>
+      <c r="E628" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F628" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G628" t="s">
+        <v>2279</v>
+      </c>
       <c r="H628" t="s">
         <v>55</v>
       </c>
@@ -32516,6 +32975,15 @@
       <c r="D629" t="s">
         <v>104</v>
       </c>
+      <c r="E629" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F629" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G629" t="s">
+        <v>2279</v>
+      </c>
       <c r="H629" t="s">
         <v>55</v>
       </c>
@@ -32548,6 +33016,15 @@
       <c r="D630" t="s">
         <v>1</v>
       </c>
+      <c r="E630" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F630" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G630" t="s">
+        <v>2279</v>
+      </c>
       <c r="H630" t="s">
         <v>55</v>
       </c>
@@ -32580,6 +33057,15 @@
       <c r="D631" t="s">
         <v>104</v>
       </c>
+      <c r="E631" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F631" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G631" t="s">
+        <v>2279</v>
+      </c>
       <c r="H631" t="s">
         <v>55</v>
       </c>
@@ -32612,6 +33098,15 @@
       <c r="D632" t="s">
         <v>1</v>
       </c>
+      <c r="E632" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F632" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G632" t="s">
+        <v>2279</v>
+      </c>
       <c r="H632" t="s">
         <v>55</v>
       </c>
@@ -32644,6 +33139,15 @@
       <c r="D633" t="s">
         <v>1</v>
       </c>
+      <c r="E633" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F633" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G633" t="s">
+        <v>2279</v>
+      </c>
       <c r="H633" t="s">
         <v>55</v>
       </c>
@@ -32676,6 +33180,15 @@
       <c r="D634" t="s">
         <v>1</v>
       </c>
+      <c r="E634" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F634" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G634" t="s">
+        <v>2279</v>
+      </c>
       <c r="H634" t="s">
         <v>55</v>
       </c>
@@ -32708,6 +33221,15 @@
       <c r="D635" t="s">
         <v>1</v>
       </c>
+      <c r="E635" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F635" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G635" t="s">
+        <v>2279</v>
+      </c>
       <c r="H635" t="s">
         <v>55</v>
       </c>
@@ -32740,6 +33262,15 @@
       <c r="D636" t="s">
         <v>1</v>
       </c>
+      <c r="E636" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F636" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G636" t="s">
+        <v>2279</v>
+      </c>
       <c r="H636" t="s">
         <v>55</v>
       </c>
@@ -32772,6 +33303,15 @@
       <c r="D637" t="s">
         <v>1</v>
       </c>
+      <c r="E637" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F637" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G637" t="s">
+        <v>2279</v>
+      </c>
       <c r="H637" t="s">
         <v>55</v>
       </c>
@@ -32804,6 +33344,15 @@
       <c r="D638" t="s">
         <v>1</v>
       </c>
+      <c r="E638" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F638" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G638" t="s">
+        <v>2279</v>
+      </c>
       <c r="H638" t="s">
         <v>55</v>
       </c>
@@ -32836,6 +33385,15 @@
       <c r="D639" t="s">
         <v>1</v>
       </c>
+      <c r="E639" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F639" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G639" t="s">
+        <v>2279</v>
+      </c>
       <c r="H639" t="s">
         <v>55</v>
       </c>
@@ -32868,6 +33426,15 @@
       <c r="D640" t="s">
         <v>1</v>
       </c>
+      <c r="E640" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F640" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G640" t="s">
+        <v>2279</v>
+      </c>
       <c r="H640" t="s">
         <v>55</v>
       </c>
@@ -32900,6 +33467,15 @@
       <c r="D641" t="s">
         <v>111</v>
       </c>
+      <c r="E641" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F641" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G641" t="s">
+        <v>2279</v>
+      </c>
       <c r="H641" t="s">
         <v>55</v>
       </c>
@@ -32932,6 +33508,15 @@
       <c r="D642" t="s">
         <v>111</v>
       </c>
+      <c r="E642" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F642" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G642" t="s">
+        <v>2279</v>
+      </c>
       <c r="H642" t="s">
         <v>55</v>
       </c>
@@ -32964,6 +33549,15 @@
       <c r="D643" t="s">
         <v>1</v>
       </c>
+      <c r="E643" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F643" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G643" t="s">
+        <v>2279</v>
+      </c>
       <c r="H643" t="s">
         <v>55</v>
       </c>
@@ -32996,6 +33590,15 @@
       <c r="D644" t="s">
         <v>1</v>
       </c>
+      <c r="E644" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F644" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G644" t="s">
+        <v>2279</v>
+      </c>
       <c r="H644" t="s">
         <v>55</v>
       </c>
@@ -33028,6 +33631,15 @@
       <c r="D645" t="s">
         <v>104</v>
       </c>
+      <c r="E645" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F645" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G645" t="s">
+        <v>2279</v>
+      </c>
       <c r="H645" t="s">
         <v>55</v>
       </c>
@@ -33060,6 +33672,15 @@
       <c r="D646" t="s">
         <v>240</v>
       </c>
+      <c r="E646" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F646" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G646" t="s">
+        <v>2279</v>
+      </c>
       <c r="H646" t="s">
         <v>55</v>
       </c>
@@ -33092,6 +33713,15 @@
       <c r="D647" t="s">
         <v>1</v>
       </c>
+      <c r="E647" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F647" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G647" t="s">
+        <v>2279</v>
+      </c>
       <c r="H647" t="s">
         <v>55</v>
       </c>
@@ -33124,6 +33754,15 @@
       <c r="D648" t="s">
         <v>104</v>
       </c>
+      <c r="E648" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F648" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G648" t="s">
+        <v>2279</v>
+      </c>
       <c r="H648" t="s">
         <v>55</v>
       </c>
@@ -33156,6 +33795,15 @@
       <c r="D649" t="s">
         <v>1</v>
       </c>
+      <c r="E649" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F649" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G649" t="s">
+        <v>2279</v>
+      </c>
       <c r="H649" t="s">
         <v>55</v>
       </c>
@@ -33188,6 +33836,15 @@
       <c r="D650" t="s">
         <v>1</v>
       </c>
+      <c r="E650" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F650" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G650" t="s">
+        <v>2279</v>
+      </c>
       <c r="H650" t="s">
         <v>55</v>
       </c>
@@ -33220,6 +33877,15 @@
       <c r="D651" t="s">
         <v>1</v>
       </c>
+      <c r="E651" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F651" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G651" t="s">
+        <v>2279</v>
+      </c>
       <c r="H651" t="s">
         <v>55</v>
       </c>
@@ -33252,6 +33918,15 @@
       <c r="D652" t="s">
         <v>210</v>
       </c>
+      <c r="E652" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F652" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G652" t="s">
+        <v>2279</v>
+      </c>
       <c r="H652" t="s">
         <v>55</v>
       </c>
@@ -33284,6 +33959,15 @@
       <c r="D653" t="s">
         <v>1</v>
       </c>
+      <c r="E653" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F653" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G653" t="s">
+        <v>2279</v>
+      </c>
       <c r="H653" t="s">
         <v>55</v>
       </c>
@@ -33316,6 +34000,15 @@
       <c r="D654" t="s">
         <v>1</v>
       </c>
+      <c r="E654" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F654" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G654" t="s">
+        <v>2279</v>
+      </c>
       <c r="H654" t="s">
         <v>55</v>
       </c>
@@ -33348,6 +34041,15 @@
       <c r="D655" t="s">
         <v>1</v>
       </c>
+      <c r="E655" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F655" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G655" t="s">
+        <v>2279</v>
+      </c>
       <c r="H655" t="s">
         <v>55</v>
       </c>
@@ -33380,6 +34082,15 @@
       <c r="D656" t="s">
         <v>210</v>
       </c>
+      <c r="E656" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F656" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G656" t="s">
+        <v>2279</v>
+      </c>
       <c r="H656" t="s">
         <v>55</v>
       </c>
@@ -33412,6 +34123,15 @@
       <c r="D657" t="s">
         <v>1</v>
       </c>
+      <c r="E657" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F657" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G657" t="s">
+        <v>2279</v>
+      </c>
       <c r="H657" t="s">
         <v>55</v>
       </c>
@@ -33444,6 +34164,15 @@
       <c r="D658" t="s">
         <v>1</v>
       </c>
+      <c r="E658" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F658" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G658" t="s">
+        <v>2279</v>
+      </c>
       <c r="H658" t="s">
         <v>55</v>
       </c>
@@ -33476,6 +34205,15 @@
       <c r="D659" t="s">
         <v>1</v>
       </c>
+      <c r="E659" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F659" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G659" t="s">
+        <v>2279</v>
+      </c>
       <c r="H659" t="s">
         <v>55</v>
       </c>
@@ -33508,6 +34246,15 @@
       <c r="D660" t="s">
         <v>1</v>
       </c>
+      <c r="E660" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F660" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G660" t="s">
+        <v>2279</v>
+      </c>
       <c r="H660" t="s">
         <v>55</v>
       </c>
@@ -33540,6 +34287,15 @@
       <c r="D661" t="s">
         <v>1</v>
       </c>
+      <c r="E661" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F661" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G661" t="s">
+        <v>2279</v>
+      </c>
       <c r="H661" t="s">
         <v>55</v>
       </c>
@@ -33572,6 +34328,15 @@
       <c r="D662" t="s">
         <v>111</v>
       </c>
+      <c r="E662" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F662" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G662" t="s">
+        <v>2279</v>
+      </c>
       <c r="H662" t="s">
         <v>55</v>
       </c>
@@ -33604,6 +34369,15 @@
       <c r="D663" t="s">
         <v>1</v>
       </c>
+      <c r="E663" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F663" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G663" t="s">
+        <v>2279</v>
+      </c>
       <c r="H663" t="s">
         <v>55</v>
       </c>
@@ -33636,6 +34410,15 @@
       <c r="D664" t="s">
         <v>111</v>
       </c>
+      <c r="E664" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F664" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G664" t="s">
+        <v>2279</v>
+      </c>
       <c r="H664" t="s">
         <v>55</v>
       </c>
@@ -33668,6 +34451,15 @@
       <c r="D665" t="s">
         <v>266</v>
       </c>
+      <c r="E665" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F665" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G665" t="s">
+        <v>2279</v>
+      </c>
       <c r="H665" t="s">
         <v>55</v>
       </c>
@@ -33700,6 +34492,15 @@
       <c r="D666" t="s">
         <v>1</v>
       </c>
+      <c r="E666" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F666" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G666" t="s">
+        <v>2279</v>
+      </c>
       <c r="H666" t="s">
         <v>55</v>
       </c>
@@ -33732,6 +34533,15 @@
       <c r="D667" t="s">
         <v>1</v>
       </c>
+      <c r="E667" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F667" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G667" t="s">
+        <v>2279</v>
+      </c>
       <c r="H667" t="s">
         <v>55</v>
       </c>
@@ -33764,6 +34574,15 @@
       <c r="D668" t="s">
         <v>1</v>
       </c>
+      <c r="E668" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F668" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G668" t="s">
+        <v>2279</v>
+      </c>
       <c r="H668" t="s">
         <v>55</v>
       </c>
@@ -33796,6 +34615,15 @@
       <c r="D669" t="s">
         <v>1</v>
       </c>
+      <c r="E669" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F669" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G669" t="s">
+        <v>2279</v>
+      </c>
       <c r="H669" t="s">
         <v>55</v>
       </c>
@@ -33828,6 +34656,15 @@
       <c r="D670" t="s">
         <v>1</v>
       </c>
+      <c r="E670" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F670" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G670" t="s">
+        <v>2279</v>
+      </c>
       <c r="H670" t="s">
         <v>55</v>
       </c>
@@ -33860,6 +34697,15 @@
       <c r="D671" t="s">
         <v>1</v>
       </c>
+      <c r="E671" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F671" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G671" t="s">
+        <v>2279</v>
+      </c>
       <c r="H671" t="s">
         <v>55</v>
       </c>
@@ -33892,6 +34738,15 @@
       <c r="D672" t="s">
         <v>1</v>
       </c>
+      <c r="E672" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F672" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G672" t="s">
+        <v>2279</v>
+      </c>
       <c r="H672" t="s">
         <v>55</v>
       </c>
@@ -33924,6 +34779,15 @@
       <c r="D673" t="s">
         <v>1</v>
       </c>
+      <c r="E673" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F673" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G673" t="s">
+        <v>2279</v>
+      </c>
       <c r="H673" t="s">
         <v>55</v>
       </c>
@@ -33956,6 +34820,15 @@
       <c r="D674" t="s">
         <v>1</v>
       </c>
+      <c r="E674" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F674" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G674" t="s">
+        <v>2279</v>
+      </c>
       <c r="H674" t="s">
         <v>55</v>
       </c>
@@ -33988,6 +34861,15 @@
       <c r="D675" t="s">
         <v>1</v>
       </c>
+      <c r="E675" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F675" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G675" t="s">
+        <v>2279</v>
+      </c>
       <c r="H675" t="s">
         <v>55</v>
       </c>
@@ -34020,6 +34902,15 @@
       <c r="D676" t="s">
         <v>1</v>
       </c>
+      <c r="E676" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F676" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G676" t="s">
+        <v>2279</v>
+      </c>
       <c r="H676" t="s">
         <v>55</v>
       </c>
@@ -34052,6 +34943,15 @@
       <c r="D677" t="s">
         <v>1</v>
       </c>
+      <c r="E677" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F677" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G677" t="s">
+        <v>2279</v>
+      </c>
       <c r="H677" t="s">
         <v>55</v>
       </c>
@@ -34084,6 +34984,15 @@
       <c r="D678" t="s">
         <v>1</v>
       </c>
+      <c r="E678" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F678" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G678" t="s">
+        <v>2279</v>
+      </c>
       <c r="H678" t="s">
         <v>55</v>
       </c>
@@ -34116,6 +35025,15 @@
       <c r="D679" t="s">
         <v>1</v>
       </c>
+      <c r="E679" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F679" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G679" t="s">
+        <v>2279</v>
+      </c>
       <c r="H679" t="s">
         <v>55</v>
       </c>
@@ -34148,6 +35066,15 @@
       <c r="D680" t="s">
         <v>111</v>
       </c>
+      <c r="E680" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F680" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G680" t="s">
+        <v>2279</v>
+      </c>
       <c r="H680" t="s">
         <v>55</v>
       </c>
@@ -34180,6 +35107,15 @@
       <c r="D681" t="s">
         <v>1</v>
       </c>
+      <c r="E681" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F681" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G681" t="s">
+        <v>2279</v>
+      </c>
       <c r="H681" t="s">
         <v>55</v>
       </c>
@@ -34212,6 +35148,15 @@
       <c r="D682" t="s">
         <v>1</v>
       </c>
+      <c r="E682" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F682" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G682" t="s">
+        <v>2279</v>
+      </c>
       <c r="H682" t="s">
         <v>55</v>
       </c>
@@ -34244,6 +35189,15 @@
       <c r="D683" t="s">
         <v>1</v>
       </c>
+      <c r="E683" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F683" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G683" t="s">
+        <v>2279</v>
+      </c>
       <c r="H683" t="s">
         <v>55</v>
       </c>
@@ -34276,6 +35230,15 @@
       <c r="D684" t="s">
         <v>1</v>
       </c>
+      <c r="E684" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F684" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G684" t="s">
+        <v>2279</v>
+      </c>
       <c r="H684" t="s">
         <v>55</v>
       </c>
@@ -34308,6 +35271,15 @@
       <c r="D685" t="s">
         <v>1</v>
       </c>
+      <c r="E685" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F685" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G685" t="s">
+        <v>2279</v>
+      </c>
       <c r="H685" t="s">
         <v>55</v>
       </c>
@@ -34340,6 +35312,15 @@
       <c r="D686" t="s">
         <v>1</v>
       </c>
+      <c r="E686" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F686" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G686" t="s">
+        <v>2279</v>
+      </c>
       <c r="H686" t="s">
         <v>55</v>
       </c>
@@ -34372,6 +35353,15 @@
       <c r="D687" t="s">
         <v>1</v>
       </c>
+      <c r="E687" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F687" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G687" t="s">
+        <v>2279</v>
+      </c>
       <c r="H687" t="s">
         <v>55</v>
       </c>
@@ -34404,6 +35394,15 @@
       <c r="D688" t="s">
         <v>210</v>
       </c>
+      <c r="E688" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F688" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G688" t="s">
+        <v>2279</v>
+      </c>
       <c r="H688" t="s">
         <v>55</v>
       </c>
@@ -34436,6 +35435,15 @@
       <c r="D689" t="s">
         <v>210</v>
       </c>
+      <c r="E689" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F689" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G689" t="s">
+        <v>2279</v>
+      </c>
       <c r="H689" t="s">
         <v>55</v>
       </c>
@@ -34468,6 +35476,15 @@
       <c r="D690" t="s">
         <v>1</v>
       </c>
+      <c r="E690" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F690" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G690" t="s">
+        <v>2279</v>
+      </c>
       <c r="H690" t="s">
         <v>55</v>
       </c>
@@ -34500,6 +35517,15 @@
       <c r="D691" t="s">
         <v>1</v>
       </c>
+      <c r="E691" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F691" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G691" t="s">
+        <v>2279</v>
+      </c>
       <c r="H691" t="s">
         <v>55</v>
       </c>
@@ -34532,6 +35558,15 @@
       <c r="D692" t="s">
         <v>1</v>
       </c>
+      <c r="E692" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F692" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G692" t="s">
+        <v>2279</v>
+      </c>
       <c r="H692" t="s">
         <v>55</v>
       </c>
@@ -34564,6 +35599,15 @@
       <c r="D693" t="s">
         <v>1</v>
       </c>
+      <c r="E693" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F693" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G693" t="s">
+        <v>2279</v>
+      </c>
       <c r="H693" t="s">
         <v>55</v>
       </c>
@@ -34596,6 +35640,15 @@
       <c r="D694" t="s">
         <v>1</v>
       </c>
+      <c r="E694" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F694" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G694" t="s">
+        <v>2279</v>
+      </c>
       <c r="H694" t="s">
         <v>55</v>
       </c>
@@ -34628,6 +35681,15 @@
       <c r="D695" t="s">
         <v>1</v>
       </c>
+      <c r="E695" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F695" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G695" t="s">
+        <v>2279</v>
+      </c>
       <c r="H695" t="s">
         <v>55</v>
       </c>
@@ -34660,6 +35722,15 @@
       <c r="D696" t="s">
         <v>1</v>
       </c>
+      <c r="E696" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F696" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G696" t="s">
+        <v>2279</v>
+      </c>
       <c r="H696" t="s">
         <v>55</v>
       </c>
@@ -34692,6 +35763,15 @@
       <c r="D697" t="s">
         <v>1</v>
       </c>
+      <c r="E697" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F697" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G697" t="s">
+        <v>2279</v>
+      </c>
       <c r="H697" t="s">
         <v>55</v>
       </c>
@@ -34724,6 +35804,15 @@
       <c r="D698" t="s">
         <v>1</v>
       </c>
+      <c r="E698" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F698" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G698" t="s">
+        <v>2279</v>
+      </c>
       <c r="H698" t="s">
         <v>55</v>
       </c>
@@ -34756,6 +35845,15 @@
       <c r="D699" t="s">
         <v>1</v>
       </c>
+      <c r="E699" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F699" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G699" t="s">
+        <v>2279</v>
+      </c>
       <c r="H699" t="s">
         <v>55</v>
       </c>
@@ -34788,6 +35886,15 @@
       <c r="D700" t="s">
         <v>1</v>
       </c>
+      <c r="E700" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F700" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G700" t="s">
+        <v>2279</v>
+      </c>
       <c r="H700" t="s">
         <v>55</v>
       </c>
@@ -34820,6 +35927,15 @@
       <c r="D701" t="s">
         <v>1</v>
       </c>
+      <c r="E701" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F701" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G701" t="s">
+        <v>2279</v>
+      </c>
       <c r="H701" t="s">
         <v>55</v>
       </c>
@@ -34852,6 +35968,15 @@
       <c r="D702" t="s">
         <v>1</v>
       </c>
+      <c r="E702" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F702" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G702" t="s">
+        <v>2279</v>
+      </c>
       <c r="H702" t="s">
         <v>55</v>
       </c>
@@ -34884,6 +36009,15 @@
       <c r="D703" t="s">
         <v>1</v>
       </c>
+      <c r="E703" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F703" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G703" t="s">
+        <v>2279</v>
+      </c>
       <c r="H703" t="s">
         <v>55</v>
       </c>
@@ -34916,6 +36050,15 @@
       <c r="D704" t="s">
         <v>1</v>
       </c>
+      <c r="E704" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F704" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G704" t="s">
+        <v>2279</v>
+      </c>
       <c r="H704" t="s">
         <v>55</v>
       </c>
@@ -34948,6 +36091,15 @@
       <c r="D705" t="s">
         <v>104</v>
       </c>
+      <c r="E705" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F705" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G705" t="s">
+        <v>2279</v>
+      </c>
       <c r="H705" t="s">
         <v>55</v>
       </c>
@@ -34980,6 +36132,15 @@
       <c r="D706" t="s">
         <v>1</v>
       </c>
+      <c r="E706" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F706" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G706" t="s">
+        <v>2279</v>
+      </c>
       <c r="H706" t="s">
         <v>55</v>
       </c>
@@ -35012,6 +36173,15 @@
       <c r="D707" t="s">
         <v>1</v>
       </c>
+      <c r="E707" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F707" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G707" t="s">
+        <v>2279</v>
+      </c>
       <c r="H707" t="s">
         <v>55</v>
       </c>
@@ -35044,6 +36214,15 @@
       <c r="D708" t="s">
         <v>1</v>
       </c>
+      <c r="E708" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F708" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G708" t="s">
+        <v>2279</v>
+      </c>
       <c r="H708" t="s">
         <v>55</v>
       </c>
@@ -35076,6 +36255,15 @@
       <c r="D709" t="s">
         <v>1</v>
       </c>
+      <c r="E709" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F709" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G709" t="s">
+        <v>2279</v>
+      </c>
       <c r="H709" t="s">
         <v>55</v>
       </c>
@@ -35108,6 +36296,15 @@
       <c r="D710" t="s">
         <v>1</v>
       </c>
+      <c r="E710" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F710" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G710" t="s">
+        <v>2279</v>
+      </c>
       <c r="H710" t="s">
         <v>55</v>
       </c>
@@ -35140,6 +36337,15 @@
       <c r="D711" t="s">
         <v>1</v>
       </c>
+      <c r="E711" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F711" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G711" t="s">
+        <v>2279</v>
+      </c>
       <c r="H711" t="s">
         <v>55</v>
       </c>
@@ -35172,6 +36378,15 @@
       <c r="D712" t="s">
         <v>1</v>
       </c>
+      <c r="E712" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F712" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G712" t="s">
+        <v>2279</v>
+      </c>
       <c r="H712" t="s">
         <v>55</v>
       </c>
@@ -35204,6 +36419,15 @@
       <c r="D713" t="s">
         <v>1</v>
       </c>
+      <c r="E713" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F713" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G713" t="s">
+        <v>2279</v>
+      </c>
       <c r="H713" t="s">
         <v>55</v>
       </c>
@@ -35236,6 +36460,15 @@
       <c r="D714" t="s">
         <v>1</v>
       </c>
+      <c r="E714" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F714" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G714" t="s">
+        <v>2279</v>
+      </c>
       <c r="H714" t="s">
         <v>55</v>
       </c>
@@ -35268,6 +36501,15 @@
       <c r="D715" t="s">
         <v>1</v>
       </c>
+      <c r="E715" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F715" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G715" t="s">
+        <v>2279</v>
+      </c>
       <c r="H715" t="s">
         <v>55</v>
       </c>
@@ -35300,6 +36542,15 @@
       <c r="D716" t="s">
         <v>1</v>
       </c>
+      <c r="E716" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F716" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G716" t="s">
+        <v>2279</v>
+      </c>
       <c r="H716" t="s">
         <v>55</v>
       </c>
@@ -35332,6 +36583,15 @@
       <c r="D717" t="s">
         <v>1</v>
       </c>
+      <c r="E717" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F717" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G717" t="s">
+        <v>2279</v>
+      </c>
       <c r="H717" t="s">
         <v>55</v>
       </c>
@@ -35364,6 +36624,15 @@
       <c r="D718" t="s">
         <v>1</v>
       </c>
+      <c r="E718" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F718" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G718" t="s">
+        <v>2279</v>
+      </c>
       <c r="H718" t="s">
         <v>55</v>
       </c>
@@ -35396,6 +36665,15 @@
       <c r="D719" t="s">
         <v>1</v>
       </c>
+      <c r="E719" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F719" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G719" t="s">
+        <v>2279</v>
+      </c>
       <c r="H719" t="s">
         <v>55</v>
       </c>
@@ -35428,6 +36706,15 @@
       <c r="D720" t="s">
         <v>1</v>
       </c>
+      <c r="E720" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F720" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G720" t="s">
+        <v>2279</v>
+      </c>
       <c r="H720" t="s">
         <v>55</v>
       </c>
@@ -35460,6 +36747,15 @@
       <c r="D721" t="s">
         <v>1</v>
       </c>
+      <c r="E721" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F721" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G721" t="s">
+        <v>2279</v>
+      </c>
       <c r="H721" t="s">
         <v>55</v>
       </c>
@@ -35492,6 +36788,15 @@
       <c r="D722" t="s">
         <v>1</v>
       </c>
+      <c r="E722" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F722" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G722" t="s">
+        <v>2279</v>
+      </c>
       <c r="H722" t="s">
         <v>55</v>
       </c>
@@ -35524,6 +36829,15 @@
       <c r="D723" t="s">
         <v>1</v>
       </c>
+      <c r="E723" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F723" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G723" t="s">
+        <v>2279</v>
+      </c>
       <c r="H723" t="s">
         <v>55</v>
       </c>
@@ -35556,6 +36870,15 @@
       <c r="D724" t="s">
         <v>1</v>
       </c>
+      <c r="E724" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F724" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G724" t="s">
+        <v>2279</v>
+      </c>
       <c r="H724" t="s">
         <v>55</v>
       </c>
@@ -35588,6 +36911,15 @@
       <c r="D725" t="s">
         <v>1</v>
       </c>
+      <c r="E725" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F725" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G725" t="s">
+        <v>2279</v>
+      </c>
       <c r="H725" t="s">
         <v>55</v>
       </c>
@@ -35620,6 +36952,15 @@
       <c r="D726" t="s">
         <v>1</v>
       </c>
+      <c r="E726" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F726" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G726" t="s">
+        <v>2279</v>
+      </c>
       <c r="H726" t="s">
         <v>55</v>
       </c>
@@ -35652,6 +36993,15 @@
       <c r="D727" t="s">
         <v>1</v>
       </c>
+      <c r="E727" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F727" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G727" t="s">
+        <v>2279</v>
+      </c>
       <c r="H727" t="s">
         <v>55</v>
       </c>
@@ -35684,6 +37034,15 @@
       <c r="D728" t="s">
         <v>1</v>
       </c>
+      <c r="E728" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F728" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G728" t="s">
+        <v>2279</v>
+      </c>
       <c r="H728" t="s">
         <v>55</v>
       </c>
@@ -35716,6 +37075,15 @@
       <c r="D729" t="s">
         <v>1</v>
       </c>
+      <c r="E729" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F729" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G729" t="s">
+        <v>2279</v>
+      </c>
       <c r="H729" t="s">
         <v>55</v>
       </c>
@@ -35748,6 +37116,15 @@
       <c r="D730" t="s">
         <v>1</v>
       </c>
+      <c r="E730" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F730" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G730" t="s">
+        <v>2279</v>
+      </c>
       <c r="H730" t="s">
         <v>55</v>
       </c>
@@ -35780,6 +37157,15 @@
       <c r="D731" t="s">
         <v>1</v>
       </c>
+      <c r="E731" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F731" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G731" t="s">
+        <v>2279</v>
+      </c>
       <c r="H731" t="s">
         <v>55</v>
       </c>
@@ -35812,6 +37198,15 @@
       <c r="D732" t="s">
         <v>1</v>
       </c>
+      <c r="E732" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F732" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G732" t="s">
+        <v>2279</v>
+      </c>
       <c r="H732" t="s">
         <v>55</v>
       </c>
@@ -35844,6 +37239,15 @@
       <c r="D733" t="s">
         <v>1</v>
       </c>
+      <c r="E733" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F733" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G733" t="s">
+        <v>2279</v>
+      </c>
       <c r="H733" t="s">
         <v>55</v>
       </c>
@@ -35876,6 +37280,15 @@
       <c r="D734" t="s">
         <v>1</v>
       </c>
+      <c r="E734" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F734" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G734" t="s">
+        <v>2279</v>
+      </c>
       <c r="H734" t="s">
         <v>55</v>
       </c>
@@ -35908,6 +37321,15 @@
       <c r="D735" t="s">
         <v>1</v>
       </c>
+      <c r="E735" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F735" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G735" t="s">
+        <v>2279</v>
+      </c>
       <c r="H735" t="s">
         <v>55</v>
       </c>
@@ -35940,6 +37362,15 @@
       <c r="D736" t="s">
         <v>1</v>
       </c>
+      <c r="E736" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F736" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G736" t="s">
+        <v>2279</v>
+      </c>
       <c r="H736" t="s">
         <v>55</v>
       </c>
@@ -35972,6 +37403,15 @@
       <c r="D737" t="s">
         <v>1</v>
       </c>
+      <c r="E737" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F737" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G737" t="s">
+        <v>2279</v>
+      </c>
       <c r="H737" t="s">
         <v>55</v>
       </c>
@@ -36004,6 +37444,15 @@
       <c r="D738" t="s">
         <v>1</v>
       </c>
+      <c r="E738" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F738" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G738" t="s">
+        <v>2279</v>
+      </c>
       <c r="H738" t="s">
         <v>55</v>
       </c>
@@ -36036,6 +37485,15 @@
       <c r="D739" t="s">
         <v>1</v>
       </c>
+      <c r="E739" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F739" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G739" t="s">
+        <v>2279</v>
+      </c>
       <c r="H739" t="s">
         <v>55</v>
       </c>
@@ -36068,6 +37526,15 @@
       <c r="D740" t="s">
         <v>1</v>
       </c>
+      <c r="E740" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F740" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G740" t="s">
+        <v>2279</v>
+      </c>
       <c r="H740" t="s">
         <v>55</v>
       </c>
@@ -36100,6 +37567,15 @@
       <c r="D741" t="s">
         <v>1</v>
       </c>
+      <c r="E741" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F741" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G741" t="s">
+        <v>2279</v>
+      </c>
       <c r="H741" t="s">
         <v>55</v>
       </c>
@@ -36132,6 +37608,15 @@
       <c r="D742" t="s">
         <v>1</v>
       </c>
+      <c r="E742" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F742" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G742" t="s">
+        <v>2279</v>
+      </c>
       <c r="H742" t="s">
         <v>55</v>
       </c>
@@ -36164,6 +37649,15 @@
       <c r="D743" t="s">
         <v>1</v>
       </c>
+      <c r="E743" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F743" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G743" t="s">
+        <v>2279</v>
+      </c>
       <c r="H743" t="s">
         <v>55</v>
       </c>
@@ -36196,6 +37690,15 @@
       <c r="D744" t="s">
         <v>1</v>
       </c>
+      <c r="E744" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F744" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G744" t="s">
+        <v>2279</v>
+      </c>
       <c r="H744" t="s">
         <v>55</v>
       </c>
@@ -36228,6 +37731,15 @@
       <c r="D745" t="s">
         <v>1</v>
       </c>
+      <c r="E745" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F745" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G745" t="s">
+        <v>2279</v>
+      </c>
       <c r="H745" t="s">
         <v>55</v>
       </c>
@@ -36260,6 +37772,15 @@
       <c r="D746" t="s">
         <v>1</v>
       </c>
+      <c r="E746" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F746" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G746" t="s">
+        <v>2279</v>
+      </c>
       <c r="H746" t="s">
         <v>55</v>
       </c>
@@ -36292,6 +37813,15 @@
       <c r="D747" t="s">
         <v>1</v>
       </c>
+      <c r="E747" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F747" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G747" t="s">
+        <v>2279</v>
+      </c>
       <c r="H747" t="s">
         <v>55</v>
       </c>
@@ -36324,6 +37854,15 @@
       <c r="D748" t="s">
         <v>1</v>
       </c>
+      <c r="E748" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F748" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G748" t="s">
+        <v>2279</v>
+      </c>
       <c r="H748" t="s">
         <v>55</v>
       </c>
@@ -36356,6 +37895,15 @@
       <c r="D749" t="s">
         <v>1</v>
       </c>
+      <c r="E749" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F749" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G749" t="s">
+        <v>2279</v>
+      </c>
       <c r="H749" t="s">
         <v>55</v>
       </c>
@@ -36388,6 +37936,15 @@
       <c r="D750" t="s">
         <v>1</v>
       </c>
+      <c r="E750" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F750" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G750" t="s">
+        <v>2279</v>
+      </c>
       <c r="H750" t="s">
         <v>55</v>
       </c>
@@ -36420,6 +37977,15 @@
       <c r="D751" t="s">
         <v>1</v>
       </c>
+      <c r="E751" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F751" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G751" t="s">
+        <v>2279</v>
+      </c>
       <c r="H751" t="s">
         <v>55</v>
       </c>
@@ -36452,6 +38018,15 @@
       <c r="D752" t="s">
         <v>1</v>
       </c>
+      <c r="E752" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F752" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G752" t="s">
+        <v>2279</v>
+      </c>
       <c r="H752" t="s">
         <v>55</v>
       </c>
@@ -36484,6 +38059,15 @@
       <c r="D753" t="s">
         <v>1</v>
       </c>
+      <c r="E753" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F753" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G753" t="s">
+        <v>2279</v>
+      </c>
       <c r="H753" t="s">
         <v>55</v>
       </c>
@@ -36516,6 +38100,15 @@
       <c r="D754" t="s">
         <v>1</v>
       </c>
+      <c r="E754" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F754" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G754" t="s">
+        <v>2279</v>
+      </c>
       <c r="H754" t="s">
         <v>55</v>
       </c>
@@ -36548,6 +38141,15 @@
       <c r="D755" t="s">
         <v>1</v>
       </c>
+      <c r="E755" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F755" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G755" t="s">
+        <v>2279</v>
+      </c>
       <c r="H755" t="s">
         <v>55</v>
       </c>
@@ -36580,6 +38182,15 @@
       <c r="D756" t="s">
         <v>1</v>
       </c>
+      <c r="E756" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F756" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G756" t="s">
+        <v>2279</v>
+      </c>
       <c r="H756" t="s">
         <v>55</v>
       </c>
@@ -36612,6 +38223,15 @@
       <c r="D757" t="s">
         <v>1</v>
       </c>
+      <c r="E757" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F757" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G757" t="s">
+        <v>2279</v>
+      </c>
       <c r="H757" t="s">
         <v>55</v>
       </c>
@@ -36644,6 +38264,15 @@
       <c r="D758" t="s">
         <v>1</v>
       </c>
+      <c r="E758" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F758" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G758" t="s">
+        <v>2279</v>
+      </c>
       <c r="H758" t="s">
         <v>55</v>
       </c>
@@ -36676,6 +38305,15 @@
       <c r="D759" t="s">
         <v>1</v>
       </c>
+      <c r="E759" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F759" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G759" t="s">
+        <v>2279</v>
+      </c>
       <c r="H759" t="s">
         <v>55</v>
       </c>
@@ -36708,6 +38346,15 @@
       <c r="D760" t="s">
         <v>1</v>
       </c>
+      <c r="E760" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F760" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G760" t="s">
+        <v>2279</v>
+      </c>
       <c r="H760" t="s">
         <v>55</v>
       </c>
@@ -36740,6 +38387,15 @@
       <c r="D761" t="s">
         <v>1</v>
       </c>
+      <c r="E761" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F761" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G761" t="s">
+        <v>2279</v>
+      </c>
       <c r="H761" t="s">
         <v>55</v>
       </c>
@@ -36772,6 +38428,15 @@
       <c r="D762" t="s">
         <v>1</v>
       </c>
+      <c r="E762" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F762" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G762" t="s">
+        <v>2279</v>
+      </c>
       <c r="H762" t="s">
         <v>55</v>
       </c>
@@ -36804,6 +38469,15 @@
       <c r="D763" t="s">
         <v>1</v>
       </c>
+      <c r="E763" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F763" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G763" t="s">
+        <v>2279</v>
+      </c>
       <c r="H763" t="s">
         <v>55</v>
       </c>
@@ -36836,6 +38510,15 @@
       <c r="D764" t="s">
         <v>1</v>
       </c>
+      <c r="E764" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F764" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G764" t="s">
+        <v>2279</v>
+      </c>
       <c r="H764" t="s">
         <v>55</v>
       </c>
@@ -36868,6 +38551,15 @@
       <c r="D765" t="s">
         <v>1</v>
       </c>
+      <c r="E765" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F765" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G765" t="s">
+        <v>2279</v>
+      </c>
       <c r="H765" t="s">
         <v>55</v>
       </c>
@@ -36900,6 +38592,15 @@
       <c r="D766" t="s">
         <v>1</v>
       </c>
+      <c r="E766" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F766" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G766" t="s">
+        <v>2279</v>
+      </c>
       <c r="H766" t="s">
         <v>55</v>
       </c>
@@ -36932,6 +38633,15 @@
       <c r="D767" t="s">
         <v>1</v>
       </c>
+      <c r="E767" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F767" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G767" t="s">
+        <v>2279</v>
+      </c>
       <c r="H767" t="s">
         <v>55</v>
       </c>
@@ -36964,6 +38674,15 @@
       <c r="D768" t="s">
         <v>1</v>
       </c>
+      <c r="E768" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F768" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G768" t="s">
+        <v>2279</v>
+      </c>
       <c r="H768" t="s">
         <v>55</v>
       </c>
@@ -36996,6 +38715,15 @@
       <c r="D769" t="s">
         <v>1</v>
       </c>
+      <c r="E769" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F769" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G769" t="s">
+        <v>2279</v>
+      </c>
       <c r="H769" t="s">
         <v>55</v>
       </c>
@@ -37028,6 +38756,15 @@
       <c r="D770" t="s">
         <v>1</v>
       </c>
+      <c r="E770" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F770" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G770" t="s">
+        <v>2279</v>
+      </c>
       <c r="H770" t="s">
         <v>55</v>
       </c>
@@ -37060,6 +38797,15 @@
       <c r="D771" t="s">
         <v>1</v>
       </c>
+      <c r="E771" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F771" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G771" t="s">
+        <v>2279</v>
+      </c>
       <c r="H771" t="s">
         <v>55</v>
       </c>
@@ -37092,6 +38838,15 @@
       <c r="D772" t="s">
         <v>1</v>
       </c>
+      <c r="E772" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F772" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G772" t="s">
+        <v>2279</v>
+      </c>
       <c r="H772" t="s">
         <v>55</v>
       </c>
@@ -37124,6 +38879,15 @@
       <c r="D773" t="s">
         <v>1</v>
       </c>
+      <c r="E773" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F773" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G773" t="s">
+        <v>2279</v>
+      </c>
       <c r="H773" t="s">
         <v>55</v>
       </c>
@@ -37156,6 +38920,15 @@
       <c r="D774" t="s">
         <v>1</v>
       </c>
+      <c r="E774" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F774" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G774" t="s">
+        <v>2279</v>
+      </c>
       <c r="H774" t="s">
         <v>55</v>
       </c>
@@ -37188,6 +38961,15 @@
       <c r="D775" t="s">
         <v>1</v>
       </c>
+      <c r="E775" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F775" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G775" t="s">
+        <v>2279</v>
+      </c>
       <c r="H775" t="s">
         <v>55</v>
       </c>
@@ -37220,6 +39002,15 @@
       <c r="D776" t="s">
         <v>1</v>
       </c>
+      <c r="E776" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F776" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G776" t="s">
+        <v>2279</v>
+      </c>
       <c r="H776" t="s">
         <v>55</v>
       </c>
@@ -37252,6 +39043,15 @@
       <c r="D777" t="s">
         <v>1</v>
       </c>
+      <c r="E777" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F777" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G777" t="s">
+        <v>2279</v>
+      </c>
       <c r="H777" t="s">
         <v>55</v>
       </c>
@@ -37284,6 +39084,15 @@
       <c r="D778" t="s">
         <v>1</v>
       </c>
+      <c r="E778" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F778" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G778" t="s">
+        <v>2279</v>
+      </c>
       <c r="H778" t="s">
         <v>55</v>
       </c>
@@ -37316,6 +39125,15 @@
       <c r="D779" t="s">
         <v>1</v>
       </c>
+      <c r="E779" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F779" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G779" t="s">
+        <v>2279</v>
+      </c>
       <c r="H779" t="s">
         <v>55</v>
       </c>
@@ -37348,6 +39166,15 @@
       <c r="D780" t="s">
         <v>1</v>
       </c>
+      <c r="E780" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F780" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G780" t="s">
+        <v>2279</v>
+      </c>
       <c r="H780" t="s">
         <v>55</v>
       </c>
@@ -37380,6 +39207,15 @@
       <c r="D781" t="s">
         <v>1</v>
       </c>
+      <c r="E781" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F781" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G781" t="s">
+        <v>2279</v>
+      </c>
       <c r="H781" t="s">
         <v>55</v>
       </c>
@@ -37412,6 +39248,15 @@
       <c r="D782" t="s">
         <v>1</v>
       </c>
+      <c r="E782" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F782" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G782" t="s">
+        <v>2279</v>
+      </c>
       <c r="H782" t="s">
         <v>55</v>
       </c>
@@ -37444,6 +39289,15 @@
       <c r="D783" t="s">
         <v>1</v>
       </c>
+      <c r="E783" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F783" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G783" t="s">
+        <v>2279</v>
+      </c>
       <c r="H783" t="s">
         <v>55</v>
       </c>
@@ -37476,6 +39330,15 @@
       <c r="D784" t="s">
         <v>266</v>
       </c>
+      <c r="E784" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F784" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G784" t="s">
+        <v>2279</v>
+      </c>
       <c r="H784" t="s">
         <v>55</v>
       </c>
@@ -37508,6 +39371,15 @@
       <c r="D785" t="s">
         <v>1</v>
       </c>
+      <c r="E785" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F785" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G785" t="s">
+        <v>2279</v>
+      </c>
       <c r="H785" t="s">
         <v>55</v>
       </c>
@@ -37540,6 +39412,15 @@
       <c r="D786" t="s">
         <v>1</v>
       </c>
+      <c r="E786" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F786" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G786" t="s">
+        <v>2279</v>
+      </c>
       <c r="H786" t="s">
         <v>55</v>
       </c>
@@ -37572,6 +39453,15 @@
       <c r="D787" t="s">
         <v>1</v>
       </c>
+      <c r="E787" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F787" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G787" t="s">
+        <v>2279</v>
+      </c>
       <c r="H787" t="s">
         <v>55</v>
       </c>
@@ -37604,6 +39494,15 @@
       <c r="D788" t="s">
         <v>1</v>
       </c>
+      <c r="E788" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F788" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G788" t="s">
+        <v>2279</v>
+      </c>
       <c r="H788" t="s">
         <v>55</v>
       </c>
@@ -37636,6 +39535,15 @@
       <c r="D789" t="s">
         <v>1</v>
       </c>
+      <c r="E789" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F789" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G789" t="s">
+        <v>2279</v>
+      </c>
       <c r="H789" t="s">
         <v>55</v>
       </c>
@@ -37668,6 +39576,15 @@
       <c r="D790" t="s">
         <v>1</v>
       </c>
+      <c r="E790" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F790" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G790" t="s">
+        <v>2279</v>
+      </c>
       <c r="H790" t="s">
         <v>55</v>
       </c>
@@ -37700,6 +39617,15 @@
       <c r="D791" t="s">
         <v>1</v>
       </c>
+      <c r="E791" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F791" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G791" t="s">
+        <v>2279</v>
+      </c>
       <c r="H791" t="s">
         <v>55</v>
       </c>
@@ -37732,6 +39658,15 @@
       <c r="D792" t="s">
         <v>1</v>
       </c>
+      <c r="E792" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F792" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G792" t="s">
+        <v>2279</v>
+      </c>
       <c r="H792" t="s">
         <v>55</v>
       </c>
@@ -37764,6 +39699,15 @@
       <c r="D793" t="s">
         <v>1</v>
       </c>
+      <c r="E793" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F793" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G793" t="s">
+        <v>2279</v>
+      </c>
       <c r="H793" t="s">
         <v>55</v>
       </c>
@@ -37796,6 +39740,15 @@
       <c r="D794" t="s">
         <v>1</v>
       </c>
+      <c r="E794" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F794" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G794" t="s">
+        <v>2279</v>
+      </c>
       <c r="H794" t="s">
         <v>55</v>
       </c>
@@ -37828,6 +39781,15 @@
       <c r="D795" t="s">
         <v>1</v>
       </c>
+      <c r="E795" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F795" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G795" t="s">
+        <v>2279</v>
+      </c>
       <c r="H795" t="s">
         <v>55</v>
       </c>
@@ -37860,6 +39822,15 @@
       <c r="D796" t="s">
         <v>1</v>
       </c>
+      <c r="E796" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F796" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G796" t="s">
+        <v>2279</v>
+      </c>
       <c r="H796" t="s">
         <v>55</v>
       </c>
@@ -37892,6 +39863,15 @@
       <c r="D797" t="s">
         <v>1</v>
       </c>
+      <c r="E797" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F797" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G797" t="s">
+        <v>2279</v>
+      </c>
       <c r="H797" t="s">
         <v>55</v>
       </c>
@@ -37924,6 +39904,15 @@
       <c r="D798" t="s">
         <v>1</v>
       </c>
+      <c r="E798" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F798" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G798" t="s">
+        <v>2279</v>
+      </c>
       <c r="H798" t="s">
         <v>55</v>
       </c>
@@ -37956,6 +39945,15 @@
       <c r="D799" t="s">
         <v>1</v>
       </c>
+      <c r="E799" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F799" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G799" t="s">
+        <v>2279</v>
+      </c>
       <c r="H799" t="s">
         <v>55</v>
       </c>
@@ -37988,6 +39986,15 @@
       <c r="D800" t="s">
         <v>1</v>
       </c>
+      <c r="E800" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F800" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G800" t="s">
+        <v>2279</v>
+      </c>
       <c r="H800" t="s">
         <v>55</v>
       </c>
@@ -38020,6 +40027,15 @@
       <c r="D801" t="s">
         <v>111</v>
       </c>
+      <c r="E801" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F801" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G801" t="s">
+        <v>2279</v>
+      </c>
       <c r="H801" t="s">
         <v>55</v>
       </c>
@@ -38052,6 +40068,15 @@
       <c r="D802" t="s">
         <v>1</v>
       </c>
+      <c r="E802" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F802" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G802" t="s">
+        <v>2279</v>
+      </c>
       <c r="H802" t="s">
         <v>55</v>
       </c>
@@ -38084,6 +40109,15 @@
       <c r="D803" t="s">
         <v>1</v>
       </c>
+      <c r="E803" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F803" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G803" t="s">
+        <v>2279</v>
+      </c>
       <c r="H803" t="s">
         <v>55</v>
       </c>
@@ -38116,6 +40150,15 @@
       <c r="D804" t="s">
         <v>1</v>
       </c>
+      <c r="E804" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F804" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G804" t="s">
+        <v>2279</v>
+      </c>
       <c r="H804" t="s">
         <v>55</v>
       </c>
@@ -38148,6 +40191,15 @@
       <c r="D805" t="s">
         <v>1</v>
       </c>
+      <c r="E805" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F805" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G805" t="s">
+        <v>2279</v>
+      </c>
       <c r="H805" t="s">
         <v>55</v>
       </c>
@@ -38180,6 +40232,15 @@
       <c r="D806" t="s">
         <v>1</v>
       </c>
+      <c r="E806" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F806" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G806" t="s">
+        <v>2279</v>
+      </c>
       <c r="H806" t="s">
         <v>55</v>
       </c>
@@ -38212,6 +40273,15 @@
       <c r="D807" t="s">
         <v>1</v>
       </c>
+      <c r="E807" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F807" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G807" t="s">
+        <v>2279</v>
+      </c>
       <c r="H807" t="s">
         <v>55</v>
       </c>
@@ -38244,6 +40314,15 @@
       <c r="D808" t="s">
         <v>1</v>
       </c>
+      <c r="E808" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F808" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G808" t="s">
+        <v>2279</v>
+      </c>
       <c r="H808" t="s">
         <v>55</v>
       </c>
@@ -38276,6 +40355,15 @@
       <c r="D809" t="s">
         <v>1</v>
       </c>
+      <c r="E809" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F809" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G809" t="s">
+        <v>2279</v>
+      </c>
       <c r="H809" t="s">
         <v>55</v>
       </c>
@@ -38308,6 +40396,15 @@
       <c r="D810" t="s">
         <v>1</v>
       </c>
+      <c r="E810" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F810" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G810" t="s">
+        <v>2279</v>
+      </c>
       <c r="H810" t="s">
         <v>55</v>
       </c>
@@ -38340,6 +40437,15 @@
       <c r="D811" t="s">
         <v>1</v>
       </c>
+      <c r="E811" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F811" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G811" t="s">
+        <v>2279</v>
+      </c>
       <c r="H811" t="s">
         <v>55</v>
       </c>
@@ -38372,6 +40478,15 @@
       <c r="D812" t="s">
         <v>1</v>
       </c>
+      <c r="E812" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F812" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G812" t="s">
+        <v>2279</v>
+      </c>
       <c r="H812" t="s">
         <v>55</v>
       </c>
@@ -38404,6 +40519,15 @@
       <c r="D813" t="s">
         <v>1</v>
       </c>
+      <c r="E813" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F813" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G813" t="s">
+        <v>2279</v>
+      </c>
       <c r="H813" t="s">
         <v>55</v>
       </c>
@@ -38436,6 +40560,15 @@
       <c r="D814" t="s">
         <v>12</v>
       </c>
+      <c r="E814" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F814" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G814" t="s">
+        <v>2279</v>
+      </c>
       <c r="H814" t="s">
         <v>55</v>
       </c>
@@ -38468,6 +40601,15 @@
       <c r="D815" t="s">
         <v>21</v>
       </c>
+      <c r="E815" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F815" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G815" t="s">
+        <v>2279</v>
+      </c>
       <c r="H815" t="s">
         <v>55</v>
       </c>
@@ -38500,6 +40642,15 @@
       <c r="D816" t="s">
         <v>24</v>
       </c>
+      <c r="E816" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F816" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G816" t="s">
+        <v>2279</v>
+      </c>
       <c r="H816" t="s">
         <v>55</v>
       </c>
@@ -38532,6 +40683,15 @@
       <c r="D817" t="s">
         <v>31</v>
       </c>
+      <c r="E817" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F817" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G817" t="s">
+        <v>2279</v>
+      </c>
       <c r="H817" t="s">
         <v>55</v>
       </c>
@@ -38564,6 +40724,15 @@
       <c r="D818" t="s">
         <v>1</v>
       </c>
+      <c r="E818" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F818" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G818" t="s">
+        <v>2279</v>
+      </c>
       <c r="H818" t="s">
         <v>55</v>
       </c>
@@ -38596,6 +40765,15 @@
       <c r="D819" t="s">
         <v>1</v>
       </c>
+      <c r="E819" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F819" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G819" t="s">
+        <v>2279</v>
+      </c>
       <c r="H819" t="s">
         <v>55</v>
       </c>
@@ -38628,6 +40806,15 @@
       <c r="D820" t="s">
         <v>143</v>
       </c>
+      <c r="E820" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F820" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G820" t="s">
+        <v>2279</v>
+      </c>
       <c r="H820" t="s">
         <v>55</v>
       </c>
@@ -38660,6 +40847,15 @@
       <c r="D821" t="s">
         <v>1</v>
       </c>
+      <c r="E821" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F821" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G821" t="s">
+        <v>2279</v>
+      </c>
       <c r="H821" t="s">
         <v>55</v>
       </c>
@@ -38692,6 +40888,15 @@
       <c r="D822" t="s">
         <v>1</v>
       </c>
+      <c r="E822" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F822" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G822" t="s">
+        <v>2279</v>
+      </c>
       <c r="H822" t="s">
         <v>55</v>
       </c>
@@ -38724,6 +40929,15 @@
       <c r="D823" t="s">
         <v>171</v>
       </c>
+      <c r="E823" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F823" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G823" t="s">
+        <v>2279</v>
+      </c>
       <c r="H823" t="s">
         <v>55</v>
       </c>
@@ -38756,6 +40970,15 @@
       <c r="D824" t="s">
         <v>1</v>
       </c>
+      <c r="E824" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F824" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G824" t="s">
+        <v>2279</v>
+      </c>
       <c r="H824" t="s">
         <v>55</v>
       </c>
@@ -38788,6 +41011,15 @@
       <c r="D825" t="s">
         <v>210</v>
       </c>
+      <c r="E825" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F825" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G825" t="s">
+        <v>2279</v>
+      </c>
       <c r="H825" t="s">
         <v>55</v>
       </c>
@@ -38820,6 +41052,15 @@
       <c r="D826" t="s">
         <v>1</v>
       </c>
+      <c r="E826" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F826" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G826" t="s">
+        <v>2279</v>
+      </c>
       <c r="H826" t="s">
         <v>55</v>
       </c>
@@ -38852,6 +41093,15 @@
       <c r="D827" t="s">
         <v>171</v>
       </c>
+      <c r="E827" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F827" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G827" t="s">
+        <v>2279</v>
+      </c>
       <c r="H827" t="s">
         <v>55</v>
       </c>
@@ -38884,6 +41134,15 @@
       <c r="D828" t="s">
         <v>266</v>
       </c>
+      <c r="E828" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F828" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G828" t="s">
+        <v>2279</v>
+      </c>
       <c r="H828" t="s">
         <v>55</v>
       </c>
@@ -38916,6 +41175,15 @@
       <c r="D829" t="s">
         <v>1</v>
       </c>
+      <c r="E829" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F829" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G829" t="s">
+        <v>2279</v>
+      </c>
       <c r="H829" t="s">
         <v>55</v>
       </c>
@@ -38948,6 +41216,15 @@
       <c r="D830" t="s">
         <v>12</v>
       </c>
+      <c r="E830" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F830" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G830" t="s">
+        <v>2279</v>
+      </c>
       <c r="H830" t="s">
         <v>55</v>
       </c>
@@ -38980,6 +41257,15 @@
       <c r="D831" t="s">
         <v>1</v>
       </c>
+      <c r="E831" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F831" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G831" t="s">
+        <v>2279</v>
+      </c>
       <c r="H831" t="s">
         <v>55</v>
       </c>
@@ -39012,6 +41298,15 @@
       <c r="D832" t="s">
         <v>1</v>
       </c>
+      <c r="E832" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F832" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G832" t="s">
+        <v>2279</v>
+      </c>
       <c r="H832" t="s">
         <v>55</v>
       </c>
@@ -39044,6 +41339,15 @@
       <c r="D833" t="s">
         <v>1</v>
       </c>
+      <c r="E833" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F833" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G833" t="s">
+        <v>2279</v>
+      </c>
       <c r="H833" t="s">
         <v>55</v>
       </c>
@@ -39076,6 +41380,15 @@
       <c r="D834" t="s">
         <v>1</v>
       </c>
+      <c r="E834" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F834" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G834" t="s">
+        <v>2279</v>
+      </c>
       <c r="H834" t="s">
         <v>55</v>
       </c>
@@ -39108,6 +41421,15 @@
       <c r="D835" t="s">
         <v>1</v>
       </c>
+      <c r="E835" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F835" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G835" t="s">
+        <v>2279</v>
+      </c>
       <c r="H835" t="s">
         <v>55</v>
       </c>
@@ -39140,6 +41462,15 @@
       <c r="D836" t="s">
         <v>1</v>
       </c>
+      <c r="E836" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F836" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G836" t="s">
+        <v>2279</v>
+      </c>
       <c r="H836" t="s">
         <v>55</v>
       </c>
@@ -39172,6 +41503,15 @@
       <c r="D837" t="s">
         <v>171</v>
       </c>
+      <c r="E837" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F837" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G837" t="s">
+        <v>2279</v>
+      </c>
       <c r="H837" t="s">
         <v>55</v>
       </c>
@@ -39204,6 +41544,15 @@
       <c r="D838" t="s">
         <v>411</v>
       </c>
+      <c r="E838" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F838" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G838" t="s">
+        <v>2279</v>
+      </c>
       <c r="H838" t="s">
         <v>55</v>
       </c>
@@ -39236,6 +41585,15 @@
       <c r="D839" t="s">
         <v>1</v>
       </c>
+      <c r="E839" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F839" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G839" t="s">
+        <v>2279</v>
+      </c>
       <c r="H839" t="s">
         <v>55</v>
       </c>
@@ -39268,6 +41626,15 @@
       <c r="D840" t="s">
         <v>240</v>
       </c>
+      <c r="E840" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F840" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G840" t="s">
+        <v>2279</v>
+      </c>
       <c r="H840" t="s">
         <v>55</v>
       </c>
@@ -39300,6 +41667,15 @@
       <c r="D841" t="s">
         <v>1</v>
       </c>
+      <c r="E841" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F841" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G841" t="s">
+        <v>2279</v>
+      </c>
       <c r="H841" t="s">
         <v>55</v>
       </c>
@@ -39332,6 +41708,15 @@
       <c r="D842" t="s">
         <v>171</v>
       </c>
+      <c r="E842" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F842" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G842" t="s">
+        <v>2279</v>
+      </c>
       <c r="H842" t="s">
         <v>55</v>
       </c>
@@ -39364,6 +41749,15 @@
       <c r="D843" t="s">
         <v>12</v>
       </c>
+      <c r="E843" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F843" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G843" t="s">
+        <v>2279</v>
+      </c>
       <c r="H843" t="s">
         <v>55</v>
       </c>
@@ -39396,6 +41790,15 @@
       <c r="D844" t="s">
         <v>111</v>
       </c>
+      <c r="E844" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F844" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G844" t="s">
+        <v>2279</v>
+      </c>
       <c r="H844" t="s">
         <v>55</v>
       </c>
@@ -39428,6 +41831,15 @@
       <c r="D845" t="s">
         <v>1</v>
       </c>
+      <c r="E845" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F845" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G845" t="s">
+        <v>2279</v>
+      </c>
       <c r="H845" t="s">
         <v>55</v>
       </c>
@@ -39460,6 +41872,15 @@
       <c r="D846" t="s">
         <v>104</v>
       </c>
+      <c r="E846" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F846" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G846" t="s">
+        <v>2279</v>
+      </c>
       <c r="H846" t="s">
         <v>55</v>
       </c>
@@ -39492,6 +41913,15 @@
       <c r="D847" t="s">
         <v>1</v>
       </c>
+      <c r="E847" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F847" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G847" t="s">
+        <v>2279</v>
+      </c>
       <c r="H847" t="s">
         <v>55</v>
       </c>
@@ -39523,6 +41953,15 @@
       </c>
       <c r="D848" t="s">
         <v>1</v>
+      </c>
+      <c r="E848" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F848" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G848" t="s">
+        <v>2279</v>
       </c>
       <c r="H848" t="s">
         <v>55</v>
